--- a/data/all_games_data.xlsx
+++ b/data/all_games_data.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12060"/>
+    <workbookView windowWidth="28000" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$137</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1205">
   <si>
     <t>名称</t>
   </si>
@@ -695,7 +698,7 @@
     <t>https://apps.apple.com/cn/app/%E5%A2%A8%E6%AD%A6%E4%BE%A0-%E6%AD%A6%E6%9E%97%E9%9C%B8%E4%B8%BB/id6738576720?uo=4</t>
   </si>
   <si>
-    <t>data:image/gif;base64,R0lGODlhAQABAIAAAAAAAP///yH5BAEAAAAALAAAAAABAAEAAAIBRAA7</t>
+    <t>https://img.71acg.net/kbyx/gicon/149763/20240309-00.png</t>
   </si>
   <si>
     <t>《墨武侠》是一款2.5DMMORPG手游，无职业、无等级设定，支持自由交易，满足你对江湖一切幻想的高自由度武侠世界
@@ -1358,6 +1361,9 @@
     <t>https://apps.apple.com/cn/app/%E4%B8%89%E5%9B%BD%E5%BF%97%E5%B9%BB%E6%83%B3%E5%A4%A7%E9%99%862-%E6%9E%AD%E4%B9%8B%E6%AD%8C/id6740899584?uo=4</t>
   </si>
   <si>
+    <t>data:image/gif;base64,R0lGODlhAQABAIAAAAAAAP///yH5BAEAAAAALAAAAAABAAEAAAIBRAA7</t>
+  </si>
+  <si>
     <t>1500万玩家的期待、畅销中日韩的《三国志幻想大陆》正统续作！
 这一次，你将以第一视角亲历三国少年们的成长史！在百万文字打造的剧情中，看见那些鲜活的人物，用生命与理想奏起壮丽的挽歌。不再受限于传统卡牌的约束，多方向的转职、更自由的羁绊搭配，让你可以尽情展现自己的策略才华。不论你是初来乍到，还是久别重逢，这场浪漫与热血并存的幻想之旅都在等你开启。
 【全新武将改造系统，一人就是一个流派】
@@ -2111,13 +2117,16 @@
     <t>深圳市中手游网络科技有限公司</t>
   </si>
   <si>
-    <t>暗区突围</t>
+    <t>暗区突围：无限</t>
   </si>
   <si>
     <t>2025-04-29</t>
   </si>
   <si>
-    <t>生存/硬核/高画质</t>
+    <t>电脑/主机</t>
+  </si>
+  <si>
+    <t>高画质/射击/动作</t>
   </si>
   <si>
     <t>腾讯</t>
@@ -2126,25 +2135,30 @@
     <t>TapTap</t>
   </si>
   <si>
-    <t>https://www.taptap.cn/app/221322</t>
-  </si>
-  <si>
-    <t>https://img.16p.com/auto/d9/c9/d9c9104cc871559c2896458e70de81bd.png</t>
-  </si>
-  <si>
-    <t>《暗区突围》是一款由腾讯魔方工作室自研的真硬核射击手游，打造了全新的沉浸式暗区战场体验！这是一个充满未知危险的战场，有高自由度的战术策略性，成功携带物资从暗区撤离是你的目标，你可以一路搜索物资满载而归，也有可能被人埋伏失去一切。</t>
-  </si>
-  <si>
-    <t>国新出审[2021]1073号</t>
-  </si>
-  <si>
-    <t>ISBN 978-7-498-09197-0</t>
-  </si>
-  <si>
-    <t>2021-06-11</t>
-  </si>
-  <si>
-    <t>上海纳原信息技术有限公司</t>
+    <t>https://www.taptap.cn/app/732013?os=pc</t>
+  </si>
+  <si>
+    <t>https://img.tapimg.com/market/images/516ee18b01ac81df77f368c1d30b8b68.jpg/appicon?t=1</t>
+  </si>
+  <si>
+    <t>《暗区突围：无限》是魔方工作室自研IP暗区突围的全新端游续作，是一款免费硬核军事模拟撤离式射击游戏。从手游到端游，体验前所未有的画质飞升！《暗区突围：无限》将你带入一个更加细腻、真实的战场；更通过端游的强大性能，带来焕然一新的沉浸式体验。
+为了获得战利品，你必须活着撤离战斗区域，在射击、掠夺和突围中获胜。你可以和敌人正面交锋、藏起来埋伏敌人，或避免交战。在这款身临其境的战争模拟游戏中，高风险等于高回报。
+扣下扳机，躲藏起来，在令人瞠目结舌的逼真视觉效果和音效体验中前进。闯入战斗竞技场获得高价值物品致富……但要做好为生存而战的准备！</t>
+  </si>
+  <si>
+    <t>国新出审〔2024〕1446号</t>
+  </si>
+  <si>
+    <t>ISBN 978-7-498-13705-0</t>
+  </si>
+  <si>
+    <t>华中科技大学电子音像出版社</t>
+  </si>
+  <si>
+    <t>武汉市风泽中孚科技有限公司</t>
+  </si>
+  <si>
+    <t>客户端</t>
   </si>
   <si>
     <t>黑色信标</t>
@@ -4407,7 +4421,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4418,13 +4432,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4892,28 +4899,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4922,126 +4932,126 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5390,14 +5400,15 @@
   <sheetPr/>
   <dimension ref="A1:W137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="24.3557692307692" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="17" max="17" width="10.9230769230769"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -5496,7 +5507,6 @@
       <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="I2"/>
       <c r="J2" t="s">
         <v>30</v>
       </c>
@@ -6565,7 +6575,7 @@
       <c r="J17" t="s">
         <v>180</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="2" t="s">
         <v>181</v>
       </c>
       <c r="L17" t="s">
@@ -7702,10 +7712,10 @@
         <v>338</v>
       </c>
       <c r="K33" t="s">
-        <v>181</v>
+        <v>339</v>
       </c>
       <c r="L33" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M33" t="s">
         <v>33</v>
@@ -7714,19 +7724,19 @@
         <v>334</v>
       </c>
       <c r="O33" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P33" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q33" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R33" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S33" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="T33" t="s">
         <v>39</v>
@@ -7743,7 +7753,7 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B34" t="s">
         <v>335</v>
@@ -7755,7 +7765,7 @@
         <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -7770,34 +7780,34 @@
         <v>42</v>
       </c>
       <c r="J34" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K34" t="s">
-        <v>181</v>
+        <v>339</v>
       </c>
       <c r="L34" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M34" t="s">
         <v>33</v>
       </c>
       <c r="N34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O34" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P34" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q34" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S34" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="T34" t="s">
         <v>39</v>
@@ -7814,10 +7824,10 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
@@ -7832,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H35" t="s">
         <v>29</v>
@@ -7841,25 +7851,25 @@
         <v>42</v>
       </c>
       <c r="J35" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K35" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L35" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M35" t="s">
         <v>33</v>
       </c>
       <c r="N35" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O35" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P35" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q35" t="s">
         <v>36</v>
@@ -7885,10 +7895,10 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
@@ -7897,13 +7907,13 @@
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H36" t="s">
         <v>29</v>
@@ -7912,34 +7922,34 @@
         <v>42</v>
       </c>
       <c r="J36" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K36" t="s">
-        <v>181</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M36" t="s">
         <v>33</v>
       </c>
       <c r="N36" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O36" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P36" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q36" t="s">
         <v>72</v>
       </c>
       <c r="R36" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="S36" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="T36" t="s">
         <v>39</v>
@@ -7956,61 +7966,61 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B37" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D37" t="s">
         <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F37">
         <v>8.9</v>
       </c>
       <c r="G37" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H37" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I37" t="s">
         <v>42</v>
       </c>
       <c r="J37" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K37" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L37" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M37" t="s">
         <v>33</v>
       </c>
       <c r="N37" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O37" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P37" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q37" t="s">
         <v>36</v>
       </c>
       <c r="R37" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S37" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T37" t="s">
         <v>39</v>
@@ -8027,10 +8037,10 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B38" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
@@ -8039,13 +8049,13 @@
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H38" t="s">
         <v>29</v>
@@ -8054,34 +8064,34 @@
         <v>42</v>
       </c>
       <c r="J38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K38" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L38" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M38" t="s">
         <v>33</v>
       </c>
       <c r="N38" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O38" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P38" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q38" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R38" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="S38" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="T38" t="s">
         <v>39</v>
@@ -8098,10 +8108,10 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B39" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
@@ -8116,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H39" t="s">
         <v>29</v>
@@ -8125,13 +8135,13 @@
         <v>42</v>
       </c>
       <c r="J39" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K39" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L39" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M39" t="s">
         <v>42</v>
@@ -8169,10 +8179,10 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B40" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
@@ -8187,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H40" t="s">
         <v>29</v>
@@ -8196,34 +8206,34 @@
         <v>42</v>
       </c>
       <c r="J40" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K40" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L40" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M40" t="s">
         <v>33</v>
       </c>
       <c r="N40" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O40" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P40" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q40" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="R40" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="S40" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="T40" t="s">
         <v>39</v>
@@ -8240,10 +8250,10 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B41" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C41" t="s">
         <v>25</v>
@@ -8258,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H41" t="s">
         <v>29</v>
@@ -8267,13 +8277,13 @@
         <v>42</v>
       </c>
       <c r="J41" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K41" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L41" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M41" t="s">
         <v>42</v>
@@ -8311,10 +8321,10 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B42" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
@@ -8329,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H42" t="s">
         <v>29</v>
@@ -8338,34 +8348,34 @@
         <v>42</v>
       </c>
       <c r="J42" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K42" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M42" t="s">
         <v>33</v>
       </c>
       <c r="N42" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O42" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P42" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q42" t="s">
         <v>152</v>
       </c>
       <c r="R42" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="S42" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="T42" t="s">
         <v>39</v>
@@ -8382,10 +8392,10 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B43" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C43" t="s">
         <v>25</v>
@@ -8400,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H43" t="s">
         <v>29</v>
@@ -8409,34 +8419,34 @@
         <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K43" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L43" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M43" t="s">
         <v>33</v>
       </c>
       <c r="N43" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O43" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P43" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q43" t="s">
         <v>217</v>
       </c>
       <c r="R43" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="S43" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="T43" t="s">
         <v>155</v>
@@ -8453,10 +8463,10 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B44" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C44" t="s">
         <v>25</v>
@@ -8465,13 +8475,13 @@
         <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H44" t="s">
         <v>29</v>
@@ -8480,25 +8490,25 @@
         <v>42</v>
       </c>
       <c r="J44" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K44" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L44" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M44" t="s">
         <v>33</v>
       </c>
       <c r="N44" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O44" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P44" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q44" t="s">
         <v>248</v>
@@ -8507,13 +8517,13 @@
         <v>123</v>
       </c>
       <c r="S44" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T44" t="s">
         <v>39</v>
       </c>
       <c r="U44" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="V44" t="s">
         <v>41</v>
@@ -8524,10 +8534,10 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B45" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
@@ -8542,43 +8552,43 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H45" t="s">
         <v>29</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J45" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K45" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L45" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M45" t="s">
         <v>33</v>
       </c>
       <c r="N45" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O45" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P45" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q45" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="R45" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="S45" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="T45" t="s">
         <v>155</v>
@@ -8595,10 +8605,10 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B46" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
@@ -8607,13 +8617,13 @@
         <v>26</v>
       </c>
       <c r="E46" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H46" t="s">
         <v>29</v>
@@ -8622,13 +8632,13 @@
         <v>42</v>
       </c>
       <c r="J46" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K46" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L46" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M46" t="s">
         <v>42</v>
@@ -8666,10 +8676,10 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B47" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C47" t="s">
         <v>25</v>
@@ -8684,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H47" t="s">
         <v>29</v>
@@ -8693,40 +8703,40 @@
         <v>42</v>
       </c>
       <c r="J47" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K47" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L47" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M47" t="s">
         <v>33</v>
       </c>
       <c r="N47" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O47" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P47" t="s">
         <v>42</v>
       </c>
       <c r="Q47" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="R47" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S47" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T47" t="s">
         <v>39</v>
       </c>
       <c r="U47" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="V47" t="s">
         <v>41</v>
@@ -8737,10 +8747,10 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B48" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C48" t="s">
         <v>25</v>
@@ -8749,13 +8759,13 @@
         <v>26</v>
       </c>
       <c r="E48" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H48" t="s">
         <v>29</v>
@@ -8764,34 +8774,34 @@
         <v>42</v>
       </c>
       <c r="J48" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K48" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L48" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M48" t="s">
         <v>33</v>
       </c>
       <c r="N48" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O48" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P48" t="s">
         <v>42</v>
       </c>
       <c r="Q48" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="R48" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="S48" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="T48" t="s">
         <v>39</v>
@@ -8808,10 +8818,10 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B49" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C49" t="s">
         <v>25</v>
@@ -8826,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H49" t="s">
         <v>29</v>
@@ -8835,13 +8845,13 @@
         <v>42</v>
       </c>
       <c r="J49" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K49" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L49" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M49" t="s">
         <v>42</v>
@@ -8879,10 +8889,10 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B50" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C50" t="s">
         <v>25</v>
@@ -8897,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H50" t="s">
         <v>29</v>
@@ -8906,13 +8916,13 @@
         <v>42</v>
       </c>
       <c r="J50" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K50" t="s">
-        <v>181</v>
+        <v>339</v>
       </c>
       <c r="L50" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M50" t="s">
         <v>42</v>
@@ -8950,10 +8960,10 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B51" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C51" t="s">
         <v>25</v>
@@ -8968,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H51" t="s">
         <v>29</v>
@@ -8977,34 +8987,34 @@
         <v>42</v>
       </c>
       <c r="J51" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K51" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L51" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M51" t="s">
         <v>33</v>
       </c>
       <c r="N51" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O51" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P51" t="s">
         <v>42</v>
       </c>
       <c r="Q51" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="R51" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="S51" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="T51" t="s">
         <v>39</v>
@@ -9021,10 +9031,10 @@
     </row>
     <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B52" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C52" t="s">
         <v>25</v>
@@ -9039,7 +9049,7 @@
         <v>9.1</v>
       </c>
       <c r="G52" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H52" t="s">
         <v>29</v>
@@ -9048,34 +9058,34 @@
         <v>42</v>
       </c>
       <c r="J52" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K52" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L52" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M52" t="s">
         <v>33</v>
       </c>
       <c r="N52" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O52" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P52" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q52" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="R52" t="s">
         <v>123</v>
       </c>
       <c r="S52" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="T52" t="s">
         <v>39</v>
@@ -9092,10 +9102,10 @@
     </row>
     <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B53" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C53" t="s">
         <v>25</v>
@@ -9104,13 +9114,13 @@
         <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H53" t="s">
         <v>29</v>
@@ -9119,13 +9129,13 @@
         <v>42</v>
       </c>
       <c r="J53" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K53" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L53" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M53" t="s">
         <v>42</v>
@@ -9163,10 +9173,10 @@
     </row>
     <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B54" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C54" t="s">
         <v>25</v>
@@ -9181,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H54" t="s">
         <v>29</v>
@@ -9190,34 +9200,34 @@
         <v>42</v>
       </c>
       <c r="J54" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K54" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L54" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M54" t="s">
         <v>33</v>
       </c>
       <c r="N54" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P54" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q54" t="s">
         <v>140</v>
       </c>
       <c r="R54" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S54" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="T54" t="s">
         <v>39</v>
@@ -9234,10 +9244,10 @@
     </row>
     <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B55" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C55" t="s">
         <v>25</v>
@@ -9246,49 +9256,49 @@
         <v>26</v>
       </c>
       <c r="E55" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F55">
         <v>8.8</v>
       </c>
       <c r="G55" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H55" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I55" t="s">
         <v>42</v>
       </c>
       <c r="J55" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K55" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L55" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M55" t="s">
         <v>33</v>
       </c>
       <c r="N55" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O55" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P55" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q55" t="s">
         <v>237</v>
       </c>
       <c r="R55" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="S55" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="T55" t="s">
         <v>39</v>
@@ -9305,81 +9315,81 @@
     </row>
     <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B56" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C56" t="s">
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>535</v>
       </c>
       <c r="E56" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F56">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="G56" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H56" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
-      </c>
-      <c r="J56" t="s">
-        <v>537</v>
-      </c>
-      <c r="K56" t="s">
-        <v>538</v>
-      </c>
-      <c r="L56" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>539</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="M56" t="s">
         <v>33</v>
       </c>
       <c r="N56" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O56" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="P56" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>542</v>
+        <v>543</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>45495</v>
       </c>
       <c r="R56" t="s">
-        <v>238</v>
+        <v>544</v>
       </c>
       <c r="S56" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="T56" t="s">
         <v>39</v>
       </c>
       <c r="U56" t="s">
-        <v>40</v>
+        <v>546</v>
       </c>
       <c r="V56" t="s">
+        <v>41</v>
+      </c>
+      <c r="W56" t="s">
         <v>33</v>
-      </c>
-      <c r="W56" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B57" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C57" t="s">
         <v>25</v>
@@ -9388,49 +9398,49 @@
         <v>26</v>
       </c>
       <c r="E57" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F57">
         <v>8.6</v>
       </c>
       <c r="G57" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H57" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I57" t="s">
         <v>42</v>
       </c>
       <c r="J57" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="K57" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="L57" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="M57" t="s">
         <v>33</v>
       </c>
       <c r="N57" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="O57" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="P57" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="Q57" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="R57" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="S57" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="T57" t="s">
         <v>39</v>
@@ -9447,61 +9457,61 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B58" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C58" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D58" t="s">
         <v>26</v>
       </c>
       <c r="E58" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F58">
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H58" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I58" t="s">
         <v>42</v>
       </c>
       <c r="J58" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="K58" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="L58" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="M58" t="s">
         <v>33</v>
       </c>
       <c r="N58" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O58" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="P58" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="Q58" t="s">
         <v>72</v>
       </c>
       <c r="R58" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="S58" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="T58" t="s">
         <v>39</v>
@@ -9518,10 +9528,10 @@
     </row>
     <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B59" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C59" t="s">
         <v>25</v>
@@ -9530,13 +9540,13 @@
         <v>26</v>
       </c>
       <c r="E59" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="H59" t="s">
         <v>29</v>
@@ -9545,40 +9555,40 @@
         <v>42</v>
       </c>
       <c r="J59" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="K59" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="L59" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="M59" t="s">
         <v>33</v>
       </c>
       <c r="N59" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="O59" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="P59" t="s">
         <v>42</v>
       </c>
       <c r="Q59" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="R59" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="S59" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="T59" t="s">
         <v>39</v>
       </c>
       <c r="U59" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="V59" t="s">
         <v>41</v>
@@ -9589,61 +9599,61 @@
     </row>
     <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B60" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C60" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D60" t="s">
         <v>26</v>
       </c>
       <c r="E60" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="F60">
         <v>7.6</v>
       </c>
       <c r="G60" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="H60" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I60" t="s">
         <v>42</v>
       </c>
       <c r="J60" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K60" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="L60" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="M60" t="s">
         <v>33</v>
       </c>
       <c r="N60" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="O60" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="P60" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="Q60" t="s">
         <v>140</v>
       </c>
       <c r="R60" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="S60" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="T60" t="s">
         <v>39</v>
@@ -9660,10 +9670,10 @@
     </row>
     <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B61" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C61" t="s">
         <v>25</v>
@@ -9672,49 +9682,49 @@
         <v>26</v>
       </c>
       <c r="E61" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="F61">
         <v>8.3</v>
       </c>
       <c r="G61" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H61" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I61" t="s">
         <v>42</v>
       </c>
       <c r="J61" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="K61" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="L61" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="M61" t="s">
         <v>33</v>
       </c>
       <c r="N61" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="O61" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="P61" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="Q61" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="R61" t="s">
         <v>238</v>
       </c>
       <c r="S61" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="T61" t="s">
         <v>155</v>
@@ -9731,61 +9741,61 @@
     </row>
     <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B62" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C62" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
       </c>
       <c r="E62" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="F62">
         <v>8.3</v>
       </c>
       <c r="G62" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="H62" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J62" t="s">
-        <v>602</v>
-      </c>
-      <c r="K62" t="s">
-        <v>603</v>
+        <v>605</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="L62" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="M62" t="s">
         <v>33</v>
       </c>
       <c r="N62" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="O62" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="P62" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="Q62" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="R62" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="S62" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="T62" t="s">
         <v>155</v>
@@ -9802,10 +9812,10 @@
     </row>
     <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B63" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C63" t="s">
         <v>25</v>
@@ -9814,13 +9824,13 @@
         <v>26</v>
       </c>
       <c r="E63" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="H63" t="s">
         <v>29</v>
@@ -9829,34 +9839,34 @@
         <v>42</v>
       </c>
       <c r="J63" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="K63" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="L63" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="M63" t="s">
         <v>33</v>
       </c>
       <c r="N63" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="O63" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="P63" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="Q63" t="s">
         <v>140</v>
       </c>
       <c r="R63" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="S63" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="T63" t="s">
         <v>39</v>
@@ -9873,10 +9883,10 @@
     </row>
     <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B64" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C64" t="s">
         <v>25</v>
@@ -9900,34 +9910,34 @@
         <v>42</v>
       </c>
       <c r="J64" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="K64" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="L64" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="M64" t="s">
         <v>33</v>
       </c>
       <c r="N64" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="O64" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="P64" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="Q64" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="R64" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S64" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="T64" t="s">
         <v>39</v>
@@ -9944,10 +9954,10 @@
     </row>
     <row r="65" spans="1:23">
       <c r="A65" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B65" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C65" t="s">
         <v>25</v>
@@ -9956,13 +9966,13 @@
         <v>26</v>
       </c>
       <c r="E65" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="H65" t="s">
         <v>29</v>
@@ -9971,13 +9981,13 @@
         <v>42</v>
       </c>
       <c r="J65" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K65" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="L65" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="M65" t="s">
         <v>42</v>
@@ -10015,10 +10025,10 @@
     </row>
     <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B66" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C66" t="s">
         <v>25</v>
@@ -10033,43 +10043,43 @@
         <v>7.1</v>
       </c>
       <c r="G66" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H66" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J66" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K66" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="L66" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M66" t="s">
         <v>33</v>
       </c>
       <c r="N66" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="O66" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="P66" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="Q66" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="R66" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="S66" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="T66" t="s">
         <v>39</v>
@@ -10086,10 +10096,10 @@
     </row>
     <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B67" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C67" t="s">
         <v>25</v>
@@ -10098,49 +10108,49 @@
         <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="H67" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I67" t="s">
         <v>42</v>
       </c>
       <c r="J67" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="K67" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="L67" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="M67" t="s">
         <v>33</v>
       </c>
       <c r="N67" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="O67" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="P67" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="Q67" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="R67" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="S67" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="T67" t="s">
         <v>39</v>
@@ -10157,61 +10167,61 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B68" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C68" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D68" t="s">
         <v>26</v>
       </c>
       <c r="E68" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="F68">
         <v>8.1</v>
       </c>
       <c r="G68" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="H68" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I68" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J68" t="s">
-        <v>653</v>
-      </c>
-      <c r="K68" t="s">
-        <v>654</v>
+        <v>656</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>657</v>
       </c>
       <c r="L68" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="M68" t="s">
         <v>33</v>
       </c>
       <c r="N68" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="O68" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="P68" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="Q68" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="R68" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="S68" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="T68" t="s">
         <v>39</v>
@@ -10228,10 +10238,10 @@
     </row>
     <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B69" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C69" t="s">
         <v>25</v>
@@ -10240,13 +10250,13 @@
         <v>26</v>
       </c>
       <c r="E69" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="H69" t="s">
         <v>29</v>
@@ -10255,34 +10265,34 @@
         <v>42</v>
       </c>
       <c r="J69" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="K69" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="L69" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="M69" t="s">
         <v>33</v>
       </c>
       <c r="N69" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="O69" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="P69" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="Q69" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="R69" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="S69" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="T69" t="s">
         <v>39</v>
@@ -10299,10 +10309,10 @@
     </row>
     <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B70" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C70" t="s">
         <v>25</v>
@@ -10311,40 +10321,40 @@
         <v>26</v>
       </c>
       <c r="E70" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="F70">
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="H70" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I70" t="s">
         <v>42</v>
       </c>
       <c r="J70" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="K70" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="L70" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="M70" t="s">
         <v>33</v>
       </c>
       <c r="N70" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="O70" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="P70" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q70" t="s">
         <v>259</v>
@@ -10353,7 +10363,7 @@
         <v>321</v>
       </c>
       <c r="S70" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="T70" t="s">
         <v>39</v>
@@ -10370,10 +10380,10 @@
     </row>
     <row r="71" spans="1:23">
       <c r="A71" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B71" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C71" t="s">
         <v>25</v>
@@ -10382,13 +10392,13 @@
         <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="H71" t="s">
         <v>29</v>
@@ -10397,34 +10407,34 @@
         <v>42</v>
       </c>
       <c r="J71" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="K71" t="s">
-        <v>181</v>
+        <v>339</v>
       </c>
       <c r="L71" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="M71" t="s">
         <v>33</v>
       </c>
       <c r="N71" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="O71" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="P71" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="Q71" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="R71" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="S71" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="T71" t="s">
         <v>39</v>
@@ -10444,16 +10454,16 @@
         <v>187</v>
       </c>
       <c r="B72" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C72" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D72" t="s">
         <v>26</v>
       </c>
       <c r="E72" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="F72">
         <v>8.2</v>
@@ -10462,19 +10472,19 @@
         <v>196</v>
       </c>
       <c r="H72" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I72" t="s">
         <v>42</v>
       </c>
       <c r="J72" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="K72" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="L72" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="M72" t="s">
         <v>33</v>
@@ -10512,10 +10522,10 @@
     </row>
     <row r="73" spans="1:23">
       <c r="A73" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B73" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C73" t="s">
         <v>25</v>
@@ -10530,7 +10540,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="H73" t="s">
         <v>29</v>
@@ -10539,34 +10549,34 @@
         <v>42</v>
       </c>
       <c r="J73" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="K73" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="L73" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="M73" t="s">
         <v>33</v>
       </c>
       <c r="N73" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="O73" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="P73" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="Q73" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="R73" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="S73" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="T73" t="s">
         <v>39</v>
@@ -10583,61 +10593,61 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B74" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C74" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D74" t="s">
         <v>26</v>
       </c>
       <c r="E74" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F74">
         <v>8.8</v>
       </c>
       <c r="G74" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H74" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I74" t="s">
         <v>42</v>
       </c>
       <c r="J74" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K74" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L74" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M74" t="s">
         <v>33</v>
       </c>
       <c r="N74" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O74" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P74" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q74" t="s">
         <v>237</v>
       </c>
       <c r="R74" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="S74" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="T74" t="s">
         <v>39</v>
@@ -10654,10 +10664,10 @@
     </row>
     <row r="75" spans="1:23">
       <c r="A75" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B75" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C75" t="s">
         <v>25</v>
@@ -10666,49 +10676,49 @@
         <v>26</v>
       </c>
       <c r="E75" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="H75" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I75" t="s">
         <v>42</v>
       </c>
       <c r="J75" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="K75" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="L75" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="M75" t="s">
         <v>33</v>
       </c>
       <c r="N75" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="O75" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="P75" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="Q75" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R75" t="s">
         <v>227</v>
       </c>
       <c r="S75" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="T75" t="s">
         <v>39</v>
@@ -10725,61 +10735,61 @@
     </row>
     <row r="76" spans="1:23">
       <c r="A76" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B76" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C76" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D76" t="s">
         <v>26</v>
       </c>
       <c r="E76" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="F76">
         <v>8.6</v>
       </c>
       <c r="G76" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="H76" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I76" t="s">
         <v>42</v>
       </c>
       <c r="J76" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="K76" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="L76" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="M76" t="s">
         <v>33</v>
       </c>
       <c r="N76" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="O76" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="P76" t="s">
         <v>42</v>
       </c>
       <c r="Q76" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="R76" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="S76" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="T76" t="s">
         <v>39</v>
@@ -10796,10 +10806,10 @@
     </row>
     <row r="77" spans="1:23">
       <c r="A77" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B77" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C77" t="s">
         <v>25</v>
@@ -10808,40 +10818,40 @@
         <v>26</v>
       </c>
       <c r="E77" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H77" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I77" t="s">
         <v>42</v>
       </c>
       <c r="J77" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="K77" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="L77" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="M77" t="s">
         <v>33</v>
       </c>
       <c r="N77" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="O77" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="P77" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="Q77" t="s">
         <v>98</v>
@@ -10850,7 +10860,7 @@
         <v>37</v>
       </c>
       <c r="S77" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="T77" t="s">
         <v>39</v>
@@ -10870,7 +10880,7 @@
         <v>229</v>
       </c>
       <c r="B78" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C78" t="s">
         <v>25</v>
@@ -10879,25 +10889,25 @@
         <v>26</v>
       </c>
       <c r="E78" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F78">
         <v>8.2</v>
       </c>
       <c r="G78" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="H78" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I78" t="s">
         <v>42</v>
       </c>
       <c r="J78" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="K78" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="L78" t="s">
         <v>234</v>
@@ -10938,61 +10948,61 @@
     </row>
     <row r="79" spans="1:23">
       <c r="A79" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B79" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C79" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D79" t="s">
         <v>26</v>
       </c>
       <c r="E79" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="F79">
         <v>8.1</v>
       </c>
       <c r="G79" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="H79" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I79" t="s">
         <v>42</v>
       </c>
       <c r="J79" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="K79" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L79" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="M79" t="s">
         <v>33</v>
       </c>
       <c r="N79" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="O79" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="P79" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="Q79" t="s">
         <v>122</v>
       </c>
       <c r="R79" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S79" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="T79" t="s">
         <v>39</v>
@@ -11009,61 +11019,61 @@
     </row>
     <row r="80" spans="1:23">
       <c r="A80" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B80" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C80" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D80" t="s">
         <v>26</v>
       </c>
       <c r="E80" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F80">
         <v>9.7</v>
       </c>
       <c r="G80" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="H80" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I80" t="s">
         <v>42</v>
       </c>
       <c r="J80" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="K80" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="L80" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="M80" t="s">
         <v>33</v>
       </c>
       <c r="N80" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="O80" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="P80" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="Q80" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="R80" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S80" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="T80" t="s">
         <v>39</v>
@@ -11080,10 +11090,10 @@
     </row>
     <row r="81" spans="1:23">
       <c r="A81" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B81" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C81" t="s">
         <v>25</v>
@@ -11092,13 +11102,13 @@
         <v>26</v>
       </c>
       <c r="E81" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="H81" t="s">
         <v>29</v>
@@ -11107,34 +11117,34 @@
         <v>42</v>
       </c>
       <c r="J81" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="K81" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="L81" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="M81" t="s">
         <v>33</v>
       </c>
       <c r="N81" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="O81" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="P81" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="Q81" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="R81" t="s">
         <v>311</v>
       </c>
       <c r="S81" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="T81" t="s">
         <v>42</v>
@@ -11151,10 +11161,10 @@
     </row>
     <row r="82" spans="1:23">
       <c r="A82" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B82" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C82" t="s">
         <v>25</v>
@@ -11163,49 +11173,49 @@
         <v>26</v>
       </c>
       <c r="E82" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F82">
         <v>7.3</v>
       </c>
       <c r="G82" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H82" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I82" t="s">
         <v>42</v>
       </c>
       <c r="J82" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="K82" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="L82" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="M82" t="s">
         <v>33</v>
       </c>
       <c r="N82" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="O82" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="P82" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="Q82" t="s">
         <v>140</v>
       </c>
       <c r="R82" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S82" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="T82" t="s">
         <v>39</v>
@@ -11222,10 +11232,10 @@
     </row>
     <row r="83" spans="1:23">
       <c r="A83" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B83" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C83" t="s">
         <v>25</v>
@@ -11234,13 +11244,13 @@
         <v>26</v>
       </c>
       <c r="E83" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F83">
         <v>8.3</v>
       </c>
       <c r="G83" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H83" t="s">
         <v>29</v>
@@ -11249,34 +11259,34 @@
         <v>42</v>
       </c>
       <c r="J83" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="K83" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="L83" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="M83" t="s">
         <v>33</v>
       </c>
       <c r="N83" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="O83" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="P83" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="Q83" t="s">
         <v>320</v>
       </c>
       <c r="R83" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="S83" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="T83" t="s">
         <v>39</v>
@@ -11293,61 +11303,61 @@
     </row>
     <row r="84" spans="1:23">
       <c r="A84" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B84" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C84" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D84" t="s">
         <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="H84" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I84" t="s">
         <v>42</v>
       </c>
       <c r="J84" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="K84" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="L84" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="M84" t="s">
         <v>33</v>
       </c>
       <c r="N84" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="O84" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="P84" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="Q84" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="R84" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="S84" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="T84" t="s">
         <v>39</v>
@@ -11364,61 +11374,61 @@
     </row>
     <row r="85" spans="1:23">
       <c r="A85" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B85" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C85" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D85" t="s">
         <v>26</v>
       </c>
       <c r="E85" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="F85">
         <v>9.4</v>
       </c>
       <c r="G85" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="H85" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J85" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="K85" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="L85" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="M85" t="s">
         <v>33</v>
       </c>
       <c r="N85" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="O85" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="P85" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="Q85" t="s">
         <v>98</v>
       </c>
       <c r="R85" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="S85" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="T85" t="s">
         <v>39</v>
@@ -11435,61 +11445,61 @@
     </row>
     <row r="86" spans="1:23">
       <c r="A86" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B86" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C86" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D86" t="s">
         <v>26</v>
       </c>
       <c r="E86" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="F86">
         <v>8.6</v>
       </c>
       <c r="G86" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="H86" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I86" t="s">
         <v>42</v>
       </c>
       <c r="J86" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="K86" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="L86" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="M86" t="s">
         <v>33</v>
       </c>
       <c r="N86" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="O86" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="P86" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="Q86" t="s">
         <v>320</v>
       </c>
       <c r="R86" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="S86" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="T86" t="s">
         <v>39</v>
@@ -11506,10 +11516,10 @@
     </row>
     <row r="87" spans="1:23">
       <c r="A87" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B87" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C87" t="s">
         <v>25</v>
@@ -11518,40 +11528,40 @@
         <v>26</v>
       </c>
       <c r="E87" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="F87">
         <v>8.5</v>
       </c>
       <c r="G87" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="H87" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I87" t="s">
         <v>42</v>
       </c>
       <c r="J87" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="K87" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="L87" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="M87" t="s">
         <v>33</v>
       </c>
       <c r="N87" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="O87" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="P87" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="Q87" t="s">
         <v>259</v>
@@ -11560,7 +11570,7 @@
         <v>37</v>
       </c>
       <c r="S87" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="T87" t="s">
         <v>39</v>
@@ -11577,61 +11587,61 @@
     </row>
     <row r="88" spans="1:23">
       <c r="A88" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B88" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C88" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D88" t="s">
         <v>26</v>
       </c>
       <c r="E88" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="H88" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I88" t="s">
         <v>42</v>
       </c>
       <c r="J88" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="K88" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="L88" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="M88" t="s">
         <v>33</v>
       </c>
       <c r="N88" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="O88" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="P88" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="Q88" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="R88" t="s">
         <v>321</v>
       </c>
       <c r="S88" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="T88" t="s">
         <v>39</v>
@@ -11648,10 +11658,10 @@
     </row>
     <row r="89" spans="1:23">
       <c r="A89" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B89" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C89" t="s">
         <v>25</v>
@@ -11660,13 +11670,13 @@
         <v>26</v>
       </c>
       <c r="E89" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="H89" t="s">
         <v>29</v>
@@ -11675,25 +11685,25 @@
         <v>42</v>
       </c>
       <c r="J89" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="K89" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="L89" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="M89" t="s">
         <v>33</v>
       </c>
       <c r="N89" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="O89" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="P89" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="Q89" t="s">
         <v>259</v>
@@ -11719,10 +11729,10 @@
     </row>
     <row r="90" spans="1:23">
       <c r="A90" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B90" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C90" t="s">
         <v>25</v>
@@ -11737,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="H90" t="s">
         <v>29</v>
@@ -11746,34 +11756,34 @@
         <v>42</v>
       </c>
       <c r="J90" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="K90" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="L90" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="M90" t="s">
         <v>33</v>
       </c>
       <c r="N90" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="O90" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="P90" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="Q90" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="R90" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S90" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="T90" t="s">
         <v>39</v>
@@ -11790,10 +11800,10 @@
     </row>
     <row r="91" spans="1:23">
       <c r="A91" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B91" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C91" t="s">
         <v>25</v>
@@ -11817,25 +11827,25 @@
         <v>42</v>
       </c>
       <c r="J91" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="K91" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="L91" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="M91" t="s">
         <v>33</v>
       </c>
       <c r="N91" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="O91" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="P91" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="Q91" t="s">
         <v>152</v>
@@ -11844,7 +11854,7 @@
         <v>238</v>
       </c>
       <c r="S91" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="T91" t="s">
         <v>155</v>
@@ -11861,61 +11871,61 @@
     </row>
     <row r="92" spans="1:23">
       <c r="A92" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B92" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C92" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D92" t="s">
         <v>26</v>
       </c>
       <c r="E92" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="H92" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I92" t="s">
         <v>42</v>
       </c>
       <c r="J92" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="K92" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="L92" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="M92" t="s">
         <v>33</v>
       </c>
       <c r="N92" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="O92" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="P92" t="s">
         <v>42</v>
       </c>
       <c r="Q92" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="R92" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="S92" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="T92" t="s">
         <v>39</v>
@@ -11932,61 +11942,61 @@
     </row>
     <row r="93" spans="1:23">
       <c r="A93" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B93" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C93" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D93" t="s">
         <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="F93">
         <v>9.2</v>
       </c>
       <c r="G93" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="H93" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I93" t="s">
         <v>42</v>
       </c>
       <c r="J93" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="K93" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="L93" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="M93" t="s">
         <v>33</v>
       </c>
       <c r="N93" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="O93" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="P93" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="Q93" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R93" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="S93" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="T93" t="s">
         <v>39</v>
@@ -12003,61 +12013,61 @@
     </row>
     <row r="94" spans="1:23">
       <c r="A94" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="B94" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="C94" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D94" t="s">
         <v>26</v>
       </c>
       <c r="E94" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="F94">
         <v>9.4</v>
       </c>
       <c r="G94" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="H94" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I94" t="s">
         <v>42</v>
       </c>
       <c r="J94" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="K94" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="L94" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="M94" t="s">
         <v>33</v>
       </c>
       <c r="N94" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="O94" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="P94" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="Q94" t="s">
         <v>320</v>
       </c>
       <c r="R94" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S94" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="T94" t="s">
         <v>39</v>
@@ -12077,16 +12087,16 @@
         <v>313</v>
       </c>
       <c r="B95" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="C95" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D95" t="s">
         <v>26</v>
       </c>
       <c r="E95" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="F95">
         <v>7.7</v>
@@ -12095,19 +12105,19 @@
         <v>322</v>
       </c>
       <c r="H95" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I95" t="s">
         <v>42</v>
       </c>
       <c r="J95" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="K95" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="L95" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="M95" t="s">
         <v>33</v>
@@ -12145,10 +12155,10 @@
     </row>
     <row r="96" spans="1:23">
       <c r="A96" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="B96" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="C96" t="s">
         <v>25</v>
@@ -12157,28 +12167,28 @@
         <v>26</v>
       </c>
       <c r="E96" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="H96" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I96" t="s">
         <v>42</v>
       </c>
       <c r="J96" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="K96" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="L96" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="M96" t="s">
         <v>42</v>
@@ -12219,37 +12229,37 @@
         <v>303</v>
       </c>
       <c r="B97" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C97" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D97" t="s">
         <v>26</v>
       </c>
       <c r="E97" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="H97" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I97" t="s">
         <v>42</v>
       </c>
       <c r="J97" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="K97" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="L97" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="M97" t="s">
         <v>33</v>
@@ -12287,61 +12297,61 @@
     </row>
     <row r="98" spans="1:23">
       <c r="A98" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="B98" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C98" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D98" t="s">
         <v>26</v>
       </c>
       <c r="E98" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="H98" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I98" t="s">
         <v>42</v>
       </c>
       <c r="J98" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="K98" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="L98" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="M98" t="s">
         <v>33</v>
       </c>
       <c r="N98" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="O98" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="P98" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="Q98" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="R98" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="S98" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="T98" t="s">
         <v>39</v>
@@ -12358,10 +12368,10 @@
     </row>
     <row r="99" spans="1:23">
       <c r="A99" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="B99" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C99" t="s">
         <v>25</v>
@@ -12370,49 +12380,49 @@
         <v>26</v>
       </c>
       <c r="E99" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="H99" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I99" t="s">
         <v>42</v>
       </c>
       <c r="J99" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="K99" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="L99" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="M99" t="s">
         <v>33</v>
       </c>
       <c r="N99" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="O99" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="P99" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="Q99" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="R99" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="S99" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="T99" t="s">
         <v>39</v>
@@ -12429,10 +12439,10 @@
     </row>
     <row r="100" spans="1:23">
       <c r="A100" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B100" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C100" t="s">
         <v>25</v>
@@ -12447,7 +12457,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="H100" t="s">
         <v>29</v>
@@ -12456,13 +12466,13 @@
         <v>42</v>
       </c>
       <c r="J100" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="K100" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="L100" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="M100" t="s">
         <v>42</v>
@@ -12500,61 +12510,61 @@
     </row>
     <row r="101" spans="1:23">
       <c r="A101" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B101" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C101" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D101" t="s">
         <v>26</v>
       </c>
       <c r="E101" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="H101" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I101" t="s">
         <v>42</v>
       </c>
       <c r="J101" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="K101" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="L101" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="M101" t="s">
         <v>33</v>
       </c>
       <c r="N101" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="O101" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="P101" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="Q101" t="s">
         <v>320</v>
       </c>
       <c r="R101" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="S101" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="T101" t="s">
         <v>39</v>
@@ -12571,61 +12581,61 @@
     </row>
     <row r="102" spans="1:23">
       <c r="A102" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="B102" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C102" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D102" t="s">
         <v>26</v>
       </c>
       <c r="E102" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="F102">
         <v>9.4</v>
       </c>
       <c r="G102" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="H102" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I102" t="s">
         <v>42</v>
       </c>
       <c r="J102" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="K102" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="L102" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="M102" t="s">
         <v>33</v>
       </c>
       <c r="N102" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="O102" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="P102" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="Q102" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R102" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S102" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="T102" t="s">
         <v>39</v>
@@ -12642,10 +12652,10 @@
     </row>
     <row r="103" spans="1:23">
       <c r="A103" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="B103" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C103" t="s">
         <v>25</v>
@@ -12654,49 +12664,49 @@
         <v>26</v>
       </c>
       <c r="E103" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="F103">
         <v>9.3</v>
       </c>
       <c r="G103" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="H103" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I103" t="s">
         <v>42</v>
       </c>
       <c r="J103" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="K103" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="L103" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="M103" t="s">
         <v>33</v>
       </c>
       <c r="N103" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="O103" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="P103" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="Q103" t="s">
         <v>248</v>
       </c>
       <c r="R103" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="S103" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="T103" t="s">
         <v>39</v>
@@ -12713,61 +12723,61 @@
     </row>
     <row r="104" spans="1:23">
       <c r="A104" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B104" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C104" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D104" t="s">
         <v>26</v>
       </c>
       <c r="E104" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="F104">
         <v>7.6</v>
       </c>
       <c r="G104" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="H104" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I104" t="s">
         <v>42</v>
       </c>
       <c r="J104" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="K104" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="L104" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="M104" t="s">
         <v>33</v>
       </c>
       <c r="N104" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="O104" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="P104" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="Q104" t="s">
         <v>320</v>
       </c>
       <c r="R104" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="S104" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="T104" t="s">
         <v>39</v>
@@ -12784,61 +12794,61 @@
     </row>
     <row r="105" spans="1:23">
       <c r="A105" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B105" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C105" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D105" t="s">
         <v>26</v>
       </c>
       <c r="E105" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="F105">
         <v>7.8</v>
       </c>
       <c r="G105" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="H105" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I105" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J105" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="K105" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="L105" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="M105" t="s">
         <v>33</v>
       </c>
       <c r="N105" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O105" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P105" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q105" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="R105" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="S105" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="T105" t="s">
         <v>155</v>
@@ -12855,67 +12865,67 @@
     </row>
     <row r="106" spans="1:23">
       <c r="A106" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="B106" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C106" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D106" t="s">
         <v>26</v>
       </c>
       <c r="E106" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="H106" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I106" t="s">
         <v>42</v>
       </c>
       <c r="J106" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="K106" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="L106" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="M106" t="s">
         <v>33</v>
       </c>
       <c r="N106" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="O106" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="P106" t="s">
         <v>42</v>
       </c>
       <c r="Q106" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="R106" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="S106" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="T106" t="s">
         <v>39</v>
       </c>
       <c r="U106" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="V106" t="s">
         <v>41</v>
@@ -12926,61 +12936,61 @@
     </row>
     <row r="107" spans="1:23">
       <c r="A107" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B107" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C107" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D107" t="s">
         <v>26</v>
       </c>
       <c r="E107" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="F107">
         <v>8.7</v>
       </c>
       <c r="G107" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H107" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I107" t="s">
         <v>42</v>
       </c>
       <c r="J107" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="K107" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="L107" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="M107" t="s">
         <v>33</v>
       </c>
       <c r="N107" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="O107" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="P107" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="Q107" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="R107" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S107" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="T107" t="s">
         <v>39</v>
@@ -12997,61 +13007,61 @@
     </row>
     <row r="108" spans="1:23">
       <c r="A108" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="B108" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C108" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D108" t="s">
         <v>26</v>
       </c>
       <c r="E108" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="F108">
         <v>8</v>
       </c>
       <c r="G108" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="H108" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I108" t="s">
         <v>42</v>
       </c>
       <c r="J108" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="K108" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="L108" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="M108" t="s">
         <v>33</v>
       </c>
       <c r="N108" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="O108" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="P108" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="Q108" t="s">
         <v>72</v>
       </c>
       <c r="R108" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="S108" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="T108" t="s">
         <v>39</v>
@@ -13068,61 +13078,61 @@
     </row>
     <row r="109" spans="1:23">
       <c r="A109" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B109" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C109" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D109" t="s">
         <v>26</v>
       </c>
       <c r="E109" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="F109">
         <v>8.3</v>
       </c>
       <c r="G109" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="H109" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I109" t="s">
         <v>42</v>
       </c>
       <c r="J109" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="K109" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="L109" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="M109" t="s">
         <v>33</v>
       </c>
       <c r="N109" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="O109" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="P109" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="Q109" t="s">
         <v>259</v>
       </c>
       <c r="R109" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="S109" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="T109" t="s">
         <v>39</v>
@@ -13139,10 +13149,10 @@
     </row>
     <row r="110" spans="1:23">
       <c r="A110" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B110" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C110" t="s">
         <v>25</v>
@@ -13151,49 +13161,49 @@
         <v>26</v>
       </c>
       <c r="E110" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="F110">
         <v>8.5</v>
       </c>
       <c r="G110" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H110" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I110" t="s">
         <v>42</v>
       </c>
       <c r="J110" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="K110" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="L110" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="M110" t="s">
         <v>33</v>
       </c>
       <c r="N110" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="O110" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="P110" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="Q110" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="R110" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="S110" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="T110" t="s">
         <v>39</v>
@@ -13213,37 +13223,37 @@
         <v>262</v>
       </c>
       <c r="B111" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C111" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
       </c>
       <c r="E111" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="F111">
         <v>8.3</v>
       </c>
       <c r="G111" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="H111" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I111" t="s">
         <v>42</v>
       </c>
       <c r="J111" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="K111" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="L111" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="M111" t="s">
         <v>33</v>
@@ -13281,52 +13291,52 @@
     </row>
     <row r="112" spans="1:23">
       <c r="A112" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B112" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C112" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D112" t="s">
         <v>26</v>
       </c>
       <c r="E112" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="F112">
         <v>7.2</v>
       </c>
       <c r="G112" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="H112" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I112" t="s">
         <v>42</v>
       </c>
       <c r="J112" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="K112" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="L112" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="M112" t="s">
         <v>33</v>
       </c>
       <c r="N112" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="O112" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="P112" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="Q112" t="s">
         <v>122</v>
@@ -13352,40 +13362,40 @@
     </row>
     <row r="113" spans="1:23">
       <c r="A113" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B113" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C113" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D113" t="s">
         <v>26</v>
       </c>
       <c r="E113" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="H113" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I113" t="s">
         <v>42</v>
       </c>
       <c r="J113" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="K113" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="L113" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="M113" t="s">
         <v>42</v>
@@ -13423,61 +13433,61 @@
     </row>
     <row r="114" spans="1:23">
       <c r="A114" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B114" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C114" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D114" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E114" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="F114">
         <v>7.4</v>
       </c>
       <c r="G114" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="H114" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I114" t="s">
         <v>42</v>
       </c>
       <c r="J114" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="K114" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="L114" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="M114" t="s">
         <v>33</v>
       </c>
       <c r="N114" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="O114" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="P114" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="Q114" t="s">
         <v>271</v>
       </c>
       <c r="R114" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="S114" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="T114" t="s">
         <v>39</v>
@@ -13494,61 +13504,61 @@
     </row>
     <row r="115" spans="1:23">
       <c r="A115" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B115" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C115" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="D115" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E115" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="F115">
         <v>8.2</v>
       </c>
       <c r="G115" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="H115" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I115" t="s">
         <v>42</v>
       </c>
       <c r="J115" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="K115" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="L115" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="M115" t="s">
         <v>33</v>
       </c>
       <c r="N115" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="O115" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="P115" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="Q115" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="R115" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="S115" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="T115" t="s">
         <v>39</v>
@@ -13565,61 +13575,61 @@
     </row>
     <row r="116" spans="1:23">
       <c r="A116" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B116" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C116" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D116" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E116" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="F116">
         <v>8.8</v>
       </c>
       <c r="G116" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="H116" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I116" t="s">
         <v>42</v>
       </c>
       <c r="J116" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="K116" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="L116" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="M116" t="s">
         <v>33</v>
       </c>
       <c r="N116" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="O116" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="P116" t="s">
         <v>42</v>
       </c>
       <c r="Q116" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="R116" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="S116" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="T116" t="s">
         <v>39</v>
@@ -13636,61 +13646,61 @@
     </row>
     <row r="117" spans="1:23">
       <c r="A117" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B117" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C117" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D117" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E117" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="F117">
         <v>6.5</v>
       </c>
       <c r="G117" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="H117" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I117" t="s">
         <v>42</v>
       </c>
       <c r="J117" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="K117" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="L117" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="M117" t="s">
         <v>33</v>
       </c>
       <c r="N117" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="O117" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="P117" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="Q117" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="R117" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="S117" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="T117" t="s">
         <v>39</v>
@@ -13707,61 +13717,61 @@
     </row>
     <row r="118" spans="1:23">
       <c r="A118" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="B118" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C118" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D118" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E118" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="F118">
         <v>7.8</v>
       </c>
       <c r="G118" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H118" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I118" t="s">
         <v>42</v>
       </c>
       <c r="J118" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="K118" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="L118" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="M118" t="s">
         <v>33</v>
       </c>
       <c r="N118" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="O118" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="P118" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="Q118" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="R118" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="S118" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="T118" t="s">
         <v>155</v>
@@ -13778,61 +13788,61 @@
     </row>
     <row r="119" spans="1:23">
       <c r="A119" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B119" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C119" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D119" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E119" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="F119">
         <v>9.2</v>
       </c>
       <c r="G119" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="H119" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I119" t="s">
         <v>42</v>
       </c>
       <c r="J119" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="K119" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="L119" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="M119" t="s">
         <v>33</v>
       </c>
       <c r="N119" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="O119" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="P119" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="Q119" t="s">
         <v>248</v>
       </c>
       <c r="R119" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="S119" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="T119" t="s">
         <v>39</v>
@@ -13849,61 +13859,61 @@
     </row>
     <row r="120" spans="1:23">
       <c r="A120" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="B120" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C120" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D120" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E120" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="F120">
         <v>9.6</v>
       </c>
       <c r="G120" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="H120" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I120" t="s">
         <v>42</v>
       </c>
       <c r="J120" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="K120" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="L120" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="M120" t="s">
         <v>33</v>
       </c>
       <c r="N120" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="O120" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="P120" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="Q120" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="R120" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="S120" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="T120" t="s">
         <v>39</v>
@@ -13920,61 +13930,61 @@
     </row>
     <row r="121" spans="1:23">
       <c r="A121" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="B121" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C121" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D121" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E121" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="F121">
         <v>8.5</v>
       </c>
       <c r="G121" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="H121" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I121" t="s">
         <v>42</v>
       </c>
       <c r="J121" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="K121" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="L121" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="M121" t="s">
         <v>33</v>
       </c>
       <c r="N121" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="O121" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="P121" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="Q121" t="s">
         <v>122</v>
       </c>
       <c r="R121" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="S121" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="T121" t="s">
         <v>39</v>
@@ -13991,40 +14001,40 @@
     </row>
     <row r="122" spans="1:23">
       <c r="A122" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="B122" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C122" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D122" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E122" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="F122">
         <v>9.2</v>
       </c>
       <c r="G122" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="H122" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I122" t="s">
         <v>42</v>
       </c>
       <c r="J122" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="K122" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="L122" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="M122" t="s">
         <v>42</v>
@@ -14062,61 +14072,61 @@
     </row>
     <row r="123" spans="1:23">
       <c r="A123" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="B123" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C123" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D123" t="s">
         <v>26</v>
       </c>
       <c r="E123" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="F123">
         <v>9.1</v>
       </c>
       <c r="G123" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="H123" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I123" t="s">
         <v>42</v>
       </c>
       <c r="J123" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="K123" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="L123" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="M123" t="s">
         <v>33</v>
       </c>
       <c r="N123" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="O123" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="P123" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="Q123" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="R123" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="S123" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="T123" t="s">
         <v>39</v>
@@ -14133,61 +14143,61 @@
     </row>
     <row r="124" spans="1:23">
       <c r="A124" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B124" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="C124" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D124" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E124" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="F124">
         <v>9.2</v>
       </c>
       <c r="G124" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H124" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I124" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J124" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="K124" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="L124" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="M124" t="s">
         <v>33</v>
       </c>
       <c r="N124" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="O124" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="P124" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="Q124" t="s">
         <v>98</v>
       </c>
       <c r="R124" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="S124" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="T124" t="s">
         <v>39</v>
@@ -14204,61 +14214,61 @@
     </row>
     <row r="125" spans="1:23">
       <c r="A125" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B125" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="C125" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D125" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="E125" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="F125">
         <v>8.6</v>
       </c>
       <c r="G125" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H125" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I125" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J125" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="K125" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="L125" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="M125" t="s">
         <v>33</v>
       </c>
       <c r="N125" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="O125" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="P125" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="Q125" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="R125" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="S125" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="T125" t="s">
         <v>155</v>
@@ -14275,61 +14285,61 @@
     </row>
     <row r="126" spans="1:23">
       <c r="A126" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B126" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="C126" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="D126" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E126" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="F126">
         <v>8.5</v>
       </c>
       <c r="G126" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H126" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I126" t="s">
         <v>42</v>
       </c>
       <c r="J126" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="K126" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="L126" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="M126" t="s">
         <v>33</v>
       </c>
       <c r="N126" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="O126" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="P126" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="Q126" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="R126" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="S126" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="T126" t="s">
         <v>39</v>
@@ -14346,67 +14356,67 @@
     </row>
     <row r="127" spans="1:23">
       <c r="A127" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="B127" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="C127" t="s">
         <v>25</v>
       </c>
       <c r="D127" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E127" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="F127">
         <v>7.8</v>
       </c>
       <c r="G127" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="H127" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I127" t="s">
         <v>42</v>
       </c>
       <c r="J127" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="K127" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="L127" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="M127" t="s">
         <v>33</v>
       </c>
       <c r="N127" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="O127" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="P127" t="s">
         <v>42</v>
       </c>
       <c r="Q127" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="R127" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="S127" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="T127" t="s">
         <v>39</v>
       </c>
       <c r="U127" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="V127" t="s">
         <v>41</v>
@@ -14417,61 +14427,61 @@
     </row>
     <row r="128" spans="1:23">
       <c r="A128" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B128" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="C128" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D128" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E128" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="F128">
         <v>9.2</v>
       </c>
       <c r="G128" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="H128" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I128" t="s">
         <v>42</v>
       </c>
       <c r="J128" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="K128" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="L128" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="M128" t="s">
         <v>33</v>
       </c>
       <c r="N128" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="O128" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="P128" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="Q128" t="s">
         <v>248</v>
       </c>
       <c r="R128" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="S128" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="T128" t="s">
         <v>39</v>
@@ -14488,40 +14498,40 @@
     </row>
     <row r="129" spans="1:23">
       <c r="A129" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="B129" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="C129" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="D129" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="E129" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="H129" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I129" t="s">
         <v>42</v>
       </c>
       <c r="J129" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="K129" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="L129" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="M129" t="s">
         <v>42</v>
@@ -14559,10 +14569,10 @@
     </row>
     <row r="130" spans="1:23">
       <c r="A130" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="B130" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="C130" t="s">
         <v>25</v>
@@ -14571,49 +14581,49 @@
         <v>26</v>
       </c>
       <c r="E130" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="F130">
         <v>6.4</v>
       </c>
       <c r="G130" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="H130" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I130" t="s">
         <v>42</v>
       </c>
       <c r="J130" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="K130" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="L130" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="M130" t="s">
         <v>33</v>
       </c>
       <c r="N130" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="O130" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="P130" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="Q130" t="s">
         <v>226</v>
       </c>
       <c r="R130" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="S130" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="T130" t="s">
         <v>39</v>
@@ -14630,61 +14640,61 @@
     </row>
     <row r="131" spans="1:23">
       <c r="A131" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B131" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C131" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D131" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="E131" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="F131">
         <v>9.3</v>
       </c>
       <c r="G131" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="H131" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I131" t="s">
         <v>42</v>
       </c>
       <c r="J131" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="K131" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="L131" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="M131" t="s">
         <v>33</v>
       </c>
       <c r="N131" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O131" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P131" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q131" t="s">
         <v>36</v>
       </c>
       <c r="R131" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S131" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T131" t="s">
         <v>39</v>
@@ -14701,67 +14711,67 @@
     </row>
     <row r="132" spans="1:23">
       <c r="A132" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="B132" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C132" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D132" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E132" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F132">
         <v>8.1</v>
       </c>
       <c r="G132" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="H132" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I132" t="s">
         <v>42</v>
       </c>
       <c r="J132" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="K132" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="L132" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="M132" t="s">
         <v>33</v>
       </c>
       <c r="N132" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="O132" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="P132" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="Q132" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="R132" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="S132" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="T132" t="s">
         <v>39</v>
       </c>
       <c r="U132" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="V132" t="s">
         <v>33</v>
@@ -14772,61 +14782,61 @@
     </row>
     <row r="133" spans="1:23">
       <c r="A133" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="B133" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C133" t="s">
         <v>25</v>
       </c>
       <c r="D133" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E133" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="F133">
         <v>8.6</v>
       </c>
       <c r="G133" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="H133" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I133" t="s">
         <v>42</v>
       </c>
       <c r="J133" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="K133" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="L133" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="M133" t="s">
         <v>33</v>
       </c>
       <c r="N133" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="O133" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="P133" t="s">
         <v>42</v>
       </c>
       <c r="Q133" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="R133" t="s">
         <v>165</v>
       </c>
       <c r="S133" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="T133" t="s">
         <v>39</v>
@@ -14843,61 +14853,61 @@
     </row>
     <row r="134" spans="1:23">
       <c r="A134" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B134" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C134" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D134" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E134" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="F134">
         <v>9.6</v>
       </c>
       <c r="G134" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="H134" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I134" t="s">
         <v>42</v>
       </c>
       <c r="J134" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="K134" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="L134" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="M134" t="s">
         <v>33</v>
       </c>
       <c r="N134" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="O134" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="P134" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="Q134" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="R134" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S134" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="T134" t="s">
         <v>39</v>
@@ -14914,40 +14924,40 @@
     </row>
     <row r="135" spans="1:23">
       <c r="A135" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="B135" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C135" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D135" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E135" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="F135">
         <v>10</v>
       </c>
       <c r="G135" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="H135" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I135" t="s">
         <v>42</v>
       </c>
       <c r="J135" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="K135" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="L135" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="M135" t="s">
         <v>42</v>
@@ -14985,61 +14995,61 @@
     </row>
     <row r="136" spans="1:23">
       <c r="A136" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="B136" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C136" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="D136" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E136" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="H136" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I136" t="s">
         <v>42</v>
       </c>
       <c r="J136" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="K136" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="L136" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="M136" t="s">
         <v>33</v>
       </c>
       <c r="N136" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="O136" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="P136" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="Q136" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="R136" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="S136" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="T136" t="s">
         <v>155</v>
@@ -15056,61 +15066,61 @@
     </row>
     <row r="137" spans="1:23">
       <c r="A137" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="B137" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C137" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="D137" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E137" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="H137" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I137" t="s">
         <v>42</v>
       </c>
       <c r="J137" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="K137" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="L137" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="M137" t="s">
         <v>33</v>
       </c>
       <c r="N137" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="O137" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="P137" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="Q137" t="s">
         <v>36</v>
       </c>
       <c r="R137" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="S137" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="T137" t="s">
         <v>155</v>
@@ -15126,6 +15136,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W137">
+    <extLst/>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="K68" r:id="rId1" display="https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20241129/15420188978"/>
+    <hyperlink ref="K62" r:id="rId2" display="https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20241202/17184148404"/>
+    <hyperlink ref="K17" r:id="rId3" display="https://img.71acg.net/kbyx/gicon/149763/20240309-00.png"/>
+    <hyperlink ref="J56" r:id="rId4" display="https://www.taptap.cn/app/732013?os=pc"/>
+    <hyperlink ref="K56" r:id="rId5" display="https://img.tapimg.com/market/images/516ee18b01ac81df77f368c1d30b8b68.jpg/appicon?t=1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/data/all_games_data.xlsx
+++ b/data/all_games_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12660"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1206">
   <si>
     <t>名称</t>
   </si>
@@ -3259,7 +3259,7 @@
     <t>线下小规模试玩</t>
   </si>
   <si>
-    <t>绝赞立绘/近期热门预约/开放世界</t>
+    <t>角色扮演/二次元/开放世界</t>
   </si>
   <si>
     <t>上海积咪网络科技有限公司</t>
@@ -4061,6 +4061,9 @@
   </si>
   <si>
     <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>测试招募</t>
   </si>
   <si>
     <t>生存/沙盒/开放世界</t>
@@ -5049,7 +5052,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -5400,15 +5403,15 @@
   <sheetPr/>
   <dimension ref="A1:W137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="W94" sqref="W94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.3557692307692" customWidth="1"/>
+    <col min="1" max="1" width="24.3583333333333" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="17" max="17" width="10.9230769230769"/>
+    <col min="17" max="17" width="10.925"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -12079,7 +12082,7 @@
         <v>41</v>
       </c>
       <c r="W94" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -14149,13 +14152,13 @@
         <v>1111</v>
       </c>
       <c r="C124" t="s">
-        <v>375</v>
+        <v>1112</v>
       </c>
       <c r="D124" t="s">
         <v>1023</v>
       </c>
       <c r="E124" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="F124">
         <v>9.2</v>
@@ -14170,13 +14173,13 @@
         <v>33</v>
       </c>
       <c r="J124" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="K124" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="L124" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="M124" t="s">
         <v>33</v>
@@ -14220,10 +14223,10 @@
         <v>1111</v>
       </c>
       <c r="C125" t="s">
-        <v>375</v>
+        <v>1112</v>
       </c>
       <c r="D125" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E125" t="s">
         <v>1048</v>
@@ -14241,13 +14244,13 @@
         <v>33</v>
       </c>
       <c r="J125" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="K125" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="L125" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="M125" t="s">
         <v>33</v>
@@ -14291,13 +14294,13 @@
         <v>1111</v>
       </c>
       <c r="C126" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D126" t="s">
         <v>1023</v>
       </c>
       <c r="E126" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F126">
         <v>8.5</v>
@@ -14312,13 +14315,13 @@
         <v>42</v>
       </c>
       <c r="J126" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="K126" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="L126" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="M126" t="s">
         <v>33</v>
@@ -14356,7 +14359,7 @@
     </row>
     <row r="127" spans="1:23">
       <c r="A127" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B127" t="s">
         <v>1111</v>
@@ -14368,13 +14371,13 @@
         <v>1023</v>
       </c>
       <c r="E127" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="F127">
         <v>7.8</v>
       </c>
       <c r="G127" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H127" t="s">
         <v>538</v>
@@ -14383,34 +14386,34 @@
         <v>42</v>
       </c>
       <c r="J127" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="K127" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="L127" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="M127" t="s">
         <v>33</v>
       </c>
       <c r="N127" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="O127" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="P127" t="s">
         <v>42</v>
       </c>
       <c r="Q127" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="R127" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="S127" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="T127" t="s">
         <v>39</v>
@@ -14498,25 +14501,25 @@
     </row>
     <row r="129" spans="1:23">
       <c r="A129" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B129" t="s">
         <v>1111</v>
       </c>
       <c r="C129" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D129" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="E129" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H129" t="s">
         <v>538</v>
@@ -14525,13 +14528,13 @@
         <v>42</v>
       </c>
       <c r="J129" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="K129" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="L129" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="M129" t="s">
         <v>42</v>
@@ -14569,7 +14572,7 @@
     </row>
     <row r="130" spans="1:23">
       <c r="A130" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B130" t="s">
         <v>1111</v>
@@ -14581,13 +14584,13 @@
         <v>26</v>
       </c>
       <c r="E130" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="F130">
         <v>6.4</v>
       </c>
       <c r="G130" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H130" t="s">
         <v>538</v>
@@ -14596,34 +14599,34 @@
         <v>42</v>
       </c>
       <c r="J130" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="K130" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="L130" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="M130" t="s">
         <v>33</v>
       </c>
       <c r="N130" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="O130" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="P130" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="Q130" t="s">
         <v>226</v>
       </c>
       <c r="R130" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="S130" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="T130" t="s">
         <v>39</v>
@@ -14643,22 +14646,22 @@
         <v>373</v>
       </c>
       <c r="B131" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C131" t="s">
         <v>375</v>
       </c>
       <c r="D131" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E131" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="F131">
         <v>9.3</v>
       </c>
       <c r="G131" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H131" t="s">
         <v>538</v>
@@ -14667,13 +14670,13 @@
         <v>42</v>
       </c>
       <c r="J131" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="K131" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="L131" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="M131" t="s">
         <v>33</v>
@@ -14711,10 +14714,10 @@
     </row>
     <row r="132" spans="1:23">
       <c r="A132" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B132" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C132" t="s">
         <v>1022</v>
@@ -14723,13 +14726,13 @@
         <v>1023</v>
       </c>
       <c r="E132" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="F132">
         <v>8.1</v>
       </c>
       <c r="G132" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H132" t="s">
         <v>538</v>
@@ -14738,40 +14741,40 @@
         <v>42</v>
       </c>
       <c r="J132" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="K132" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="L132" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="M132" t="s">
         <v>33</v>
       </c>
       <c r="N132" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="O132" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="P132" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="Q132" t="s">
         <v>628</v>
       </c>
       <c r="R132" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="S132" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="T132" t="s">
         <v>39</v>
       </c>
       <c r="U132" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="V132" t="s">
         <v>33</v>
@@ -14782,10 +14785,10 @@
     </row>
     <row r="133" spans="1:23">
       <c r="A133" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B133" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C133" t="s">
         <v>25</v>
@@ -14794,13 +14797,13 @@
         <v>1023</v>
       </c>
       <c r="E133" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="F133">
         <v>8.6</v>
       </c>
       <c r="G133" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H133" t="s">
         <v>538</v>
@@ -14809,34 +14812,34 @@
         <v>42</v>
       </c>
       <c r="J133" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="K133" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="L133" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="M133" t="s">
         <v>33</v>
       </c>
       <c r="N133" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="O133" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="P133" t="s">
         <v>42</v>
       </c>
       <c r="Q133" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="R133" t="s">
         <v>165</v>
       </c>
       <c r="S133" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="T133" t="s">
         <v>39</v>
@@ -14856,7 +14859,7 @@
         <v>744</v>
       </c>
       <c r="B134" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C134" t="s">
         <v>375</v>
@@ -14865,7 +14868,7 @@
         <v>1023</v>
       </c>
       <c r="E134" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="F134">
         <v>9.6</v>
@@ -14880,13 +14883,13 @@
         <v>42</v>
       </c>
       <c r="J134" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="K134" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="L134" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="M134" t="s">
         <v>33</v>
@@ -14924,10 +14927,10 @@
     </row>
     <row r="135" spans="1:23">
       <c r="A135" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B135" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C135" t="s">
         <v>375</v>
@@ -14936,13 +14939,13 @@
         <v>1023</v>
       </c>
       <c r="E135" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="F135">
         <v>10</v>
       </c>
       <c r="G135" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H135" t="s">
         <v>538</v>
@@ -14951,13 +14954,13 @@
         <v>42</v>
       </c>
       <c r="J135" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="K135" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="L135" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="M135" t="s">
         <v>42</v>
@@ -14995,25 +14998,25 @@
     </row>
     <row r="136" spans="1:23">
       <c r="A136" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B136" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C136" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D136" t="s">
         <v>1023</v>
       </c>
       <c r="E136" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H136" t="s">
         <v>538</v>
@@ -15022,25 +15025,25 @@
         <v>42</v>
       </c>
       <c r="J136" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="K136" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="L136" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="M136" t="s">
         <v>33</v>
       </c>
       <c r="N136" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="O136" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="P136" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="Q136" t="s">
         <v>454</v>
@@ -15049,7 +15052,7 @@
         <v>788</v>
       </c>
       <c r="S136" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="T136" t="s">
         <v>155</v>
@@ -15066,25 +15069,25 @@
     </row>
     <row r="137" spans="1:23">
       <c r="A137" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B137" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C137" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D137" t="s">
         <v>1023</v>
       </c>
       <c r="E137" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H137" t="s">
         <v>538</v>
@@ -15093,25 +15096,25 @@
         <v>42</v>
       </c>
       <c r="J137" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="K137" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="L137" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="M137" t="s">
         <v>33</v>
       </c>
       <c r="N137" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="O137" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="P137" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="Q137" t="s">
         <v>36</v>
@@ -15120,7 +15123,7 @@
         <v>788</v>
       </c>
       <c r="S137" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="T137" t="s">
         <v>155</v>
@@ -15136,7 +15139,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W137">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:W137" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>

--- a/data/all_games_data.xlsx
+++ b/data/all_games_data.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$141</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="1213">
   <si>
     <t>名称</t>
   </si>
@@ -1451,6 +1451,9 @@
     <t>2025-05-15</t>
   </si>
   <si>
+    <t>射击/二次元/美少女</t>
+  </si>
+  <si>
     <t>Shenzhen Tencent Tianyou Technology Ltd</t>
   </si>
   <si>
@@ -2529,7 +2532,7 @@
     <t>荒野起源</t>
   </si>
   <si>
-    <t>高自由度/近期热门预约/开放世界</t>
+    <t>开放世界/SOC/生存</t>
   </si>
   <si>
     <t>https://www.3839.com/a/177337.htm</t>
@@ -2913,46 +2916,6 @@
     <t>ISBN 978-7-498-13546-9</t>
   </si>
   <si>
-    <t>龙息：神寂</t>
-  </si>
-  <si>
-    <t>游戏/策略/角色扮演</t>
-  </si>
-  <si>
-    <t>https://apps.apple.com/cn/app/%E9%BE%99%E6%81%AF-%E7%A5%9E%E5%AF%82-%E6%AD%A3%E7%89%88%E9%BE%99%E4%B8%8E%E5%9C%B0%E4%B8%8B%E5%9F%8E%E8%81%94%E5%8A%A8/id6480042764?uo=4</t>
-  </si>
-  <si>
-    <t>https://is1-ssl.mzstatic.com/image/thumb/Purple211/v4/08/2e/a6/082ea632-22bb-424e-25ab-6ce8a991afbe/AppIcon-0-0-1x_U007emarketing-0-7-0-85-220.png/512x512bb.jpg</t>
-  </si>
-  <si>
-    <t>&gt;&gt;荣登2023年苹果WWDC全球开发者大会，在场唯一国产游戏
-&gt;&gt;联动殿堂级西幻IP【龙与地下城】，传奇英雄、BOSS、剧情即将登场
-&gt;&gt;享誉全球，获海外媒体Pocket Gamer提名“年度最佳移动游戏”
-久等，屠龙者！《龙息：神寂》是新一代魔兽大世界卡牌RPG，将给你带来更耐玩、更良心、更新奇的游戏体验，相信你会喜欢！
-在这里，你将体验到：
-【原汁原味的西幻冒险】
-拒绝魔改的日韩西幻，感受最硬朗的油画美术、纯正的暗黑玩法、多种族魔兽的考究设定、史诗与狗血齐飞的浪漫......成熟男人，玩这款就对了！
-【实实在在的降肝减氪】
-项目组诚意爆改，想让你轻松爽玩！主角等级全员共鸣，养一个就够了；真·0氪养成，养成材料均免费获得；更有超量平民神卡......总之，请轻松踏上旅程！
-【没有定式的卡牌搭配】
-告别国家队和人权卡，怎么搭都能赢！这里提供了超300位英雄、多职业流派羁绊，装备、天赋也任你自由定制，只要你愿意，辅助也能C！更有40+BOSS待你挑战。你的黑科技，总有用武之地！
-【意想不到的离谱探索】
-这里是最纯正的西幻世界，自由到离谱！你可以上天入海，偷鸡摸狗，和大鹅唠嗑，和棕熊交友，和石像吵架......探索之路，奇遇妙不可言！
-最后，希望你能享受这场奇幻之旅！</t>
-  </si>
-  <si>
-    <t>国新出审〔2024〕201号</t>
-  </si>
-  <si>
-    <t>ISBN 978-7-498-13072-3</t>
-  </si>
-  <si>
-    <t>浙江出版集团数字传媒有限公司</t>
-  </si>
-  <si>
-    <t>上海傲爵数码科技有限公司</t>
-  </si>
-  <si>
     <t>萌灵传说</t>
   </si>
   <si>
@@ -3353,6 +3316,9 @@
   </si>
   <si>
     <t>2023-12-25</t>
+  </si>
+  <si>
+    <t>浙江出版集团数字传媒有限公司</t>
   </si>
   <si>
     <t>梦幻庄园</t>
@@ -4412,6 +4378,61 @@
   </si>
   <si>
     <t>ISBN 978-7-498-14176-7</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>龙息：神寂</t>
+  </si>
+  <si>
+    <t>2025-03-20</t>
+  </si>
+  <si>
+    <t>游戏/策略/角色扮演</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/cn/app/%E9%BE%99%E6%81%AF-%E7%A5%9E%E5%AF%82-%E6%AD%A3%E7%89%88%E9%BE%99%E4%B8%8E%E5%9C%B0%E4%B8%8B%E5%9F%8E%E8%81%94%E5%8A%A8/id6480042764?uo=4</t>
+  </si>
+  <si>
+    <t>https://is1-ssl.mzstatic.com/image/thumb/Purple211/v4/08/2e/a6/082ea632-22bb-424e-25ab-6ce8a991afbe/AppIcon-0-0-1x_U007emarketing-0-7-0-85-220.png/512x512bb.jpg</t>
+  </si>
+  <si>
+    <t>&gt;&gt;荣登2023年苹果WWDC全球开发者大会，在场唯一国产游戏
+&gt;&gt;联动殿堂级西幻IP【龙与地下城】，传奇英雄、BOSS、剧情即将登场
+&gt;&gt;享誉全球，获海外媒体Pocket Gamer提名“年度最佳移动游戏”
+久等，屠龙者！《龙息：神寂》是新一代魔兽大世界卡牌RPG，将给你带来更耐玩、更良心、更新奇的游戏体验，相信你会喜欢！
+在这里，你将体验到：
+【原汁原味的西幻冒险】
+拒绝魔改的日韩西幻，感受最硬朗的油画美术、纯正的暗黑玩法、多种族魔兽的考究设定、史诗与狗血齐飞的浪漫......成熟男人，玩这款就对了！
+【实实在在的降肝减氪】
+项目组诚意爆改，想让你轻松爽玩！主角等级全员共鸣，养一个就够了；真·0氪养成，养成材料均免费获得；更有超量平民神卡......总之，请轻松踏上旅程！
+【没有定式的卡牌搭配】
+告别国家队和人权卡，怎么搭都能赢！这里提供了超300位英雄、多职业流派羁绊，装备、天赋也任你自由定制，只要你愿意，辅助也能C！更有40+BOSS待你挑战。你的黑科技，总有用武之地！
+【意想不到的离谱探索】
+这里是最纯正的西幻世界，自由到离谱！你可以上天入海，偷鸡摸狗，和大鹅唠嗑，和棕熊交友，和石像吵架......探索之路，奇遇妙不可言！
+最后，希望你能享受这场奇幻之旅！</t>
+  </si>
+  <si>
+    <t>国新出审〔2024〕201号</t>
+  </si>
+  <si>
+    <t>ISBN 978-7-498-13072-3</t>
+  </si>
+  <si>
+    <t>上海傲爵数码科技有限公司</t>
+  </si>
+  <si>
+    <t>2025-01-10</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>高自由度/近期热门预约/开放世界</t>
+  </si>
+  <si>
+    <t>2024-11-20</t>
   </si>
 </sst>
 </file>
@@ -5047,7 +5068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5055,6 +5076,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5401,10 +5423,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W137"/>
+  <dimension ref="A1:W141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="W94" sqref="W94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W56" sqref="W56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7839,28 +7861,28 @@
         <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H35" t="s">
         <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J35" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K35" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L35" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M35" t="s">
         <v>33</v>
@@ -7869,10 +7891,10 @@
         <v>355</v>
       </c>
       <c r="O35" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P35" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q35" t="s">
         <v>36</v>
@@ -7884,24 +7906,24 @@
         <v>227</v>
       </c>
       <c r="T35" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="U35" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="V35" t="s">
         <v>41</v>
       </c>
       <c r="W35" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
@@ -7910,13 +7932,13 @@
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H36" t="s">
         <v>29</v>
@@ -7925,34 +7947,34 @@
         <v>42</v>
       </c>
       <c r="J36" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K36" t="s">
         <v>339</v>
       </c>
       <c r="L36" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M36" t="s">
         <v>33</v>
       </c>
       <c r="N36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O36" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P36" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q36" t="s">
         <v>72</v>
       </c>
       <c r="R36" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="S36" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="T36" t="s">
         <v>39</v>
@@ -7969,61 +7991,61 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C37" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D37" t="s">
         <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F37">
         <v>8.9</v>
       </c>
       <c r="G37" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H37" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I37" t="s">
         <v>42</v>
       </c>
       <c r="J37" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K37" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L37" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M37" t="s">
         <v>33</v>
       </c>
       <c r="N37" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O37" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P37" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q37" t="s">
         <v>36</v>
       </c>
       <c r="R37" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="S37" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="T37" t="s">
         <v>39</v>
@@ -8040,10 +8062,10 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B38" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
@@ -8052,13 +8074,13 @@
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H38" t="s">
         <v>29</v>
@@ -8067,34 +8089,34 @@
         <v>42</v>
       </c>
       <c r="J38" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K38" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L38" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M38" t="s">
         <v>33</v>
       </c>
       <c r="N38" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O38" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P38" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q38" t="s">
         <v>343</v>
       </c>
       <c r="R38" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S38" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="T38" t="s">
         <v>39</v>
@@ -8111,10 +8133,10 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B39" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
@@ -8129,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H39" t="s">
         <v>29</v>
@@ -8138,13 +8160,13 @@
         <v>42</v>
       </c>
       <c r="J39" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K39" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L39" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M39" t="s">
         <v>42</v>
@@ -8182,10 +8204,10 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B40" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
@@ -8200,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H40" t="s">
         <v>29</v>
@@ -8209,34 +8231,34 @@
         <v>42</v>
       </c>
       <c r="J40" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K40" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L40" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M40" t="s">
         <v>33</v>
       </c>
       <c r="N40" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O40" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P40" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q40" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="R40" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="S40" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="T40" t="s">
         <v>39</v>
@@ -8253,10 +8275,10 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B41" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C41" t="s">
         <v>25</v>
@@ -8271,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H41" t="s">
         <v>29</v>
@@ -8280,13 +8302,13 @@
         <v>42</v>
       </c>
       <c r="J41" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K41" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L41" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M41" t="s">
         <v>42</v>
@@ -8324,10 +8346,10 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B42" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
@@ -8342,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H42" t="s">
         <v>29</v>
@@ -8351,34 +8373,34 @@
         <v>42</v>
       </c>
       <c r="J42" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L42" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M42" t="s">
         <v>33</v>
       </c>
       <c r="N42" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O42" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P42" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q42" t="s">
         <v>152</v>
       </c>
       <c r="R42" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="S42" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="T42" t="s">
         <v>39</v>
@@ -8395,10 +8417,10 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B43" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C43" t="s">
         <v>25</v>
@@ -8413,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H43" t="s">
         <v>29</v>
@@ -8422,34 +8444,34 @@
         <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K43" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L43" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M43" t="s">
         <v>33</v>
       </c>
       <c r="N43" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O43" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P43" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q43" t="s">
         <v>217</v>
       </c>
       <c r="R43" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="S43" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T43" t="s">
         <v>155</v>
@@ -8466,10 +8488,10 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B44" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C44" t="s">
         <v>25</v>
@@ -8478,13 +8500,13 @@
         <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H44" t="s">
         <v>29</v>
@@ -8493,25 +8515,25 @@
         <v>42</v>
       </c>
       <c r="J44" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K44" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L44" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M44" t="s">
         <v>33</v>
       </c>
       <c r="N44" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O44" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P44" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q44" t="s">
         <v>248</v>
@@ -8520,13 +8542,13 @@
         <v>123</v>
       </c>
       <c r="S44" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T44" t="s">
         <v>39</v>
       </c>
       <c r="U44" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="V44" t="s">
         <v>41</v>
@@ -8537,10 +8559,10 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B45" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
@@ -8555,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H45" t="s">
         <v>29</v>
@@ -8564,34 +8586,34 @@
         <v>33</v>
       </c>
       <c r="J45" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K45" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L45" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M45" t="s">
         <v>33</v>
       </c>
       <c r="N45" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O45" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P45" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q45" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="R45" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="S45" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="T45" t="s">
         <v>155</v>
@@ -8608,10 +8630,10 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B46" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
@@ -8620,13 +8642,13 @@
         <v>26</v>
       </c>
       <c r="E46" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H46" t="s">
         <v>29</v>
@@ -8635,13 +8657,13 @@
         <v>42</v>
       </c>
       <c r="J46" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K46" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L46" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M46" t="s">
         <v>42</v>
@@ -8679,10 +8701,10 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B47" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C47" t="s">
         <v>25</v>
@@ -8697,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H47" t="s">
         <v>29</v>
@@ -8706,40 +8728,40 @@
         <v>42</v>
       </c>
       <c r="J47" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K47" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L47" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M47" t="s">
         <v>33</v>
       </c>
       <c r="N47" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O47" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P47" t="s">
         <v>42</v>
       </c>
       <c r="Q47" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="R47" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="S47" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T47" t="s">
         <v>39</v>
       </c>
       <c r="U47" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V47" t="s">
         <v>41</v>
@@ -8750,10 +8772,10 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B48" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C48" t="s">
         <v>25</v>
@@ -8762,13 +8784,13 @@
         <v>26</v>
       </c>
       <c r="E48" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H48" t="s">
         <v>29</v>
@@ -8777,34 +8799,34 @@
         <v>42</v>
       </c>
       <c r="J48" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K48" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L48" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M48" t="s">
         <v>33</v>
       </c>
       <c r="N48" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O48" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P48" t="s">
         <v>42</v>
       </c>
       <c r="Q48" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R48" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="S48" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="T48" t="s">
         <v>39</v>
@@ -8821,10 +8843,10 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B49" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C49" t="s">
         <v>25</v>
@@ -8839,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H49" t="s">
         <v>29</v>
@@ -8848,13 +8870,13 @@
         <v>42</v>
       </c>
       <c r="J49" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K49" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L49" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M49" t="s">
         <v>42</v>
@@ -8892,10 +8914,10 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B50" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C50" t="s">
         <v>25</v>
@@ -8910,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H50" t="s">
         <v>29</v>
@@ -8919,13 +8941,13 @@
         <v>42</v>
       </c>
       <c r="J50" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K50" t="s">
         <v>339</v>
       </c>
       <c r="L50" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M50" t="s">
         <v>42</v>
@@ -8963,10 +8985,10 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B51" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C51" t="s">
         <v>25</v>
@@ -8981,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H51" t="s">
         <v>29</v>
@@ -8990,34 +9012,34 @@
         <v>42</v>
       </c>
       <c r="J51" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K51" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L51" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M51" t="s">
         <v>33</v>
       </c>
       <c r="N51" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O51" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P51" t="s">
         <v>42</v>
       </c>
       <c r="Q51" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="R51" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="S51" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T51" t="s">
         <v>39</v>
@@ -9034,10 +9056,10 @@
     </row>
     <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B52" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C52" t="s">
         <v>25</v>
@@ -9052,7 +9074,7 @@
         <v>9.1</v>
       </c>
       <c r="G52" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H52" t="s">
         <v>29</v>
@@ -9061,34 +9083,34 @@
         <v>42</v>
       </c>
       <c r="J52" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K52" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L52" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M52" t="s">
         <v>33</v>
       </c>
       <c r="N52" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O52" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P52" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q52" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="R52" t="s">
         <v>123</v>
       </c>
       <c r="S52" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="T52" t="s">
         <v>39</v>
@@ -9105,10 +9127,10 @@
     </row>
     <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B53" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C53" t="s">
         <v>25</v>
@@ -9117,13 +9139,13 @@
         <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H53" t="s">
         <v>29</v>
@@ -9132,13 +9154,13 @@
         <v>42</v>
       </c>
       <c r="J53" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K53" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L53" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M53" t="s">
         <v>42</v>
@@ -9176,10 +9198,10 @@
     </row>
     <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B54" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C54" t="s">
         <v>25</v>
@@ -9194,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H54" t="s">
         <v>29</v>
@@ -9203,25 +9225,25 @@
         <v>42</v>
       </c>
       <c r="J54" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K54" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M54" t="s">
         <v>33</v>
       </c>
       <c r="N54" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O54" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P54" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q54" t="s">
         <v>140</v>
@@ -9230,7 +9252,7 @@
         <v>344</v>
       </c>
       <c r="S54" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T54" t="s">
         <v>39</v>
@@ -9247,10 +9269,10 @@
     </row>
     <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B55" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C55" t="s">
         <v>25</v>
@@ -9259,49 +9281,49 @@
         <v>26</v>
       </c>
       <c r="E55" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F55">
         <v>8.8</v>
       </c>
       <c r="G55" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H55" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I55" t="s">
         <v>42</v>
       </c>
       <c r="J55" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K55" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L55" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M55" t="s">
         <v>33</v>
       </c>
       <c r="N55" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O55" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P55" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q55" t="s">
         <v>237</v>
       </c>
       <c r="R55" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="S55" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T55" t="s">
         <v>39</v>
@@ -9318,67 +9340,67 @@
     </row>
     <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B56" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C56" t="s">
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E56" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F56">
         <v>8.5</v>
       </c>
       <c r="G56" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H56" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I56" t="s">
         <v>33</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M56" t="s">
         <v>33</v>
       </c>
       <c r="N56" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O56" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P56" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q56" s="4">
         <v>45495</v>
       </c>
       <c r="R56" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="S56" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="T56" t="s">
         <v>39</v>
       </c>
       <c r="U56" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="V56" t="s">
         <v>41</v>
@@ -9389,10 +9411,10 @@
     </row>
     <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B57" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C57" t="s">
         <v>25</v>
@@ -9401,49 +9423,49 @@
         <v>26</v>
       </c>
       <c r="E57" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F57">
         <v>8.6</v>
       </c>
       <c r="G57" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H57" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I57" t="s">
         <v>42</v>
       </c>
       <c r="J57" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K57" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L57" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M57" t="s">
         <v>33</v>
       </c>
       <c r="N57" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O57" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P57" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q57" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="R57" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="S57" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="T57" t="s">
         <v>39</v>
@@ -9460,61 +9482,61 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B58" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C58" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D58" t="s">
         <v>26</v>
       </c>
       <c r="E58" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F58">
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H58" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I58" t="s">
         <v>42</v>
       </c>
       <c r="J58" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K58" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L58" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M58" t="s">
         <v>33</v>
       </c>
       <c r="N58" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O58" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P58" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Q58" t="s">
         <v>72</v>
       </c>
       <c r="R58" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="S58" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="T58" t="s">
         <v>39</v>
@@ -9531,10 +9553,10 @@
     </row>
     <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B59" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C59" t="s">
         <v>25</v>
@@ -9543,13 +9565,13 @@
         <v>26</v>
       </c>
       <c r="E59" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H59" t="s">
         <v>29</v>
@@ -9558,40 +9580,40 @@
         <v>42</v>
       </c>
       <c r="J59" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K59" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L59" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M59" t="s">
         <v>33</v>
       </c>
       <c r="N59" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O59" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P59" t="s">
         <v>42</v>
       </c>
       <c r="Q59" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="R59" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="S59" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="T59" t="s">
         <v>39</v>
       </c>
       <c r="U59" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V59" t="s">
         <v>41</v>
@@ -9602,61 +9624,61 @@
     </row>
     <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B60" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C60" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D60" t="s">
         <v>26</v>
       </c>
       <c r="E60" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F60">
         <v>7.6</v>
       </c>
       <c r="G60" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H60" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I60" t="s">
         <v>42</v>
       </c>
       <c r="J60" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K60" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L60" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M60" t="s">
         <v>33</v>
       </c>
       <c r="N60" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O60" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P60" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Q60" t="s">
         <v>140</v>
       </c>
       <c r="R60" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="S60" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="T60" t="s">
         <v>39</v>
@@ -9673,10 +9695,10 @@
     </row>
     <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B61" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C61" t="s">
         <v>25</v>
@@ -9685,49 +9707,49 @@
         <v>26</v>
       </c>
       <c r="E61" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F61">
         <v>8.3</v>
       </c>
       <c r="G61" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H61" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I61" t="s">
         <v>42</v>
       </c>
       <c r="J61" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K61" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L61" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M61" t="s">
         <v>33</v>
       </c>
       <c r="N61" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O61" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P61" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q61" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="R61" t="s">
         <v>238</v>
       </c>
       <c r="S61" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="T61" t="s">
         <v>155</v>
@@ -9744,61 +9766,61 @@
     </row>
     <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B62" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C62" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
       </c>
       <c r="E62" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F62">
         <v>8.3</v>
       </c>
       <c r="G62" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H62" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I62" t="s">
         <v>33</v>
       </c>
       <c r="J62" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L62" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M62" t="s">
         <v>33</v>
       </c>
       <c r="N62" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O62" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="P62" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Q62" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="R62" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="S62" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="T62" t="s">
         <v>155</v>
@@ -9815,10 +9837,10 @@
     </row>
     <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B63" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C63" t="s">
         <v>25</v>
@@ -9827,13 +9849,13 @@
         <v>26</v>
       </c>
       <c r="E63" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H63" t="s">
         <v>29</v>
@@ -9842,34 +9864,34 @@
         <v>42</v>
       </c>
       <c r="J63" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="K63" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L63" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M63" t="s">
         <v>33</v>
       </c>
       <c r="N63" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O63" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P63" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Q63" t="s">
         <v>140</v>
       </c>
       <c r="R63" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="S63" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="T63" t="s">
         <v>39</v>
@@ -9886,10 +9908,10 @@
     </row>
     <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B64" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C64" t="s">
         <v>25</v>
@@ -9913,28 +9935,28 @@
         <v>42</v>
       </c>
       <c r="J64" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K64" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L64" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M64" t="s">
         <v>33</v>
       </c>
       <c r="N64" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O64" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P64" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Q64" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="R64" t="s">
         <v>353</v>
@@ -9957,10 +9979,10 @@
     </row>
     <row r="65" spans="1:23">
       <c r="A65" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B65" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C65" t="s">
         <v>25</v>
@@ -9969,13 +9991,13 @@
         <v>26</v>
       </c>
       <c r="E65" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H65" t="s">
         <v>29</v>
@@ -9984,13 +10006,13 @@
         <v>42</v>
       </c>
       <c r="J65" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K65" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L65" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M65" t="s">
         <v>42</v>
@@ -10028,10 +10050,10 @@
     </row>
     <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B66" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C66" t="s">
         <v>25</v>
@@ -10046,43 +10068,43 @@
         <v>7.1</v>
       </c>
       <c r="G66" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H66" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I66" t="s">
         <v>33</v>
       </c>
       <c r="J66" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="K66" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L66" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M66" t="s">
         <v>33</v>
       </c>
       <c r="N66" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O66" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="P66" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Q66" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="R66" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="S66" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="T66" t="s">
         <v>39</v>
@@ -10099,10 +10121,10 @@
     </row>
     <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B67" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C67" t="s">
         <v>25</v>
@@ -10111,49 +10133,49 @@
         <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H67" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I67" t="s">
         <v>42</v>
       </c>
       <c r="J67" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K67" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="L67" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M67" t="s">
         <v>33</v>
       </c>
       <c r="N67" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O67" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="P67" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Q67" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="R67" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="S67" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="T67" t="s">
         <v>39</v>
@@ -10170,61 +10192,61 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B68" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C68" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D68" t="s">
         <v>26</v>
       </c>
       <c r="E68" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F68">
         <v>8.1</v>
       </c>
       <c r="G68" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H68" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I68" t="s">
         <v>33</v>
       </c>
       <c r="J68" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L68" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M68" t="s">
         <v>33</v>
       </c>
       <c r="N68" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O68" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="P68" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Q68" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="R68" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="S68" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="T68" t="s">
         <v>39</v>
@@ -10236,15 +10258,15 @@
         <v>41</v>
       </c>
       <c r="W68" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B69" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C69" t="s">
         <v>25</v>
@@ -10259,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H69" t="s">
         <v>29</v>
@@ -10268,34 +10290,34 @@
         <v>42</v>
       </c>
       <c r="J69" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="K69" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L69" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M69" t="s">
         <v>33</v>
       </c>
       <c r="N69" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O69" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="P69" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Q69" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R69" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S69" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="T69" t="s">
         <v>39</v>
@@ -10312,10 +10334,10 @@
     </row>
     <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B70" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C70" t="s">
         <v>25</v>
@@ -10324,40 +10346,40 @@
         <v>26</v>
       </c>
       <c r="E70" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F70">
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H70" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I70" t="s">
         <v>42</v>
       </c>
       <c r="J70" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K70" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L70" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M70" t="s">
         <v>33</v>
       </c>
       <c r="N70" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O70" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P70" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Q70" t="s">
         <v>259</v>
@@ -10366,7 +10388,7 @@
         <v>321</v>
       </c>
       <c r="S70" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="T70" t="s">
         <v>39</v>
@@ -10383,10 +10405,10 @@
     </row>
     <row r="71" spans="1:23">
       <c r="A71" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B71" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C71" t="s">
         <v>25</v>
@@ -10395,13 +10417,13 @@
         <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H71" t="s">
         <v>29</v>
@@ -10410,34 +10432,34 @@
         <v>42</v>
       </c>
       <c r="J71" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K71" t="s">
         <v>339</v>
       </c>
       <c r="L71" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M71" t="s">
         <v>33</v>
       </c>
       <c r="N71" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="O71" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="P71" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Q71" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="R71" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="S71" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="T71" t="s">
         <v>39</v>
@@ -10457,16 +10479,16 @@
         <v>187</v>
       </c>
       <c r="B72" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C72" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D72" t="s">
         <v>26</v>
       </c>
       <c r="E72" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F72">
         <v>8.2</v>
@@ -10475,19 +10497,19 @@
         <v>196</v>
       </c>
       <c r="H72" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I72" t="s">
         <v>42</v>
       </c>
       <c r="J72" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K72" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L72" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M72" t="s">
         <v>33</v>
@@ -10525,10 +10547,10 @@
     </row>
     <row r="73" spans="1:23">
       <c r="A73" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B73" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C73" t="s">
         <v>25</v>
@@ -10543,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H73" t="s">
         <v>29</v>
@@ -10552,34 +10574,34 @@
         <v>42</v>
       </c>
       <c r="J73" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K73" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L73" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M73" t="s">
         <v>33</v>
       </c>
       <c r="N73" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O73" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P73" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q73" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="R73" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="S73" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="T73" t="s">
         <v>39</v>
@@ -10596,61 +10618,61 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B74" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C74" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D74" t="s">
         <v>26</v>
       </c>
       <c r="E74" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F74">
         <v>8.8</v>
       </c>
       <c r="G74" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H74" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I74" t="s">
         <v>42</v>
       </c>
       <c r="J74" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K74" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L74" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M74" t="s">
         <v>33</v>
       </c>
       <c r="N74" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O74" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P74" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q74" t="s">
         <v>237</v>
       </c>
       <c r="R74" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="S74" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T74" t="s">
         <v>39</v>
@@ -10667,10 +10689,10 @@
     </row>
     <row r="75" spans="1:23">
       <c r="A75" t="s">
+        <v>704</v>
+      </c>
+      <c r="B75" t="s">
         <v>703</v>
-      </c>
-      <c r="B75" t="s">
-        <v>702</v>
       </c>
       <c r="C75" t="s">
         <v>25</v>
@@ -10679,40 +10701,40 @@
         <v>26</v>
       </c>
       <c r="E75" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H75" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I75" t="s">
         <v>42</v>
       </c>
       <c r="J75" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K75" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="L75" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M75" t="s">
         <v>33</v>
       </c>
       <c r="N75" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O75" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="P75" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Q75" t="s">
         <v>343</v>
@@ -10721,7 +10743,7 @@
         <v>227</v>
       </c>
       <c r="S75" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="T75" t="s">
         <v>39</v>
@@ -10738,61 +10760,61 @@
     </row>
     <row r="76" spans="1:23">
       <c r="A76" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B76" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C76" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D76" t="s">
         <v>26</v>
       </c>
       <c r="E76" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F76">
         <v>8.6</v>
       </c>
       <c r="G76" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H76" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I76" t="s">
         <v>42</v>
       </c>
       <c r="J76" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="K76" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="L76" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M76" t="s">
         <v>33</v>
       </c>
       <c r="N76" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="O76" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="P76" t="s">
         <v>42</v>
       </c>
       <c r="Q76" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="R76" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="S76" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="T76" t="s">
         <v>39</v>
@@ -10809,10 +10831,10 @@
     </row>
     <row r="77" spans="1:23">
       <c r="A77" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B77" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C77" t="s">
         <v>25</v>
@@ -10821,40 +10843,40 @@
         <v>26</v>
       </c>
       <c r="E77" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H77" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I77" t="s">
         <v>42</v>
       </c>
       <c r="J77" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K77" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L77" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M77" t="s">
         <v>33</v>
       </c>
       <c r="N77" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O77" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="P77" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="Q77" t="s">
         <v>98</v>
@@ -10863,7 +10885,7 @@
         <v>37</v>
       </c>
       <c r="S77" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="T77" t="s">
         <v>39</v>
@@ -10883,7 +10905,7 @@
         <v>229</v>
       </c>
       <c r="B78" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C78" t="s">
         <v>25</v>
@@ -10892,25 +10914,25 @@
         <v>26</v>
       </c>
       <c r="E78" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F78">
         <v>8.2</v>
       </c>
       <c r="G78" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H78" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I78" t="s">
         <v>42</v>
       </c>
       <c r="J78" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="K78" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L78" t="s">
         <v>234</v>
@@ -10951,61 +10973,61 @@
     </row>
     <row r="79" spans="1:23">
       <c r="A79" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B79" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C79" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D79" t="s">
         <v>26</v>
       </c>
       <c r="E79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F79">
         <v>8.1</v>
       </c>
       <c r="G79" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H79" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I79" t="s">
         <v>42</v>
       </c>
       <c r="J79" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="K79" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="L79" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M79" t="s">
         <v>33</v>
       </c>
       <c r="N79" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="O79" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="P79" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="Q79" t="s">
         <v>122</v>
       </c>
       <c r="R79" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="S79" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="T79" t="s">
         <v>39</v>
@@ -11022,61 +11044,61 @@
     </row>
     <row r="80" spans="1:23">
       <c r="A80" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B80" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C80" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D80" t="s">
         <v>26</v>
       </c>
       <c r="E80" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F80">
         <v>9.7</v>
       </c>
       <c r="G80" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H80" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I80" t="s">
         <v>42</v>
       </c>
       <c r="J80" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="K80" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L80" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M80" t="s">
         <v>33</v>
       </c>
       <c r="N80" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O80" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P80" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="Q80" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="R80" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="S80" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="T80" t="s">
         <v>39</v>
@@ -11093,10 +11115,10 @@
     </row>
     <row r="81" spans="1:23">
       <c r="A81" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B81" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C81" t="s">
         <v>25</v>
@@ -11105,13 +11127,13 @@
         <v>26</v>
       </c>
       <c r="E81" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H81" t="s">
         <v>29</v>
@@ -11120,34 +11142,34 @@
         <v>42</v>
       </c>
       <c r="J81" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K81" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L81" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M81" t="s">
         <v>33</v>
       </c>
       <c r="N81" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="O81" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P81" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="Q81" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="R81" t="s">
         <v>311</v>
       </c>
       <c r="S81" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T81" t="s">
         <v>42</v>
@@ -11164,10 +11186,10 @@
     </row>
     <row r="82" spans="1:23">
       <c r="A82" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B82" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C82" t="s">
         <v>25</v>
@@ -11176,49 +11198,49 @@
         <v>26</v>
       </c>
       <c r="E82" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F82">
         <v>7.3</v>
       </c>
       <c r="G82" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H82" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I82" t="s">
         <v>42</v>
       </c>
       <c r="J82" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="K82" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="L82" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M82" t="s">
         <v>33</v>
       </c>
       <c r="N82" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="O82" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="P82" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Q82" t="s">
         <v>140</v>
       </c>
       <c r="R82" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="S82" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="T82" t="s">
         <v>39</v>
@@ -11235,67 +11257,67 @@
     </row>
     <row r="83" spans="1:23">
       <c r="A83" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B83" t="s">
-        <v>702</v>
+        <v>772</v>
       </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>561</v>
       </c>
       <c r="D83" t="s">
         <v>26</v>
       </c>
       <c r="E83" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F83">
-        <v>8.3</v>
+        <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>357</v>
+        <v>774</v>
       </c>
       <c r="H83" t="s">
-        <v>29</v>
+        <v>379</v>
       </c>
       <c r="I83" t="s">
         <v>42</v>
       </c>
       <c r="J83" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="K83" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="L83" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="M83" t="s">
         <v>33</v>
       </c>
       <c r="N83" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="O83" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="P83" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="Q83" t="s">
-        <v>320</v>
+        <v>662</v>
       </c>
       <c r="R83" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="S83" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="T83" t="s">
         <v>39</v>
       </c>
       <c r="U83" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="V83" t="s">
         <v>41</v>
@@ -11306,58 +11328,58 @@
     </row>
     <row r="84" spans="1:23">
       <c r="A84" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B84" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="C84" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D84" t="s">
         <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="G84" t="s">
-        <v>782</v>
+        <v>605</v>
       </c>
       <c r="H84" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I84" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J84" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="K84" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="L84" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M84" t="s">
         <v>33</v>
       </c>
       <c r="N84" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="O84" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="P84" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="Q84" t="s">
-        <v>661</v>
+        <v>98</v>
       </c>
       <c r="R84" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="S84" t="s">
         <v>789</v>
@@ -11366,7 +11388,7 @@
         <v>39</v>
       </c>
       <c r="U84" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V84" t="s">
         <v>41</v>
@@ -11380,10 +11402,10 @@
         <v>790</v>
       </c>
       <c r="B85" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="C85" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D85" t="s">
         <v>26</v>
@@ -11392,25 +11414,25 @@
         <v>791</v>
       </c>
       <c r="F85">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="G85" t="s">
-        <v>604</v>
+        <v>792</v>
       </c>
       <c r="H85" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I85" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J85" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="K85" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="L85" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M85" t="s">
         <v>33</v>
@@ -11419,25 +11441,25 @@
         <v>790</v>
       </c>
       <c r="O85" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="P85" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="Q85" t="s">
-        <v>98</v>
+        <v>320</v>
       </c>
       <c r="R85" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="S85" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="T85" t="s">
         <v>39</v>
       </c>
       <c r="U85" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="V85" t="s">
         <v>41</v>
@@ -11448,67 +11470,67 @@
     </row>
     <row r="86" spans="1:23">
       <c r="A86" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B86" t="s">
-        <v>780</v>
+        <v>801</v>
       </c>
       <c r="C86" t="s">
-        <v>560</v>
+        <v>25</v>
       </c>
       <c r="D86" t="s">
         <v>26</v>
       </c>
       <c r="E86" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="F86">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="G86" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="H86" t="s">
-        <v>378</v>
+        <v>539</v>
       </c>
       <c r="I86" t="s">
         <v>42</v>
       </c>
       <c r="J86" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="K86" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="L86" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="M86" t="s">
         <v>33</v>
       </c>
       <c r="N86" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="O86" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="P86" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="Q86" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="R86" t="s">
-        <v>806</v>
+        <v>37</v>
       </c>
       <c r="S86" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="T86" t="s">
         <v>39</v>
       </c>
       <c r="U86" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="V86" t="s">
         <v>41</v>
@@ -11519,61 +11541,61 @@
     </row>
     <row r="87" spans="1:23">
       <c r="A87" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B87" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>561</v>
       </c>
       <c r="D87" t="s">
         <v>26</v>
       </c>
       <c r="E87" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F87">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H87" t="s">
-        <v>538</v>
+        <v>379</v>
       </c>
       <c r="I87" t="s">
         <v>42</v>
       </c>
       <c r="J87" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K87" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L87" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M87" t="s">
         <v>33</v>
       </c>
       <c r="N87" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="O87" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="P87" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="Q87" t="s">
-        <v>259</v>
+        <v>818</v>
       </c>
       <c r="R87" t="s">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="S87" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="T87" t="s">
         <v>39</v>
@@ -11590,67 +11612,67 @@
     </row>
     <row r="88" spans="1:23">
       <c r="A88" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B88" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="C88" t="s">
-        <v>560</v>
+        <v>25</v>
       </c>
       <c r="D88" t="s">
         <v>26</v>
       </c>
       <c r="E88" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="H88" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="I88" t="s">
         <v>42</v>
       </c>
       <c r="J88" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="K88" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="L88" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="M88" t="s">
         <v>33</v>
       </c>
       <c r="N88" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="O88" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="P88" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="Q88" t="s">
-        <v>826</v>
+        <v>259</v>
       </c>
       <c r="R88" t="s">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="S88" t="s">
-        <v>827</v>
+        <v>74</v>
       </c>
       <c r="T88" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V88" t="s">
         <v>41</v>
@@ -11664,7 +11686,7 @@
         <v>828</v>
       </c>
       <c r="B89" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="C89" t="s">
         <v>25</v>
@@ -11673,13 +11695,13 @@
         <v>26</v>
       </c>
       <c r="E89" t="s">
-        <v>829</v>
+        <v>65</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H89" t="s">
         <v>29</v>
@@ -11688,13 +11710,13 @@
         <v>42</v>
       </c>
       <c r="J89" t="s">
+        <v>830</v>
+      </c>
+      <c r="K89" t="s">
         <v>831</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>832</v>
-      </c>
-      <c r="L89" t="s">
-        <v>833</v>
       </c>
       <c r="M89" t="s">
         <v>33</v>
@@ -11703,25 +11725,25 @@
         <v>828</v>
       </c>
       <c r="O89" t="s">
+        <v>833</v>
+      </c>
+      <c r="P89" t="s">
         <v>834</v>
       </c>
-      <c r="P89" t="s">
+      <c r="Q89" t="s">
+        <v>410</v>
+      </c>
+      <c r="R89" t="s">
+        <v>385</v>
+      </c>
+      <c r="S89" t="s">
         <v>835</v>
       </c>
-      <c r="Q89" t="s">
-        <v>259</v>
-      </c>
-      <c r="R89" t="s">
-        <v>73</v>
-      </c>
-      <c r="S89" t="s">
-        <v>74</v>
-      </c>
       <c r="T89" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V89" t="s">
         <v>41</v>
@@ -11735,7 +11757,7 @@
         <v>836</v>
       </c>
       <c r="B90" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="C90" t="s">
         <v>25</v>
@@ -11744,13 +11766,13 @@
         <v>26</v>
       </c>
       <c r="E90" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>837</v>
+        <v>116</v>
       </c>
       <c r="H90" t="s">
         <v>29</v>
@@ -11759,13 +11781,13 @@
         <v>42</v>
       </c>
       <c r="J90" t="s">
+        <v>837</v>
+      </c>
+      <c r="K90" t="s">
         <v>838</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>839</v>
-      </c>
-      <c r="L90" t="s">
-        <v>840</v>
       </c>
       <c r="M90" t="s">
         <v>33</v>
@@ -11774,22 +11796,22 @@
         <v>836</v>
       </c>
       <c r="O90" t="s">
+        <v>840</v>
+      </c>
+      <c r="P90" t="s">
         <v>841</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
+        <v>152</v>
+      </c>
+      <c r="R90" t="s">
+        <v>238</v>
+      </c>
+      <c r="S90" t="s">
         <v>842</v>
       </c>
-      <c r="Q90" t="s">
-        <v>409</v>
-      </c>
-      <c r="R90" t="s">
-        <v>384</v>
-      </c>
-      <c r="S90" t="s">
-        <v>843</v>
-      </c>
       <c r="T90" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="U90" t="s">
         <v>40</v>
@@ -11803,64 +11825,64 @@
     </row>
     <row r="91" spans="1:23">
       <c r="A91" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B91" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>561</v>
       </c>
       <c r="D91" t="s">
         <v>26</v>
       </c>
       <c r="E91" t="s">
-        <v>133</v>
+        <v>844</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>116</v>
+        <v>845</v>
       </c>
       <c r="H91" t="s">
-        <v>29</v>
+        <v>379</v>
       </c>
       <c r="I91" t="s">
         <v>42</v>
       </c>
       <c r="J91" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="K91" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="L91" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="M91" t="s">
         <v>33</v>
       </c>
       <c r="N91" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O91" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="P91" t="s">
-        <v>849</v>
+        <v>42</v>
       </c>
       <c r="Q91" t="s">
-        <v>152</v>
+        <v>850</v>
       </c>
       <c r="R91" t="s">
-        <v>238</v>
+        <v>851</v>
       </c>
       <c r="S91" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="T91" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="U91" t="s">
         <v>40</v>
@@ -11874,61 +11896,61 @@
     </row>
     <row r="92" spans="1:23">
       <c r="A92" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B92" t="s">
-        <v>809</v>
+        <v>853</v>
       </c>
       <c r="C92" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D92" t="s">
         <v>26</v>
       </c>
       <c r="E92" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>9.2</v>
       </c>
       <c r="G92" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="H92" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I92" t="s">
         <v>42</v>
       </c>
       <c r="J92" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="K92" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="L92" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="M92" t="s">
         <v>33</v>
       </c>
       <c r="N92" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="O92" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="P92" t="s">
-        <v>42</v>
+        <v>860</v>
       </c>
       <c r="Q92" t="s">
-        <v>858</v>
+        <v>343</v>
       </c>
       <c r="R92" t="s">
-        <v>859</v>
+        <v>663</v>
       </c>
       <c r="S92" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="T92" t="s">
         <v>39</v>
@@ -11945,212 +11967,212 @@
     </row>
     <row r="93" spans="1:23">
       <c r="A93" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B93" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C93" t="s">
-        <v>560</v>
+        <v>864</v>
       </c>
       <c r="D93" t="s">
         <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="F93">
-        <v>9.2</v>
+        <v>9.4</v>
       </c>
       <c r="G93" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="H93" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I93" t="s">
         <v>42</v>
       </c>
       <c r="J93" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="K93" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="L93" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="M93" t="s">
         <v>33</v>
       </c>
       <c r="N93" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="O93" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="P93" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="Q93" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="R93" t="s">
-        <v>662</v>
+        <v>385</v>
       </c>
       <c r="S93" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="T93" t="s">
         <v>39</v>
       </c>
       <c r="U93" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V93" t="s">
         <v>41</v>
       </c>
       <c r="W93" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:23">
       <c r="A94" t="s">
-        <v>870</v>
+        <v>313</v>
       </c>
       <c r="B94" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="C94" t="s">
-        <v>872</v>
+        <v>376</v>
       </c>
       <c r="D94" t="s">
         <v>26</v>
       </c>
       <c r="E94" t="s">
+        <v>872</v>
+      </c>
+      <c r="F94">
+        <v>7.7</v>
+      </c>
+      <c r="G94" t="s">
+        <v>322</v>
+      </c>
+      <c r="H94" t="s">
+        <v>379</v>
+      </c>
+      <c r="I94" t="s">
+        <v>42</v>
+      </c>
+      <c r="J94" t="s">
         <v>873</v>
       </c>
-      <c r="F94">
-        <v>9.4</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="K94" t="s">
         <v>874</v>
       </c>
-      <c r="H94" t="s">
-        <v>378</v>
-      </c>
-      <c r="I94" t="s">
-        <v>42</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="L94" t="s">
         <v>875</v>
-      </c>
-      <c r="K94" t="s">
-        <v>876</v>
-      </c>
-      <c r="L94" t="s">
-        <v>877</v>
       </c>
       <c r="M94" t="s">
         <v>33</v>
       </c>
       <c r="N94" t="s">
-        <v>870</v>
+        <v>313</v>
       </c>
       <c r="O94" t="s">
-        <v>878</v>
+        <v>318</v>
       </c>
       <c r="P94" t="s">
-        <v>879</v>
+        <v>319</v>
       </c>
       <c r="Q94" t="s">
         <v>320</v>
       </c>
       <c r="R94" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="S94" t="s">
-        <v>874</v>
+        <v>322</v>
       </c>
       <c r="T94" t="s">
         <v>39</v>
       </c>
       <c r="U94" t="s">
-        <v>75</v>
+        <v>323</v>
       </c>
       <c r="V94" t="s">
         <v>41</v>
       </c>
       <c r="W94" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:23">
       <c r="A95" t="s">
-        <v>313</v>
+        <v>876</v>
       </c>
       <c r="B95" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="C95" t="s">
-        <v>375</v>
+        <v>25</v>
       </c>
       <c r="D95" t="s">
         <v>26</v>
       </c>
       <c r="E95" t="s">
+        <v>877</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>878</v>
+      </c>
+      <c r="H95" t="s">
+        <v>379</v>
+      </c>
+      <c r="I95" t="s">
+        <v>42</v>
+      </c>
+      <c r="J95" t="s">
+        <v>879</v>
+      </c>
+      <c r="K95" t="s">
         <v>880</v>
       </c>
-      <c r="F95">
-        <v>7.7</v>
-      </c>
-      <c r="G95" t="s">
-        <v>322</v>
-      </c>
-      <c r="H95" t="s">
-        <v>378</v>
-      </c>
-      <c r="I95" t="s">
-        <v>42</v>
-      </c>
-      <c r="J95" t="s">
+      <c r="L95" t="s">
         <v>881</v>
       </c>
-      <c r="K95" t="s">
-        <v>882</v>
-      </c>
-      <c r="L95" t="s">
-        <v>883</v>
-      </c>
       <c r="M95" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N95" t="s">
-        <v>313</v>
+        <v>42</v>
       </c>
       <c r="O95" t="s">
-        <v>318</v>
+        <v>42</v>
       </c>
       <c r="P95" t="s">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="Q95" t="s">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="R95" t="s">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="S95" t="s">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="T95" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U95" t="s">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="V95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W95" t="s">
         <v>42</v>
@@ -12158,70 +12180,70 @@
     </row>
     <row r="96" spans="1:23">
       <c r="A96" t="s">
-        <v>884</v>
+        <v>303</v>
       </c>
       <c r="B96" t="s">
-        <v>871</v>
+        <v>882</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>561</v>
       </c>
       <c r="D96" t="s">
         <v>26</v>
       </c>
       <c r="E96" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96" t="s">
+        <v>884</v>
+      </c>
+      <c r="H96" t="s">
+        <v>379</v>
+      </c>
+      <c r="I96" t="s">
+        <v>42</v>
+      </c>
+      <c r="J96" t="s">
+        <v>885</v>
+      </c>
+      <c r="K96" t="s">
         <v>886</v>
       </c>
-      <c r="H96" t="s">
-        <v>378</v>
-      </c>
-      <c r="I96" t="s">
-        <v>42</v>
-      </c>
-      <c r="J96" t="s">
+      <c r="L96" t="s">
         <v>887</v>
       </c>
-      <c r="K96" t="s">
-        <v>888</v>
-      </c>
-      <c r="L96" t="s">
-        <v>889</v>
-      </c>
       <c r="M96" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N96" t="s">
-        <v>42</v>
+        <v>303</v>
       </c>
       <c r="O96" t="s">
-        <v>42</v>
+        <v>309</v>
       </c>
       <c r="P96" t="s">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="Q96" t="s">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="R96" t="s">
-        <v>42</v>
+        <v>311</v>
       </c>
       <c r="S96" t="s">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="T96" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U96" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W96" t="s">
         <v>42</v>
@@ -12229,61 +12251,61 @@
     </row>
     <row r="97" spans="1:23">
       <c r="A97" t="s">
-        <v>303</v>
+        <v>888</v>
       </c>
       <c r="B97" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C97" t="s">
-        <v>560</v>
+        <v>376</v>
       </c>
       <c r="D97" t="s">
         <v>26</v>
       </c>
       <c r="E97" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97" t="s">
+        <v>890</v>
+      </c>
+      <c r="H97" t="s">
+        <v>379</v>
+      </c>
+      <c r="I97" t="s">
+        <v>42</v>
+      </c>
+      <c r="J97" t="s">
+        <v>891</v>
+      </c>
+      <c r="K97" t="s">
         <v>892</v>
       </c>
-      <c r="H97" t="s">
-        <v>378</v>
-      </c>
-      <c r="I97" t="s">
-        <v>42</v>
-      </c>
-      <c r="J97" t="s">
+      <c r="L97" t="s">
         <v>893</v>
-      </c>
-      <c r="K97" t="s">
-        <v>894</v>
-      </c>
-      <c r="L97" t="s">
-        <v>895</v>
       </c>
       <c r="M97" t="s">
         <v>33</v>
       </c>
       <c r="N97" t="s">
-        <v>303</v>
+        <v>888</v>
       </c>
       <c r="O97" t="s">
-        <v>309</v>
+        <v>894</v>
       </c>
       <c r="P97" t="s">
-        <v>310</v>
+        <v>895</v>
       </c>
       <c r="Q97" t="s">
-        <v>248</v>
+        <v>896</v>
       </c>
       <c r="R97" t="s">
-        <v>311</v>
+        <v>897</v>
       </c>
       <c r="S97" t="s">
-        <v>312</v>
+        <v>890</v>
       </c>
       <c r="T97" t="s">
         <v>39</v>
@@ -12300,67 +12322,67 @@
     </row>
     <row r="98" spans="1:23">
       <c r="A98" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B98" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C98" t="s">
-        <v>375</v>
+        <v>25</v>
       </c>
       <c r="D98" t="s">
         <v>26</v>
       </c>
       <c r="E98" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="H98" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I98" t="s">
         <v>42</v>
       </c>
       <c r="J98" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="K98" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="L98" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="M98" t="s">
         <v>33</v>
       </c>
       <c r="N98" t="s">
+        <v>898</v>
+      </c>
+      <c r="O98" t="s">
+        <v>904</v>
+      </c>
+      <c r="P98" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q98" t="s">
         <v>896</v>
       </c>
-      <c r="O98" t="s">
-        <v>902</v>
-      </c>
-      <c r="P98" t="s">
-        <v>903</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>904</v>
-      </c>
       <c r="R98" t="s">
-        <v>777</v>
+        <v>906</v>
       </c>
       <c r="S98" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="T98" t="s">
         <v>39</v>
       </c>
       <c r="U98" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="V98" t="s">
         <v>41</v>
@@ -12371,10 +12393,10 @@
     </row>
     <row r="99" spans="1:23">
       <c r="A99" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="B99" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C99" t="s">
         <v>25</v>
@@ -12383,58 +12405,58 @@
         <v>26</v>
       </c>
       <c r="E99" t="s">
-        <v>906</v>
+        <v>45</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="H99" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="I99" t="s">
         <v>42</v>
       </c>
       <c r="J99" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="K99" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="L99" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="M99" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N99" t="s">
-        <v>905</v>
+        <v>42</v>
       </c>
       <c r="O99" t="s">
-        <v>911</v>
+        <v>42</v>
       </c>
       <c r="P99" t="s">
-        <v>912</v>
+        <v>42</v>
       </c>
       <c r="Q99" t="s">
-        <v>904</v>
+        <v>42</v>
       </c>
       <c r="R99" t="s">
-        <v>913</v>
+        <v>42</v>
       </c>
       <c r="S99" t="s">
-        <v>914</v>
+        <v>42</v>
       </c>
       <c r="T99" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U99" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="V99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W99" t="s">
         <v>42</v>
@@ -12442,70 +12464,70 @@
     </row>
     <row r="100" spans="1:23">
       <c r="A100" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B100" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>561</v>
       </c>
       <c r="D100" t="s">
         <v>26</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>914</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100" t="s">
+        <v>915</v>
+      </c>
+      <c r="H100" t="s">
+        <v>379</v>
+      </c>
+      <c r="I100" t="s">
+        <v>42</v>
+      </c>
+      <c r="J100" t="s">
         <v>916</v>
       </c>
-      <c r="H100" t="s">
-        <v>29</v>
-      </c>
-      <c r="I100" t="s">
-        <v>42</v>
-      </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>917</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>918</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
+        <v>33</v>
+      </c>
+      <c r="N100" t="s">
+        <v>913</v>
+      </c>
+      <c r="O100" t="s">
         <v>919</v>
       </c>
-      <c r="M100" t="s">
-        <v>42</v>
-      </c>
-      <c r="N100" t="s">
-        <v>42</v>
-      </c>
-      <c r="O100" t="s">
-        <v>42</v>
-      </c>
       <c r="P100" t="s">
-        <v>42</v>
+        <v>920</v>
       </c>
       <c r="Q100" t="s">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="R100" t="s">
-        <v>42</v>
+        <v>921</v>
       </c>
       <c r="S100" t="s">
-        <v>42</v>
+        <v>922</v>
       </c>
       <c r="T100" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U100" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W100" t="s">
         <v>42</v>
@@ -12513,61 +12535,61 @@
     </row>
     <row r="101" spans="1:23">
       <c r="A101" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="B101" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C101" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D101" t="s">
         <v>26</v>
       </c>
       <c r="E101" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="G101" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H101" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I101" t="s">
         <v>42</v>
       </c>
       <c r="J101" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="K101" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="L101" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="M101" t="s">
         <v>33</v>
       </c>
       <c r="N101" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="O101" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="P101" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="Q101" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="R101" t="s">
-        <v>928</v>
+        <v>344</v>
       </c>
       <c r="S101" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="T101" t="s">
         <v>39</v>
@@ -12584,61 +12606,61 @@
     </row>
     <row r="102" spans="1:23">
       <c r="A102" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B102" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C102" t="s">
-        <v>560</v>
+        <v>25</v>
       </c>
       <c r="D102" t="s">
         <v>26</v>
       </c>
       <c r="E102" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F102">
-        <v>9.4</v>
+        <v>9.3</v>
       </c>
       <c r="G102" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="H102" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I102" t="s">
         <v>42</v>
       </c>
       <c r="J102" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="K102" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="L102" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="M102" t="s">
         <v>33</v>
       </c>
       <c r="N102" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="O102" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="P102" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="Q102" t="s">
-        <v>352</v>
+        <v>248</v>
       </c>
       <c r="R102" t="s">
-        <v>344</v>
+        <v>436</v>
       </c>
       <c r="S102" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="T102" t="s">
         <v>39</v>
@@ -12655,61 +12677,61 @@
     </row>
     <row r="103" spans="1:23">
       <c r="A103" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B103" t="s">
-        <v>890</v>
+        <v>942</v>
       </c>
       <c r="C103" t="s">
-        <v>25</v>
+        <v>561</v>
       </c>
       <c r="D103" t="s">
         <v>26</v>
       </c>
       <c r="E103" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="F103">
-        <v>9.3</v>
+        <v>7.6</v>
       </c>
       <c r="G103" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="H103" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I103" t="s">
         <v>42</v>
       </c>
       <c r="J103" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="K103" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="L103" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="M103" t="s">
         <v>33</v>
       </c>
       <c r="N103" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O103" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="P103" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="Q103" t="s">
-        <v>248</v>
+        <v>320</v>
       </c>
       <c r="R103" t="s">
-        <v>435</v>
+        <v>798</v>
       </c>
       <c r="S103" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="T103" t="s">
         <v>39</v>
@@ -12726,64 +12748,64 @@
     </row>
     <row r="104" spans="1:23">
       <c r="A104" t="s">
-        <v>948</v>
+        <v>448</v>
       </c>
       <c r="B104" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="C104" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D104" t="s">
         <v>26</v>
       </c>
       <c r="E104" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F104">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="G104" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H104" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J104" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="K104" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="L104" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="M104" t="s">
         <v>33</v>
       </c>
       <c r="N104" t="s">
-        <v>948</v>
+        <v>448</v>
       </c>
       <c r="O104" t="s">
-        <v>955</v>
+        <v>453</v>
       </c>
       <c r="P104" t="s">
-        <v>956</v>
+        <v>454</v>
       </c>
       <c r="Q104" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="R104" t="s">
-        <v>806</v>
+        <v>456</v>
       </c>
       <c r="S104" t="s">
-        <v>957</v>
+        <v>457</v>
       </c>
       <c r="T104" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="U104" t="s">
         <v>40</v>
@@ -12797,67 +12819,67 @@
     </row>
     <row r="105" spans="1:23">
       <c r="A105" t="s">
-        <v>447</v>
+        <v>956</v>
       </c>
       <c r="B105" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="C105" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D105" t="s">
         <v>26</v>
       </c>
       <c r="E105" t="s">
+        <v>957</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
         <v>958</v>
       </c>
-      <c r="F105">
-        <v>7.8</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
+        <v>379</v>
+      </c>
+      <c r="I105" t="s">
+        <v>42</v>
+      </c>
+      <c r="J105" t="s">
         <v>959</v>
       </c>
-      <c r="H105" t="s">
-        <v>378</v>
-      </c>
-      <c r="I105" t="s">
-        <v>33</v>
-      </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>960</v>
       </c>
-      <c r="K105" t="s">
+      <c r="L105" t="s">
         <v>961</v>
-      </c>
-      <c r="L105" t="s">
-        <v>962</v>
       </c>
       <c r="M105" t="s">
         <v>33</v>
       </c>
       <c r="N105" t="s">
-        <v>447</v>
+        <v>956</v>
       </c>
       <c r="O105" t="s">
-        <v>452</v>
+        <v>962</v>
       </c>
       <c r="P105" t="s">
-        <v>453</v>
+        <v>42</v>
       </c>
       <c r="Q105" t="s">
-        <v>454</v>
+        <v>963</v>
       </c>
       <c r="R105" t="s">
-        <v>455</v>
+        <v>722</v>
       </c>
       <c r="S105" t="s">
-        <v>456</v>
+        <v>722</v>
       </c>
       <c r="T105" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="U105" t="s">
-        <v>40</v>
+        <v>474</v>
       </c>
       <c r="V105" t="s">
         <v>41</v>
@@ -12868,13 +12890,13 @@
     </row>
     <row r="106" spans="1:23">
       <c r="A106" t="s">
-        <v>963</v>
+        <v>623</v>
       </c>
       <c r="B106" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="C106" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D106" t="s">
         <v>26</v>
@@ -12883,52 +12905,52 @@
         <v>964</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>8.7</v>
       </c>
       <c r="G106" t="s">
+        <v>354</v>
+      </c>
+      <c r="H106" t="s">
+        <v>539</v>
+      </c>
+      <c r="I106" t="s">
+        <v>42</v>
+      </c>
+      <c r="J106" t="s">
         <v>965</v>
       </c>
-      <c r="H106" t="s">
-        <v>378</v>
-      </c>
-      <c r="I106" t="s">
-        <v>42</v>
-      </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>966</v>
       </c>
-      <c r="K106" t="s">
+      <c r="L106" t="s">
         <v>967</v>
-      </c>
-      <c r="L106" t="s">
-        <v>968</v>
       </c>
       <c r="M106" t="s">
         <v>33</v>
       </c>
       <c r="N106" t="s">
-        <v>963</v>
+        <v>623</v>
       </c>
       <c r="O106" t="s">
-        <v>969</v>
+        <v>627</v>
       </c>
       <c r="P106" t="s">
-        <v>42</v>
+        <v>628</v>
       </c>
       <c r="Q106" t="s">
-        <v>970</v>
+        <v>629</v>
       </c>
       <c r="R106" t="s">
-        <v>721</v>
+        <v>353</v>
       </c>
       <c r="S106" t="s">
-        <v>721</v>
+        <v>354</v>
       </c>
       <c r="T106" t="s">
         <v>39</v>
       </c>
       <c r="U106" t="s">
-        <v>473</v>
+        <v>75</v>
       </c>
       <c r="V106" t="s">
         <v>41</v>
@@ -12939,67 +12961,67 @@
     </row>
     <row r="107" spans="1:23">
       <c r="A107" t="s">
-        <v>622</v>
+        <v>968</v>
       </c>
       <c r="B107" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="C107" t="s">
-        <v>560</v>
+        <v>376</v>
       </c>
       <c r="D107" t="s">
         <v>26</v>
       </c>
       <c r="E107" t="s">
+        <v>969</v>
+      </c>
+      <c r="F107">
+        <v>8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>970</v>
+      </c>
+      <c r="H107" t="s">
+        <v>379</v>
+      </c>
+      <c r="I107" t="s">
+        <v>42</v>
+      </c>
+      <c r="J107" t="s">
         <v>971</v>
       </c>
-      <c r="F107">
-        <v>8.7</v>
-      </c>
-      <c r="G107" t="s">
-        <v>354</v>
-      </c>
-      <c r="H107" t="s">
-        <v>538</v>
-      </c>
-      <c r="I107" t="s">
-        <v>42</v>
-      </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>972</v>
       </c>
-      <c r="K107" t="s">
+      <c r="L107" t="s">
         <v>973</v>
-      </c>
-      <c r="L107" t="s">
-        <v>974</v>
       </c>
       <c r="M107" t="s">
         <v>33</v>
       </c>
       <c r="N107" t="s">
-        <v>622</v>
+        <v>968</v>
       </c>
       <c r="O107" t="s">
-        <v>626</v>
+        <v>974</v>
       </c>
       <c r="P107" t="s">
-        <v>627</v>
+        <v>975</v>
       </c>
       <c r="Q107" t="s">
-        <v>628</v>
+        <v>72</v>
       </c>
       <c r="R107" t="s">
-        <v>353</v>
+        <v>590</v>
       </c>
       <c r="S107" t="s">
-        <v>354</v>
+        <v>976</v>
       </c>
       <c r="T107" t="s">
         <v>39</v>
       </c>
       <c r="U107" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="V107" t="s">
         <v>41</v>
@@ -13010,67 +13032,67 @@
     </row>
     <row r="108" spans="1:23">
       <c r="A108" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B108" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="C108" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D108" t="s">
         <v>26</v>
       </c>
       <c r="E108" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="F108">
-        <v>8</v>
+        <v>8.3</v>
       </c>
       <c r="G108" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="H108" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I108" t="s">
         <v>42</v>
       </c>
       <c r="J108" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="K108" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="L108" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="M108" t="s">
         <v>33</v>
       </c>
       <c r="N108" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="O108" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="P108" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="Q108" t="s">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="R108" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="S108" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="T108" t="s">
         <v>39</v>
       </c>
       <c r="U108" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V108" t="s">
         <v>41</v>
@@ -13081,67 +13103,67 @@
     </row>
     <row r="109" spans="1:23">
       <c r="A109" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B109" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="C109" t="s">
-        <v>375</v>
+        <v>25</v>
       </c>
       <c r="D109" t="s">
         <v>26</v>
       </c>
       <c r="E109" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="F109">
-        <v>8.3</v>
+        <v>8.5</v>
       </c>
       <c r="G109" t="s">
-        <v>986</v>
+        <v>527</v>
       </c>
       <c r="H109" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I109" t="s">
         <v>42</v>
       </c>
       <c r="J109" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="K109" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="L109" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="M109" t="s">
         <v>33</v>
       </c>
       <c r="N109" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="O109" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="P109" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="Q109" t="s">
-        <v>259</v>
+        <v>455</v>
       </c>
       <c r="R109" t="s">
-        <v>620</v>
+        <v>993</v>
       </c>
       <c r="S109" t="s">
-        <v>992</v>
+        <v>533</v>
       </c>
       <c r="T109" t="s">
         <v>39</v>
       </c>
       <c r="U109" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="V109" t="s">
         <v>41</v>
@@ -13152,13 +13174,13 @@
     </row>
     <row r="110" spans="1:23">
       <c r="A110" t="s">
-        <v>993</v>
+        <v>262</v>
       </c>
       <c r="B110" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="C110" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="D110" t="s">
         <v>26</v>
@@ -13167,52 +13189,52 @@
         <v>994</v>
       </c>
       <c r="F110">
-        <v>8.5</v>
+        <v>8.3</v>
       </c>
       <c r="G110" t="s">
-        <v>526</v>
+        <v>995</v>
       </c>
       <c r="H110" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I110" t="s">
         <v>42</v>
       </c>
       <c r="J110" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="K110" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="L110" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="M110" t="s">
         <v>33</v>
       </c>
       <c r="N110" t="s">
-        <v>993</v>
+        <v>262</v>
       </c>
       <c r="O110" t="s">
-        <v>998</v>
+        <v>269</v>
       </c>
       <c r="P110" t="s">
-        <v>999</v>
+        <v>270</v>
       </c>
       <c r="Q110" t="s">
-        <v>454</v>
+        <v>271</v>
       </c>
       <c r="R110" t="s">
-        <v>1000</v>
+        <v>272</v>
       </c>
       <c r="S110" t="s">
-        <v>532</v>
+        <v>272</v>
       </c>
       <c r="T110" t="s">
         <v>39</v>
       </c>
       <c r="U110" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="V110" t="s">
         <v>41</v>
@@ -13223,67 +13245,67 @@
     </row>
     <row r="111" spans="1:23">
       <c r="A111" t="s">
-        <v>262</v>
+        <v>999</v>
       </c>
       <c r="B111" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="C111" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
       </c>
       <c r="E111" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F111">
+        <v>7.2</v>
+      </c>
+      <c r="G111" t="s">
         <v>1001</v>
       </c>
-      <c r="F111">
-        <v>8.3</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
+        <v>379</v>
+      </c>
+      <c r="I111" t="s">
+        <v>42</v>
+      </c>
+      <c r="J111" t="s">
         <v>1002</v>
       </c>
-      <c r="H111" t="s">
-        <v>378</v>
-      </c>
-      <c r="I111" t="s">
-        <v>42</v>
-      </c>
-      <c r="J111" t="s">
+      <c r="K111" t="s">
         <v>1003</v>
       </c>
-      <c r="K111" t="s">
+      <c r="L111" t="s">
         <v>1004</v>
-      </c>
-      <c r="L111" t="s">
-        <v>1005</v>
       </c>
       <c r="M111" t="s">
         <v>33</v>
       </c>
       <c r="N111" t="s">
-        <v>262</v>
+        <v>999</v>
       </c>
       <c r="O111" t="s">
-        <v>269</v>
+        <v>1005</v>
       </c>
       <c r="P111" t="s">
-        <v>270</v>
+        <v>1006</v>
       </c>
       <c r="Q111" t="s">
-        <v>271</v>
+        <v>122</v>
       </c>
       <c r="R111" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="S111" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="T111" t="s">
         <v>39</v>
       </c>
       <c r="U111" t="s">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="V111" t="s">
         <v>41</v>
@@ -13294,70 +13316,70 @@
     </row>
     <row r="112" spans="1:23">
       <c r="A112" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B112" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="C112" t="s">
-        <v>375</v>
+        <v>561</v>
       </c>
       <c r="D112" t="s">
         <v>26</v>
       </c>
       <c r="E112" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F112">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H112" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I112" t="s">
         <v>42</v>
       </c>
       <c r="J112" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="K112" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="L112" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="M112" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N112" t="s">
-        <v>1006</v>
+        <v>42</v>
       </c>
       <c r="O112" t="s">
-        <v>1012</v>
+        <v>42</v>
       </c>
       <c r="P112" t="s">
-        <v>1013</v>
+        <v>42</v>
       </c>
       <c r="Q112" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="R112" t="s">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="S112" t="s">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="T112" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U112" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W112" t="s">
         <v>42</v>
@@ -13365,70 +13387,70 @@
     </row>
     <row r="113" spans="1:23">
       <c r="A113" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B113" t="s">
         <v>1014</v>
       </c>
-      <c r="B113" t="s">
-        <v>949</v>
-      </c>
       <c r="C113" t="s">
-        <v>560</v>
+        <v>1015</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>1016</v>
       </c>
       <c r="E113" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="G113" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="H113" t="s">
-        <v>378</v>
+        <v>539</v>
       </c>
       <c r="I113" t="s">
         <v>42</v>
       </c>
       <c r="J113" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="K113" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="L113" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="M113" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N113" t="s">
-        <v>42</v>
+        <v>1013</v>
       </c>
       <c r="O113" t="s">
-        <v>42</v>
+        <v>1022</v>
       </c>
       <c r="P113" t="s">
-        <v>42</v>
+        <v>1023</v>
       </c>
       <c r="Q113" t="s">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="R113" t="s">
-        <v>42</v>
+        <v>611</v>
       </c>
       <c r="S113" t="s">
-        <v>42</v>
+        <v>1024</v>
       </c>
       <c r="T113" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U113" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="V113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W113" t="s">
         <v>42</v>
@@ -13436,67 +13458,67 @@
     </row>
     <row r="114" spans="1:23">
       <c r="A114" t="s">
-        <v>1020</v>
+        <v>986</v>
       </c>
       <c r="B114" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="C114" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="D114" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E114" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="F114">
-        <v>7.4</v>
+        <v>8.2</v>
       </c>
       <c r="G114" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="H114" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I114" t="s">
         <v>42</v>
       </c>
       <c r="J114" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="K114" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="L114" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="M114" t="s">
         <v>33</v>
       </c>
       <c r="N114" t="s">
-        <v>1020</v>
+        <v>986</v>
       </c>
       <c r="O114" t="s">
-        <v>1029</v>
+        <v>991</v>
       </c>
       <c r="P114" t="s">
-        <v>1030</v>
+        <v>992</v>
       </c>
       <c r="Q114" t="s">
-        <v>271</v>
+        <v>455</v>
       </c>
       <c r="R114" t="s">
-        <v>610</v>
+        <v>993</v>
       </c>
       <c r="S114" t="s">
-        <v>1031</v>
+        <v>533</v>
       </c>
       <c r="T114" t="s">
         <v>39</v>
       </c>
       <c r="U114" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="V114" t="s">
         <v>41</v>
@@ -13507,61 +13529,61 @@
     </row>
     <row r="115" spans="1:23">
       <c r="A115" t="s">
-        <v>993</v>
+        <v>1031</v>
       </c>
       <c r="B115" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="C115" t="s">
+        <v>376</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E115" t="s">
         <v>1032</v>
       </c>
-      <c r="D115" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="F115">
+        <v>8.8</v>
+      </c>
+      <c r="G115" t="s">
         <v>1033</v>
       </c>
-      <c r="F115">
-        <v>8.2</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
+        <v>539</v>
+      </c>
+      <c r="I115" t="s">
+        <v>42</v>
+      </c>
+      <c r="J115" t="s">
         <v>1034</v>
       </c>
-      <c r="H115" t="s">
-        <v>538</v>
-      </c>
-      <c r="I115" t="s">
-        <v>42</v>
-      </c>
-      <c r="J115" t="s">
+      <c r="K115" t="s">
         <v>1035</v>
       </c>
-      <c r="K115" t="s">
+      <c r="L115" t="s">
         <v>1036</v>
-      </c>
-      <c r="L115" t="s">
-        <v>1037</v>
       </c>
       <c r="M115" t="s">
         <v>33</v>
       </c>
       <c r="N115" t="s">
+        <v>1031</v>
+      </c>
+      <c r="O115" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P115" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>1038</v>
+      </c>
+      <c r="R115" t="s">
         <v>993</v>
       </c>
-      <c r="O115" t="s">
-        <v>998</v>
-      </c>
-      <c r="P115" t="s">
-        <v>999</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>454</v>
-      </c>
-      <c r="R115" t="s">
-        <v>1000</v>
-      </c>
       <c r="S115" t="s">
-        <v>532</v>
+        <v>1039</v>
       </c>
       <c r="T115" t="s">
         <v>39</v>
@@ -13578,61 +13600,61 @@
     </row>
     <row r="116" spans="1:23">
       <c r="A116" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B116" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="C116" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D116" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E116" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="F116">
-        <v>8.8</v>
+        <v>6.5</v>
       </c>
       <c r="G116" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="H116" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I116" t="s">
         <v>42</v>
       </c>
       <c r="J116" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="K116" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="L116" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="M116" t="s">
         <v>33</v>
       </c>
       <c r="N116" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="O116" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="P116" t="s">
-        <v>42</v>
+        <v>1047</v>
       </c>
       <c r="Q116" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="R116" t="s">
-        <v>1000</v>
+        <v>1049</v>
       </c>
       <c r="S116" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="T116" t="s">
         <v>39</v>
@@ -13649,64 +13671,64 @@
     </row>
     <row r="117" spans="1:23">
       <c r="A117" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="B117" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="C117" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D117" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E117" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="F117">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="G117" t="s">
-        <v>1049</v>
+        <v>527</v>
       </c>
       <c r="H117" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I117" t="s">
         <v>42</v>
       </c>
       <c r="J117" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="K117" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="L117" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="M117" t="s">
         <v>33</v>
       </c>
       <c r="N117" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="O117" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="P117" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="Q117" t="s">
-        <v>1055</v>
+        <v>600</v>
       </c>
       <c r="R117" t="s">
-        <v>1056</v>
+        <v>436</v>
       </c>
       <c r="S117" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="T117" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="U117" t="s">
         <v>40</v>
@@ -13720,64 +13742,64 @@
     </row>
     <row r="118" spans="1:23">
       <c r="A118" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B118" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="C118" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D118" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E118" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F118">
-        <v>7.8</v>
+        <v>9.2</v>
       </c>
       <c r="G118" t="s">
-        <v>526</v>
+        <v>1061</v>
       </c>
       <c r="H118" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I118" t="s">
         <v>42</v>
       </c>
       <c r="J118" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="K118" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="L118" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="M118" t="s">
         <v>33</v>
       </c>
       <c r="N118" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="O118" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="P118" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="Q118" t="s">
-        <v>599</v>
+        <v>248</v>
       </c>
       <c r="R118" t="s">
-        <v>435</v>
+        <v>621</v>
       </c>
       <c r="S118" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="T118" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="U118" t="s">
         <v>40</v>
@@ -13791,67 +13813,67 @@
     </row>
     <row r="119" spans="1:23">
       <c r="A119" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B119" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="C119" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D119" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E119" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="F119">
-        <v>9.2</v>
+        <v>9.6</v>
       </c>
       <c r="G119" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="H119" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I119" t="s">
         <v>42</v>
       </c>
       <c r="J119" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="K119" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="L119" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="M119" t="s">
         <v>33</v>
       </c>
       <c r="N119" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="O119" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="P119" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="Q119" t="s">
-        <v>248</v>
+        <v>1076</v>
       </c>
       <c r="R119" t="s">
-        <v>620</v>
+        <v>897</v>
       </c>
       <c r="S119" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="T119" t="s">
         <v>39</v>
       </c>
       <c r="U119" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="V119" t="s">
         <v>41</v>
@@ -13862,67 +13884,67 @@
     </row>
     <row r="120" spans="1:23">
       <c r="A120" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="B120" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="C120" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D120" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E120" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="F120">
-        <v>9.6</v>
+        <v>8.5</v>
       </c>
       <c r="G120" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="H120" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I120" t="s">
         <v>42</v>
       </c>
       <c r="J120" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="K120" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="L120" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="M120" t="s">
         <v>33</v>
       </c>
       <c r="N120" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="O120" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="P120" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="Q120" t="s">
-        <v>1083</v>
+        <v>122</v>
       </c>
       <c r="R120" t="s">
-        <v>777</v>
+        <v>1086</v>
       </c>
       <c r="S120" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="T120" t="s">
         <v>39</v>
       </c>
       <c r="U120" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="V120" t="s">
         <v>41</v>
@@ -13933,70 +13955,70 @@
     </row>
     <row r="121" spans="1:23">
       <c r="A121" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B121" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="C121" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D121" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E121" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="F121">
-        <v>8.5</v>
+        <v>9.2</v>
       </c>
       <c r="G121" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="H121" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I121" t="s">
         <v>42</v>
       </c>
       <c r="J121" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="K121" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="L121" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="M121" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N121" t="s">
-        <v>1085</v>
+        <v>42</v>
       </c>
       <c r="O121" t="s">
-        <v>1091</v>
+        <v>42</v>
       </c>
       <c r="P121" t="s">
-        <v>1092</v>
+        <v>42</v>
       </c>
       <c r="Q121" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="R121" t="s">
-        <v>1093</v>
+        <v>42</v>
       </c>
       <c r="S121" t="s">
-        <v>1094</v>
+        <v>42</v>
       </c>
       <c r="T121" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U121" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W121" t="s">
         <v>42</v>
@@ -14004,70 +14026,70 @@
     </row>
     <row r="122" spans="1:23">
       <c r="A122" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C122" t="s">
+        <v>561</v>
+      </c>
+      <c r="D122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E122" t="s">
         <v>1095</v>
       </c>
-      <c r="B122" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C122" t="s">
-        <v>375</v>
-      </c>
-      <c r="D122" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="F122">
+        <v>9.1</v>
+      </c>
+      <c r="G122" t="s">
         <v>1096</v>
       </c>
-      <c r="F122">
-        <v>9.2</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
+        <v>379</v>
+      </c>
+      <c r="I122" t="s">
+        <v>42</v>
+      </c>
+      <c r="J122" t="s">
         <v>1097</v>
       </c>
-      <c r="H122" t="s">
-        <v>538</v>
-      </c>
-      <c r="I122" t="s">
-        <v>42</v>
-      </c>
-      <c r="J122" t="s">
+      <c r="K122" t="s">
         <v>1098</v>
       </c>
-      <c r="K122" t="s">
+      <c r="L122" t="s">
         <v>1099</v>
       </c>
-      <c r="L122" t="s">
+      <c r="M122" t="s">
+        <v>33</v>
+      </c>
+      <c r="N122" t="s">
+        <v>1094</v>
+      </c>
+      <c r="O122" t="s">
         <v>1100</v>
       </c>
-      <c r="M122" t="s">
-        <v>42</v>
-      </c>
-      <c r="N122" t="s">
-        <v>42</v>
-      </c>
-      <c r="O122" t="s">
-        <v>42</v>
-      </c>
       <c r="P122" t="s">
-        <v>42</v>
+        <v>1101</v>
       </c>
       <c r="Q122" t="s">
-        <v>42</v>
+        <v>1102</v>
       </c>
       <c r="R122" t="s">
-        <v>42</v>
+        <v>427</v>
       </c>
       <c r="S122" t="s">
-        <v>42</v>
+        <v>1103</v>
       </c>
       <c r="T122" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U122" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W122" t="s">
         <v>42</v>
@@ -14075,67 +14097,67 @@
     </row>
     <row r="123" spans="1:23">
       <c r="A123" t="s">
-        <v>1101</v>
+        <v>782</v>
       </c>
       <c r="B123" t="s">
-        <v>1021</v>
+        <v>1104</v>
       </c>
       <c r="C123" t="s">
-        <v>560</v>
+        <v>1105</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>1016</v>
       </c>
       <c r="E123" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="F123">
-        <v>9.1</v>
+        <v>9.2</v>
       </c>
       <c r="G123" t="s">
-        <v>1103</v>
+        <v>538</v>
       </c>
       <c r="H123" t="s">
-        <v>378</v>
+        <v>539</v>
       </c>
       <c r="I123" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J123" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="K123" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="L123" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="M123" t="s">
         <v>33</v>
       </c>
       <c r="N123" t="s">
-        <v>1101</v>
+        <v>782</v>
       </c>
       <c r="O123" t="s">
-        <v>1107</v>
+        <v>787</v>
       </c>
       <c r="P123" t="s">
-        <v>1108</v>
+        <v>788</v>
       </c>
       <c r="Q123" t="s">
-        <v>1109</v>
+        <v>98</v>
       </c>
       <c r="R123" t="s">
-        <v>426</v>
+        <v>789</v>
       </c>
       <c r="S123" t="s">
-        <v>1110</v>
+        <v>789</v>
       </c>
       <c r="T123" t="s">
         <v>39</v>
       </c>
       <c r="U123" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V123" t="s">
         <v>41</v>
@@ -14146,64 +14168,64 @@
     </row>
     <row r="124" spans="1:23">
       <c r="A124" t="s">
-        <v>790</v>
+        <v>602</v>
       </c>
       <c r="B124" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="C124" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="D124" t="s">
-        <v>1023</v>
+        <v>1110</v>
       </c>
       <c r="E124" t="s">
-        <v>1113</v>
+        <v>1041</v>
       </c>
       <c r="F124">
-        <v>9.2</v>
+        <v>8.6</v>
       </c>
       <c r="G124" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H124" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I124" t="s">
         <v>33</v>
       </c>
       <c r="J124" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="K124" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="L124" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="M124" t="s">
         <v>33</v>
       </c>
       <c r="N124" t="s">
-        <v>790</v>
+        <v>602</v>
       </c>
       <c r="O124" t="s">
-        <v>795</v>
+        <v>609</v>
       </c>
       <c r="P124" t="s">
-        <v>796</v>
+        <v>610</v>
       </c>
       <c r="Q124" t="s">
-        <v>98</v>
+        <v>455</v>
       </c>
       <c r="R124" t="s">
-        <v>797</v>
+        <v>611</v>
       </c>
       <c r="S124" t="s">
-        <v>797</v>
+        <v>612</v>
       </c>
       <c r="T124" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="U124" t="s">
         <v>75</v>
@@ -14217,67 +14239,67 @@
     </row>
     <row r="125" spans="1:23">
       <c r="A125" t="s">
-        <v>601</v>
+        <v>548</v>
       </c>
       <c r="B125" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="C125" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D125" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F125">
+        <v>8.5</v>
+      </c>
+      <c r="G125" t="s">
+        <v>551</v>
+      </c>
+      <c r="H125" t="s">
+        <v>539</v>
+      </c>
+      <c r="I125" t="s">
+        <v>42</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K125" t="s">
         <v>1117</v>
       </c>
-      <c r="E125" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F125">
-        <v>8.6</v>
-      </c>
-      <c r="G125" t="s">
-        <v>537</v>
-      </c>
-      <c r="H125" t="s">
-        <v>538</v>
-      </c>
-      <c r="I125" t="s">
-        <v>33</v>
-      </c>
-      <c r="J125" t="s">
+      <c r="L125" t="s">
         <v>1118</v>
-      </c>
-      <c r="K125" t="s">
-        <v>1119</v>
-      </c>
-      <c r="L125" t="s">
-        <v>1120</v>
       </c>
       <c r="M125" t="s">
         <v>33</v>
       </c>
       <c r="N125" t="s">
-        <v>601</v>
+        <v>548</v>
       </c>
       <c r="O125" t="s">
-        <v>608</v>
+        <v>555</v>
       </c>
       <c r="P125" t="s">
-        <v>609</v>
+        <v>556</v>
       </c>
       <c r="Q125" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="R125" t="s">
-        <v>610</v>
+        <v>557</v>
       </c>
       <c r="S125" t="s">
-        <v>611</v>
+        <v>558</v>
       </c>
       <c r="T125" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="U125" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="V125" t="s">
         <v>41</v>
@@ -14288,67 +14310,67 @@
     </row>
     <row r="126" spans="1:23">
       <c r="A126" t="s">
-        <v>547</v>
+        <v>1119</v>
       </c>
       <c r="B126" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="C126" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F126">
+        <v>7.8</v>
+      </c>
+      <c r="G126" t="s">
         <v>1121</v>
       </c>
-      <c r="D126" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="H126" t="s">
+        <v>539</v>
+      </c>
+      <c r="I126" t="s">
+        <v>42</v>
+      </c>
+      <c r="J126" t="s">
         <v>1122</v>
       </c>
-      <c r="F126">
-        <v>8.5</v>
-      </c>
-      <c r="G126" t="s">
-        <v>550</v>
-      </c>
-      <c r="H126" t="s">
-        <v>538</v>
-      </c>
-      <c r="I126" t="s">
-        <v>42</v>
-      </c>
-      <c r="J126" t="s">
+      <c r="K126" t="s">
         <v>1123</v>
       </c>
-      <c r="K126" t="s">
+      <c r="L126" t="s">
         <v>1124</v>
-      </c>
-      <c r="L126" t="s">
-        <v>1125</v>
       </c>
       <c r="M126" t="s">
         <v>33</v>
       </c>
       <c r="N126" t="s">
-        <v>547</v>
+        <v>1119</v>
       </c>
       <c r="O126" t="s">
-        <v>554</v>
+        <v>1125</v>
       </c>
       <c r="P126" t="s">
-        <v>555</v>
+        <v>42</v>
       </c>
       <c r="Q126" t="s">
-        <v>454</v>
+        <v>1126</v>
       </c>
       <c r="R126" t="s">
-        <v>556</v>
+        <v>1127</v>
       </c>
       <c r="S126" t="s">
-        <v>557</v>
+        <v>1128</v>
       </c>
       <c r="T126" t="s">
         <v>39</v>
       </c>
       <c r="U126" t="s">
-        <v>40</v>
+        <v>474</v>
       </c>
       <c r="V126" t="s">
         <v>41</v>
@@ -14359,67 +14381,67 @@
     </row>
     <row r="127" spans="1:23">
       <c r="A127" t="s">
-        <v>1126</v>
+        <v>1059</v>
       </c>
       <c r="B127" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="C127" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="D127" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E127" t="s">
-        <v>1127</v>
+        <v>1060</v>
       </c>
       <c r="F127">
-        <v>7.8</v>
+        <v>9.2</v>
       </c>
       <c r="G127" t="s">
-        <v>1128</v>
+        <v>1061</v>
       </c>
       <c r="H127" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I127" t="s">
         <v>42</v>
       </c>
       <c r="J127" t="s">
-        <v>1129</v>
+        <v>1062</v>
       </c>
       <c r="K127" t="s">
-        <v>1130</v>
+        <v>1063</v>
       </c>
       <c r="L127" t="s">
-        <v>1131</v>
+        <v>1064</v>
       </c>
       <c r="M127" t="s">
         <v>33</v>
       </c>
       <c r="N127" t="s">
-        <v>1126</v>
+        <v>1059</v>
       </c>
       <c r="O127" t="s">
-        <v>1132</v>
+        <v>1065</v>
       </c>
       <c r="P127" t="s">
-        <v>42</v>
+        <v>1066</v>
       </c>
       <c r="Q127" t="s">
-        <v>1133</v>
+        <v>248</v>
       </c>
       <c r="R127" t="s">
-        <v>1134</v>
+        <v>621</v>
       </c>
       <c r="S127" t="s">
-        <v>1135</v>
+        <v>1067</v>
       </c>
       <c r="T127" t="s">
         <v>39</v>
       </c>
       <c r="U127" t="s">
-        <v>473</v>
+        <v>40</v>
       </c>
       <c r="V127" t="s">
         <v>41</v>
@@ -14430,70 +14452,70 @@
     </row>
     <row r="128" spans="1:23">
       <c r="A128" t="s">
-        <v>1066</v>
+        <v>1129</v>
       </c>
       <c r="B128" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="C128" t="s">
-        <v>375</v>
+        <v>1130</v>
       </c>
       <c r="D128" t="s">
-        <v>1023</v>
+        <v>1131</v>
       </c>
       <c r="E128" t="s">
-        <v>1067</v>
+        <v>1132</v>
       </c>
       <c r="F128">
-        <v>9.2</v>
+        <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>1068</v>
+        <v>1133</v>
       </c>
       <c r="H128" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I128" t="s">
         <v>42</v>
       </c>
       <c r="J128" t="s">
-        <v>1069</v>
+        <v>1134</v>
       </c>
       <c r="K128" t="s">
-        <v>1070</v>
+        <v>1135</v>
       </c>
       <c r="L128" t="s">
-        <v>1071</v>
+        <v>1136</v>
       </c>
       <c r="M128" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N128" t="s">
-        <v>1066</v>
+        <v>42</v>
       </c>
       <c r="O128" t="s">
-        <v>1072</v>
+        <v>42</v>
       </c>
       <c r="P128" t="s">
-        <v>1073</v>
+        <v>42</v>
       </c>
       <c r="Q128" t="s">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="R128" t="s">
-        <v>620</v>
+        <v>42</v>
       </c>
       <c r="S128" t="s">
-        <v>1074</v>
+        <v>42</v>
       </c>
       <c r="T128" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U128" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W128" t="s">
         <v>42</v>
@@ -14501,70 +14523,70 @@
     </row>
     <row r="129" spans="1:23">
       <c r="A129" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B129" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="C129" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F129">
+        <v>6.4</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H129" t="s">
+        <v>539</v>
+      </c>
+      <c r="I129" t="s">
+        <v>42</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K129" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L129" t="s">
+        <v>1142</v>
+      </c>
+      <c r="M129" t="s">
+        <v>33</v>
+      </c>
+      <c r="N129" t="s">
         <v>1137</v>
       </c>
-      <c r="D129" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E129" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H129" t="s">
-        <v>538</v>
-      </c>
-      <c r="I129" t="s">
-        <v>42</v>
-      </c>
-      <c r="J129" t="s">
-        <v>1141</v>
-      </c>
-      <c r="K129" t="s">
-        <v>1142</v>
-      </c>
-      <c r="L129" t="s">
+      <c r="O129" t="s">
         <v>1143</v>
       </c>
-      <c r="M129" t="s">
-        <v>42</v>
-      </c>
-      <c r="N129" t="s">
-        <v>42</v>
-      </c>
-      <c r="O129" t="s">
-        <v>42</v>
-      </c>
       <c r="P129" t="s">
-        <v>42</v>
+        <v>1144</v>
       </c>
       <c r="Q129" t="s">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="R129" t="s">
-        <v>42</v>
+        <v>1145</v>
       </c>
       <c r="S129" t="s">
-        <v>42</v>
+        <v>1146</v>
       </c>
       <c r="T129" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U129" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W129" t="s">
         <v>42</v>
@@ -14572,67 +14594,67 @@
     </row>
     <row r="130" spans="1:23">
       <c r="A130" t="s">
-        <v>1144</v>
+        <v>374</v>
       </c>
       <c r="B130" t="s">
-        <v>1111</v>
+        <v>1147</v>
       </c>
       <c r="C130" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="D130" t="s">
-        <v>26</v>
+        <v>1110</v>
       </c>
       <c r="E130" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="F130">
-        <v>6.4</v>
+        <v>9.3</v>
       </c>
       <c r="G130" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="H130" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I130" t="s">
         <v>42</v>
       </c>
       <c r="J130" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="K130" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="L130" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="M130" t="s">
         <v>33</v>
       </c>
       <c r="N130" t="s">
-        <v>1144</v>
+        <v>374</v>
       </c>
       <c r="O130" t="s">
-        <v>1150</v>
+        <v>383</v>
       </c>
       <c r="P130" t="s">
-        <v>1151</v>
+        <v>384</v>
       </c>
       <c r="Q130" t="s">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="R130" t="s">
-        <v>1152</v>
+        <v>385</v>
       </c>
       <c r="S130" t="s">
-        <v>1153</v>
+        <v>386</v>
       </c>
       <c r="T130" t="s">
         <v>39</v>
       </c>
       <c r="U130" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V130" t="s">
         <v>41</v>
@@ -14643,70 +14665,70 @@
     </row>
     <row r="131" spans="1:23">
       <c r="A131" t="s">
-        <v>373</v>
+        <v>1153</v>
       </c>
       <c r="B131" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E131" t="s">
         <v>1154</v>
       </c>
-      <c r="C131" t="s">
-        <v>375</v>
-      </c>
-      <c r="D131" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="F131">
+        <v>8.1</v>
+      </c>
+      <c r="G131" t="s">
         <v>1155</v>
       </c>
-      <c r="F131">
-        <v>9.3</v>
-      </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
+        <v>539</v>
+      </c>
+      <c r="I131" t="s">
+        <v>42</v>
+      </c>
+      <c r="J131" t="s">
         <v>1156</v>
       </c>
-      <c r="H131" t="s">
-        <v>538</v>
-      </c>
-      <c r="I131" t="s">
-        <v>42</v>
-      </c>
-      <c r="J131" t="s">
+      <c r="K131" t="s">
         <v>1157</v>
       </c>
-      <c r="K131" t="s">
+      <c r="L131" t="s">
         <v>1158</v>
-      </c>
-      <c r="L131" t="s">
-        <v>1159</v>
       </c>
       <c r="M131" t="s">
         <v>33</v>
       </c>
       <c r="N131" t="s">
-        <v>373</v>
+        <v>1159</v>
       </c>
       <c r="O131" t="s">
-        <v>382</v>
+        <v>1160</v>
       </c>
       <c r="P131" t="s">
-        <v>383</v>
+        <v>1161</v>
       </c>
       <c r="Q131" t="s">
-        <v>36</v>
+        <v>629</v>
       </c>
       <c r="R131" t="s">
-        <v>384</v>
+        <v>1162</v>
       </c>
       <c r="S131" t="s">
-        <v>385</v>
+        <v>1163</v>
       </c>
       <c r="T131" t="s">
         <v>39</v>
       </c>
       <c r="U131" t="s">
-        <v>75</v>
+        <v>1164</v>
       </c>
       <c r="V131" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="W131" t="s">
         <v>42</v>
@@ -14714,70 +14736,70 @@
     </row>
     <row r="132" spans="1:23">
       <c r="A132" t="s">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="B132" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="C132" t="s">
-        <v>1022</v>
+        <v>25</v>
       </c>
       <c r="D132" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E132" t="s">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="F132">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="G132" t="s">
-        <v>1162</v>
+        <v>1167</v>
       </c>
       <c r="H132" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I132" t="s">
         <v>42</v>
       </c>
       <c r="J132" t="s">
-        <v>1163</v>
+        <v>1168</v>
       </c>
       <c r="K132" t="s">
-        <v>1164</v>
+        <v>1169</v>
       </c>
       <c r="L132" t="s">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="M132" t="s">
         <v>33</v>
       </c>
       <c r="N132" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="O132" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="P132" t="s">
-        <v>1168</v>
+        <v>42</v>
       </c>
       <c r="Q132" t="s">
-        <v>628</v>
+        <v>1172</v>
       </c>
       <c r="R132" t="s">
-        <v>1169</v>
+        <v>165</v>
       </c>
       <c r="S132" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="T132" t="s">
         <v>39</v>
       </c>
       <c r="U132" t="s">
-        <v>1171</v>
+        <v>40</v>
       </c>
       <c r="V132" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="W132" t="s">
         <v>42</v>
@@ -14785,28 +14807,28 @@
     </row>
     <row r="133" spans="1:23">
       <c r="A133" t="s">
-        <v>1172</v>
+        <v>745</v>
       </c>
       <c r="B133" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="C133" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="D133" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E133" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="F133">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="G133" t="s">
-        <v>1174</v>
+        <v>747</v>
       </c>
       <c r="H133" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I133" t="s">
         <v>42</v>
@@ -14824,22 +14846,22 @@
         <v>33</v>
       </c>
       <c r="N133" t="s">
-        <v>1172</v>
+        <v>745</v>
       </c>
       <c r="O133" t="s">
-        <v>1178</v>
+        <v>751</v>
       </c>
       <c r="P133" t="s">
-        <v>42</v>
+        <v>752</v>
       </c>
       <c r="Q133" t="s">
-        <v>1179</v>
+        <v>753</v>
       </c>
       <c r="R133" t="s">
-        <v>165</v>
+        <v>385</v>
       </c>
       <c r="S133" t="s">
-        <v>1180</v>
+        <v>747</v>
       </c>
       <c r="T133" t="s">
         <v>39</v>
@@ -14856,70 +14878,70 @@
     </row>
     <row r="134" spans="1:23">
       <c r="A134" t="s">
-        <v>744</v>
+        <v>1178</v>
       </c>
       <c r="B134" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="C134" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D134" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E134" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F134">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H134" t="s">
+        <v>539</v>
+      </c>
+      <c r="I134" t="s">
+        <v>42</v>
+      </c>
+      <c r="J134" t="s">
         <v>1181</v>
       </c>
-      <c r="F134">
-        <v>9.6</v>
-      </c>
-      <c r="G134" t="s">
-        <v>746</v>
-      </c>
-      <c r="H134" t="s">
-        <v>538</v>
-      </c>
-      <c r="I134" t="s">
-        <v>42</v>
-      </c>
-      <c r="J134" t="s">
+      <c r="K134" t="s">
         <v>1182</v>
       </c>
-      <c r="K134" t="s">
+      <c r="L134" t="s">
         <v>1183</v>
       </c>
-      <c r="L134" t="s">
-        <v>1184</v>
-      </c>
       <c r="M134" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N134" t="s">
-        <v>744</v>
+        <v>42</v>
       </c>
       <c r="O134" t="s">
-        <v>750</v>
+        <v>42</v>
       </c>
       <c r="P134" t="s">
-        <v>751</v>
+        <v>42</v>
       </c>
       <c r="Q134" t="s">
-        <v>752</v>
+        <v>42</v>
       </c>
       <c r="R134" t="s">
-        <v>384</v>
+        <v>42</v>
       </c>
       <c r="S134" t="s">
-        <v>746</v>
+        <v>42</v>
       </c>
       <c r="T134" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U134" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W134" t="s">
         <v>42</v>
@@ -14927,70 +14949,70 @@
     </row>
     <row r="135" spans="1:23">
       <c r="A135" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E135" t="s">
         <v>1185</v>
       </c>
-      <c r="B135" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C135" t="s">
-        <v>375</v>
-      </c>
-      <c r="D135" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
         <v>1186</v>
       </c>
-      <c r="F135">
-        <v>10</v>
-      </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
+        <v>539</v>
+      </c>
+      <c r="I135" t="s">
+        <v>42</v>
+      </c>
+      <c r="J135" t="s">
         <v>1187</v>
       </c>
-      <c r="H135" t="s">
-        <v>538</v>
-      </c>
-      <c r="I135" t="s">
-        <v>42</v>
-      </c>
-      <c r="J135" t="s">
+      <c r="K135" t="s">
         <v>1188</v>
       </c>
-      <c r="K135" t="s">
+      <c r="L135" t="s">
         <v>1189</v>
       </c>
-      <c r="L135" t="s">
+      <c r="M135" t="s">
+        <v>33</v>
+      </c>
+      <c r="N135" t="s">
+        <v>1184</v>
+      </c>
+      <c r="O135" t="s">
         <v>1190</v>
       </c>
-      <c r="M135" t="s">
-        <v>42</v>
-      </c>
-      <c r="N135" t="s">
-        <v>42</v>
-      </c>
-      <c r="O135" t="s">
-        <v>42</v>
-      </c>
       <c r="P135" t="s">
-        <v>42</v>
+        <v>1191</v>
       </c>
       <c r="Q135" t="s">
-        <v>42</v>
+        <v>455</v>
       </c>
       <c r="R135" t="s">
-        <v>42</v>
+        <v>780</v>
       </c>
       <c r="S135" t="s">
-        <v>42</v>
+        <v>1192</v>
       </c>
       <c r="T135" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="U135" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W135" t="s">
         <v>42</v>
@@ -14998,28 +15020,28 @@
     </row>
     <row r="136" spans="1:23">
       <c r="A136" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B136" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="C136" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="D136" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E136" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="H136" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I136" t="s">
         <v>42</v>
@@ -15037,7 +15059,7 @@
         <v>33</v>
       </c>
       <c r="N136" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="O136" t="s">
         <v>1197</v>
@@ -15046,13 +15068,13 @@
         <v>1198</v>
       </c>
       <c r="Q136" t="s">
-        <v>454</v>
+        <v>36</v>
       </c>
       <c r="R136" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="S136" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="T136" t="s">
         <v>155</v>
@@ -15069,77 +15091,359 @@
     </row>
     <row r="137" spans="1:23">
       <c r="A137" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1154</v>
+        <v>355</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>1199</v>
       </c>
       <c r="C137" t="s">
-        <v>1137</v>
+        <v>376</v>
       </c>
       <c r="D137" t="s">
-        <v>1023</v>
+        <v>26</v>
       </c>
       <c r="E137" t="s">
-        <v>1192</v>
+        <v>357</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>1193</v>
+        <v>358</v>
       </c>
       <c r="H137" t="s">
-        <v>538</v>
+        <v>29</v>
       </c>
       <c r="I137" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J137" t="s">
-        <v>1201</v>
+        <v>359</v>
       </c>
       <c r="K137" t="s">
-        <v>1202</v>
+        <v>360</v>
       </c>
       <c r="L137" t="s">
-        <v>1203</v>
+        <v>361</v>
       </c>
       <c r="M137" t="s">
         <v>33</v>
       </c>
       <c r="N137" t="s">
-        <v>1200</v>
+        <v>355</v>
       </c>
       <c r="O137" t="s">
-        <v>1204</v>
+        <v>362</v>
       </c>
       <c r="P137" t="s">
-        <v>1205</v>
+        <v>363</v>
       </c>
       <c r="Q137" t="s">
         <v>36</v>
       </c>
       <c r="R137" t="s">
-        <v>788</v>
+        <v>227</v>
       </c>
       <c r="S137" t="s">
-        <v>1199</v>
+        <v>227</v>
       </c>
       <c r="T137" t="s">
         <v>155</v>
       </c>
       <c r="U137" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V137" t="s">
         <v>41</v>
       </c>
       <c r="W137" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23">
+      <c r="A138" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C138" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F138">
+        <v>8.3</v>
+      </c>
+      <c r="G138" t="s">
+        <v>358</v>
+      </c>
+      <c r="H138" t="s">
+        <v>29</v>
+      </c>
+      <c r="I138" t="s">
+        <v>42</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K138" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L138" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M138" t="s">
+        <v>33</v>
+      </c>
+      <c r="N138" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O138" t="s">
+        <v>1206</v>
+      </c>
+      <c r="P138" t="s">
+        <v>1207</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>320</v>
+      </c>
+      <c r="R138" t="s">
+        <v>897</v>
+      </c>
+      <c r="S138" t="s">
+        <v>1208</v>
+      </c>
+      <c r="T138" t="s">
+        <v>39</v>
+      </c>
+      <c r="U138" t="s">
+        <v>75</v>
+      </c>
+      <c r="V138" t="s">
+        <v>41</v>
+      </c>
+      <c r="W138" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23">
+      <c r="A139" t="s">
+        <v>636</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C139" t="s">
+        <v>376</v>
+      </c>
+      <c r="D139" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" t="s">
+        <v>252</v>
+      </c>
+      <c r="F139">
+        <v>7.1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>449</v>
+      </c>
+      <c r="H139" t="s">
+        <v>379</v>
+      </c>
+      <c r="I139"/>
+      <c r="J139" t="s">
+        <v>637</v>
+      </c>
+      <c r="K139" t="s">
+        <v>638</v>
+      </c>
+      <c r="L139" t="s">
+        <v>639</v>
+      </c>
+      <c r="M139" t="s">
+        <v>33</v>
+      </c>
+      <c r="N139" t="s">
+        <v>636</v>
+      </c>
+      <c r="O139" t="s">
+        <v>640</v>
+      </c>
+      <c r="P139" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>642</v>
+      </c>
+      <c r="R139" t="s">
+        <v>456</v>
+      </c>
+      <c r="S139" t="s">
+        <v>457</v>
+      </c>
+      <c r="T139" t="s">
+        <v>39</v>
+      </c>
+      <c r="U139" t="s">
+        <v>75</v>
+      </c>
+      <c r="V139" t="s">
+        <v>41</v>
+      </c>
+      <c r="W139" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23">
+      <c r="A140" t="s">
+        <v>655</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C140" t="s">
+        <v>376</v>
+      </c>
+      <c r="D140" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F140">
+        <v>8.1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>605</v>
+      </c>
+      <c r="H140" t="s">
+        <v>379</v>
+      </c>
+      <c r="I140" t="s">
+        <v>33</v>
+      </c>
+      <c r="J140" t="s">
+        <v>657</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="L140" t="s">
+        <v>659</v>
+      </c>
+      <c r="M140" t="s">
+        <v>33</v>
+      </c>
+      <c r="N140" t="s">
+        <v>655</v>
+      </c>
+      <c r="O140" t="s">
+        <v>660</v>
+      </c>
+      <c r="P140" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>662</v>
+      </c>
+      <c r="R140" t="s">
+        <v>663</v>
+      </c>
+      <c r="S140" t="s">
+        <v>664</v>
+      </c>
+      <c r="T140" t="s">
+        <v>39</v>
+      </c>
+      <c r="U140" t="s">
+        <v>75</v>
+      </c>
+      <c r="V140" t="s">
+        <v>41</v>
+      </c>
+      <c r="W140" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23">
+      <c r="A141" t="s">
+        <v>534</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C141" t="s">
+        <v>376</v>
+      </c>
+      <c r="D141" t="s">
+        <v>536</v>
+      </c>
+      <c r="E141" t="s">
+        <v>537</v>
+      </c>
+      <c r="F141">
+        <v>8.5</v>
+      </c>
+      <c r="G141" t="s">
+        <v>538</v>
+      </c>
+      <c r="H141" t="s">
+        <v>539</v>
+      </c>
+      <c r="I141" t="s">
+        <v>33</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="M141" t="s">
+        <v>33</v>
+      </c>
+      <c r="N141" t="s">
+        <v>534</v>
+      </c>
+      <c r="O141" t="s">
+        <v>543</v>
+      </c>
+      <c r="P141" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q141" s="4">
+        <v>45495</v>
+      </c>
+      <c r="R141" t="s">
+        <v>545</v>
+      </c>
+      <c r="S141" t="s">
+        <v>546</v>
+      </c>
+      <c r="T141" t="s">
+        <v>39</v>
+      </c>
+      <c r="U141" t="s">
+        <v>547</v>
+      </c>
+      <c r="V141" t="s">
+        <v>41</v>
+      </c>
+      <c r="W141" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:W137" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:W141" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -15148,6 +15452,9 @@
     <hyperlink ref="K17" r:id="rId3" display="https://img.71acg.net/kbyx/gicon/149763/20240309-00.png"/>
     <hyperlink ref="J56" r:id="rId4" display="https://www.taptap.cn/app/732013?os=pc"/>
     <hyperlink ref="K56" r:id="rId5" display="https://img.tapimg.com/market/images/516ee18b01ac81df77f368c1d30b8b68.jpg/appicon?t=1"/>
+    <hyperlink ref="J141" r:id="rId4" display="https://www.taptap.cn/app/732013?os=pc"/>
+    <hyperlink ref="K141" r:id="rId5" display="https://img.tapimg.com/market/images/516ee18b01ac81df77f368c1d30b8b68.jpg/appicon?t=1"/>
+    <hyperlink ref="K140" r:id="rId1" display="https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20241129/15420188978"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/all_games_data.xlsx
+++ b/data/all_games_data.xlsx
@@ -5425,8 +5425,8 @@
   <sheetPr/>
   <dimension ref="A1:W141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W56" sqref="W56"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/all_games_data.xlsx
+++ b/data/all_games_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W155"/>
+  <dimension ref="A1:W153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,11 +675,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -752,11 +748,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -827,11 +819,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -908,11 +896,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -983,11 +967,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1104,11 +1084,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1226,11 +1202,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1355,11 +1327,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1439,11 +1407,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1518,11 +1482,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1630,11 +1590,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1723,11 +1679,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1834,11 +1786,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1959,11 +1907,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2066,11 +2010,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2187,11 +2127,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2301,11 +2237,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2436,11 +2368,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2553,11 +2481,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2672,11 +2596,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2789,11 +2709,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2902,11 +2818,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3030,11 +2942,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3155,11 +3063,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3230,11 +3134,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3318,11 +3218,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3429,11 +3325,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3554,11 +3446,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3704,11 +3592,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3827,11 +3711,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3949,11 +3829,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4069,11 +3945,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4207,11 +4079,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4445,11 +4313,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4556,11 +4420,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4682,11 +4542,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4771,11 +4627,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4899,11 +4751,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4974,11 +4822,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5100,11 +4944,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5211,11 +5051,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5335,11 +5171,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5460,11 +5292,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5539,11 +5367,7 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5646,11 +5470,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5755,11 +5575,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5841,11 +5657,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5916,11 +5728,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6023,11 +5831,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6140,11 +5944,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6215,11 +6015,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6345,11 +6141,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6456,11 +6248,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6684,11 +6472,7 @@
           <t>是</t>
         </is>
       </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6795,11 +6579,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6906,11 +6686,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7026,11 +6802,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7137,11 +6909,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7248,11 +7016,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7355,11 +7119,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7470,11 +7230,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7585,11 +7341,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7698,11 +7450,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7838,11 +7586,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7913,11 +7657,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8139,11 +7879,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8259,11 +7995,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8370,11 +8102,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8481,11 +8209,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8600,11 +8324,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8711,11 +8431,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8822,11 +8538,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8933,11 +8645,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9044,11 +8752,7 @@
           <t>是</t>
         </is>
       </c>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9151,11 +8855,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9262,11 +8962,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9373,11 +9069,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9498,11 +9190,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9609,11 +9297,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9720,11 +9404,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9835,11 +9515,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9946,11 +9622,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10057,11 +9729,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10168,11 +9836,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10282,11 +9946,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10400,11 +10060,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10517,11 +10173,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W91" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10624,11 +10276,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10735,11 +10383,7 @@
           <t>是</t>
         </is>
       </c>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10846,11 +10490,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11068,11 +10708,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11143,11 +10779,7 @@
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11218,11 +10850,7 @@
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11329,11 +10957,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11440,11 +11064,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W100" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11551,11 +11171,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W101" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11638,11 +11254,7 @@
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11749,11 +11361,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11860,11 +11468,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W104" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11971,11 +11575,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W105" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12056,11 +11656,7 @@
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12167,11 +11763,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12278,11 +11870,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W108" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12393,11 +11981,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W109" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12504,11 +12088,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W110" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12627,11 +12207,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W111" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12738,11 +12314,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12845,11 +12417,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -12956,11 +12524,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W114" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13067,11 +12631,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13178,11 +12738,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W116" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -13289,11 +12845,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W117" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13364,11 +12916,7 @@
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13492,11 +13040,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W119" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13608,11 +13152,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W120" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -13683,11 +13223,7 @@
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13795,11 +13331,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W122" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -13870,11 +13402,7 @@
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
       <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13981,11 +13509,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W124" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -14088,11 +13612,7 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W125" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -14178,11 +13698,7 @@
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
       <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -14301,16 +13817,12 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W127" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>代号：足球重启</t>
+          <t>崩坏：星穹铁道</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -14320,7 +13832,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>测试</t>
+          <t>更新</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -14330,15 +13842,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>体育</t>
+          <t>角色扮演/冒险/策略</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>第拾贰人工作室</t>
+          <t>miHoYo</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -14349,99 +13861,15 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>https://www.taptap.cn/app/708466</t>
+          <t>https://www.taptap.cn/app/224267</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>https://img.tapimg.com/market/images/908c30d7dfb4bc39793d83f39c13b39c.png/appicon?t=1</t>
+          <t>https://img.tapimg.com/market/images/c6efcb07552a6ba1972a7b9fb22c1d76.png/appicon?t=1</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
-        <is>
-          <t>《代号：足球重启》力求为大家带来真实的足球俱乐部经营体验！
-【从菜鸟到豪门，俱乐部经理的圆梦之路】
-在这里，每个角落都有新的足球俱乐部在诞生。你将执教属于你的球队，带领它从岌岌无名到决战世界巅峰，在这个过程中体验球队经营的酸甜苦辣。
-【真实球探玩法，考验你眼光的时刻到了！】
-你可以派遣球探到世界各地发掘未来的足球天才，并且通过精心设计的训练系统、找到适合球队的战术策略，激发他们在赛场上的潜力。
-【签约巨星，交易球员，组建你的足球帝国】
-经营球队的过程中记得常去转会市场看看。无论是引进难得一见的新星，还是捡漏签约超级巨星，又或者做个商人低买高卖，全部都由你说了算！
-【12倍速时间流逝，体验快节奏足球联赛】
-游戏内时间是真实世界的12倍速，你将争分夺秒地和其他玩家展开竞争，建设你的豪门球队，争夺足球世界的荣誉！
-《代号：足球重启》里的天才球员和明星教练数不胜数，欢迎大家立即预约，一起来谱写我们共同的绿茵故事，共创线上足球世界！</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>崩坏：星穹铁道</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>更新</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>安卓/iOS</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>角色扮演/冒险/策略</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>miHoYo</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>TapTap</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>https://www.taptap.cn/app/224267</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>https://img.tapimg.com/market/images/c6efcb07552a6ba1972a7b9fb22c1d76.png/appicon?t=1</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
         <is>
           <t>这片银河中有名为「星神」的存在，祂们造就现实，抹消星辰，在无数「世界」中留下祂们的痕迹。你——一名特殊的旅客，将与继承「开拓」意志的同伴一起，乘坐星穹列车穿越银河，沿着某位「星神」曾经所行之途前进。你将由此探索新的文明，结识新的伙伴，在无数光怪陆离的「世界」与「世界」之间展开新的冒险。所有你想知道的，都将在群星中找到答案。
 那么，准备好开始这段「开拓」之旅了吗？
@@ -14456,113 +13884,109 @@
 星海之中，除「你」之外，还有无数身怀绝技的「他们」。你将拥有极寒之地的患难友情，仙舟危机中的并肩作战，金色美梦里的不期而遇……在冒险中邂逅英雄，结识伙伴，共赴奇旅。除了携手经历一段段冒险旅程，你还能通过多种方式与伙伴们增进友谊、分享奇遇，了解旅伴们更多不为人知的经历和故事......</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
         <is>
           <t>崩坏：星穹铁道</t>
         </is>
       </c>
-      <c r="O129" t="inlineStr">
+      <c r="O128" t="inlineStr">
         <is>
           <t>国新出审[2023]16号</t>
         </is>
       </c>
-      <c r="P129" t="inlineStr">
+      <c r="P128" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-10006-1</t>
         </is>
       </c>
-      <c r="Q129" t="inlineStr">
+      <c r="Q128" t="inlineStr">
         <is>
           <t>2023-01-17</t>
         </is>
       </c>
-      <c r="R129" t="inlineStr">
+      <c r="R128" t="inlineStr">
         <is>
           <t>上海声像电子出版社</t>
         </is>
       </c>
-      <c r="S129" t="inlineStr">
+      <c r="S128" t="inlineStr">
         <is>
           <t>上海米哈游影铁科技有限公司</t>
         </is>
       </c>
-      <c r="T129" t="inlineStr">
+      <c r="T128" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U129" t="inlineStr">
+      <c r="U128" t="inlineStr">
         <is>
           <t>移动、客户端</t>
         </is>
       </c>
-      <c r="V129" t="inlineStr">
+      <c r="V128" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W129" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W128" t="inlineStr"/>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>一号军团</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>国风/历史/策略</t>
         </is>
       </c>
-      <c r="F130" t="n">
+      <c r="F129" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>星河奇遇</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr">
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/716232</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/abb42eb4f29f82b7c4a670f00e216cc1.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L130" t="inlineStr">
+      <c r="L129" t="inlineStr">
         <is>
           <t>游戏原名《傲战千秋》，因为种种原因，不得不改名，希望各位玩家理解，鞠躬！
 玩家们大家好，我们是一个初创团队。《一号军团》是我们研发的第一款产品，我们开发初衷是希望做一款历史策略SLG类产品。
@@ -14572,109 +13996,105 @@
 轻度SLG：主打的是偏轻度SLG，但是内容数量不会少、质量要求不会低。减去了很多重复性操作，包括铺路打地打城、建筑时间、单武将抽卡价值大幅降低，也去掉了战法传承消耗的材料，有卡就能拆。</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
         <is>
           <t>一号军团</t>
         </is>
       </c>
-      <c r="O130" t="inlineStr">
+      <c r="O129" t="inlineStr">
         <is>
           <t>新广出审[2017]10037号</t>
         </is>
       </c>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr">
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr">
         <is>
           <t>2017-12-04</t>
         </is>
       </c>
-      <c r="R130" t="inlineStr">
+      <c r="R129" t="inlineStr">
         <is>
           <t>成都盈众九州网络科技有限公司</t>
         </is>
       </c>
-      <c r="S130" t="inlineStr">
+      <c r="S129" t="inlineStr">
         <is>
           <t>海南河马网络科技有限公司</t>
         </is>
       </c>
-      <c r="T130" t="inlineStr">
+      <c r="T129" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U130" t="inlineStr">
+      <c r="U129" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V130" t="inlineStr">
+      <c r="V129" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W130" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W129" t="inlineStr"/>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>吞噬星空：黎明</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>角色扮演</t>
         </is>
       </c>
-      <c r="F131" t="n">
+      <c r="F130" t="n">
         <v>6.5</v>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>力杰互娱</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr">
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/748975</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/293ef513b574e20a0d21865a0ca33a5d.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L131" t="inlineStr">
+      <c r="L130" t="inlineStr">
         <is>
           <t>在危机四伏的未来世界，致命病毒肆虐，让地球沦为末日废土。飞禽走兽在病毒催化下发生恐怖变异，拥有了远超人类的力量与智慧，它们频繁进攻人类居住地，热武器在这些怪兽面前逐渐失去效力。在这生死存亡之际，你将化身武者，与强大的伙伴们组队冒险。
 游戏构建了末日废土与科幻修真相互交织的独特世界。借助顶尖3D技术，机械装甲、变异巨兽、浩瀚星空跃然眼前，搭配震撼音效与动态光影，营造出沉浸式的末日冒险体验。
@@ -14683,113 +14103,109 @@
 为助力玩家开启冒险，游戏福利满满。上线就送神级医师及专武，在线即送VIP，签到还能领取上千抽，助力玩家快速组建强力阵容 。</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
         <is>
           <t>吞噬星空：黎明</t>
         </is>
       </c>
-      <c r="O131" t="inlineStr">
+      <c r="O130" t="inlineStr">
         <is>
           <t>国新出审[2022]1605号</t>
         </is>
       </c>
-      <c r="P131" t="inlineStr">
+      <c r="P130" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-09840-5</t>
         </is>
       </c>
-      <c r="Q131" t="inlineStr">
+      <c r="Q130" t="inlineStr">
         <is>
           <t>2022-11-16</t>
         </is>
       </c>
-      <c r="R131" t="inlineStr">
+      <c r="R130" t="inlineStr">
         <is>
           <t>北京联合出版有限责任公司</t>
         </is>
       </c>
-      <c r="S131" t="inlineStr">
+      <c r="S130" t="inlineStr">
         <is>
           <t>北京欣荣繁兴科技有限公司</t>
         </is>
       </c>
-      <c r="T131" t="inlineStr">
+      <c r="T130" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U131" t="inlineStr">
+      <c r="U130" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V131" t="inlineStr">
+      <c r="V130" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W131" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W130" t="inlineStr"/>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>火影忍者：木叶高手</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>放置/竖屏/卡牌</t>
         </is>
       </c>
-      <c r="F132" t="n">
+      <c r="F131" t="n">
         <v>7.8</v>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>中手游</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr">
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/715546</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr">
+      <c r="K131" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/79b81b568926d920f0c62ee6e3f07f87.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr">
+      <c r="L131" t="inlineStr">
         <is>
           <t>《火影忍者：木叶高手》作为一款正版火影放置卡牌手游，将与你重温充满查克拉与忍术的火影世界，跟随原班声优再度邂逅鸣人、佐助、小樱、卡卡西等经典角色，沉浸式感受竖屏新视角带来的策略乐趣。忍者全集结，无损换将，让你轻松组建最强阵容，更有免费千抽助你躺平收益，在放置中感受成长乐趣。与火影同行，轻松开拓属于你的忍道吧！
 竖屏新视界 重塑正版火影经典
@@ -14802,113 +14218,109 @@
 火影放置陪伴，即享躺平收益。忍者小队自动冒险，工作休息两不误。畅享免费千抽，轻松构建豪华阵容。长线收益不间断，每次回归见证成长。与火影同行，在放置中感受成长的喜悦，享受真正的游戏乐趣！</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
         <is>
           <t>火影忍者：木叶高手</t>
         </is>
       </c>
-      <c r="O132" t="inlineStr">
+      <c r="O131" t="inlineStr">
         <is>
           <t>国新出审〔2023〕2189号</t>
         </is>
       </c>
-      <c r="P132" t="inlineStr">
+      <c r="P131" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-12889-8</t>
         </is>
       </c>
-      <c r="Q132" t="inlineStr">
+      <c r="Q131" t="inlineStr">
         <is>
           <t>2023-12-21</t>
         </is>
       </c>
-      <c r="R132" t="inlineStr">
+      <c r="R131" t="inlineStr">
         <is>
           <t>上海商国网络科技发展有限公司</t>
         </is>
       </c>
-      <c r="S132" t="inlineStr">
+      <c r="S131" t="inlineStr">
         <is>
           <t>上海蜂虞网络科技有限公司</t>
         </is>
       </c>
-      <c r="T132" t="inlineStr">
+      <c r="T131" t="inlineStr">
         <is>
           <t>进口网络游戏</t>
         </is>
       </c>
-      <c r="U132" t="inlineStr">
+      <c r="U131" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V132" t="inlineStr">
+      <c r="V131" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W132" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W131" t="inlineStr"/>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>华夏千秋</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>模拟经营/国风/回合制</t>
         </is>
       </c>
-      <c r="F133" t="n">
+      <c r="F132" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>华夏千秋工作室</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr">
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/604309</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/2cb89d2fb7fa51c49988539359118c48.jpg/appicon?t=1</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr">
+      <c r="L132" t="inlineStr">
         <is>
           <t>天降机缘，奇物现世，带着亲友的期许上路，你是否能抓住这旷世奇缘？
 行走江湖，比武猜招，种田耕地，往来交互，你会走上那一条人生之路？
@@ -14921,113 +14333,109 @@
 是自带青梅竹马，又或天降奇缘？是日久生情，又或一见倾心？是守身如玉，一生一次心意动，还是广交结友，情意脉脉遍四海？命格不一，由天定，更在人为！你的一生，将由自己亲手决定。</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
         <is>
           <t>华夏千秋</t>
         </is>
       </c>
-      <c r="O133" t="inlineStr">
+      <c r="O132" t="inlineStr">
         <is>
           <t>国新出审〔2023〕2042号</t>
         </is>
       </c>
-      <c r="P133" t="inlineStr">
+      <c r="P132" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-12824-9</t>
         </is>
       </c>
-      <c r="Q133" t="inlineStr">
+      <c r="Q132" t="inlineStr">
         <is>
           <t>2023-11-30</t>
         </is>
       </c>
-      <c r="R133" t="inlineStr">
+      <c r="R132" t="inlineStr">
         <is>
           <t>安徽新华电子音像出版社</t>
         </is>
       </c>
-      <c r="S133" t="inlineStr">
+      <c r="S132" t="inlineStr">
         <is>
           <t>广州火羽信息科技有限公司</t>
         </is>
       </c>
-      <c r="T133" t="inlineStr">
+      <c r="T132" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U133" t="inlineStr">
+      <c r="U132" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V133" t="inlineStr">
+      <c r="V132" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W133" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W132" t="inlineStr"/>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>星际飞行</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>模拟经营/策略/射击</t>
         </is>
       </c>
-      <c r="F134" t="n">
+      <c r="F133" t="n">
         <v>9.6</v>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>13th DogeFleet</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr">
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/715942</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/6d976834f3882798374ac9750d0f3df7.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L134" t="inlineStr">
+      <c r="L133" t="inlineStr">
         <is>
           <t>游戏简介：
 总有一天，我们会离开赖以生存的蓝色星球，开始星际航行的时代。在漫长的太空历史中，危机四伏，不同势力如流星般闪耀后消散在无垠的宇宙中。宇宙历220年，翠星联合军与黄金树帝国在法尔斯星域爆发了震撼整个星域的大会战后一切归于沉寂，战火不断的宇宙迎来了短暂的和平，在各种暗流涌动之下，诸位年轻的舰长也即将怀揣梦想启航。
@@ -15051,6 +14459,113 @@
 当您厌倦了上述所说的一切，只想在无垠的宇宙中，平静度日，希望您有空到星际酒馆多看看，这里有来自不同的星球和种族的奇人轶事，以及酒馆女郎。搞好和她们的关系，躺平游戏，每天做一条最快乐的咸鱼。</t>
         </is>
       </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>星际飞行</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>国新出审[2020]2345号</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-08304-3</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>2020-10-16</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>浙江出版集团数字传媒有限公司</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>杭州西米科技有限公司</t>
+        </is>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>移动-休闲益智</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>时隙之旅</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>安卓/iOS</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>卡牌/策略/放置</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>星曜工作室</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>https://www.taptap.cn/app/739840</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>https://img.tapimg.com/market/images/14b9aef1b640c1b868188a372f4b2476.jpg/appicon?t=1</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>各位引航者，欢迎来到《时隙之旅》这个丰富多彩的奇幻未来世界。引航者们将与不同形态的幻灵们相遇，并结下深厚的羁绊，共同探索冒险和发现这个世界的真相。在遭遇不同爽快战斗的同时，需要了解并掌握幻灵们多样的战斗方式搭配策略，来应对后期更强大势力挑战。引航者们将最终打破和颠覆这个世界运行法则，重新塑造属于你的未来之城。</t>
+        </is>
+      </c>
       <c r="M134" t="inlineStr">
         <is>
           <t>是</t>
@@ -15058,32 +14573,32 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>星际飞行</t>
+          <t>时隙之旅</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>国新出审[2020]2345号</t>
+          <t>国新出审〔2024〕866号</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>ISBN 978-7-498-08304-3</t>
+          <t>ISBN 978-7-498-13464-6</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>浙江出版集团数字传媒有限公司</t>
+          <t>杭州润趣科技有限公司</t>
         </is>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>杭州西米科技有限公司</t>
+          <t>杭州游聚信息技术有限公司</t>
         </is>
       </c>
       <c r="T134" t="inlineStr">
@@ -15093,7 +14608,7 @@
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>移动-休闲益智</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
@@ -15101,16 +14616,12 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W134" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>时隙之旅</t>
+          <t>天上白玉京</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -15125,41 +14636,41 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>安卓/iOS</t>
+          <t>国内游戏</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>卡牌/策略/放置</t>
+          <t>中国风/卡牌/二次元</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>星曜工作室</t>
+          <t>此方游戏</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>TapTap</t>
+          <t>好游快爆</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>https://www.taptap.cn/app/739840</t>
+          <t>https://www.3839.com/a/147381.htm</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>https://img.tapimg.com/market/images/14b9aef1b640c1b868188a372f4b2476.jpg/appicon?t=1</t>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx/gicon/147381/20240309-00.png</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>各位引航者，欢迎来到《时隙之旅》这个丰富多彩的奇幻未来世界。引航者们将与不同形态的幻灵们相遇，并结下深厚的羁绊，共同探索冒险和发现这个世界的真相。在遭遇不同爽快战斗的同时，需要了解并掌握幻灵们多样的战斗方式搭配策略，来应对后期更强大势力挑战。引航者们将最终打破和颠覆这个世界运行法则，重新塑造属于你的未来之城。</t>
+          <t>肩负使命  踏界而来简介神秘的造物，失落的文明，突兀的闯入人族与妖族共存的「玄元界」，灵器和修行，融合与毁灭，它们之间究竟能碰撞出怎样的火花？“「本源」「黑雾」「黯奴」”玄元界的秘密似乎还不止于此。此前已有引导者抵达并进行信息调查，此界符合守界人降临条件，经万界商盟同意，决定派遣守界人前往。计划代号——「天上白玉京」以上，作为「守界人」，万界商盟派遣你前往，揭开玄元界的帷幕。</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -15169,32 +14680,32 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>时隙之旅</t>
+          <t>天上白玉京</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>国新出审〔2024〕866号</t>
+          <t>国新出审[2021]434号</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>ISBN 978-7-498-13464-6</t>
+          <t>ISBN 978-7-498-08854-3</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2021-03-04</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>杭州润趣科技有限公司</t>
+          <t>辽宁电子出版社有限责任公司</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>杭州游聚信息技术有限公司</t>
+          <t>沈阳星空互娱网络科技有限公司</t>
         </is>
       </c>
       <c r="T135" t="inlineStr">
@@ -15212,65 +14723,61 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W135" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>天上白玉京</t>
+          <t>黑色信标</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>测试</t>
+          <t>新游爆料</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>国内游戏</t>
+          <t>安卓/iOS</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>中国风/卡牌/二次元</t>
+          <t>养成/二次元/动作</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>此方游戏</t>
+          <t>世纪天成</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>好游快爆</t>
+          <t>TapTap</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/147381.htm</t>
+          <t>https://www.taptap.cn/app/242574</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx/gicon/147381/20240309-00.png</t>
+          <t>https://img.tapimg.com/market/images/a26c919fcd6ad5314a09d97e1d9fa0d9.png/appicon?t=1</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>肩负使命  踏界而来简介神秘的造物，失落的文明，突兀的闯入人族与妖族共存的「玄元界」，灵器和修行，融合与毁灭，它们之间究竟能碰撞出怎样的火花？“「本源」「黑雾」「黯奴」”玄元界的秘密似乎还不止于此。此前已有引导者抵达并进行信息调查，此界符合守界人降临条件，经万界商盟同意，决定派遣守界人前往。计划代号——「天上白玉京」以上，作为「守界人」，万界商盟派遣你前往，揭开玄元界的帷幕。</t>
+          <t>《黑色信标》是一款双视角x无限技能连携ARPG手游。在游戏中，你将扮演预言中的“预见者”的一员，与「楔文会」的成员们一同对抗来自其他世界的异象，在收容信标、处理异象的过程中接触各种各样的伙伴或敌人，逐步揭开世界交错的真相。</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -15280,32 +14787,32 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>天上白玉京</t>
+          <t>黑色信标</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>国新出审[2021]434号</t>
+          <t>国新出审〔2025〕72号</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>ISBN 978-7-498-08854-3</t>
+          <t>ISBN 978-7-498-14455-3</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>2021-03-04</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>辽宁电子出版社有限责任公司</t>
+          <t>北京目标在线科技有限公司</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>沈阳星空互娱网络科技有限公司</t>
+          <t>北京幸福满格科技有限公司</t>
         </is>
       </c>
       <c r="T136" t="inlineStr">
@@ -15323,16 +14830,12 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W136" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>黑色信标</t>
+          <t>星痕共鸣</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -15342,25 +14845,25 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>新游爆料</t>
+          <t>测试招募</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>安卓/iOS</t>
+          <t>安卓/iOS/PC端</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>养成/二次元/动作</t>
+          <t>角色扮演</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>世纪天成</t>
+          <t>腾讯</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -15368,133 +14871,22 @@
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://www.taptap.cn/app/242574</t>
+          <t>https://www.taptap.cn/app/731774</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>https://img.tapimg.com/market/images/a26c919fcd6ad5314a09d97e1d9fa0d9.png/appicon?t=1</t>
+          <t>https://img.tapimg.com/market/images/26f830fa88190c764f6bc1d9baee64ad.png/appicon?t=1</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
-        <is>
-          <t>《黑色信标》是一款双视角x无限技能连携ARPG手游。在游戏中，你将扮演预言中的“预见者”的一员，与「楔文会」的成员们一同对抗来自其他世界的异象，在收容信标、处理异象的过程中接触各种各样的伙伴或敌人，逐步揭开世界交错的真相。</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>黑色信标</t>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>国新出审〔2025〕72号</t>
-        </is>
-      </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-14455-3</t>
-        </is>
-      </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>2025-01-20</t>
-        </is>
-      </c>
-      <c r="R137" t="inlineStr">
-        <is>
-          <t>北京目标在线科技有限公司</t>
-        </is>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>北京幸福满格科技有限公司</t>
-        </is>
-      </c>
-      <c r="T137" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U137" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="V137" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W137" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>星痕共鸣</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>测试招募</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>安卓/iOS/PC端</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>角色扮演</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>腾讯</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>TapTap</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>https://www.taptap.cn/app/731774</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>https://img.tapimg.com/market/images/26f830fa88190c764f6bc1d9baee64ad.png/appicon?t=1</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
         <is>
           <t>欢迎来到雷格纳斯，冒险者。
 《星痕共鸣》是一款是基于万代南梦宫“PROJECT SKY BLUE”IP世界观下，由上海宝可拉所开发的MMORPG。
@@ -15517,6 +14909,117 @@
 ▶ 角色二分色法：角色的渲染方式采用日式动漫中的二分色阶风格，拒绝额外的明暗关系过渡、和写实游戏中的各种材质，高度还原你想要的动漫角色。</t>
         </is>
       </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>星痕共鸣</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>国新出审〔2025〕187号</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-14570-3</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>上海声像电子出版社</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>上海艮洲网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>进口网络游戏</t>
+        </is>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>移动、客户端</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>失控进化</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>测试招募</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>安卓/iOS</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>生存/沙盒/开放世界</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>腾讯</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>https://www.taptap.cn/app/733908</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>https://img.tapimg.com/market/images/e88a8de0aa736c628543ac80b2e07bd2.png/appicon?t=1</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>《失控进化》是一款Rust正版玩法授权的硬核生存对抗游戏。玩家将置身于危机四伏的荒岛之上，徒手开启资源采集、武器锻造、庇护所搭建与狩猎，应对气候、饥饿、动物与其他玩家带来的生存挑战。</t>
+        </is>
+      </c>
       <c r="M138" t="inlineStr">
         <is>
           <t>是</t>
@@ -15524,37 +15027,37 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>星痕共鸣</t>
+          <t>失控进化</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>国新出审〔2025〕187号</t>
+          <t>国新出审〔2023〕1801号</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>ISBN 978-7-498-14570-3</t>
+          <t>ISBN 978-7-498-12760-0</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>上海声像电子出版社</t>
+          <t>浙江无端科技股份有限公司</t>
         </is>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>上海艮洲网络科技有限公司</t>
+          <t>浙江无端科技股份有限公司</t>
         </is>
       </c>
       <c r="T138" t="inlineStr">
         <is>
-          <t>进口网络游戏</t>
+          <t>国产网络游戏</t>
         </is>
       </c>
       <c r="U138" t="inlineStr">
@@ -15567,16 +15070,12 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W138" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>失控进化</t>
+          <t>最封神</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -15586,7 +15085,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>测试招募</t>
+          <t>上线</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -15596,15 +15095,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>生存/沙盒/开放世界</t>
+          <t>养成/放置</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>腾讯</t>
+          <t>超凡入圣工作室</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -15612,252 +15111,18 @@
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>https://www.taptap.cn/app/733908</t>
+          <t>https://www.taptap.cn/app/733841</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>https://img.tapimg.com/market/images/e88a8de0aa736c628543ac80b2e07bd2.png/appicon?t=1</t>
+          <t>https://img.tapimg.com/market/images/78f4731a1b1cc3dc32241014414ff050.png/appicon?t=1</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
-        <is>
-          <t>《失控进化》是一款Rust正版玩法授权的硬核生存对抗游戏。玩家将置身于危机四伏的荒岛之上，徒手开启资源采集、武器锻造、庇护所搭建与狩猎，应对气候、饥饿、动物与其他玩家带来的生存挑战。</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>失控进化</t>
-        </is>
-      </c>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>国新出审〔2023〕1801号</t>
-        </is>
-      </c>
-      <c r="P139" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-12760-0</t>
-        </is>
-      </c>
-      <c r="Q139" t="inlineStr">
-        <is>
-          <t>2023-10-25</t>
-        </is>
-      </c>
-      <c r="R139" t="inlineStr">
-        <is>
-          <t>浙江无端科技股份有限公司</t>
-        </is>
-      </c>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>浙江无端科技股份有限公司</t>
-        </is>
-      </c>
-      <c r="T139" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U139" t="inlineStr">
-        <is>
-          <t>移动、客户端</t>
-        </is>
-      </c>
-      <c r="V139" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W139" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>华夏千秋</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>安卓/iOS</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>模拟经营/国风/回合制</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>华夏千秋工作室</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>TapTap</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>https://www.taptap.cn/app/604309</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>https://img.tapimg.com/market/images/2cb89d2fb7fa51c49988539359118c48.jpg/appicon?t=1</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>天降机缘，奇物现世，带着亲友的期许上路，你是否能抓住这旷世奇缘？
-行走江湖，比武猜招，种田耕地，往来交互，你会走上那一条人生之路？
-《华夏千秋》是华夏千秋工作室目前在研的一款水墨风高自由度世界手游。将童年记忆里的猜招游戏独创成比武玩法，努力在游戏中复现田园农耕的种植趣味，模拟最真实的人脉交互，华夏千秋制作团队力图为玩家构筑一个自由真实的高自由度世界，跳出数值框架，将自由探索贯彻到游戏的点点滴滴中。
-【拆招破招，策略对决定胜负】
-华夏千秋的猜招对决，是一场策略与勇气的对决。有限的气力值意味着每一次出手或调息，都将关乎比武的胜利。如果攻击被对方预判，采用相应招式抵挡，将前功尽弃。猜招决斗，唯有智勇双全者，方能成为最后的赢家。
-【特色采集，农林牧渔齐回家】
-绿水绕青山，林间捉兔留趣影，池边垂钓泛波澜。地上跑的，水里游的，土里长的，山里埋的，统统收割回家！一个背篓，走遍大江南北，diy属于你的专属叠叠乐，改变世界地形地貌，不在话下！
-【人脉情缘，爱恨情仇共纠缠】
-是自带青梅竹马，又或天降奇缘？是日久生情，又或一见倾心？是守身如玉，一生一次心意动，还是广交结友，情意脉脉遍四海？命格不一，由天定，更在人为！你的一生，将由自己亲手决定。</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>华夏千秋</t>
-        </is>
-      </c>
-      <c r="O140" t="inlineStr">
-        <is>
-          <t>国新出审〔2023〕2042号</t>
-        </is>
-      </c>
-      <c r="P140" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-12824-9</t>
-        </is>
-      </c>
-      <c r="Q140" t="inlineStr">
-        <is>
-          <t>2023-11-30</t>
-        </is>
-      </c>
-      <c r="R140" t="inlineStr">
-        <is>
-          <t>安徽新华电子音像出版社</t>
-        </is>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>广州火羽信息科技有限公司</t>
-        </is>
-      </c>
-      <c r="T140" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="V140" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W140" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>最封神</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>上线</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>安卓/iOS</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>养成/放置</t>
-        </is>
-      </c>
-      <c r="F141" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>超凡入圣工作室</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>TapTap</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>https://www.taptap.cn/app/733841</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>https://img.tapimg.com/market/images/78f4731a1b1cc3dc32241014414ff050.png/appicon?t=1</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
         <is>
           <t>在猎妖村里，您将化身为一名猎妖师，通过收集符咒召唤赵云、廉颇、关羽、吕布等三国名将，化身为魂将为您而战。独特的美术风格和强烈的策略性，让您眼前一亮一亮又一亮。阵容羁绊搭配，稀有魂将培养，您将拥有一只无人能敌的队伍，为您魂定江山，叱咤风云。此外，游戏还拥有锁妖塔、魂域对决、祸乱四起、幽府秘境等丰富多样的特色玩法，简直好玩又有趣。
 【游戏特色】
@@ -15873,6 +15138,180 @@
 无需硬干，小鬼异火还会自动为你攻击，解放双手，轻松挂机，超多福利随机送</t>
         </is>
       </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>最封神</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>新出审字[2013]561号</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>2013-05-14</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>三辰影库音像出版社</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>广州风之神软件科技有限公司</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>原</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>山鬼志：寒衣</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>可预约</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>安卓/iOS/Steam</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>策略/模拟/角色扮演</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>坤舆科技</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>https://www.taptap.cn/app/748985</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>https://img.tapimg.com/market/images/3f69aad8a65c27e95cf8e41d419fe059.png/appicon?t=1</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>天河历2010年十月初一，寒衣节，一位老人的离奇失踪，牵扯出天河镇两个村子里隐匿多年的秘密，随着越来越多的线索被发现，真相似乎就在眼前……《山鬼志：寒衣》是一款中国民俗题材的恐怖剧情解谜游戏。天河镇有一条不成文的规定：寒衣节这天，任何村民都不许靠近后山，若是因此惹上了什么山神野鬼，清风观的道长们是不会管的。可爷爷的失踪，让陈一来到了山下。山上真的有鬼吗？或许，还有比鬼可怕的东西。</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>一念山海</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>上线</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>国内游戏</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>国风/放置/角色扮演</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>深深工作室</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>https://www.taptap.cn/app/730120</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/auto/7e/d4/7ed4bf07a68b81fd2aa6018deb4a58ca.png</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>“山海结伴行，一念皆成仙” ★观前提示：这是一款并非所有人都能接受的纯数值爽游，如果你对此类游戏不感兴趣，那么接下来的简介会浪费你宝贵时间观看。  各位尊者好！《一念山海》是一款国风3D山海经题材的放置手游，在游戏中，你只需要点点点，便可以轻松体验纯正的东方幻想世界。 跟随主角，一人一飞剑遨游地图，修炼仙技除魔，偶遇奇珍异兽，打造上古神兵。从一介凡人逐渐蜕变成至高仙尊的奇幻之旅。  自动挂机？——有，很多。 告别繁杂操作，我们将整个修仙最精华的部分提取出来，自动化释放技能、简单操作、放置体验，无时无刻都能获得成长。  外观造型？——有，很多。 量大丰富管饱，稀世装备亲手打造。解锁千变万化的搭配方案，保证你是修仙路上最靓的仔！  收集山海经异兽？——有，很多。 下至凡界小妖，上至通天仙童皆为你所用。还有更多经典的山海异兽在游戏里等你收集。  福利内容？——有，很多 还在为养成发愁？资源狂送，正常游玩就能获得海量奖励，豹子头零充也能玩的很爽！保你修仙之旅一路顺畅。  氪金套路？——有，很多 童叟无欺囊括几乎市面上所有氪金手段，极其残忍。但我们承诺，争取让我们的衣食父母们花一分钱感受到五块钱的品质和爽感。</t>
+        </is>
+      </c>
       <c r="M141" t="inlineStr">
         <is>
           <t>是</t>
@@ -15880,28 +15319,32 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>最封神</t>
+          <t>一念山海</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>新出审字[2013]561号</t>
-        </is>
-      </c>
-      <c r="P141" t="inlineStr"/>
+          <t>国新出审〔2024〕2003号</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-14032-6</t>
+        </is>
+      </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>2013-05-14</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>三辰影库音像出版社</t>
+          <t>吉林音像出版社有限责任公司</t>
         </is>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>广州风之神软件科技有限公司</t>
+          <t>海南九悦互娱信息科技有限公司</t>
         </is>
       </c>
       <c r="T141" t="inlineStr">
@@ -15911,7 +15354,7 @@
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>原</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
@@ -15919,44 +15362,40 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W141" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>山鬼志：寒衣</t>
+          <t>三国望神州</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>可预约</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>安卓/iOS/Steam</t>
+          <t>安卓/iOS/PC端</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>策略/模拟/角色扮演</t>
+          <t>角色扮演/国风/剧情</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>坤舆科技</t>
+          <t>杭州弹指宇宙网络有限公司</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -15967,201 +15406,15 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://www.taptap.cn/app/748985</t>
+          <t>https://www.taptap.cn/app/622867</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>https://img.tapimg.com/market/images/3f69aad8a65c27e95cf8e41d419fe059.png/appicon?t=1</t>
+          <t>https://img.tapimg.com/market/images/bfa406cd8acbe1f46bc31b0478d37ea9.png/appicon?t=1</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
-        <is>
-          <t>天河历2010年十月初一，寒衣节，一位老人的离奇失踪，牵扯出天河镇两个村子里隐匿多年的秘密，随着越来越多的线索被发现，真相似乎就在眼前……《山鬼志：寒衣》是一款中国民俗题材的恐怖剧情解谜游戏。天河镇有一条不成文的规定：寒衣节这天，任何村民都不许靠近后山，若是因此惹上了什么山神野鬼，清风观的道长们是不会管的。可爷爷的失踪，让陈一来到了山下。山上真的有鬼吗？或许，还有比鬼可怕的东西。</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>一念山海</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>上线</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>国内游戏</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>国风/放置/角色扮演</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>深深工作室</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>TapTap</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>https://www.taptap.cn/app/730120</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>https://img.16p.com/auto/7e/d4/7ed4bf07a68b81fd2aa6018deb4a58ca.png</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>“山海结伴行，一念皆成仙” ★观前提示：这是一款并非所有人都能接受的纯数值爽游，如果你对此类游戏不感兴趣，那么接下来的简介会浪费你宝贵时间观看。  各位尊者好！《一念山海》是一款国风3D山海经题材的放置手游，在游戏中，你只需要点点点，便可以轻松体验纯正的东方幻想世界。 跟随主角，一人一飞剑遨游地图，修炼仙技除魔，偶遇奇珍异兽，打造上古神兵。从一介凡人逐渐蜕变成至高仙尊的奇幻之旅。  自动挂机？——有，很多。 告别繁杂操作，我们将整个修仙最精华的部分提取出来，自动化释放技能、简单操作、放置体验，无时无刻都能获得成长。  外观造型？——有，很多。 量大丰富管饱，稀世装备亲手打造。解锁千变万化的搭配方案，保证你是修仙路上最靓的仔！  收集山海经异兽？——有，很多。 下至凡界小妖，上至通天仙童皆为你所用。还有更多经典的山海异兽在游戏里等你收集。  福利内容？——有，很多 还在为养成发愁？资源狂送，正常游玩就能获得海量奖励，豹子头零充也能玩的很爽！保你修仙之旅一路顺畅。  氪金套路？——有，很多 童叟无欺囊括几乎市面上所有氪金手段，极其残忍。但我们承诺，争取让我们的衣食父母们花一分钱感受到五块钱的品质和爽感。</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>一念山海</t>
-        </is>
-      </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>国新出审〔2024〕2003号</t>
-        </is>
-      </c>
-      <c r="P143" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-14032-6</t>
-        </is>
-      </c>
-      <c r="Q143" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-      <c r="R143" t="inlineStr">
-        <is>
-          <t>吉林音像出版社有限责任公司</t>
-        </is>
-      </c>
-      <c r="S143" t="inlineStr">
-        <is>
-          <t>海南九悦互娱信息科技有限公司</t>
-        </is>
-      </c>
-      <c r="T143" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U143" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="V143" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W143" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>三国望神州</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>安卓/iOS/PC端</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>角色扮演/国风/剧情</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>杭州弹指宇宙网络有限公司</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>TapTap</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>https://www.taptap.cn/app/622867</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>https://img.tapimg.com/market/images/bfa406cd8acbe1f46bc31b0478d37ea9.png/appicon?t=1</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
         <is>
           <t>■三国战棋，当望神州
 《三国望神州》（前《代号南乡子》）以中国传统水墨工笔美术，描摹出令人耳目一新的三国乱世。各位明公将在这乱世绘卷中扮演那个时代割据一方的英雄，用经典战棋玩法调兵遣将，思当年豪杰之虑，谋当年明公之策，再现当年传奇之路。
@@ -16178,113 +15431,109 @@
 狼烟已起，墨砚已备，恭候明公执子入局，共绘三国！</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
         <is>
           <t>三国望神州</t>
         </is>
       </c>
-      <c r="O144" t="inlineStr">
+      <c r="O142" t="inlineStr">
         <is>
           <t>国新出审〔2024〕2175号</t>
         </is>
       </c>
-      <c r="P144" t="inlineStr">
+      <c r="P142" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-14124-8</t>
         </is>
       </c>
-      <c r="Q144" t="inlineStr">
+      <c r="Q142" t="inlineStr">
         <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="R144" t="inlineStr">
+      <c r="R142" t="inlineStr">
         <is>
           <t>上海科学技术文献出版社有限公司</t>
         </is>
       </c>
-      <c r="S144" t="inlineStr">
+      <c r="S142" t="inlineStr">
         <is>
           <t>星臻科技（上海）有限公司</t>
         </is>
       </c>
-      <c r="T144" t="inlineStr">
+      <c r="T142" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U144" t="inlineStr">
+      <c r="U142" t="inlineStr">
         <is>
           <t>移动、客户端</t>
         </is>
       </c>
-      <c r="V144" t="inlineStr">
+      <c r="V142" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W144" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W142" t="inlineStr"/>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>山海仙路</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>放置/修仙/剧情</t>
         </is>
       </c>
-      <c r="F145" t="n">
+      <c r="F143" t="n">
         <v>9.6</v>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>上海晓枫网络科技有限公司</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr">
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/717430</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/6e27cdfb92881e6ed30d29da0110a11b.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr">
+      <c r="L143" t="inlineStr">
         <is>
           <t>你从一缕残魂转世投胎，开启凡人修仙之路
 世界画面采用写意的古风水墨风格，简约而不简单~
@@ -16295,113 +15544,109 @@
 什么？你觉得不可能？修仙本就是逆天改命，让不可能成为可能！</t>
         </is>
       </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
         <is>
           <t>山海仙路</t>
         </is>
       </c>
-      <c r="O145" t="inlineStr">
+      <c r="O143" t="inlineStr">
         <is>
           <t>国新出审〔2023〕1176号</t>
         </is>
       </c>
-      <c r="P145" t="inlineStr">
+      <c r="P143" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-12514-9</t>
         </is>
       </c>
-      <c r="Q145" t="inlineStr">
+      <c r="Q143" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="R145" t="inlineStr">
+      <c r="R143" t="inlineStr">
         <is>
           <t>上海科学技术文献出版社有限公司</t>
         </is>
       </c>
-      <c r="S145" t="inlineStr">
+      <c r="S143" t="inlineStr">
         <is>
           <t>上海晓枫网络科技有限公司</t>
         </is>
       </c>
-      <c r="T145" t="inlineStr">
+      <c r="T143" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U145" t="inlineStr">
+      <c r="U143" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V145" t="inlineStr">
+      <c r="V143" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W145" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W143" t="inlineStr"/>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>明日方舟</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>更新</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>塔防/二次元/养成</t>
         </is>
       </c>
-      <c r="F146" t="n">
+      <c r="F144" t="n">
         <v>8.1</v>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>鹰角网络</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr">
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/70253</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr">
+      <c r="K144" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/2ea1a63c45fe294d36e29e348d441ea3.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr">
+      <c r="L144" t="inlineStr">
         <is>
           <t>起因不明并四处肆虐的天灾，席卷过的土地上出现了大量的神秘矿物——被人们称为“源石”。虽然源石的发现历史已久，但是依赖于技术的进步，其蕴含的能量使得文明顺利迈入现代，但与此同时，源石本身也催生出“感染者”的存在。
 身俱力量与不幸的存在，如今他们中的一部分，妄图与源石整合为一，为大地带来新的秩序。这场战火阴谋是我们对抗天灾遇到的新的阻碍。
@@ -16411,66 +15656,237 @@
 官方微信公众号：HG-AKS</t>
         </is>
       </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>明日方舟：终末地</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>国新出审〔2024〕1795号</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-13884-2</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>上海交通大学电子音像出版社有限公司</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>上海鹰角塔罗斯网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>移动、客户端、游戏机（PS5）游戏</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="W144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>破日开天</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>上线</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>安卓/iOS</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>宠物/放置/养成</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>百层</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>https://www.taptap.cn/app/748032</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>https://img.tapimg.com/market/images/819f01033065759995931970f83369e5.jpg/appicon?t=1</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>放置挂机、速刷资源、职业搭配、速通百关！30+种职业、100+种技能，50+各具特色的神器，技能自由搭配，宠物自动合成！</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>破日开天</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>新广出审[2017]8986号</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>2017-10-23</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>上海雪鲤鱼计算机科技有限公司</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>深圳市鲸旗天下网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>悟空传说2048</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>安卓/iOS</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>休闲/策略/单机</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>10</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>哈皮工作室</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>https://www.taptap.cn/app/741690</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>https://img.tapimg.com/market/images/a4a81ab64bbfda14e90cd732b8cc2d39.png/appicon?t=1</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>上下左右滑动，相同数字的武器、盾牌、药剂，各自合成更高级同类物品。
+拿起武器，斩妖除魔。注意，别让妖怪抢走你的武器！</t>
+        </is>
+      </c>
       <c r="M146" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>明日方舟：终末地</t>
-        </is>
-      </c>
-      <c r="O146" t="inlineStr">
-        <is>
-          <t>国新出审〔2024〕1795号</t>
-        </is>
-      </c>
-      <c r="P146" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-13884-2</t>
-        </is>
-      </c>
-      <c r="Q146" t="inlineStr">
-        <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-      <c r="R146" t="inlineStr">
-        <is>
-          <t>上海交通大学电子音像出版社有限公司</t>
-        </is>
-      </c>
-      <c r="S146" t="inlineStr">
-        <is>
-          <t>上海鹰角塔罗斯网络科技有限公司</t>
-        </is>
-      </c>
-      <c r="T146" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U146" t="inlineStr">
-        <is>
-          <t>移动、客户端、游戏机（PS5）游戏</t>
-        </is>
-      </c>
-      <c r="V146" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="W146" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>破日开天</t>
+          <t>永不言弃：镜世界</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -16480,7 +15896,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>上线</t>
+          <t>可预约</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -16490,15 +15906,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>宠物/放置/养成</t>
+          <t>益智</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>百层</t>
+          <t>金橘工作室</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -16509,198 +15925,15 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>https://www.taptap.cn/app/748032</t>
+          <t>https://www.taptap.cn/app/747286</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>https://img.tapimg.com/market/images/819f01033065759995931970f83369e5.jpg/appicon?t=1</t>
+          <t>https://img.tapimg.com/market/images/4869448a55c2a0e38aa86bd91a411a45.png/appicon?t=1</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
-        <is>
-          <t>放置挂机、速刷资源、职业搭配、速通百关！30+种职业、100+种技能，50+各具特色的神器，技能自由搭配，宠物自动合成！</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>破日开天</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>新广出审[2017]8986号</t>
-        </is>
-      </c>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr">
-        <is>
-          <t>2017-10-23</t>
-        </is>
-      </c>
-      <c r="R147" t="inlineStr">
-        <is>
-          <t>上海雪鲤鱼计算机科技有限公司</t>
-        </is>
-      </c>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>深圳市鲸旗天下网络科技有限公司</t>
-        </is>
-      </c>
-      <c r="T147" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U147" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="V147" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W147" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>悟空传说2048</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>安卓/iOS</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>休闲/策略/单机</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
-        <v>10</v>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>哈皮工作室</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>TapTap</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>https://www.taptap.cn/app/741690</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>https://img.tapimg.com/market/images/a4a81ab64bbfda14e90cd732b8cc2d39.png/appicon?t=1</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>上下左右滑动，相同数字的武器、盾牌、药剂，各自合成更高级同类物品。
-拿起武器，斩妖除魔。注意，别让妖怪抢走你的武器！</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr"/>
-      <c r="T148" t="inlineStr"/>
-      <c r="U148" t="inlineStr"/>
-      <c r="V148" t="inlineStr"/>
-      <c r="W148" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>永不言弃：镜世界</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>可预约</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>安卓/iOS</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>益智</t>
-        </is>
-      </c>
-      <c r="F149" t="n">
-        <v>0</v>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>金橘工作室</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>TapTap</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>https://www.taptap.cn/app/747286</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>https://img.tapimg.com/market/images/4869448a55c2a0e38aa86bd91a411a45.png/appicon?t=1</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
         <is>
           <t>硬核高难手游正版续作《永不言弃：镜世界》，开启一场虐心的音乐节奏之旅！
 创新玩法，节奏为王：
@@ -16713,113 +15946,109 @@
 继承前作魔性洗脑的动感背景音乐！创新推出自制音效功能，你可录制专属音效，让游戏音效充满创意与个性，为跑酷之旅增添别样乐趣。</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
         <is>
           <t>永不言弃：镜世界</t>
         </is>
       </c>
-      <c r="O149" t="inlineStr">
+      <c r="O147" t="inlineStr">
         <is>
           <t>国新出审〔2025〕189号</t>
         </is>
       </c>
-      <c r="P149" t="inlineStr">
+      <c r="P147" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-14572-7</t>
         </is>
       </c>
-      <c r="Q149" t="inlineStr">
+      <c r="Q147" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
-      <c r="R149" t="inlineStr">
+      <c r="R147" t="inlineStr">
         <is>
           <t>炫彩互动网络科技有限公司</t>
         </is>
       </c>
-      <c r="S149" t="inlineStr">
+      <c r="S147" t="inlineStr">
         <is>
           <t>重庆邦邦科技有限公司</t>
         </is>
       </c>
-      <c r="T149" t="inlineStr">
+      <c r="T147" t="inlineStr">
         <is>
           <t>进口网络游戏</t>
         </is>
       </c>
-      <c r="U149" t="inlineStr">
+      <c r="U147" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V149" t="inlineStr">
+      <c r="V147" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W149" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W147" t="inlineStr"/>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>永不言弃：掉落</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>可预约</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>益智</t>
         </is>
       </c>
-      <c r="F150" t="n">
+      <c r="F148" t="n">
         <v>0</v>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>金橘工作室</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr">
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/747285</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr">
+      <c r="K148" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/4e35e5e1e5bb70c598a010b621aaaf03.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L150" t="inlineStr">
+      <c r="L148" t="inlineStr">
         <is>
           <t>突破常规，开启独特下坠冒险之旅！正版授权《永不言弃：掉落》来了！
 【创新玩法，挑战极限】
@@ -16832,229 +16061,225 @@
 多种角色与装饰品随心选，打造你的专属“小墨球”形象。</t>
         </is>
       </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
         <is>
           <t>永不言弃：掉落</t>
         </is>
       </c>
-      <c r="O150" t="inlineStr">
+      <c r="O148" t="inlineStr">
         <is>
           <t>国新出审〔2024〕2227号</t>
         </is>
       </c>
-      <c r="P150" t="inlineStr">
+      <c r="P148" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-14176-7</t>
         </is>
       </c>
-      <c r="Q150" t="inlineStr">
+      <c r="Q148" t="inlineStr">
         <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="R150" t="inlineStr">
+      <c r="R148" t="inlineStr">
         <is>
           <t>炫彩互动网络科技有限公司</t>
         </is>
       </c>
-      <c r="S150" t="inlineStr">
+      <c r="S148" t="inlineStr">
         <is>
           <t>重庆邦邦科技有限公司</t>
         </is>
       </c>
-      <c r="T150" t="inlineStr">
+      <c r="T148" t="inlineStr">
         <is>
           <t>进口网络游戏</t>
         </is>
       </c>
-      <c r="U150" t="inlineStr">
+      <c r="U148" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V150" t="inlineStr">
+      <c r="V148" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W150" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="W148" t="inlineStr"/>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>胜利女神：新的希望</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>国内游戏</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>射击/二次元/美少女</t>
         </is>
       </c>
-      <c r="F151" t="n">
+      <c r="F149" t="n">
         <v>0</v>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>Shenzhen Tencent Tianyou Technology Ltd</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>AppStore</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
         <is>
           <t>https://apps.apple.com/cn/app/%E8%83%9C%E5%88%A9%E5%A5%B3%E7%A5%9E-%E6%96%B0%E7%9A%84%E5%B8%8C%E6%9C%9B/id6467825646?uo=4</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr">
+      <c r="K149" t="inlineStr">
         <is>
           <t>https://is1-ssl.mzstatic.com/image/thumb/Purple221/v4/13/b7/b8/13b7b83e-17ac-c077-f788-a42f2dd22186/AppIcon-1x_U007emarketing-0-7-0-85-220-0.png/512x512bb.jpg</t>
         </is>
       </c>
-      <c r="L151" t="inlineStr">
+      <c r="L149" t="inlineStr">
         <is>
           <t>《胜利女神：新的希望》是一款超动态美少女背身射击RPG游戏。玩家将带领“胜利女神”们，在末世中对抗外来的侵略势力，夺回人类原本的地上世界。
 游戏有着顶尖的动态立绘技术， 栩栩如生的2D角色表演，还有射击卡牌、角色养成、放置挂机等丰富的玩法。</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
         <is>
           <t>胜利女神：新的希望</t>
         </is>
       </c>
-      <c r="O151" t="inlineStr">
+      <c r="O149" t="inlineStr">
         <is>
           <t>国新出审〔2024〕2221号</t>
         </is>
       </c>
-      <c r="P151" t="inlineStr">
+      <c r="P149" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-14170-5</t>
         </is>
       </c>
-      <c r="Q151" t="inlineStr">
+      <c r="Q149" t="inlineStr">
         <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="R151" t="inlineStr">
+      <c r="R149" t="inlineStr">
         <is>
           <t>咪咕互动娱乐有限公司</t>
         </is>
       </c>
-      <c r="S151" t="inlineStr">
+      <c r="S149" t="inlineStr">
         <is>
           <t>咪咕互动娱乐有限公司</t>
         </is>
       </c>
-      <c r="T151" t="inlineStr">
+      <c r="T149" t="inlineStr">
         <is>
           <t>进口网络游戏</t>
         </is>
       </c>
-      <c r="U151" t="inlineStr">
+      <c r="U149" t="inlineStr">
         <is>
           <t>移动、客户端</t>
         </is>
       </c>
-      <c r="V151" t="inlineStr">
+      <c r="V149" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W151" t="inlineStr">
+      <c r="W149" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>龙息：神寂</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>上线</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>国内游戏</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>游戏/策略/角色扮演</t>
         </is>
       </c>
-      <c r="F152" t="n">
+      <c r="F150" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>Shenzhen Tencent Tianyou Technology Ltd</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>好游快爆</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr">
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
         <is>
           <t>https://apps.apple.com/cn/app/%E9%BE%99%E6%81%AF-%E7%A5%9E%E5%AF%82-%E6%AD%A3%E7%89%88%E9%BE%99%E4%B8%8E%E5%9C%B0%E4%B8%8B%E5%9F%8E%E8%81%94%E5%8A%A8/id6480042764?uo=4</t>
         </is>
       </c>
-      <c r="K152" t="inlineStr">
+      <c r="K150" t="inlineStr">
         <is>
           <t>https://is1-ssl.mzstatic.com/image/thumb/Purple211/v4/08/2e/a6/082ea632-22bb-424e-25ab-6ce8a991afbe/AppIcon-0-0-1x_U007emarketing-0-7-0-85-220.png/512x512bb.jpg</t>
         </is>
       </c>
-      <c r="L152" t="inlineStr">
+      <c r="L150" t="inlineStr">
         <is>
           <t>&gt;&gt;荣登2023年苹果WWDC全球开发者大会，在场唯一国产游戏
 &gt;&gt;联动殿堂级西幻IP【龙与地下城】，传奇英雄、BOSS、剧情即将登场
@@ -17072,6 +16297,232 @@
 最后，希望你能享受这场奇幻之旅！</t>
         </is>
       </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>龙息：神寂</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>国新出审〔2024〕201号</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-13072-3</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>浙江出版集团数字传媒有限公司</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>上海傲爵数码科技有限公司</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>移动、客户端</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>七日世界</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>国内游戏</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>游戏/角色扮演/冒险</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Hangzhou NetEase Leihuo Technology Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>好游快爆</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>https://www.3839.com/a/138857.htm</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20240413/14163022883</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>超自然开放世界游戏简介《七日世界》是一款超自然题材的多人开放世界游戏。游戏发生在一个怪诞的后启示录世界中，你需要和好友并肩为了生存资源而战，建造你们的家园领地，并一起战胜恐怖的畸变体，揭露世界沦陷的真相。曾经，你是人类中的一份子。现在，你仍是吗？超自然开放世界 自由享受生存与探索浩劫改变了星球上的一切，人类，动物，植物……所有生命体都被神秘的外来物质——“星尘”所侵入。作为一名“超越者”，你对星尘的抵御能力远甚常人，但这并不意味你是安全的。在16*16KM的超大无缝地图中，无论是作为独狼求生，还是联合其他人一同冒险探索，你都可以自由选择活下去的方式。当世界陷入末日混沌之时，你是我们最后的希望。直面未知恐惧 怪诞异常来袭星尘浩劫滋生出难以计量的畸变体，这些恐怖的怪物占据了几乎整个世界。必须从它们手中求得人类的生存之地！过去畸变体一直将人类视作猎物，但现在，超越者，这世界有了你…该换我们成为猎人了！丰富剧本带来多样体验 探索、建造、刷本、种田、经商无所限制作为赛季制游戏，无论是喜欢挑战强大的畸变体，还是期望与其他超越者正面对抗，周期性持续更新的剧本都能满足你的愿望。选择心仪的剧本，和其他同好玩家一起尽情享受这场末日狂欢吧！绿色公平体验 向数值付费说不游戏不会售卖任何影响数值平衡的商业化内容，超越者们可以公平的通过各种游戏体验内容，发展自己，无压力的选择自己喜好的游玩方式。大世界自由建造 桥梁、房车、堡垒、海上别墅展现创意在荒野的任何一个角落，都可以随心建造！你可以和队友分工合作，打造一座桥梁，跨越河流或者山谷。也可以打造一座极具生存主义风格的堡垒，把所有收集来的好东西都塞到坚固的金属墙后；在确保安全的前提下，还可以建造一所功能齐全、外形华丽的豪华别墅或者末日乐园，一起派对狂欢。厌倦了一成不变的建筑风景？快为房屋加上轮子，来一场说走就走的房车之旅吧~拟人异常物陪你探索大世界 打工、战斗、贴贴，随时相伴！拿着手枪突突突的羊驼，会颠勺烧菜的小青龙，勤勤恳恳挖矿的矿石小人…形态与功能各异的异常物遍布世界各个角落，可被超越者收容捕获。无论是战斗还是领地生产，它们都是不可或缺的重要助力。当然，也需要关注异常物们的需求，提供良好的收容环境并多多互动，不然它们可是会发脾气的。有了异常物的陪伴，末日求生的旅途不再孤单。</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>七日世界</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>国新出审〔2023〕836号</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>978-7-498-12375-6</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>广州网易计算机系统有限公司</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>杭州网易雷火科技有限公司</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>移动、客户端</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W151" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>荒野起源</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>国内游戏</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>开放世界/SOC/生存</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>腾讯游戏</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>好游快爆</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>https://www.3839.com/a/177337.htm</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20241129/15420188978</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>机械文明荒野生存游戏，换个世界换个活法简介在遥远的未来，原本的地球和人类文明不复存在。荒野之上，机械玛卡横行，人类从蛮荒时代开始重新发展。你，来自珞珈族部落的“拓荒者”，将在荒野中探索远古遗迹，建造家园，武装自己，培养玛卡，击败各地区BOSS点亮莫笛拉之眼，最终了解世界的真相，拯救即将毁灭的莫笛拉世界。莫笛拉世界由浪漫绚丽的达里曼平原、辽阔的兰瑙沙漠、寂寥的奥尔萨雪山等丰富多样的场景地貌组成。玩家将会探索每个地区，体验不同部落的风貌，并面对不断提升的生存挑战，收集资源制作装备武器，完成BOSS狩猎。</t>
+        </is>
+      </c>
       <c r="M152" t="inlineStr">
         <is>
           <t>是</t>
@@ -17079,32 +16530,32 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>龙息：神寂</t>
+          <t>荒野起源</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>国新出审〔2024〕201号</t>
+          <t>国新出审〔2024〕399号</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>ISBN 978-7-498-13072-3</t>
+          <t>ISBN 978-7-498-13224-6</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>浙江出版集团数字传媒有限公司</t>
+          <t>上海电子出版有限公司</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>上海傲爵数码科技有限公司</t>
+          <t>上海游空信息技术有限公司</t>
         </is>
       </c>
       <c r="T152" t="inlineStr">
@@ -17122,21 +16573,17 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W152" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+      <c r="W152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>七日世界</t>
+          <t>暗区突围：无限</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -17146,326 +16593,100 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>国内游戏</t>
+          <t>电脑/主机</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>游戏/角色扮演/冒险</t>
+          <t>高画质/射击/动作</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Hangzhou NetEase Leihuo Technology Co., Ltd.</t>
+          <t>腾讯</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>好游快爆</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr"/>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/138857.htm</t>
+          <t>https://www.taptap.cn/app/732013?os=pc</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20240413/14163022883</t>
+          <t>https://img.tapimg.com/market/images/516ee18b01ac81df77f368c1d30b8b68.jpg/appicon?t=1</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
-        <is>
-          <t>超自然开放世界游戏简介《七日世界》是一款超自然题材的多人开放世界游戏。游戏发生在一个怪诞的后启示录世界中，你需要和好友并肩为了生存资源而战，建造你们的家园领地，并一起战胜恐怖的畸变体，揭露世界沦陷的真相。曾经，你是人类中的一份子。现在，你仍是吗？超自然开放世界 自由享受生存与探索浩劫改变了星球上的一切，人类，动物，植物……所有生命体都被神秘的外来物质——“星尘”所侵入。作为一名“超越者”，你对星尘的抵御能力远甚常人，但这并不意味你是安全的。在16*16KM的超大无缝地图中，无论是作为独狼求生，还是联合其他人一同冒险探索，你都可以自由选择活下去的方式。当世界陷入末日混沌之时，你是我们最后的希望。直面未知恐惧 怪诞异常来袭星尘浩劫滋生出难以计量的畸变体，这些恐怖的怪物占据了几乎整个世界。必须从它们手中求得人类的生存之地！过去畸变体一直将人类视作猎物，但现在，超越者，这世界有了你…该换我们成为猎人了！丰富剧本带来多样体验 探索、建造、刷本、种田、经商无所限制作为赛季制游戏，无论是喜欢挑战强大的畸变体，还是期望与其他超越者正面对抗，周期性持续更新的剧本都能满足你的愿望。选择心仪的剧本，和其他同好玩家一起尽情享受这场末日狂欢吧！绿色公平体验 向数值付费说不游戏不会售卖任何影响数值平衡的商业化内容，超越者们可以公平的通过各种游戏体验内容，发展自己，无压力的选择自己喜好的游玩方式。大世界自由建造 桥梁、房车、堡垒、海上别墅展现创意在荒野的任何一个角落，都可以随心建造！你可以和队友分工合作，打造一座桥梁，跨越河流或者山谷。也可以打造一座极具生存主义风格的堡垒，把所有收集来的好东西都塞到坚固的金属墙后；在确保安全的前提下，还可以建造一所功能齐全、外形华丽的豪华别墅或者末日乐园，一起派对狂欢。厌倦了一成不变的建筑风景？快为房屋加上轮子，来一场说走就走的房车之旅吧~拟人异常物陪你探索大世界 打工、战斗、贴贴，随时相伴！拿着手枪突突突的羊驼，会颠勺烧菜的小青龙，勤勤恳恳挖矿的矿石小人…形态与功能各异的异常物遍布世界各个角落，可被超越者收容捕获。无论是战斗还是领地生产，它们都是不可或缺的重要助力。当然，也需要关注异常物们的需求，提供良好的收容环境并多多互动，不然它们可是会发脾气的。有了异常物的陪伴，末日求生的旅途不再孤单。</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>七日世界</t>
-        </is>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>国新出审〔2023〕836号</t>
-        </is>
-      </c>
-      <c r="P153" t="inlineStr">
-        <is>
-          <t>978-7-498-12375-6</t>
-        </is>
-      </c>
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>2023-05-19</t>
-        </is>
-      </c>
-      <c r="R153" t="inlineStr">
-        <is>
-          <t>广州网易计算机系统有限公司</t>
-        </is>
-      </c>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>杭州网易雷火科技有限公司</t>
-        </is>
-      </c>
-      <c r="T153" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U153" t="inlineStr">
-        <is>
-          <t>移动、客户端</t>
-        </is>
-      </c>
-      <c r="V153" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W153" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>荒野起源</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2024-12-18</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>国内游戏</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>开放世界/SOC/生存</t>
-        </is>
-      </c>
-      <c r="F154" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>腾讯游戏</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>好游快爆</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>https://www.3839.com/a/177337.htm</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20241129/15420188978</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>机械文明荒野生存游戏，换个世界换个活法简介在遥远的未来，原本的地球和人类文明不复存在。荒野之上，机械玛卡横行，人类从蛮荒时代开始重新发展。你，来自珞珈族部落的“拓荒者”，将在荒野中探索远古遗迹，建造家园，武装自己，培养玛卡，击败各地区BOSS点亮莫笛拉之眼，最终了解世界的真相，拯救即将毁灭的莫笛拉世界。莫笛拉世界由浪漫绚丽的达里曼平原、辽阔的兰瑙沙漠、寂寥的奥尔萨雪山等丰富多样的场景地貌组成。玩家将会探索每个地区，体验不同部落的风貌，并面对不断提升的生存挑战，收集资源制作装备武器，完成BOSS狩猎。</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>荒野起源</t>
-        </is>
-      </c>
-      <c r="O154" t="inlineStr">
-        <is>
-          <t>国新出审〔2024〕399号</t>
-        </is>
-      </c>
-      <c r="P154" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-13224-6</t>
-        </is>
-      </c>
-      <c r="Q154" t="inlineStr">
-        <is>
-          <t>2024-02-26</t>
-        </is>
-      </c>
-      <c r="R154" t="inlineStr">
-        <is>
-          <t>上海电子出版有限公司</t>
-        </is>
-      </c>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>上海游空信息技术有限公司</t>
-        </is>
-      </c>
-      <c r="T154" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U154" t="inlineStr">
-        <is>
-          <t>移动、客户端</t>
-        </is>
-      </c>
-      <c r="V154" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W154" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>暗区突围：无限</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2024-11-20</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>电脑/主机</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>高画质/射击/动作</t>
-        </is>
-      </c>
-      <c r="F155" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>腾讯</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>TapTap</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>https://www.taptap.cn/app/732013?os=pc</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>https://img.tapimg.com/market/images/516ee18b01ac81df77f368c1d30b8b68.jpg/appicon?t=1</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
         <is>
           <t>《暗区突围：无限》是魔方工作室自研IP暗区突围的全新端游续作，是一款免费硬核军事模拟撤离式射击游戏。从手游到端游，体验前所未有的画质飞升！《暗区突围：无限》将你带入一个更加细腻、真实的战场；更通过端游的强大性能，带来焕然一新的沉浸式体验。
 为了获得战利品，你必须活着撤离战斗区域，在射击、掠夺和突围中获胜。你可以和敌人正面交锋、藏起来埋伏敌人，或避免交战。在这款身临其境的战争模拟游戏中，高风险等于高回报。
 扣下扳机，躲藏起来，在令人瞠目结舌的逼真视觉效果和音效体验中前进。闯入战斗竞技场获得高价值物品致富……但要做好为生存而战的准备！</t>
         </is>
       </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N155" t="inlineStr">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
         <is>
           <t>暗区突围：无限</t>
         </is>
       </c>
-      <c r="O155" t="inlineStr">
+      <c r="O153" t="inlineStr">
         <is>
           <t>国新出审〔2024〕1446号</t>
         </is>
       </c>
-      <c r="P155" t="inlineStr">
+      <c r="P153" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-13705-0</t>
         </is>
       </c>
-      <c r="Q155" t="inlineStr">
+      <c r="Q153" t="inlineStr">
         <is>
           <t>2024-07-22 00:00:00</t>
         </is>
       </c>
-      <c r="R155" t="inlineStr">
+      <c r="R153" t="inlineStr">
         <is>
           <t>华中科技大学电子音像出版社</t>
         </is>
       </c>
-      <c r="S155" t="inlineStr">
+      <c r="S153" t="inlineStr">
         <is>
           <t>武汉市风泽中孚科技有限公司</t>
         </is>
       </c>
-      <c r="T155" t="inlineStr">
+      <c r="T153" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U155" t="inlineStr">
+      <c r="U153" t="inlineStr">
         <is>
           <t>客户端</t>
         </is>
       </c>
-      <c r="V155" t="inlineStr">
+      <c r="V153" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W155" t="inlineStr">
+      <c r="W153" t="inlineStr">
         <is>
           <t>是</t>
         </is>

--- a/data/all_games_data.xlsx
+++ b/data/all_games_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W153"/>
+  <dimension ref="A1:W157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11768,12 +11768,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>野蛮人大作战2</t>
+          <t>了不起的0516</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -11783,41 +11783,51 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>国内游戏</t>
+          <t>安卓/iOS</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>多人联机/竞技/魔性</t>
+          <t>ARPG/地牢/卡牌</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>8.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>BBQ工作室</t>
+          <t>宝藏游戏</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>好游快爆</t>
+          <t>TapTap</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/145523.htm</t>
+          <t>https://www.taptap.cn/app/709420</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20240307/17225456318</t>
+          <t>https://img.tapimg.com/market/images/59394bcced0a1307b19ed072f26b5d50.jpg/appicon?t=1</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>新派轻竞技游戏简介嗨，还记得大胡子巴巴六吗？新派轻竞技游戏《野蛮人大作战2》来啦！逗趣搞怪的野蛮人英雄，魔性奇葩的道具宠物；经典3v3v3乱斗创意新篇章，欢乐竞技全程高能根本停不下来！准备好了吗，化身野蛮人酋长巴巴六，一起在充满欢乐的野蛮世界开启乱斗之旅吧！游戏特色：【3v3v3逗趣大乱炖，笑到打滚停不下手！】三队憨憨在线掰头，魔性互啄欢乐加倍！五分钟一局随时开黑，地壳运动让你满地打滑。随机生成的毒圈，专治各种不服，吃着蘑菇唱着歌，突然就被队友踹进战圈啦！【菇霸の诱惑：要当英雄还是外卖？】全场最靓的巨无霸蘑菇闪亮登场！揍它就能变身金光闪闪大魔王，但小心别胖成球被当成肉包子！偷偷告诉你：组队薅菇羊毛时，记得把队友推到菇霸嘴边当盾牌哦~【技能盲盒大抽奖，每场不一样！】开局随机送超能力大礼包：龙卷风牌吸尘器、霹雳啪啪触电舞、地刺仙人跳陷阱，还有会跑路的急救鸡腿！没有最强的套路，只有最邪的打法！打造专属流派，秀出你的骚操作！【钩锁の千层套路，老六の百万种死法】黄金矿工模拟器启动！勾金菇、抢人头、偷屁股——小心别被钩成海带条，或被蹲尸抢到裤衩都不剩！海上双贼船激情互钩，空中转体三周半完美落海，围观群众纷纷表示"建议申报迷惑行为大赏"！【奇葩装备图鉴，沙雕指数爆表！】左手滋滋冒油的烤肉串，右手会咬人的鲨鱼大宝剑！骑着会喷火的亚龙玩漂移。哦对！还有千万不能捡的魔盒！当战斗BGM突然鬼畜，别怀疑——这是野蛮人的求偶...啊不，胜利之舞！</t>
+          <t>《了不起的0516》是一个箱庭世界的动作冒险游戏，在游戏的世界中，拥有着不同风格的场景区域，高度自由的探索挑战，丰富多彩的机关解谜，形态各异的野外怪物，你只需要有一丢丢的好奇心与耐心，就能在这个世界中自由翱翔。
+「一段从头开始的解谜之旅」
+化身第0516号机器人在极其丰富的箱庭世界中探索，向源头出发，只为寻找那遗失在记忆中的身世之谜！
+「一片色彩缤纷的废土世界」
+庞大的荒废城市地图让你在不同城市中穿梭冒险，与不同的NPC交互触发有趣的剧情，给末日废土的荒芜增添缤纷的色彩。
+「一场荒诞离奇的冒险游戏」
+旅途过程中遇到形形色色的人物，或是吃瓜的群众，或是有力的伙伴，或是宿命的敌人，在荒诞中偶遇，又在离奇中冒险。
+「一次酣畅淋漓的沉浸战斗」
+冒险故事总少不了激烈的战斗，这里没有自动战斗的无聊，没有一来一回的打闹，有的是拳拳到肉的精彩，相性满格时淋漓尽致的大招！
+「一支各怀绝技的三人小队」
+根据不同职业打造属于自己的DIY战队!全新3人场内轮换式战斗，操作简单，养成便捷，各异的技能，不同的职业组合搭配，策略十足！</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -11827,32 +11837,32 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>野蛮人大作战2</t>
+          <t>了不起的0516</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>国新出审[2021]162号</t>
+          <t>国新出审〔2024〕1301号</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>ISBN 978-7-498-08700-3</t>
+          <t>ISBN 978-7-498-13639-8</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>2023-01-17</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>杭州电魂网络科技有限公司</t>
+          <t>深圳中青宝互动网络股份有限公司</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>杭州电魂网络科技有限公司</t>
+          <t>北京星磐科技有限公司</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
@@ -11862,7 +11872,7 @@
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>移动、客户端、游戏机-Switch、PS4、XBOX</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
@@ -11875,60 +11885,66 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>冰汽时代：最后的家园</t>
+          <t>现代战舰</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>测试</t>
+          <t>测试招募</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>国内游戏</t>
+          <t>安卓/iOS</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>模拟经营/建造/生存</t>
+          <t>多人联机/高画质/射击</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>网易游戏</t>
+          <t>海南战火互娱信息技术有限公司</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>好游快爆</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/124132.htm</t>
+          <t>https://www.taptap.cn/app/708927</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20250320/14262296490</t>
+          <t>https://img.tapimg.com/market/images/dbdbec508bd66cffc76ccbaf2c7f3c66.png/appicon?t=1</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>末世城市生存经营手游，幸存者的命运就掌握在你手中简介灾难末世下，你能否带领你的人民拯救地球最后的城市？《冰汽时代：最后的家园》是根据STEAM年度销量前3游戏改编的末世城市生存经营手游。19世纪蒸汽时代，冰霜灾难突袭全球，温度骤降0度以下，人类只剩下最后一座城市依靠能量塔提供热量存活。你作为这座城市的领袖，需要带领人民建设城市抵抗极度严寒。你将会模拟真实的城市社会生存，制定颁布律法、树立信仰、提升满意度，合理管理人民。你还需要在道德与现实之间做出两难抉择，你的每一个决定，都关乎你的城市和人民能否活下来。【游戏特色】-STEAM年度前3游戏改编 蒸汽朋克1884 95%好评2018年度销量TOP3游戏《冰汽时代》正版手游，该作获得BIG最佳游戏等23个奖项。在蒸汽时代和冰霜朋克的世界中，你将会体验到末日生存经营挑战及中世纪科幻浪漫。-末日生存+城市经营 领导人类建设最后之城你的任务是保证城市和人民生存下去。如何解决温饱抵抗-150度严寒，将考验你的生存之道；如何建设城市管理人民，将验证你的经营策略。-人性抉择情感叩问 两难执政决策不同剧情作为城市管理者会遇到很多人性抉择，比如撤离时最后一张船票交给父亲还是老人孩子。游戏里不会提供正确答案，更多是两难抉择带来的思考，以及人性光辉与黑暗沉浸式剧情体验。-实时拟真天气变化 南极冰雪昼夜阴晴交替继承PC主机级画面表现，模拟真实雪景、实时光照表现，昼夜、阴晴、雨雪自然交替，如同身临真实的南极冰雪风光。-社会生存真实模拟 制定律法统筹温饱科技和真实社会一样，管理者需要解决人民的温饱、提供医疗教育提升满意度、制定律法保证社会秩序、开发科学技术提高生产力。你的管理领导能力决定社会发展水平。</t>
+          <t>全球5000万玩家，快节奏5v5现代海战手游大作《现代战舰》，由知名战争游戏开发商Gaijin旗下Artstorm工作室研发。
+凭借高度还原现实的战舰战机、独特的游戏理念与玩法、优秀的画面表现力和操作手感，在全球范围取得巨大成功。
+超300种 战争机器
+汇集各国知名舰船、战机超300种，搭配200种导弹、电磁炮等制导武器、自动武器和反制装备，定制自己的独特战舰，打造超级舰队。
+快节奏 5v5海战
+制导武器、电磁武器、自动近防武器，进攻与反制，200多种尖端武器装备呈现。快节奏现代海战玩法，体验大洋统治者的无尽快感。
+3D画质 真实战争
+自现实世界1:1建模，实地感受导弹火炮齐射的毁灭快感。结合游戏震撼的物理效果与拟真的操作体验，为你带来更真实的战争体验。
+四端互通 随时开战
+基于Unity引擎打造，原生iOS/安卓/鸿蒙/PC全场景游戏资产互通。华丽画质、优秀手感、超多活动，统统无缝切换，尽享随时战斗极致乐趣。
+司令，联合舰队正在待命，请您指示！</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -11938,17 +11954,17 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>冰汽时代：最后的家园</t>
+          <t>现代战舰</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>国新出审〔2025〕178号</t>
+          <t>国新出审〔2025〕185号</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>ISBN 978-7-498-14561-1</t>
+          <t>ISBN 978-7-498-14568-0</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
@@ -11958,12 +11974,12 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>广州网易计算机系统有限公司</t>
+          <t>北京空中信使信息技术有限公司</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>杭州网易雷火科技有限公司</t>
+          <t>北京空中信使信息技术有限公司</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
@@ -11973,7 +11989,7 @@
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>移动、客户端</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
@@ -11986,35 +12002,35 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>荒原曙光</t>
+          <t>米姆米姆哈</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>测试</t>
+          <t>测试招募</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>国内游戏</t>
+          <t>安卓/iOS/PC端</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>沙盒/建造/动作</t>
+          <t>模拟经营/治愈/多人联机</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>广州灵犀互动娱乐有限公司</t>
+          <t>趣糖工作室</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -12025,17 +12041,32 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>https://www.taptap.cn/app/711932</t>
+          <t>https://www.taptap.cn/app/575173</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>https://img.16p.com/auto/dc/35/dc353f7603dd068eb907efb0833e37d8.png</t>
+          <t>https://img.tapimg.com/market/images/a94c5c3a32c11a3025bbb4e89848d8b8.png/appicon?t=1</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>起初，浮空城在热浪和欢呼声中启航 新伦顿载着仅存的人类远离被污染的大地 蓝天浮岛，每个人对未来都充满希望 可数十年后... 人口膨胀，房屋只能在有限的土地上层层滋长 原本宽敞的街道被填满，变成逼仄、昏暗、潮湿的巷道 污水横流，藏污纳垢 直到那一天，他们说大地的污染已经褪去 重返大地的《伊甸园计划》即将是文明火种延续的曙光 我们重新踏上甲板 肩负重建大地文明的使命 可那里是否又会如我们所愿？......  【冷兵器原始求生】 重返大地，你需要直接面对残酷的大自然。没有高科技的帮助，你必须收集身边的材料，用最原始的手段打造求生工具，尽快摆脱风餐露宿茹毛饮血的窘况。钻木取火，用简易的陷阱捕猎，砍伐木材，给自己搭建一个遮挡风雨的庇护所，在变幻莫测的天气和随时发起袭击的野兽等种种威胁下，要努力活下来。  【刀耕火种，制造一切必要的求生工具】 荒野求生第一步：点燃篝火，解决基本的温饱问题。收集材料，制造趁手的求生工具，晾晒肉干延长储存，搭建炉灶烧制器皿，在住所附近播撒种子，规律收获......而伐木挖矿是一切的基础，但切记安全！当前已发生多起树木倒塌伤人事件！  【世界不仅要好看，真实所见，皆是玩法】 近乎完全黑暗的无光森林，凶兽发光的双眼正在虎视眈眈；风暴常驻的雪山深处，藏有宝藏的冰晶等待被火焰融解；寸步难行的泥潭沼泽，密布有毒的瘴气......放眼宽广的世界，多种地形各有挑战。温度、干湿、野兽威胁甚至海拔、光照都是环境中的致命威胁。  【一场星球级别的文明重建即将开始】 原始世界，每一处都等你来“重塑建造”。物色一处安全怡人的区域，搭建求生的庇护营地，圈养动物，开垦种植。你也并非孤身一人，和同伴一起共建发展，聚集人气，从单营地到小镇，再遍布整个世界。”世界“发展轨迹各不相同，最终呈现完全由你决定。  【世界基建团队招募中】 团结探险家的力量，遇河建桥，遇崖搭梯，筑高台建望远镜，和所有人一起分享”基建“便捷的成果。用文明的建造征服野蛮的自然。</t>
+          <t>“相遇在奇幻的梦世界吧！童话风多主题浮岛等你探索”
+在漂浮着无数岛屿的梦世界，随时随地躺平放松，见证每一刻美好的瞬间~
+你可以驾驶飞屋漫游主题浮岛，在棉花糖般的云海中穿越一个又一个奇妙世界，来一场童话般的飞屋环游式探险；
+你可以撑着滑翔伞飞！和好友一起从日出飞跃到黄昏；
+你还可以开着小飞机飞！从巨树岛穿梭到永夜森林，从水母漂浮的海中之岛到珠宝雕琢的沙漠王国，探索每一个未曾有人造访的空中国度……
+咦，这座浮空无人岛没有岛主？谁发现就是谁的啰！种菜、收集、养米姆、搞建造、开宴会、邀朋友……想干什么都可以~
+等待开荒的家园岛首先最适合觉醒种田血脉了，天上的菜可不是一般的菜，比头还大的方头南瓜，会发光的星星小麦，都是千奇百怪的菜~
+随手捕捉圆滚滚的米姆帮忙种菜，浇水的蓝蓝鼠、采石头的桃桃猴、刚带回家的夜电喵居然还会做面包，这么好的浮空岛生活搭子上哪儿找？诶？卡皮豚不可以摸鱼哦！抓到是要被罚跳草裙舞的！
+生产流水线成型后就开始装扮你的岛屿和家园吧！这里地形是可以改造的，家具和建材是多种多样的，各色方块是不限量的，只有你想不到，没有你搭不出。
+田园森系、奶油法式、复古欧式、典雅古风、现代极简……自由搭建你梦想中的家；
+糖果游乐场、空中花园、巧克力咖啡厅……随心创造自己浮空岛的主题建筑；
+你还能和好友一起共建独一无二的地标建筑，作为永久纪念的友谊丰碑！
+这么好看的作品，建完记得拍照发到空岛专属好友圈，会有很多人为你点赞的！
+岛上还有适合e人和i人宝宝的各种交友方式，任君选择！
+在云海中开启钓鱼比赛、举办空中茶话会、骑着巨型米姆赛跑、加入飞行爱好者协会组建冒险队、显眼包们还能穿着西瓜菠萝水果套装到处打卡……但要注意不要吵到别人的眼睛哦！
+总之，这是一个有无限可能的浮空岛世界，请忘记烦恼，开启飞行模式登岛起飞吧~</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -12045,32 +12076,32 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>荒原曙光</t>
+          <t>米姆米姆哈</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>国新出审〔2024〕1768号</t>
+          <t>国新出审〔2024〕2160号</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>ISBN 978-7-498-13857-6</t>
+          <t>ISBN 978-7-498-14109-5</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>广东音像出版社有限公司</t>
+          <t>广州百田信息科技有限公司</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>广州灵犀互动娱乐有限公司</t>
+          <t>广州天梯网络科技有限公司</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
@@ -12093,17 +12124,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>梦的第七章</t>
+          <t>口袋新旅程</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>预下载</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -12113,15 +12144,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>美少女/剧情/养成</t>
+          <t>宠物/抓宠/开放世界</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>天天趣游</t>
+          <t>深圳市游嘻米网络有限公司</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -12132,15 +12163,532 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
+          <t>https://www.taptap.cn/app/724107</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>https://img.tapimg.com/market/images/3431b8c22c31ddb79f2fdb9da901e847.png/appicon?t=1</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>《口袋新旅程》是一款全新原创的开放世界宠物收集对战类RPG游戏，在《口袋新旅程》的世界中，玩家将扮演一个初出茅庐的幻兽训练师，在广袤且充满各种特色幻兽的始源大陆上冒险。玩家不仅要完成幻兽图鉴的收录，而且还得阻止邪恶的日蚀队对世界的侵害。
+在本游戏中，玩家将可以捕捉收集数百种外形各异属性不同的幻兽，并且对其进行高度自定义的培养。玩家还可以使用获得的幻兽进行战斗队伍的构筑，并挑战关卡或者与其它玩家对战；
+自由探索世界也是本游戏的特色之一，玩家可以探索世界中的各个秘密或者采集世界中的资源，制作各类特殊道具用以强化幻兽。我们将致力打造一个沉浸感十足的大世界，为玩家创造一种全新的宠物收集与开放世界互相结合的全新体验！</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>神宠大作战3</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>安卓/iOS</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>策略</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>石家庄龙游科技有限公司</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>https://www.taptap.cn/app/270853</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>https://img.tapimg.com/market/images/8d7278c7b5af359c034031fad5eb5d05.png/appicon?t=1</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>山海有难，亟待援手！
+你愿意化身天神，与金、木、水、火、土五行灵兽相伴，一同拯救山海间的上古神兽吗？
+神宠大作战3是一款取材于《山海经》的中国风手游，融合神兽养成与经营玩法，带你探索瑰丽的山海世界。
+在游戏中，你将手持天神令，探索山海：经营领地、结识神兽、挑战四凶，与四圣兽并肩作战，重现山海传奇！
+在游戏中，你将手持天神令，下凡山海：
+经营建筑，召唤神兽；
+收服异族，探索八荒；
+驱除云雾，廓清混沌；
+所到之处，重焕生机，万物臣服，踏遍山川巨流；
+携手四圣（朱雀、玄武、青龙、白虎），讨伐奸邪；
+挑战四凶（穷奇、混沌、梼杌、饕餮），降服共工；
+勘平叛逆，再塑神威；
+统驭百族，重建山海盛世。</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>神宠大作战3</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>国新出审〔2024〕862号</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-13460-8</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>河北冠林数字出版有限公司</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>石家庄龙游科技有限公司</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>野蛮人大作战2</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>国内游戏</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>多人联机/竞技/魔性</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>BBQ工作室</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>好游快爆</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>https://www.3839.com/a/145523.htm</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20240307/17225456318</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>新派轻竞技游戏简介嗨，还记得大胡子巴巴六吗？新派轻竞技游戏《野蛮人大作战2》来啦！逗趣搞怪的野蛮人英雄，魔性奇葩的道具宠物；经典3v3v3乱斗创意新篇章，欢乐竞技全程高能根本停不下来！准备好了吗，化身野蛮人酋长巴巴六，一起在充满欢乐的野蛮世界开启乱斗之旅吧！游戏特色：【3v3v3逗趣大乱炖，笑到打滚停不下手！】三队憨憨在线掰头，魔性互啄欢乐加倍！五分钟一局随时开黑，地壳运动让你满地打滑。随机生成的毒圈，专治各种不服，吃着蘑菇唱着歌，突然就被队友踹进战圈啦！【菇霸の诱惑：要当英雄还是外卖？】全场最靓的巨无霸蘑菇闪亮登场！揍它就能变身金光闪闪大魔王，但小心别胖成球被当成肉包子！偷偷告诉你：组队薅菇羊毛时，记得把队友推到菇霸嘴边当盾牌哦~【技能盲盒大抽奖，每场不一样！】开局随机送超能力大礼包：龙卷风牌吸尘器、霹雳啪啪触电舞、地刺仙人跳陷阱，还有会跑路的急救鸡腿！没有最强的套路，只有最邪的打法！打造专属流派，秀出你的骚操作！【钩锁の千层套路，老六の百万种死法】黄金矿工模拟器启动！勾金菇、抢人头、偷屁股——小心别被钩成海带条，或被蹲尸抢到裤衩都不剩！海上双贼船激情互钩，空中转体三周半完美落海，围观群众纷纷表示"建议申报迷惑行为大赏"！【奇葩装备图鉴，沙雕指数爆表！】左手滋滋冒油的烤肉串，右手会咬人的鲨鱼大宝剑！骑着会喷火的亚龙玩漂移。哦对！还有千万不能捡的魔盒！当战斗BGM突然鬼畜，别怀疑——这是野蛮人的求偶...啊不，胜利之舞！</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>野蛮人大作战2</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>国新出审[2021]162号</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-08700-3</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>2023-01-17</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>杭州电魂网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>杭州电魂网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>移动、客户端、游戏机-Switch、PS4、XBOX</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>冰汽时代：最后的家园</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>国内游戏</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>模拟经营/建造/生存</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>网易游戏</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>好游快爆</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>https://www.3839.com/a/124132.htm</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20250320/14262296490</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>末世城市生存经营手游，幸存者的命运就掌握在你手中简介灾难末世下，你能否带领你的人民拯救地球最后的城市？《冰汽时代：最后的家园》是根据STEAM年度销量前3游戏改编的末世城市生存经营手游。19世纪蒸汽时代，冰霜灾难突袭全球，温度骤降0度以下，人类只剩下最后一座城市依靠能量塔提供热量存活。你作为这座城市的领袖，需要带领人民建设城市抵抗极度严寒。你将会模拟真实的城市社会生存，制定颁布律法、树立信仰、提升满意度，合理管理人民。你还需要在道德与现实之间做出两难抉择，你的每一个决定，都关乎你的城市和人民能否活下来。【游戏特色】-STEAM年度前3游戏改编 蒸汽朋克1884 95%好评2018年度销量TOP3游戏《冰汽时代》正版手游，该作获得BIG最佳游戏等23个奖项。在蒸汽时代和冰霜朋克的世界中，你将会体验到末日生存经营挑战及中世纪科幻浪漫。-末日生存+城市经营 领导人类建设最后之城你的任务是保证城市和人民生存下去。如何解决温饱抵抗-150度严寒，将考验你的生存之道；如何建设城市管理人民，将验证你的经营策略。-人性抉择情感叩问 两难执政决策不同剧情作为城市管理者会遇到很多人性抉择，比如撤离时最后一张船票交给父亲还是老人孩子。游戏里不会提供正确答案，更多是两难抉择带来的思考，以及人性光辉与黑暗沉浸式剧情体验。-实时拟真天气变化 南极冰雪昼夜阴晴交替继承PC主机级画面表现，模拟真实雪景、实时光照表现，昼夜、阴晴、雨雪自然交替，如同身临真实的南极冰雪风光。-社会生存真实模拟 制定律法统筹温饱科技和真实社会一样，管理者需要解决人民的温饱、提供医疗教育提升满意度、制定律法保证社会秩序、开发科学技术提高生产力。你的管理领导能力决定社会发展水平。</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>冰汽时代：最后的家园</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>国新出审〔2025〕178号</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-14561-1</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>广州网易计算机系统有限公司</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>杭州网易雷火科技有限公司</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>进口网络游戏</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>荒原曙光</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>国内游戏</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>沙盒/建造/动作</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>广州灵犀互动娱乐有限公司</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>https://www.taptap.cn/app/711932</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/auto/dc/35/dc353f7603dd068eb907efb0833e37d8.png</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>起初，浮空城在热浪和欢呼声中启航 新伦顿载着仅存的人类远离被污染的大地 蓝天浮岛，每个人对未来都充满希望 可数十年后... 人口膨胀，房屋只能在有限的土地上层层滋长 原本宽敞的街道被填满，变成逼仄、昏暗、潮湿的巷道 污水横流，藏污纳垢 直到那一天，他们说大地的污染已经褪去 重返大地的《伊甸园计划》即将是文明火种延续的曙光 我们重新踏上甲板 肩负重建大地文明的使命 可那里是否又会如我们所愿？......  【冷兵器原始求生】 重返大地，你需要直接面对残酷的大自然。没有高科技的帮助，你必须收集身边的材料，用最原始的手段打造求生工具，尽快摆脱风餐露宿茹毛饮血的窘况。钻木取火，用简易的陷阱捕猎，砍伐木材，给自己搭建一个遮挡风雨的庇护所，在变幻莫测的天气和随时发起袭击的野兽等种种威胁下，要努力活下来。  【刀耕火种，制造一切必要的求生工具】 荒野求生第一步：点燃篝火，解决基本的温饱问题。收集材料，制造趁手的求生工具，晾晒肉干延长储存，搭建炉灶烧制器皿，在住所附近播撒种子，规律收获......而伐木挖矿是一切的基础，但切记安全！当前已发生多起树木倒塌伤人事件！  【世界不仅要好看，真实所见，皆是玩法】 近乎完全黑暗的无光森林，凶兽发光的双眼正在虎视眈眈；风暴常驻的雪山深处，藏有宝藏的冰晶等待被火焰融解；寸步难行的泥潭沼泽，密布有毒的瘴气......放眼宽广的世界，多种地形各有挑战。温度、干湿、野兽威胁甚至海拔、光照都是环境中的致命威胁。  【一场星球级别的文明重建即将开始】 原始世界，每一处都等你来“重塑建造”。物色一处安全怡人的区域，搭建求生的庇护营地，圈养动物，开垦种植。你也并非孤身一人，和同伴一起共建发展，聚集人气，从单营地到小镇，再遍布整个世界。”世界“发展轨迹各不相同，最终呈现完全由你决定。  【世界基建团队招募中】 团结探险家的力量，遇河建桥，遇崖搭梯，筑高台建望远镜，和所有人一起分享”基建“便捷的成果。用文明的建造征服野蛮的自然。</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>荒原曙光</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>国新出审〔2024〕1768号</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-13857-6</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>广东音像出版社有限公司</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>广州灵犀互动娱乐有限公司</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>移动、客户端</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>梦的第七章</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>预下载</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>安卓/iOS</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>美少女/剧情/养成</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>天天趣游</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
           <t>https://www.taptap.cn/app/722550</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/60c3f95089c9c3cd14948883af311c36.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="L116" t="inlineStr">
         <is>
           <t>《梦的第七章》是一款半即时回合制二次元卡牌手游，百余位个性鲜明的「链接者」即将与你展开邂逅。玩家将扮演维纳斯陷阱的队长，集结各种链接了历史名人的伙伴，共同对抗梦魇，守护梦境世界。
 看似和平安宁的现代世界，暗藏着自人类文明诞生之初便存在的黑暗力量。
@@ -12157,570 +12705,39 @@
 各位队长们，一起握紧武器，谱写梦的第七章。</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
         <is>
           <t>梦的第七章</t>
         </is>
       </c>
-      <c r="O111" t="inlineStr">
+      <c r="O116" t="inlineStr">
         <is>
           <t>国新出审〔2023〕2000号</t>
         </is>
       </c>
-      <c r="P111" t="inlineStr">
+      <c r="P116" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-12782-2</t>
         </is>
       </c>
-      <c r="Q111" t="inlineStr">
+      <c r="Q116" t="inlineStr">
         <is>
           <t>2023-11-30</t>
         </is>
       </c>
-      <c r="R111" t="inlineStr">
+      <c r="R116" t="inlineStr">
         <is>
           <t>上海商国网络科技发展有限公司</t>
         </is>
       </c>
-      <c r="S111" t="inlineStr">
+      <c r="S116" t="inlineStr">
         <is>
           <t>上海昙时网络科技有限公司</t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="V111" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>八荒旅途</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>国内游戏</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>策略/放置/卡牌</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>一二四工作室</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>好游快爆</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>https://www.3839.com/a/175129.htm</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20250408/09112829532</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>山海神话x三消RPG手游简介《八荒旅途》是一款讲述华夏山海神话的三消RPG【即时战斗×三消】创新战斗体验【山海异兽×神话】遨游八荒世界❀在这里，你将体验到【即时战斗×三消】的超有趣游戏玩法！在某个机缘巧合下，工作室的大家互相得知原来所有人都有玩CQ，还都是忠实粉（踩着梯子玩），于是一拍即合——决定根据自己的理解和记忆，来做出一款属于我们自己的CQ，也当做是我们对这个“老朋友”的一种致敬和留恋。当然啦，《八荒旅途》中的战斗玩法也有许多独属于自己的创新，希望我们的“国风CQ”能给大家带来新鲜有趣的游戏体验！❀在这里你将亲历东方古籍中记录的【山海神话世界】。中华上下五千年，留下了太多宝贵的文化财富：《山海经》、《淮南子》、《拾遗记》、《梦溪笔谈》、《白泽图》、《搜神记》......这是属于我们中国特有的浪漫幻想，我们也会不遗余力的以这些神话传说为蓝本，让英雄与BOSS都有迹可循，结合二创的故事代入到游戏中，大家在体验游戏的过程中可以同时了解神话英雄、山海异兽的出处来历，这简直，泰裤辣~在美术和特效上，制作同学精心创作的略带装饰性风格插画，和炫酷华丽的大招动画，结合了神话传说与自身想象，为你释放出记忆中那震撼天地的画面！❀游戏的策略性体现在【闯关战斗时的排兵布阵】上。游戏里的英雄都各有定位和用法，在卡关时，或许换一换阵容、上阵不同的英雄、装配不同的古宝、甚至是手动操作消块，需要有一些手法或组合就能更轻松通关哦~哦豁，一没忍住又说了这么多，诶诶~~先别走先别走~~最后还有个请求，如果大家对于《八荒旅途》的体验有啥意见建议可以直接加入官方Q群！我们非常希望能听到玩家们真实的心声，坚信只有听到最真切的意见才能与大家一同做出更好的游戏！衷心希望能与你，在广阔无垠、异象万千的八荒世界相遇~</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>八荒旅途</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>国新出审〔2024〕157号</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-13028-0</t>
-        </is>
-      </c>
-      <c r="Q112" t="inlineStr">
-        <is>
-          <t>2024-01-25</t>
-        </is>
-      </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>杭州渡口网络科技有限公司</t>
-        </is>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>厦门任势网络科技有限公司</t>
-        </is>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="V112" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>功夫英雄</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>国内游戏</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>卡牌/闯关/放置</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>三狸网络</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>好游快爆</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>https://www.3839.com/a/179459.htm</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20250121/13345746296</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>《功夫英雄》是一款水墨风格的卡牌游戏简介《功夫英雄》是一款水墨风格的卡牌游戏，突破了传统的框架，游戏中拥有丰富的支线章节，玩家的每一个决策都会对游戏的故事发展产生深远影响，真正实现了高度互动的剧情体验。【百变搭配 策略无限】里面的英雄分为妖、人、兽、仙、魔每个种族都有各自的特殊属性和特殊技能，合理的搭配不同的英雄，在应对敌方不同阵容的时候，能够发挥出更多的优势。【轻松挂机 养肝护肝】为了减轻玩家的肝度，玩家每日只需上线点击一下，即可收获游戏中所需的大部分资源收益。不仅如此，游戏还有多档的倍速自动战斗，彻底解放玩家的双手。真正做到随玩随停，自由地体验游戏乐趣。【多样组合 轻松操作】多种英雄技能任意选择！群伤、爆伤、闪避等等，为每一位玩家提供更多操作空间。看准时机，微操大招，战斗即可反败为胜。同时融入挂机玩法，放心离线，轻松收益。【丰富玩法 多种体验】在我们规划的内容中，根据剧情的需要加入了许多游戏内容，有可以休闲的合成游戏，也有紧张刺激的PVP、PVE模式，还有超多的冒险玩法可以选择。</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>功夫英雄</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>科技与数字[2011]355号</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr">
-        <is>
-          <t>2011-09-05</t>
-        </is>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>上海大承网络技术有限公司</t>
-        </is>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>上海大承网络技术有限公司</t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>原</t>
-        </is>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>了不起的0516</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>国内游戏</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>废土/Roguelike/卡牌</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>8</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>星磐游戏</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>好游快爆</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>https://www.3839.com/a/172464.htm</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20241230/15384543867</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>打造属于自己的DIY战队简介《了不起的0516》是一个箱庭世界的动作冒险游戏，在游戏的世界中，拥有着不同风格的场景区域，高度自由的探索挑战，丰富多彩的机关解谜，形态各异的野外怪物，你只需要有一丢丢的好奇心与耐心，就能在这个世界中自由翱翔。「一段从头开始的解谜之旅」化身第0516号机器人在极其丰富的箱庭世界中探索，向源头出发，只为寻找那遗失在记忆中的身世之谜！「一片色彩缤纷的废土世界」庞大的荒废城市地图让你在不同城市中穿梭冒险，与不同的NPC交互触发有趣的剧情，给末日废土的荒芜增添缤纷的色彩。「一场荒诞离奇的冒险游戏」旅途过程中遇到形形色色的人物，或是吃瓜的群众，或是有力的伙伴，或是宿命的敌人，在荒诞中偶遇，又在离奇中冒险。「一次酣畅淋漓的沉浸战斗」冒险故事总少不了激烈的战斗，这里没有自动战斗的无聊，没有一来一回的打闹，有的是拳拳到肉的精彩，相性满格时淋漓尽致的大招！「一支各怀绝技的三人小队」根据不同职业打造属于自己的DIY战队!全新3人场内轮换式战斗，操作简单，养成便捷，各异的技能，不同的职业组合搭配，策略十足！</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>了不起的0516</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>国新出审〔2024〕1301号</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-13639-8</t>
-        </is>
-      </c>
-      <c r="Q114" t="inlineStr">
-        <is>
-          <t>2024-06-24</t>
-        </is>
-      </c>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>深圳中青宝互动网络股份有限公司</t>
-        </is>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>北京星磐科技有限公司</t>
-        </is>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>镭明闪击</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>国内游戏</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>塔防/即时策略/科幻</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>朝夕光年</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>好游快爆</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>https://www.3839.com/a/162341.htm</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20250403/16313469560</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>3D写实即时原创塔攻策略游戏简介《镭明闪击》是一款3D原创即时战术游戏。游戏采用PBR次时代技术，精细刻画3D写实美型建模，进行高品质环境渲染，角色呼吸尽在咫尺间。从枪战射击的武器、战术特征出发，游戏设计了全新的原创即时战术策略核心玩法，打造策略致胜的快节奏战斗体验。2053年，天外异客降临，人类劫难伊始。身为抵抗军先锋，你夺取外星技术的火种，带领军队艰难地击退入侵者，却在胜利日不知所踪。直至三十年后的今天，再度苏醒。如今，世界格局重组，ARES军工、战线公司、旧地联合三足鼎立，和平之城「新诺亚」暗流涌动。而来自外星的威胁并未消除，蛰伏者仍在迷雾中窥探……异军突起，颠覆格局，危机乱世需要你的拯救！绝地反抗，战为自由，用灵动的策略冲破枷锁！故地重游，找寻记忆，沉浸体验一场科幻冒险！全员就位，再次出击，你就是延续希望的火种！</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>镭明闪击</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>国新出审〔2024〕1485号</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-13744-9</t>
-        </is>
-      </c>
-      <c r="Q115" t="inlineStr">
-        <is>
-          <t>2024-07-22</t>
-        </is>
-      </c>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>安徽新华电子音像出版社</t>
-        </is>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>杭州心光流美网络科技有限公司</t>
-        </is>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>移动、客户端</t>
-        </is>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>三千幻世</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>上线</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>国内游戏</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>国漫/像素/角色扮演</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>中手游</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>好游快爆</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>https://www.3839.com/a/174506.htm</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20250304/14464975063</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>重逢经典国漫英雄，探寻神秘三千幻世简介腾讯动漫正版授权，跨越国漫“黄金十年”，汇聚十余部顶尖IP，打造独一无二的像素化国漫合集。这里有你倾慕的国漫英雄，有你熟悉的经典剧情，有你痴迷的绝学奥义，有你向往的幻世繁花……你将化身“复序者“自由前往不同的国漫小世界，改变拯救正在发生的一切，你的“一举一动”都在影响着“三千幻世”的运转。[开启无限试炼，探寻幻世三千]跨越国漫“黄金十年”，汇集十余部顶尖IP，化身“复序者”的你将一次又一次前往像素国漫世界，拨乱反正，重塑秩序……每一次试炼都将是一场未知的冒险！你将探寻埋藏于国漫小世界里的秘密，在对立与携手之间开启一段又一段邂逅。以信仰做出选择，用战斗书写答案，迈向三千幻世的终局之战！[告别肝氪噩梦，回归快乐本质]轻松休闲的“搞笑日常”和“降肝减氪”是我们的初衷，丰富的休闲向的“轻玩法”同样产出核心奖励。你可以按照自己喜欢的方式探索三千幻世。内置挂机功能，即使下线也能持续为你收集养成资源。[国漫旅程新章，剧情由你来选]你的到来，使扰动中世界线再次受到影响，这一次的故事将由你推动。既有忠于原著的剧情，又有意难平的新机缘，隐藏在像素幻世中的千丝万缕，都可以通过你的选择变成影响世界线走向的契机。[沉浸式策略RPG，海量休闲玩法]游戏内容量大管饱、奇趣精妙。除了轻松诙谐与充满惊喜的试炼与冒险，还有层次丰满的对战竞技体系，你可以自由配置，灵活变阵，以小博大，以弱胜强。除此之外，更有经典红白机玩法，供你寻找不断更迭的乐趣。期待与你在像素化的国漫世界中重逢，携手共赴下一个“黄金十年”。这一次的邂逅，不止宿命相逢。</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>三千幻世</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>国新出审〔2025〕127号</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-14510-9</t>
-        </is>
-      </c>
-      <c r="Q116" t="inlineStr">
-        <is>
-          <t>2025-01-20</t>
-        </is>
-      </c>
-      <c r="R116" t="inlineStr">
-        <is>
-          <t>成都盈众九州网络科技有限公司</t>
-        </is>
-      </c>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>深圳市中手游网络科技有限公司</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
@@ -12743,7 +12760,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>盗墓笔记：启程</t>
+          <t>八荒旅途</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -12763,15 +12780,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>解谜/角色扮演/悬疑</t>
+          <t>策略/放置/卡牌</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>上饶盛罗</t>
+          <t>一二四工作室</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -12782,17 +12799,17 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/172827.htm</t>
+          <t>https://www.3839.com/a/175129.htm</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20240924/19030540845</t>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20250408/09112829532</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>南派三叔正版授权真寻宝盗墓探险游戏简介破雾测试定档4月10日！招募时间3月7日至4月3日，填写招募问卷，抢限量测试资格。《盗墓笔记：启程》是由南派三叔正版授权的真寻宝盗墓探险游戏，“铁三角”齐聚，探索黑暗的地下世界，解开重重谜题，寻找破局之路。在黑暗庞大的地下世界中，机关陷阱随处可见，胆识与经验是生存之道；寻龙探宝，开棺摸金，线索正藏在笔记的字里行间；血尸出没，异兽横行，伙伴间的信任方能开辟前行的道路！&lt; 探地底世界 解世代谜团 &gt;一份意外发现的家族雇佣协议与神秘手札，一次新月饭店的奇特遭遇，围绕家族的谜团接踵而来，“你”从此变成入局者，故事也将从这里启程。前往鲁王宫、西王母宫等地开启一段段惊心动魄的冒险，直面青眼狐尸、尸蟞王等可怖怪物的突袭与挑战。更多烧脑有趣的解密、紧张刺激的机关、稀奇古怪的收集元素，等待你的探索与挑战。探险途中也将掉落各类古玩，有些将成为你接下来战局的制胜关键，有些将成为你后续每场战斗的得力法宝。所有古玩都将收录在图鉴中，随时随地打开图鉴即可欣赏更多细节。&lt; 铁三角登场 齐心寻出路 &gt;招募各路人马夹喇嘛，吴邪、王胖子、张起灵等熟悉的人物悉数登场，组建你心目中的最佳启程团队。不同人物拥有独特的天赋与技能特点，因此需要根据不同古墓特性，挑选不同人物组成最合适的阵容下斗。即时策略的战斗方式，更需要你谨慎思考战局中的每一个举动。根据战况的发展，及时使用人物技能与道具搭配，才能出奇制胜，化解危机。在探险之余的日常中，可以利用手机系统来联络各个角色，通过聊天/帮忙/互赠礼物等，增加人物好感度，触发神秘任务，了解更多不为人知的故事。&lt; 交易任自由 千金点天灯 &gt;从探险中掉落的各类装备、材料、古玩当然不能白白进仓库吃灰，交给寄售行吧！在寄售行中，你可以与其他玩家进行日常交易，享受讨价还价的乐趣！如果想要更高级的“尖货”，新月饭店的大门也为你敞开，这里有更高级的古玩拍卖活动，点天灯，一掷千金，只为你心目中的最佳拍品。冒险即将启程，一起探访终极之路，携手再破天机！</t>
+          <t>山海神话x三消RPG手游简介《八荒旅途》是一款讲述华夏山海神话的三消RPG【即时战斗×三消】创新战斗体验【山海异兽×神话】遨游八荒世界❀在这里，你将体验到【即时战斗×三消】的超有趣游戏玩法！在某个机缘巧合下，工作室的大家互相得知原来所有人都有玩CQ，还都是忠实粉（踩着梯子玩），于是一拍即合——决定根据自己的理解和记忆，来做出一款属于我们自己的CQ，也当做是我们对这个“老朋友”的一种致敬和留恋。当然啦，《八荒旅途》中的战斗玩法也有许多独属于自己的创新，希望我们的“国风CQ”能给大家带来新鲜有趣的游戏体验！❀在这里你将亲历东方古籍中记录的【山海神话世界】。中华上下五千年，留下了太多宝贵的文化财富：《山海经》、《淮南子》、《拾遗记》、《梦溪笔谈》、《白泽图》、《搜神记》......这是属于我们中国特有的浪漫幻想，我们也会不遗余力的以这些神话传说为蓝本，让英雄与BOSS都有迹可循，结合二创的故事代入到游戏中，大家在体验游戏的过程中可以同时了解神话英雄、山海异兽的出处来历，这简直，泰裤辣~在美术和特效上，制作同学精心创作的略带装饰性风格插画，和炫酷华丽的大招动画，结合了神话传说与自身想象，为你释放出记忆中那震撼天地的画面！❀游戏的策略性体现在【闯关战斗时的排兵布阵】上。游戏里的英雄都各有定位和用法，在卡关时，或许换一换阵容、上阵不同的英雄、装配不同的古宝、甚至是手动操作消块，需要有一些手法或组合就能更轻松通关哦~哦豁，一没忍住又说了这么多，诶诶~~先别走先别走~~最后还有个请求，如果大家对于《八荒旅途》的体验有啥意见建议可以直接加入官方Q群！我们非常希望能听到玩家们真实的心声，坚信只有听到最真切的意见才能与大家一同做出更好的游戏！衷心希望能与你，在广阔无垠、异象万千的八荒世界相遇~</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -12802,32 +12819,32 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>盗墓笔记：启程</t>
+          <t>八荒旅途</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>国新出审〔2024〕811号</t>
+          <t>国新出审〔2024〕157号</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>ISBN 978-7-498-13409-7</t>
+          <t>ISBN 978-7-498-13028-0</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>上海恺英网络科技有限公司</t>
+          <t>杭州渡口网络科技有限公司</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>上海悦腾网络科技有限公司</t>
+          <t>厦门任势网络科技有限公司</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
@@ -12850,7 +12867,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>代号：奇与骑士</t>
+          <t>功夫英雄</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -12870,7 +12887,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>消除/休闲/益智</t>
+          <t>卡牌/闯关/放置</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -12878,7 +12895,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>易远航游戏</t>
+          <t>三狸网络</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -12889,17 +12906,17 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/180110.htm</t>
+          <t>https://www.3839.com/a/179459.htm</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20250219/10052745922</t>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20250121/13345746296</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>创新三消玩法，妙趣横生！简介游戏特色：◎创新三消玩法，带给你不一样的三消体验◎卡通风格，带给你轻松愉悦的游戏环境◎多元化卡牌组合，更多奇思妙想等你开启◎多样玩法组合，关卡多多，乐趣多多◎轻度体验，随时随地轻松玩一局◎轻度社交内容: PVP or PVE，it’s up to you.更多有趣玩法，等你探索！</t>
+          <t>《功夫英雄》是一款水墨风格的卡牌游戏简介《功夫英雄》是一款水墨风格的卡牌游戏，突破了传统的框架，游戏中拥有丰富的支线章节，玩家的每一个决策都会对游戏的故事发展产生深远影响，真正实现了高度互动的剧情体验。【百变搭配 策略无限】里面的英雄分为妖、人、兽、仙、魔每个种族都有各自的特殊属性和特殊技能，合理的搭配不同的英雄，在应对敌方不同阵容的时候，能够发挥出更多的优势。【轻松挂机 养肝护肝】为了减轻玩家的肝度，玩家每日只需上线点击一下，即可收获游戏中所需的大部分资源收益。不仅如此，游戏还有多档的倍速自动战斗，彻底解放玩家的双手。真正做到随玩随停，自由地体验游戏乐趣。【多样组合 轻松操作】多种英雄技能任意选择！群伤、爆伤、闪避等等，为每一位玩家提供更多操作空间。看准时机，微操大招，战斗即可反败为胜。同时融入挂机玩法，放心离线，轻松收益。【丰富玩法 多种体验】在我们规划的内容中，根据剧情的需要加入了许多游戏内容，有可以休闲的合成游戏，也有紧张刺激的PVP、PVE模式，还有超多的冒险玩法可以选择。</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -12907,21 +12924,53 @@
           <t>是</t>
         </is>
       </c>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>功夫英雄</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>科技与数字[2011]355号</t>
+        </is>
+      </c>
       <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>2011-09-05</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>上海大承网络技术有限公司</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>上海大承网络技术有限公司</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>原</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="W118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>奇妙列车</t>
+          <t>镭明闪击</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -12931,44 +12980,436 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>可预约</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>安卓/iOS</t>
+          <t>国内游戏</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>模拟</t>
+          <t>塔防/即时策略/科幻</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>两英里科技</t>
+          <t>朝夕光年</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>TapTap</t>
+          <t>好游快爆</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
+          <t>https://www.3839.com/a/162341.htm</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20250403/16313469560</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>3D写实即时原创塔攻策略游戏简介《镭明闪击》是一款3D原创即时战术游戏。游戏采用PBR次时代技术，精细刻画3D写实美型建模，进行高品质环境渲染，角色呼吸尽在咫尺间。从枪战射击的武器、战术特征出发，游戏设计了全新的原创即时战术策略核心玩法，打造策略致胜的快节奏战斗体验。2053年，天外异客降临，人类劫难伊始。身为抵抗军先锋，你夺取外星技术的火种，带领军队艰难地击退入侵者，却在胜利日不知所踪。直至三十年后的今天，再度苏醒。如今，世界格局重组，ARES军工、战线公司、旧地联合三足鼎立，和平之城「新诺亚」暗流涌动。而来自外星的威胁并未消除，蛰伏者仍在迷雾中窥探……异军突起，颠覆格局，危机乱世需要你的拯救！绝地反抗，战为自由，用灵动的策略冲破枷锁！故地重游，找寻记忆，沉浸体验一场科幻冒险！全员就位，再次出击，你就是延续希望的火种！</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>镭明闪击</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>国新出审〔2024〕1485号</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-13744-9</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>安徽新华电子音像出版社</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>杭州心光流美网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>移动、客户端</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>三千幻世</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>上线</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>国内游戏</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>国漫/像素/角色扮演</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>中手游</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>好游快爆</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>https://www.3839.com/a/174506.htm</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20250304/14464975063</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>重逢经典国漫英雄，探寻神秘三千幻世简介腾讯动漫正版授权，跨越国漫“黄金十年”，汇聚十余部顶尖IP，打造独一无二的像素化国漫合集。这里有你倾慕的国漫英雄，有你熟悉的经典剧情，有你痴迷的绝学奥义，有你向往的幻世繁花……你将化身“复序者“自由前往不同的国漫小世界，改变拯救正在发生的一切，你的“一举一动”都在影响着“三千幻世”的运转。[开启无限试炼，探寻幻世三千]跨越国漫“黄金十年”，汇集十余部顶尖IP，化身“复序者”的你将一次又一次前往像素国漫世界，拨乱反正，重塑秩序……每一次试炼都将是一场未知的冒险！你将探寻埋藏于国漫小世界里的秘密，在对立与携手之间开启一段又一段邂逅。以信仰做出选择，用战斗书写答案，迈向三千幻世的终局之战！[告别肝氪噩梦，回归快乐本质]轻松休闲的“搞笑日常”和“降肝减氪”是我们的初衷，丰富的休闲向的“轻玩法”同样产出核心奖励。你可以按照自己喜欢的方式探索三千幻世。内置挂机功能，即使下线也能持续为你收集养成资源。[国漫旅程新章，剧情由你来选]你的到来，使扰动中世界线再次受到影响，这一次的故事将由你推动。既有忠于原著的剧情，又有意难平的新机缘，隐藏在像素幻世中的千丝万缕，都可以通过你的选择变成影响世界线走向的契机。[沉浸式策略RPG，海量休闲玩法]游戏内容量大管饱、奇趣精妙。除了轻松诙谐与充满惊喜的试炼与冒险，还有层次丰满的对战竞技体系，你可以自由配置，灵活变阵，以小博大，以弱胜强。除此之外，更有经典红白机玩法，供你寻找不断更迭的乐趣。期待与你在像素化的国漫世界中重逢，携手共赴下一个“黄金十年”。这一次的邂逅，不止宿命相逢。</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>三千幻世</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>国新出审〔2025〕127号</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-14510-9</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>成都盈众九州网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>深圳市中手游网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>盗墓笔记：启程</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>国内游戏</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>解谜/角色扮演/悬疑</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>上饶盛罗</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>好游快爆</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>https://www.3839.com/a/172827.htm</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20240924/19030540845</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>南派三叔正版授权真寻宝盗墓探险游戏简介破雾测试定档4月10日！招募时间3月7日至4月3日，填写招募问卷，抢限量测试资格。《盗墓笔记：启程》是由南派三叔正版授权的真寻宝盗墓探险游戏，“铁三角”齐聚，探索黑暗的地下世界，解开重重谜题，寻找破局之路。在黑暗庞大的地下世界中，机关陷阱随处可见，胆识与经验是生存之道；寻龙探宝，开棺摸金，线索正藏在笔记的字里行间；血尸出没，异兽横行，伙伴间的信任方能开辟前行的道路！&lt; 探地底世界 解世代谜团 &gt;一份意外发现的家族雇佣协议与神秘手札，一次新月饭店的奇特遭遇，围绕家族的谜团接踵而来，“你”从此变成入局者，故事也将从这里启程。前往鲁王宫、西王母宫等地开启一段段惊心动魄的冒险，直面青眼狐尸、尸蟞王等可怖怪物的突袭与挑战。更多烧脑有趣的解密、紧张刺激的机关、稀奇古怪的收集元素，等待你的探索与挑战。探险途中也将掉落各类古玩，有些将成为你接下来战局的制胜关键，有些将成为你后续每场战斗的得力法宝。所有古玩都将收录在图鉴中，随时随地打开图鉴即可欣赏更多细节。&lt; 铁三角登场 齐心寻出路 &gt;招募各路人马夹喇嘛，吴邪、王胖子、张起灵等熟悉的人物悉数登场，组建你心目中的最佳启程团队。不同人物拥有独特的天赋与技能特点，因此需要根据不同古墓特性，挑选不同人物组成最合适的阵容下斗。即时策略的战斗方式，更需要你谨慎思考战局中的每一个举动。根据战况的发展，及时使用人物技能与道具搭配，才能出奇制胜，化解危机。在探险之余的日常中，可以利用手机系统来联络各个角色，通过聊天/帮忙/互赠礼物等，增加人物好感度，触发神秘任务，了解更多不为人知的故事。&lt; 交易任自由 千金点天灯 &gt;从探险中掉落的各类装备、材料、古玩当然不能白白进仓库吃灰，交给寄售行吧！在寄售行中，你可以与其他玩家进行日常交易，享受讨价还价的乐趣！如果想要更高级的“尖货”，新月饭店的大门也为你敞开，这里有更高级的古玩拍卖活动，点天灯，一掷千金，只为你心目中的最佳拍品。冒险即将启程，一起探访终极之路，携手再破天机！</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>盗墓笔记：启程</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>国新出审〔2024〕811号</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-13409-7</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>上海恺英网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>上海悦腾网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>代号：奇与骑士</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>国内游戏</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>消除/休闲/益智</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>易远航游戏</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>好游快爆</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>https://www.3839.com/a/180110.htm</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20250219/10052745922</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>创新三消玩法，妙趣横生！简介游戏特色：◎创新三消玩法，带给你不一样的三消体验◎卡通风格，带给你轻松愉悦的游戏环境◎多元化卡牌组合，更多奇思妙想等你开启◎多样玩法组合，关卡多多，乐趣多多◎轻度体验，随时随地轻松玩一局◎轻度社交内容: PVP or PVE，it’s up to you.更多有趣玩法，等你探索！</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>奇妙列车</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>可预约</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>安卓/iOS</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>模拟</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>两英里科技</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
           <t>https://www.taptap.cn/app/233415</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/b74930d2edca76ad47c03f8aecd4f052.jpg/appicon?t=1</t>
         </is>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="L123" t="inlineStr">
         <is>
           <t>这是一款带你漫游宇宙的游戏。
 我曾想，旅行的意义是什么呢？
@@ -12990,109 +13431,109 @@
 我想，这才是旅行的意义。</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
         <is>
           <t>奇妙列车</t>
         </is>
       </c>
-      <c r="O119" t="inlineStr">
+      <c r="O123" t="inlineStr">
         <is>
           <t>国新出审〔2024〕852号</t>
         </is>
       </c>
-      <c r="P119" t="inlineStr">
+      <c r="P123" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-13450-9</t>
         </is>
       </c>
-      <c r="Q119" t="inlineStr">
+      <c r="Q123" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="R119" t="inlineStr">
+      <c r="R123" t="inlineStr">
         <is>
           <t>方圆电子音像出版社有限责任公司</t>
         </is>
       </c>
-      <c r="S119" t="inlineStr">
+      <c r="S123" t="inlineStr">
         <is>
           <t>两英里科技成都有限公司</t>
         </is>
       </c>
-      <c r="T119" t="inlineStr">
+      <c r="T123" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U119" t="inlineStr">
+      <c r="U123" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V119" t="inlineStr">
+      <c r="V123" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W119" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>欢乐桌球</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>2025-04-10</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>可预约</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>体育</t>
         </is>
       </c>
-      <c r="F120" t="n">
+      <c r="F124" t="n">
         <v>0</v>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>成都嘉谊互娱科技有限公司</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr">
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/744927</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/959ad905ddf550d4617ff95d439e1411.jpg/appicon?t=1</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="L124" t="inlineStr">
         <is>
           <t>欢乐桌球是一款超好玩的休闲竞技台球游戏，不仅百分百还原了经典8球玩法，更有直播、俱乐部联赛、
 实时聊天等强大的社交功能。磨炼你的技巧，尽情展示你的魅力，让你在游戏中体验不同于其他8球游戏
@@ -13102,406 +13543,49 @@
 完美球桌，精美球杆—逼真的台球物理模型，不同材质的3D球桌以及个性化球杆，给你身临其境的击球体验。</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
         <is>
           <t>欢乐桌球</t>
         </is>
       </c>
-      <c r="O120" t="inlineStr">
+      <c r="O124" t="inlineStr">
         <is>
           <t>国新出审[2020]67号</t>
         </is>
       </c>
-      <c r="P120" t="inlineStr">
+      <c r="P124" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-07211-5</t>
         </is>
       </c>
-      <c r="Q120" t="inlineStr">
+      <c r="Q124" t="inlineStr">
         <is>
           <t>2020-01-10</t>
         </is>
       </c>
-      <c r="R120" t="inlineStr">
+      <c r="R124" t="inlineStr">
         <is>
           <t>四川数字出版传媒有限公司</t>
         </is>
       </c>
-      <c r="S120" t="inlineStr">
+      <c r="S124" t="inlineStr">
         <is>
           <t>成都嘉谊互娱科技有限公司</t>
         </is>
       </c>
-      <c r="T120" t="inlineStr">
+      <c r="T124" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U120" t="inlineStr">
+      <c r="U124" t="inlineStr">
         <is>
           <t>移动—休闲益智</t>
-        </is>
-      </c>
-      <c r="V120" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>萌鸭</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>可预约</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>安卓/iOS</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>角色扮演</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>0</v>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>时空奇境工作室</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>TapTap</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>https://www.taptap.cn/app/747832</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>https://img.tapimg.com/market/images/0b4c5a55a853c6d131a365e3f626ebe2.png/appicon?t=1</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>“准备好迎接一场轻松愉快的射击冒险了吗？在《萌鸭》这款游戏中，你的目标是找到并射击100只可爱的玩具鸭！游戏玩法简单易上手，画风可爱，适合任何年龄段的玩家。无论是想要放松心情，还是挑战自己的射击技巧，这款游戏都能带给你无尽的乐趣。快来加入这场羽毛飞舞的射击盛宴，看看你能否成为最强的‘鸭子猎人’！” 游戏还有彩蛋哦!</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>女神异闻录：夜幕魅影</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>更新</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>安卓/iOS/PC端</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>角色扮演/二次元/策略</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>完美世界游戏</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>TapTap</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>https://www.taptap.cn/app/305435</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>https://img.tapimg.com/market/images/e9e892778ef67768fd9cd75e0a520a57.png/appicon?t=1</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>周年庆版本「假面役者的忧郁」4月10日开启！全新成员「池波星辉」加入怪盗团，五星解明限定偶像「长尾爱歌」登场！这是即将公开的新曲，请听！
-《女神异闻录：夜幕魅影》（简称：P5X）是获得了SEGA正版IP授权，由ATLUS全面监修深度参与，完美世界游戏打造的异世界都市冒险JRPG。白天感受潮酷都市生活与青春恋爱日常，放学后化身华丽怪盗潜入宫殿夺宝，体验双面人生！</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>女神异闻录：夜幕魅影</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>国新出审[2023]1415号</t>
-        </is>
-      </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-12586-6</t>
-        </is>
-      </c>
-      <c r="Q122" t="inlineStr">
-        <is>
-          <t>2024-01-25</t>
-        </is>
-      </c>
-      <c r="R122" t="inlineStr">
-        <is>
-          <t>合肥完美世界网络技术有限公司</t>
-        </is>
-      </c>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>合肥完美世界网络技术有限公司</t>
-        </is>
-      </c>
-      <c r="T122" t="inlineStr">
-        <is>
-          <t>进口网络游戏</t>
-        </is>
-      </c>
-      <c r="U122" t="inlineStr">
-        <is>
-          <t>移动、客户端</t>
-        </is>
-      </c>
-      <c r="V122" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>代号：足球重启</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>国内游戏</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>竞技/体育/策略</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>0</v>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>北京拱顶石科技有限公司</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>好游快爆</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>https://www.3839.com/a/170657.htm</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20240618/20245998001</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>开启你的足球经理之旅简介《足球重启》不仅是一款足球经理游戏，它是一次智慧与策略的较量，是对足球热爱与梦想的追求。在这里，您将体验到从零开始，逐步成长为足球世界的传奇的无尽魅力。立即加入，开启您的足球经理之旅吧！</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>不良人：破局</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>删档内测</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>国内游戏</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>养成/策略/卡牌</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>幻游网络</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>好游快爆</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>https://www.3839.com/a/179281.htm</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20250116/16501491507</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>第七季正版授权，不良人高颜值卡牌还原之作简介不良人高颜值卡牌还原之作《不良人：破局》，重构国漫经典，邀你集结破局！【国漫巅峰！梦回追番那些年】不良人角色齐聚，重现番剧经典场景。为大唐鞠躬尽瘁的三百年，城门前的一骑当千……不良人IP全角色齐聚，侠客阵营重组，不仅是带你回顾那些有血有泪的经典回忆，更是江湖冒险的新开始！【颜值为王！重构新国风美学】高品质番剧级美术重绘不良人角色，带来绝美视觉体验。当国风美学遇上不良人武侠，一起感受别开生面的新国风之旅。姬如雪、女帝、降臣……那些耳熟能详的美人侠客，化身红颜福利官，伴你轻松拿捏小小江湖！【轻松躺赢！天下奇遇大有可玩】不间断冒险探索，寻找角色剧情彩蛋。沉浸式化身星雪探险，重温不良人故事线。高人气侠客活跃就送，白嫖全图鉴不是梦！大世界资源不断、福利满满，奇珍异宝闭眼入，身心放松躺着赢！【天下为棋！以策取胜永不过时】摆脱原有阵营束缚，花样搭配出你的全明星阵容。比拼策略、自由配组，资源不再限制玩法，利用流派加成驱虎吞狼，制心一处无事不办。天道霸道，不过一念；以弱胜强，遇强更强！《不良人：破局》不止还原，更是突破。不良人阵营已集结，只待执棋之人以身入局，以力破局！</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>不良人：破局</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>国新出审〔2025〕264号</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-14577-2</t>
-        </is>
-      </c>
-      <c r="Q124" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="R124" t="inlineStr">
-        <is>
-          <t>四川数字出版传媒有限公司</t>
-        </is>
-      </c>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>成都艾奇普科技有限公司</t>
-        </is>
-      </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U124" t="inlineStr">
-        <is>
-          <t>移动</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
@@ -13514,7 +13598,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>暗夜圣徒</t>
+          <t>萌鸭</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -13524,46 +13608,46 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>测试</t>
+          <t>可预约</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>国内游戏</t>
+          <t>安卓/iOS</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>卡牌/策略/放置</t>
+          <t>角色扮演</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>亮剑工作室</t>
+          <t>时空奇境工作室</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>好游快爆</t>
+          <t>TapTap</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/181566.htm</t>
+          <t>https://www.taptap.cn/app/747832</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20250404/14494765917</t>
+          <t>https://img.tapimg.com/market/images/0b4c5a55a853c6d131a365e3f626ebe2.png/appicon?t=1</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>一个兼具经典与创新的奇幻西游世界简介《暗夜圣徒》是一款以中国古典名著为背景的国风放置策略手游，融合了角色扮演、卡牌养成、回合制战斗等多种玩法，为玩家呈现了一个兼具经典与创新的奇幻西游世界。【放置策略与轻松养成】游戏主打“挂机收益+策略搭配”模式，玩家无需长时间操作即可通过自动战斗推进剧情，资源获取便捷。【国风美术与沉浸式体验】游戏采用国风美术风格，结合东方幻想元素，场景设计涵盖险峻山峰、神秘神殿等，如“西天幻境”地图通过迷幻色彩和独特怪物设计</t>
+          <t>“准备好迎接一场轻松愉快的射击冒险了吗？在《萌鸭》这款游戏中，你的目标是找到并射击100只可爱的玩具鸭！游戏玩法简单易上手，画风可爱，适合任何年龄段的玩家。无论是想要放松心情，还是挑战自己的射击技巧，这款游戏都能带给你无尽的乐趣。快来加入这场羽毛飞舞的射击盛宴，看看你能否成为最强的‘鸭子猎人’！” 游戏还有彩蛋哦!</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -13571,53 +13655,21 @@
           <t>是</t>
         </is>
       </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>暗夜圣徒游戏软件V1.0</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>新广出审[2017]1530号</t>
-        </is>
-      </c>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr">
-        <is>
-          <t>2017-02-14</t>
-        </is>
-      </c>
-      <c r="R125" t="inlineStr">
-        <is>
-          <t>北京中电电子出版社</t>
-        </is>
-      </c>
-      <c r="S125" t="inlineStr">
-        <is>
-          <t>北京飞动乐驰信息技术有限公司</t>
-        </is>
-      </c>
-      <c r="T125" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U125" t="inlineStr">
-        <is>
-          <t>移动-休闲益智</t>
-        </is>
-      </c>
-      <c r="V125" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
       <c r="W125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>开个水果店</t>
+          <t>女神异闻录：夜幕魅影</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -13627,44 +13679,433 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>上线</t>
+          <t>更新</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>国内游戏</t>
+          <t>安卓/iOS/PC端</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>游戏/策略</t>
+          <t>角色扮演/二次元/策略</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>鹏 才</t>
+          <t>完美世界游戏</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>AppStore</t>
+          <t>TapTap</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
+          <t>https://www.taptap.cn/app/305435</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>https://img.tapimg.com/market/images/e9e892778ef67768fd9cd75e0a520a57.png/appicon?t=1</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>周年庆版本「假面役者的忧郁」4月10日开启！全新成员「池波星辉」加入怪盗团，五星解明限定偶像「长尾爱歌」登场！这是即将公开的新曲，请听！
+《女神异闻录：夜幕魅影》（简称：P5X）是获得了SEGA正版IP授权，由ATLUS全面监修深度参与，完美世界游戏打造的异世界都市冒险JRPG。白天感受潮酷都市生活与青春恋爱日常，放学后化身华丽怪盗潜入宫殿夺宝，体验双面人生！</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>女神异闻录：夜幕魅影</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>国新出审[2023]1415号</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-12586-6</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>合肥完美世界网络技术有限公司</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>合肥完美世界网络技术有限公司</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>进口网络游戏</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>移动、客户端</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>代号：足球重启</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>国内游戏</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>竞技/体育/策略</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>北京拱顶石科技有限公司</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>好游快爆</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>https://www.3839.com/a/170657.htm</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20240618/20245998001</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>开启你的足球经理之旅简介《足球重启》不仅是一款足球经理游戏，它是一次智慧与策略的较量，是对足球热爱与梦想的追求。在这里，您将体验到从零开始，逐步成长为足球世界的传奇的无尽魅力。立即加入，开启您的足球经理之旅吧！</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>不良人：破局</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>删档内测</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>国内游戏</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>养成/策略/卡牌</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>幻游网络</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>好游快爆</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>https://www.3839.com/a/179281.htm</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20250116/16501491507</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>第七季正版授权，不良人高颜值卡牌还原之作简介不良人高颜值卡牌还原之作《不良人：破局》，重构国漫经典，邀你集结破局！【国漫巅峰！梦回追番那些年】不良人角色齐聚，重现番剧经典场景。为大唐鞠躬尽瘁的三百年，城门前的一骑当千……不良人IP全角色齐聚，侠客阵营重组，不仅是带你回顾那些有血有泪的经典回忆，更是江湖冒险的新开始！【颜值为王！重构新国风美学】高品质番剧级美术重绘不良人角色，带来绝美视觉体验。当国风美学遇上不良人武侠，一起感受别开生面的新国风之旅。姬如雪、女帝、降臣……那些耳熟能详的美人侠客，化身红颜福利官，伴你轻松拿捏小小江湖！【轻松躺赢！天下奇遇大有可玩】不间断冒险探索，寻找角色剧情彩蛋。沉浸式化身星雪探险，重温不良人故事线。高人气侠客活跃就送，白嫖全图鉴不是梦！大世界资源不断、福利满满，奇珍异宝闭眼入，身心放松躺着赢！【天下为棋！以策取胜永不过时】摆脱原有阵营束缚，花样搭配出你的全明星阵容。比拼策略、自由配组，资源不再限制玩法，利用流派加成驱虎吞狼，制心一处无事不办。天道霸道，不过一念；以弱胜强，遇强更强！《不良人：破局》不止还原，更是突破。不良人阵营已集结，只待执棋之人以身入局，以力破局！</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>不良人：破局</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>国新出审〔2025〕264号</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-14577-2</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>四川数字出版传媒有限公司</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>成都艾奇普科技有限公司</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>暗夜圣徒</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>国内游戏</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>卡牌/策略/放置</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>亮剑工作室</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>好游快爆</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>https://www.3839.com/a/181566.htm</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20250404/14494765917</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>一个兼具经典与创新的奇幻西游世界简介《暗夜圣徒》是一款以中国古典名著为背景的国风放置策略手游，融合了角色扮演、卡牌养成、回合制战斗等多种玩法，为玩家呈现了一个兼具经典与创新的奇幻西游世界。【放置策略与轻松养成】游戏主打“挂机收益+策略搭配”模式，玩家无需长时间操作即可通过自动战斗推进剧情，资源获取便捷。【国风美术与沉浸式体验】游戏采用国风美术风格，结合东方幻想元素，场景设计涵盖险峻山峰、神秘神殿等，如“西天幻境”地图通过迷幻色彩和独特怪物设计</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>暗夜圣徒游戏软件V1.0</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>新广出审[2017]1530号</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>2017-02-14</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>北京中电电子出版社</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>北京飞动乐驰信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>移动-休闲益智</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>开个水果店</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>上线</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>国内游戏</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>游戏/策略</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>鹏 才</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>AppStore</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
           <t>https://apps.apple.com/cn/app/%E5%BC%80%E4%B8%AA%E6%B0%B4%E6%9E%9C%E5%BA%97/id6744321884?uo=4</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>https://is1-ssl.mzstatic.com/image/thumb/Purple211/v4/a8/52/05/a852050b-17d4-6695-239a-56552a2296e4/AppIcon-1x_U007ephone-0-1-0-85-220-0.png/512x512bb.jpg</t>
         </is>
       </c>
-      <c r="L126" t="inlineStr">
+      <c r="L130" t="inlineStr">
         <is>
           <t>欢迎来到《开个水果店》！这是一款轻松有趣的水果收集游戏，但小心——水果堆里藏着各种陷阱！你需要 慧眼识破陷阱，收集新鲜水果，经营你的水果小店！
 游戏玩法：
@@ -13684,73 +14125,73 @@
  快来挑战你的眼力和策略，成为最厉害的水果店老板吧！</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>三千幻世</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>预下载</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>像素/国漫/放置</t>
         </is>
       </c>
-      <c r="F127" t="n">
+      <c r="F131" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>像素造物工作室</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr">
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/717063</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr">
+      <c r="K131" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/88fbcffbf18e67464a4e759015843c97.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L127" t="inlineStr">
+      <c r="L131" t="inlineStr">
         <is>
           <t>狐妖小红娘、大王饶命、王牌御史、传武、尸兄、我是大神仙、妹子与科学、我的天劫女友、从前有座灵剑山、神俑降临、铁姬钢兵、开局一座山等一众腾讯动漫正版授权，首次集结13部顶流国漫IP，打造像素化国漫合集。
 从涂山苏苏与白月初的转世羁绊，从夜行御史降妖除魔的日常，到修仙界“扮猪吃老虎”的逆袭……所有名场面均以像素风高清重制，辅以精致的动态画面演出。从苦情巨树下的涂山城到未来科幻都市，从西西域沙漠到金刚猿森林，覆盖从经典到新锐的全维度内容，构建多世界联动的奇幻宇宙。
@@ -13767,109 +14208,109 @@
 这一次的邂逅，不止宿命相逢。</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
         <is>
           <t>三千幻世</t>
         </is>
       </c>
-      <c r="O127" t="inlineStr">
+      <c r="O131" t="inlineStr">
         <is>
           <t>国新出审〔2025〕127号</t>
         </is>
       </c>
-      <c r="P127" t="inlineStr">
+      <c r="P131" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-14510-9</t>
         </is>
       </c>
-      <c r="Q127" t="inlineStr">
+      <c r="Q131" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
-      <c r="R127" t="inlineStr">
+      <c r="R131" t="inlineStr">
         <is>
           <t>成都盈众九州网络科技有限公司</t>
         </is>
       </c>
-      <c r="S127" t="inlineStr">
+      <c r="S131" t="inlineStr">
         <is>
           <t>深圳市中手游网络科技有限公司</t>
         </is>
       </c>
-      <c r="T127" t="inlineStr">
+      <c r="T131" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U127" t="inlineStr">
+      <c r="U131" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V127" t="inlineStr">
+      <c r="V131" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W127" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>崩坏：星穹铁道</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>更新</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>角色扮演/冒险/策略</t>
         </is>
       </c>
-      <c r="F128" t="n">
+      <c r="F132" t="n">
         <v>7.4</v>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>miHoYo</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr">
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/224267</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/c6efcb07552a6ba1972a7b9fb22c1d76.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L128" t="inlineStr">
+      <c r="L132" t="inlineStr">
         <is>
           <t>这片银河中有名为「星神」的存在，祂们造就现实，抹消星辰，在无数「世界」中留下祂们的痕迹。你——一名特殊的旅客，将与继承「开拓」意志的同伴一起，乘坐星穹列车穿越银河，沿着某位「星神」曾经所行之途前进。你将由此探索新的文明，结识新的伙伴，在无数光怪陆离的「世界」与「世界」之间展开新的冒险。所有你想知道的，都将在群星中找到答案。
 那么，准备好开始这段「开拓」之旅了吗？
@@ -13884,109 +14325,109 @@
 星海之中，除「你」之外，还有无数身怀绝技的「他们」。你将拥有极寒之地的患难友情，仙舟危机中的并肩作战，金色美梦里的不期而遇……在冒险中邂逅英雄，结识伙伴，共赴奇旅。除了携手经历一段段冒险旅程，你还能通过多种方式与伙伴们增进友谊、分享奇遇，了解旅伴们更多不为人知的经历和故事......</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
         <is>
           <t>崩坏：星穹铁道</t>
         </is>
       </c>
-      <c r="O128" t="inlineStr">
+      <c r="O132" t="inlineStr">
         <is>
           <t>国新出审[2023]16号</t>
         </is>
       </c>
-      <c r="P128" t="inlineStr">
+      <c r="P132" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-10006-1</t>
         </is>
       </c>
-      <c r="Q128" t="inlineStr">
+      <c r="Q132" t="inlineStr">
         <is>
           <t>2023-01-17</t>
         </is>
       </c>
-      <c r="R128" t="inlineStr">
+      <c r="R132" t="inlineStr">
         <is>
           <t>上海声像电子出版社</t>
         </is>
       </c>
-      <c r="S128" t="inlineStr">
+      <c r="S132" t="inlineStr">
         <is>
           <t>上海米哈游影铁科技有限公司</t>
         </is>
       </c>
-      <c r="T128" t="inlineStr">
+      <c r="T132" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U128" t="inlineStr">
+      <c r="U132" t="inlineStr">
         <is>
           <t>移动、客户端</t>
         </is>
       </c>
-      <c r="V128" t="inlineStr">
+      <c r="V132" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W128" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>一号军团</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>国风/历史/策略</t>
         </is>
       </c>
-      <c r="F129" t="n">
+      <c r="F133" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>星河奇遇</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr">
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/716232</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/abb42eb4f29f82b7c4a670f00e216cc1.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L129" t="inlineStr">
+      <c r="L133" t="inlineStr">
         <is>
           <t>游戏原名《傲战千秋》，因为种种原因，不得不改名，希望各位玩家理解，鞠躬！
 玩家们大家好，我们是一个初创团队。《一号军团》是我们研发的第一款产品，我们开发初衷是希望做一款历史策略SLG类产品。
@@ -13996,105 +14437,105 @@
 轻度SLG：主打的是偏轻度SLG，但是内容数量不会少、质量要求不会低。减去了很多重复性操作，包括铺路打地打城、建筑时间、单武将抽卡价值大幅降低，也去掉了战法传承消耗的材料，有卡就能拆。</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
         <is>
           <t>一号军团</t>
         </is>
       </c>
-      <c r="O129" t="inlineStr">
+      <c r="O133" t="inlineStr">
         <is>
           <t>新广出审[2017]10037号</t>
         </is>
       </c>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr">
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr">
         <is>
           <t>2017-12-04</t>
         </is>
       </c>
-      <c r="R129" t="inlineStr">
+      <c r="R133" t="inlineStr">
         <is>
           <t>成都盈众九州网络科技有限公司</t>
         </is>
       </c>
-      <c r="S129" t="inlineStr">
+      <c r="S133" t="inlineStr">
         <is>
           <t>海南河马网络科技有限公司</t>
         </is>
       </c>
-      <c r="T129" t="inlineStr">
+      <c r="T133" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U129" t="inlineStr">
+      <c r="U133" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V129" t="inlineStr">
+      <c r="V133" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W129" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>吞噬星空：黎明</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>角色扮演</t>
         </is>
       </c>
-      <c r="F130" t="n">
+      <c r="F134" t="n">
         <v>6.5</v>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>力杰互娱</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr">
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/748975</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/293ef513b574e20a0d21865a0ca33a5d.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L130" t="inlineStr">
+      <c r="L134" t="inlineStr">
         <is>
           <t>在危机四伏的未来世界，致命病毒肆虐，让地球沦为末日废土。飞禽走兽在病毒催化下发生恐怖变异，拥有了远超人类的力量与智慧，它们频繁进攻人类居住地，热武器在这些怪兽面前逐渐失去效力。在这生死存亡之际，你将化身武者，与强大的伙伴们组队冒险。
 游戏构建了末日废土与科幻修真相互交织的独特世界。借助顶尖3D技术，机械装甲、变异巨兽、浩瀚星空跃然眼前，搭配震撼音效与动态光影，营造出沉浸式的末日冒险体验。
@@ -14103,109 +14544,109 @@
 为助力玩家开启冒险，游戏福利满满。上线就送神级医师及专武，在线即送VIP，签到还能领取上千抽，助力玩家快速组建强力阵容 。</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
         <is>
           <t>吞噬星空：黎明</t>
         </is>
       </c>
-      <c r="O130" t="inlineStr">
+      <c r="O134" t="inlineStr">
         <is>
           <t>国新出审[2022]1605号</t>
         </is>
       </c>
-      <c r="P130" t="inlineStr">
+      <c r="P134" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-09840-5</t>
         </is>
       </c>
-      <c r="Q130" t="inlineStr">
+      <c r="Q134" t="inlineStr">
         <is>
           <t>2022-11-16</t>
         </is>
       </c>
-      <c r="R130" t="inlineStr">
+      <c r="R134" t="inlineStr">
         <is>
           <t>北京联合出版有限责任公司</t>
         </is>
       </c>
-      <c r="S130" t="inlineStr">
+      <c r="S134" t="inlineStr">
         <is>
           <t>北京欣荣繁兴科技有限公司</t>
         </is>
       </c>
-      <c r="T130" t="inlineStr">
+      <c r="T134" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U130" t="inlineStr">
+      <c r="U134" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V130" t="inlineStr">
+      <c r="V134" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W130" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>火影忍者：木叶高手</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>放置/竖屏/卡牌</t>
         </is>
       </c>
-      <c r="F131" t="n">
+      <c r="F135" t="n">
         <v>7.8</v>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>中手游</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr">
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/715546</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="K135" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/79b81b568926d920f0c62ee6e3f07f87.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L131" t="inlineStr">
+      <c r="L135" t="inlineStr">
         <is>
           <t>《火影忍者：木叶高手》作为一款正版火影放置卡牌手游，将与你重温充满查克拉与忍术的火影世界，跟随原班声优再度邂逅鸣人、佐助、小樱、卡卡西等经典角色，沉浸式感受竖屏新视角带来的策略乐趣。忍者全集结，无损换将，让你轻松组建最强阵容，更有免费千抽助你躺平收益，在放置中感受成长乐趣。与火影同行，轻松开拓属于你的忍道吧！
 竖屏新视界 重塑正版火影经典
@@ -14218,109 +14659,109 @@
 火影放置陪伴，即享躺平收益。忍者小队自动冒险，工作休息两不误。畅享免费千抽，轻松构建豪华阵容。长线收益不间断，每次回归见证成长。与火影同行，在放置中感受成长的喜悦，享受真正的游戏乐趣！</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
         <is>
           <t>火影忍者：木叶高手</t>
         </is>
       </c>
-      <c r="O131" t="inlineStr">
+      <c r="O135" t="inlineStr">
         <is>
           <t>国新出审〔2023〕2189号</t>
         </is>
       </c>
-      <c r="P131" t="inlineStr">
+      <c r="P135" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-12889-8</t>
         </is>
       </c>
-      <c r="Q131" t="inlineStr">
+      <c r="Q135" t="inlineStr">
         <is>
           <t>2023-12-21</t>
         </is>
       </c>
-      <c r="R131" t="inlineStr">
+      <c r="R135" t="inlineStr">
         <is>
           <t>上海商国网络科技发展有限公司</t>
         </is>
       </c>
-      <c r="S131" t="inlineStr">
+      <c r="S135" t="inlineStr">
         <is>
           <t>上海蜂虞网络科技有限公司</t>
         </is>
       </c>
-      <c r="T131" t="inlineStr">
+      <c r="T135" t="inlineStr">
         <is>
           <t>进口网络游戏</t>
         </is>
       </c>
-      <c r="U131" t="inlineStr">
+      <c r="U135" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V131" t="inlineStr">
+      <c r="V135" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W131" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>华夏千秋</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>模拟经营/国风/回合制</t>
         </is>
       </c>
-      <c r="F132" t="n">
+      <c r="F136" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>华夏千秋工作室</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr">
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/604309</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/2cb89d2fb7fa51c49988539359118c48.jpg/appicon?t=1</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr">
+      <c r="L136" t="inlineStr">
         <is>
           <t>天降机缘，奇物现世，带着亲友的期许上路，你是否能抓住这旷世奇缘？
 行走江湖，比武猜招，种田耕地，往来交互，你会走上那一条人生之路？
@@ -14333,109 +14774,109 @@
 是自带青梅竹马，又或天降奇缘？是日久生情，又或一见倾心？是守身如玉，一生一次心意动，还是广交结友，情意脉脉遍四海？命格不一，由天定，更在人为！你的一生，将由自己亲手决定。</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
         <is>
           <t>华夏千秋</t>
         </is>
       </c>
-      <c r="O132" t="inlineStr">
+      <c r="O136" t="inlineStr">
         <is>
           <t>国新出审〔2023〕2042号</t>
         </is>
       </c>
-      <c r="P132" t="inlineStr">
+      <c r="P136" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-12824-9</t>
         </is>
       </c>
-      <c r="Q132" t="inlineStr">
+      <c r="Q136" t="inlineStr">
         <is>
           <t>2023-11-30</t>
         </is>
       </c>
-      <c r="R132" t="inlineStr">
+      <c r="R136" t="inlineStr">
         <is>
           <t>安徽新华电子音像出版社</t>
         </is>
       </c>
-      <c r="S132" t="inlineStr">
+      <c r="S136" t="inlineStr">
         <is>
           <t>广州火羽信息科技有限公司</t>
         </is>
       </c>
-      <c r="T132" t="inlineStr">
+      <c r="T136" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U132" t="inlineStr">
+      <c r="U136" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V132" t="inlineStr">
+      <c r="V136" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W132" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>星际飞行</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>模拟经营/策略/射击</t>
         </is>
       </c>
-      <c r="F133" t="n">
+      <c r="F137" t="n">
         <v>9.6</v>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>13th DogeFleet</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr">
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/715942</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="K137" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/6d976834f3882798374ac9750d0f3df7.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr">
+      <c r="L137" t="inlineStr">
         <is>
           <t>游戏简介：
 总有一天，我们会离开赖以生存的蓝色星球，开始星际航行的时代。在漫长的太空历史中，危机四伏，不同势力如流星般闪耀后消散在无垠的宇宙中。宇宙历220年，翠星联合军与黄金树帝国在法尔斯星域爆发了震撼整个星域的大会战后一切归于沉寂，战火不断的宇宙迎来了短暂的和平，在各种暗流涌动之下，诸位年轻的舰长也即将怀揣梦想启航。
@@ -14459,434 +14900,434 @@
 当您厌倦了上述所说的一切，只想在无垠的宇宙中，平静度日，希望您有空到星际酒馆多看看，这里有来自不同的星球和种族的奇人轶事，以及酒馆女郎。搞好和她们的关系，躺平游戏，每天做一条最快乐的咸鱼。</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
         <is>
           <t>星际飞行</t>
         </is>
       </c>
-      <c r="O133" t="inlineStr">
+      <c r="O137" t="inlineStr">
         <is>
           <t>国新出审[2020]2345号</t>
         </is>
       </c>
-      <c r="P133" t="inlineStr">
+      <c r="P137" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-08304-3</t>
         </is>
       </c>
-      <c r="Q133" t="inlineStr">
+      <c r="Q137" t="inlineStr">
         <is>
           <t>2020-10-16</t>
         </is>
       </c>
-      <c r="R133" t="inlineStr">
+      <c r="R137" t="inlineStr">
         <is>
           <t>浙江出版集团数字传媒有限公司</t>
         </is>
       </c>
-      <c r="S133" t="inlineStr">
+      <c r="S137" t="inlineStr">
         <is>
           <t>杭州西米科技有限公司</t>
         </is>
       </c>
-      <c r="T133" t="inlineStr">
+      <c r="T137" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U133" t="inlineStr">
+      <c r="U137" t="inlineStr">
         <is>
           <t>移动-休闲益智</t>
         </is>
       </c>
-      <c r="V133" t="inlineStr">
+      <c r="V137" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W133" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>时隙之旅</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>卡牌/策略/放置</t>
         </is>
       </c>
-      <c r="F134" t="n">
+      <c r="F138" t="n">
         <v>8.5</v>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>星曜工作室</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr">
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/739840</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr">
+      <c r="K138" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/14b9aef1b640c1b868188a372f4b2476.jpg/appicon?t=1</t>
         </is>
       </c>
-      <c r="L134" t="inlineStr">
+      <c r="L138" t="inlineStr">
         <is>
           <t>各位引航者，欢迎来到《时隙之旅》这个丰富多彩的奇幻未来世界。引航者们将与不同形态的幻灵们相遇，并结下深厚的羁绊，共同探索冒险和发现这个世界的真相。在遭遇不同爽快战斗的同时，需要了解并掌握幻灵们多样的战斗方式搭配策略，来应对后期更强大势力挑战。引航者们将最终打破和颠覆这个世界运行法则，重新塑造属于你的未来之城。</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
         <is>
           <t>时隙之旅</t>
         </is>
       </c>
-      <c r="O134" t="inlineStr">
+      <c r="O138" t="inlineStr">
         <is>
           <t>国新出审〔2024〕866号</t>
         </is>
       </c>
-      <c r="P134" t="inlineStr">
+      <c r="P138" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-13464-6</t>
         </is>
       </c>
-      <c r="Q134" t="inlineStr">
+      <c r="Q138" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="R134" t="inlineStr">
+      <c r="R138" t="inlineStr">
         <is>
           <t>杭州润趣科技有限公司</t>
         </is>
       </c>
-      <c r="S134" t="inlineStr">
+      <c r="S138" t="inlineStr">
         <is>
           <t>杭州游聚信息技术有限公司</t>
         </is>
       </c>
-      <c r="T134" t="inlineStr">
+      <c r="T138" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U134" t="inlineStr">
+      <c r="U138" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V134" t="inlineStr">
+      <c r="V138" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W134" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>天上白玉京</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>国内游戏</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>中国风/卡牌/二次元</t>
         </is>
       </c>
-      <c r="F135" t="n">
+      <c r="F139" t="n">
         <v>9.1</v>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>此方游戏</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>好游快爆</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr">
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
         <is>
           <t>https://www.3839.com/a/147381.htm</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr">
+      <c r="K139" t="inlineStr">
         <is>
           <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx/gicon/147381/20240309-00.png</t>
         </is>
       </c>
-      <c r="L135" t="inlineStr">
+      <c r="L139" t="inlineStr">
         <is>
           <t>肩负使命  踏界而来简介神秘的造物，失落的文明，突兀的闯入人族与妖族共存的「玄元界」，灵器和修行，融合与毁灭，它们之间究竟能碰撞出怎样的火花？“「本源」「黑雾」「黯奴」”玄元界的秘密似乎还不止于此。此前已有引导者抵达并进行信息调查，此界符合守界人降临条件，经万界商盟同意，决定派遣守界人前往。计划代号——「天上白玉京」以上，作为「守界人」，万界商盟派遣你前往，揭开玄元界的帷幕。</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
         <is>
           <t>天上白玉京</t>
         </is>
       </c>
-      <c r="O135" t="inlineStr">
+      <c r="O139" t="inlineStr">
         <is>
           <t>国新出审[2021]434号</t>
         </is>
       </c>
-      <c r="P135" t="inlineStr">
+      <c r="P139" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-08854-3</t>
         </is>
       </c>
-      <c r="Q135" t="inlineStr">
+      <c r="Q139" t="inlineStr">
         <is>
           <t>2021-03-04</t>
         </is>
       </c>
-      <c r="R135" t="inlineStr">
+      <c r="R139" t="inlineStr">
         <is>
           <t>辽宁电子出版社有限责任公司</t>
         </is>
       </c>
-      <c r="S135" t="inlineStr">
+      <c r="S139" t="inlineStr">
         <is>
           <t>沈阳星空互娱网络科技有限公司</t>
         </is>
       </c>
-      <c r="T135" t="inlineStr">
+      <c r="T139" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U135" t="inlineStr">
+      <c r="U139" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V135" t="inlineStr">
+      <c r="V139" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W135" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>黑色信标</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>2025-04-08</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>新游爆料</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>养成/二次元/动作</t>
         </is>
       </c>
-      <c r="F136" t="n">
+      <c r="F140" t="n">
         <v>8.5</v>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>世纪天成</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr">
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/242574</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr">
+      <c r="K140" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/a26c919fcd6ad5314a09d97e1d9fa0d9.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L136" t="inlineStr">
+      <c r="L140" t="inlineStr">
         <is>
           <t>《黑色信标》是一款双视角x无限技能连携ARPG手游。在游戏中，你将扮演预言中的“预见者”的一员，与「楔文会」的成员们一同对抗来自其他世界的异象，在收容信标、处理异象的过程中接触各种各样的伙伴或敌人，逐步揭开世界交错的真相。</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
         <is>
           <t>黑色信标</t>
         </is>
       </c>
-      <c r="O136" t="inlineStr">
+      <c r="O140" t="inlineStr">
         <is>
           <t>国新出审〔2025〕72号</t>
         </is>
       </c>
-      <c r="P136" t="inlineStr">
+      <c r="P140" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-14455-3</t>
         </is>
       </c>
-      <c r="Q136" t="inlineStr">
+      <c r="Q140" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
-      <c r="R136" t="inlineStr">
+      <c r="R140" t="inlineStr">
         <is>
           <t>北京目标在线科技有限公司</t>
         </is>
       </c>
-      <c r="S136" t="inlineStr">
+      <c r="S140" t="inlineStr">
         <is>
           <t>北京幸福满格科技有限公司</t>
         </is>
       </c>
-      <c r="T136" t="inlineStr">
+      <c r="T140" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U136" t="inlineStr">
+      <c r="U140" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V136" t="inlineStr">
+      <c r="V140" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W136" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>星痕共鸣</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>2025-04-08</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>测试招募</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>安卓/iOS/PC端</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>角色扮演</t>
         </is>
       </c>
-      <c r="F137" t="n">
+      <c r="F141" t="n">
         <v>8.6</v>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>腾讯</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/731774</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/26f830fa88190c764f6bc1d9baee64ad.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr">
+      <c r="L141" t="inlineStr">
         <is>
           <t>欢迎来到雷格纳斯，冒险者。
 《星痕共鸣》是一款是基于万代南梦宫“PROJECT SKY BLUE”IP世界观下，由上海宝可拉所开发的MMORPG。
@@ -14909,220 +15350,220 @@
 ▶ 角色二分色法：角色的渲染方式采用日式动漫中的二分色阶风格，拒绝额外的明暗关系过渡、和写实游戏中的各种材质，高度还原你想要的动漫角色。</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
         <is>
           <t>星痕共鸣</t>
         </is>
       </c>
-      <c r="O137" t="inlineStr">
+      <c r="O141" t="inlineStr">
         <is>
           <t>国新出审〔2025〕187号</t>
         </is>
       </c>
-      <c r="P137" t="inlineStr">
+      <c r="P141" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-14570-3</t>
         </is>
       </c>
-      <c r="Q137" t="inlineStr">
+      <c r="Q141" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
-      <c r="R137" t="inlineStr">
+      <c r="R141" t="inlineStr">
         <is>
           <t>上海声像电子出版社</t>
         </is>
       </c>
-      <c r="S137" t="inlineStr">
+      <c r="S141" t="inlineStr">
         <is>
           <t>上海艮洲网络科技有限公司</t>
         </is>
       </c>
-      <c r="T137" t="inlineStr">
+      <c r="T141" t="inlineStr">
         <is>
           <t>进口网络游戏</t>
         </is>
       </c>
-      <c r="U137" t="inlineStr">
+      <c r="U141" t="inlineStr">
         <is>
           <t>移动、客户端</t>
         </is>
       </c>
-      <c r="V137" t="inlineStr">
+      <c r="V141" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W137" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>失控进化</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>2025-04-08</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>测试招募</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>生存/沙盒/开放世界</t>
         </is>
       </c>
-      <c r="F138" t="n">
+      <c r="F142" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>腾讯</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/733908</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr">
+      <c r="K142" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/e88a8de0aa736c628543ac80b2e07bd2.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L138" t="inlineStr">
+      <c r="L142" t="inlineStr">
         <is>
           <t>《失控进化》是一款Rust正版玩法授权的硬核生存对抗游戏。玩家将置身于危机四伏的荒岛之上，徒手开启资源采集、武器锻造、庇护所搭建与狩猎，应对气候、饥饿、动物与其他玩家带来的生存挑战。</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
         <is>
           <t>失控进化</t>
         </is>
       </c>
-      <c r="O138" t="inlineStr">
+      <c r="O142" t="inlineStr">
         <is>
           <t>国新出审〔2023〕1801号</t>
         </is>
       </c>
-      <c r="P138" t="inlineStr">
+      <c r="P142" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-12760-0</t>
         </is>
       </c>
-      <c r="Q138" t="inlineStr">
+      <c r="Q142" t="inlineStr">
         <is>
           <t>2023-10-25</t>
         </is>
       </c>
-      <c r="R138" t="inlineStr">
+      <c r="R142" t="inlineStr">
         <is>
           <t>浙江无端科技股份有限公司</t>
         </is>
       </c>
-      <c r="S138" t="inlineStr">
+      <c r="S142" t="inlineStr">
         <is>
           <t>浙江无端科技股份有限公司</t>
         </is>
       </c>
-      <c r="T138" t="inlineStr">
+      <c r="T142" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U138" t="inlineStr">
+      <c r="U142" t="inlineStr">
         <is>
           <t>移动、客户端</t>
         </is>
       </c>
-      <c r="V138" t="inlineStr">
+      <c r="V142" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W138" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>最封神</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>2025-04-08</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>上线</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>养成/放置</t>
         </is>
       </c>
-      <c r="F139" t="n">
+      <c r="F143" t="n">
         <v>7.8</v>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>超凡入圣工作室</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr">
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/733841</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/78f4731a1b1cc3dc32241014414ff050.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L139" t="inlineStr">
+      <c r="L143" t="inlineStr">
         <is>
           <t>在猎妖村里，您将化身为一名猎妖师，通过收集符咒召唤赵云、廉颇、关羽、吕布等三国名将，化身为魂将为您而战。独特的美术风格和强烈的策略性，让您眼前一亮一亮又一亮。阵容羁绊搭配，稀有魂将培养，您将拥有一只无人能敌的队伍，为您魂定江山，叱咤风云。此外，游戏还拥有锁妖塔、魂域对决、祸乱四起、幽府秘境等丰富多样的特色玩法，简直好玩又有趣。
 【游戏特色】
@@ -15138,283 +15579,283 @@
 无需硬干，小鬼异火还会自动为你攻击，解放双手，轻松挂机，超多福利随机送</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
         <is>
           <t>最封神</t>
         </is>
       </c>
-      <c r="O139" t="inlineStr">
+      <c r="O143" t="inlineStr">
         <is>
           <t>新出审字[2013]561号</t>
         </is>
       </c>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr">
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr">
         <is>
           <t>2013-05-14</t>
         </is>
       </c>
-      <c r="R139" t="inlineStr">
+      <c r="R143" t="inlineStr">
         <is>
           <t>三辰影库音像出版社</t>
         </is>
       </c>
-      <c r="S139" t="inlineStr">
+      <c r="S143" t="inlineStr">
         <is>
           <t>广州风之神软件科技有限公司</t>
         </is>
       </c>
-      <c r="T139" t="inlineStr">
+      <c r="T143" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U139" t="inlineStr">
+      <c r="U143" t="inlineStr">
         <is>
           <t>原</t>
         </is>
       </c>
-      <c r="V139" t="inlineStr">
+      <c r="V143" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W139" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>山鬼志：寒衣</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>2025-04-08</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>可预约</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>安卓/iOS/Steam</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>策略/模拟/角色扮演</t>
         </is>
       </c>
-      <c r="F140" t="n">
+      <c r="F144" t="n">
         <v>0</v>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>坤舆科技</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr">
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/748985</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="K144" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/3f69aad8a65c27e95cf8e41d419fe059.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L140" t="inlineStr">
+      <c r="L144" t="inlineStr">
         <is>
           <t>天河历2010年十月初一，寒衣节，一位老人的离奇失踪，牵扯出天河镇两个村子里隐匿多年的秘密，随着越来越多的线索被发现，真相似乎就在眼前……《山鬼志：寒衣》是一款中国民俗题材的恐怖剧情解谜游戏。天河镇有一条不成文的规定：寒衣节这天，任何村民都不许靠近后山，若是因此惹上了什么山神野鬼，清风观的道长们是不会管的。可爷爷的失踪，让陈一来到了山下。山上真的有鬼吗？或许，还有比鬼可怕的东西。</t>
         </is>
       </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
-      <c r="W140" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>一念山海</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>2025-04-08</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>上线</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>国内游戏</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>国风/放置/角色扮演</t>
         </is>
       </c>
-      <c r="F141" t="n">
+      <c r="F145" t="n">
         <v>6.4</v>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>深深工作室</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr">
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/730120</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="K145" t="inlineStr">
         <is>
           <t>https://img.16p.com/auto/7e/d4/7ed4bf07a68b81fd2aa6018deb4a58ca.png</t>
         </is>
       </c>
-      <c r="L141" t="inlineStr">
+      <c r="L145" t="inlineStr">
         <is>
           <t>“山海结伴行，一念皆成仙” ★观前提示：这是一款并非所有人都能接受的纯数值爽游，如果你对此类游戏不感兴趣，那么接下来的简介会浪费你宝贵时间观看。  各位尊者好！《一念山海》是一款国风3D山海经题材的放置手游，在游戏中，你只需要点点点，便可以轻松体验纯正的东方幻想世界。 跟随主角，一人一飞剑遨游地图，修炼仙技除魔，偶遇奇珍异兽，打造上古神兵。从一介凡人逐渐蜕变成至高仙尊的奇幻之旅。  自动挂机？——有，很多。 告别繁杂操作，我们将整个修仙最精华的部分提取出来，自动化释放技能、简单操作、放置体验，无时无刻都能获得成长。  外观造型？——有，很多。 量大丰富管饱，稀世装备亲手打造。解锁千变万化的搭配方案，保证你是修仙路上最靓的仔！  收集山海经异兽？——有，很多。 下至凡界小妖，上至通天仙童皆为你所用。还有更多经典的山海异兽在游戏里等你收集。  福利内容？——有，很多 还在为养成发愁？资源狂送，正常游玩就能获得海量奖励，豹子头零充也能玩的很爽！保你修仙之旅一路顺畅。  氪金套路？——有，很多 童叟无欺囊括几乎市面上所有氪金手段，极其残忍。但我们承诺，争取让我们的衣食父母们花一分钱感受到五块钱的品质和爽感。</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
         <is>
           <t>一念山海</t>
         </is>
       </c>
-      <c r="O141" t="inlineStr">
+      <c r="O145" t="inlineStr">
         <is>
           <t>国新出审〔2024〕2003号</t>
         </is>
       </c>
-      <c r="P141" t="inlineStr">
+      <c r="P145" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-14032-6</t>
         </is>
       </c>
-      <c r="Q141" t="inlineStr">
+      <c r="Q145" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
-      <c r="R141" t="inlineStr">
+      <c r="R145" t="inlineStr">
         <is>
           <t>吉林音像出版社有限责任公司</t>
         </is>
       </c>
-      <c r="S141" t="inlineStr">
+      <c r="S145" t="inlineStr">
         <is>
           <t>海南九悦互娱信息科技有限公司</t>
         </is>
       </c>
-      <c r="T141" t="inlineStr">
+      <c r="T145" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U141" t="inlineStr">
+      <c r="U145" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V141" t="inlineStr">
+      <c r="V145" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W141" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>三国望神州</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>安卓/iOS/PC端</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>角色扮演/国风/剧情</t>
         </is>
       </c>
-      <c r="F142" t="n">
+      <c r="F146" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>杭州弹指宇宙网络有限公司</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr">
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/622867</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr">
+      <c r="K146" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/bfa406cd8acbe1f46bc31b0478d37ea9.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr">
+      <c r="L146" t="inlineStr">
         <is>
           <t>■三国战棋，当望神州
 《三国望神州》（前《代号南乡子》）以中国传统水墨工笔美术，描摹出令人耳目一新的三国乱世。各位明公将在这乱世绘卷中扮演那个时代割据一方的英雄，用经典战棋玩法调兵遣将，思当年豪杰之虑，谋当年明公之策，再现当年传奇之路。
@@ -15431,109 +15872,109 @@
 狼烟已起，墨砚已备，恭候明公执子入局，共绘三国！</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
         <is>
           <t>三国望神州</t>
         </is>
       </c>
-      <c r="O142" t="inlineStr">
+      <c r="O146" t="inlineStr">
         <is>
           <t>国新出审〔2024〕2175号</t>
         </is>
       </c>
-      <c r="P142" t="inlineStr">
+      <c r="P146" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-14124-8</t>
         </is>
       </c>
-      <c r="Q142" t="inlineStr">
+      <c r="Q146" t="inlineStr">
         <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="R142" t="inlineStr">
+      <c r="R146" t="inlineStr">
         <is>
           <t>上海科学技术文献出版社有限公司</t>
         </is>
       </c>
-      <c r="S142" t="inlineStr">
+      <c r="S146" t="inlineStr">
         <is>
           <t>星臻科技（上海）有限公司</t>
         </is>
       </c>
-      <c r="T142" t="inlineStr">
+      <c r="T146" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U142" t="inlineStr">
+      <c r="U146" t="inlineStr">
         <is>
           <t>移动、客户端</t>
         </is>
       </c>
-      <c r="V142" t="inlineStr">
+      <c r="V146" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W142" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>山海仙路</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>放置/修仙/剧情</t>
         </is>
       </c>
-      <c r="F143" t="n">
+      <c r="F147" t="n">
         <v>9.6</v>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>上海晓枫网络科技有限公司</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr">
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/717430</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="K147" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/6e27cdfb92881e6ed30d29da0110a11b.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr">
+      <c r="L147" t="inlineStr">
         <is>
           <t>你从一缕残魂转世投胎，开启凡人修仙之路
 世界画面采用写意的古风水墨风格，简约而不简单~
@@ -15544,109 +15985,109 @@
 什么？你觉得不可能？修仙本就是逆天改命，让不可能成为可能！</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
         <is>
           <t>山海仙路</t>
         </is>
       </c>
-      <c r="O143" t="inlineStr">
+      <c r="O147" t="inlineStr">
         <is>
           <t>国新出审〔2023〕1176号</t>
         </is>
       </c>
-      <c r="P143" t="inlineStr">
+      <c r="P147" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-12514-9</t>
         </is>
       </c>
-      <c r="Q143" t="inlineStr">
+      <c r="Q147" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="R143" t="inlineStr">
+      <c r="R147" t="inlineStr">
         <is>
           <t>上海科学技术文献出版社有限公司</t>
         </is>
       </c>
-      <c r="S143" t="inlineStr">
+      <c r="S147" t="inlineStr">
         <is>
           <t>上海晓枫网络科技有限公司</t>
         </is>
       </c>
-      <c r="T143" t="inlineStr">
+      <c r="T147" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U143" t="inlineStr">
+      <c r="U147" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V143" t="inlineStr">
+      <c r="V147" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W143" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>明日方舟</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>更新</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>塔防/二次元/养成</t>
         </is>
       </c>
-      <c r="F144" t="n">
+      <c r="F148" t="n">
         <v>8.1</v>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>鹰角网络</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr">
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/70253</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr">
+      <c r="K148" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/2ea1a63c45fe294d36e29e348d441ea3.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr">
+      <c r="L148" t="inlineStr">
         <is>
           <t>起因不明并四处肆虐的天灾，席卷过的土地上出现了大量的神秘矿物——被人们称为“源石”。虽然源石的发现历史已久，但是依赖于技术的进步，其蕴含的能量使得文明顺利迈入现代，但与此同时，源石本身也催生出“感染者”的存在。
 身俱力量与不幸的存在，如今他们中的一部分，妄图与源石整合为一，为大地带来新的秩序。这场战火阴谋是我们对抗天灾遇到的新的阻碍。
@@ -15656,284 +16097,284 @@
 官方微信公众号：HG-AKS</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
         <is>
           <t>明日方舟：终末地</t>
         </is>
       </c>
-      <c r="O144" t="inlineStr">
+      <c r="O148" t="inlineStr">
         <is>
           <t>国新出审〔2024〕1795号</t>
         </is>
       </c>
-      <c r="P144" t="inlineStr">
+      <c r="P148" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-13884-2</t>
         </is>
       </c>
-      <c r="Q144" t="inlineStr">
+      <c r="Q148" t="inlineStr">
         <is>
           <t>2024-08-30</t>
         </is>
       </c>
-      <c r="R144" t="inlineStr">
+      <c r="R148" t="inlineStr">
         <is>
           <t>上海交通大学电子音像出版社有限公司</t>
         </is>
       </c>
-      <c r="S144" t="inlineStr">
+      <c r="S148" t="inlineStr">
         <is>
           <t>上海鹰角塔罗斯网络科技有限公司</t>
         </is>
       </c>
-      <c r="T144" t="inlineStr">
+      <c r="T148" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U144" t="inlineStr">
+      <c r="U148" t="inlineStr">
         <is>
           <t>移动、客户端、游戏机（PS5）游戏</t>
         </is>
       </c>
-      <c r="V144" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="W144" t="inlineStr"/>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="W148" t="inlineStr"/>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>破日开天</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>上线</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>宠物/放置/养成</t>
         </is>
       </c>
-      <c r="F145" t="n">
+      <c r="F149" t="n">
         <v>8.6</v>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>百层</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr">
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/748032</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr">
+      <c r="K149" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/819f01033065759995931970f83369e5.jpg/appicon?t=1</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr">
+      <c r="L149" t="inlineStr">
         <is>
           <t>放置挂机、速刷资源、职业搭配、速通百关！30+种职业、100+种技能，50+各具特色的神器，技能自由搭配，宠物自动合成！</t>
         </is>
       </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
         <is>
           <t>破日开天</t>
         </is>
       </c>
-      <c r="O145" t="inlineStr">
+      <c r="O149" t="inlineStr">
         <is>
           <t>新广出审[2017]8986号</t>
         </is>
       </c>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr">
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr">
         <is>
           <t>2017-10-23</t>
         </is>
       </c>
-      <c r="R145" t="inlineStr">
+      <c r="R149" t="inlineStr">
         <is>
           <t>上海雪鲤鱼计算机科技有限公司</t>
         </is>
       </c>
-      <c r="S145" t="inlineStr">
+      <c r="S149" t="inlineStr">
         <is>
           <t>深圳市鲸旗天下网络科技有限公司</t>
         </is>
       </c>
-      <c r="T145" t="inlineStr">
+      <c r="T149" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U145" t="inlineStr">
+      <c r="U149" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V145" t="inlineStr">
+      <c r="V149" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W145" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>悟空传说2048</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>休闲/策略/单机</t>
         </is>
       </c>
-      <c r="F146" t="n">
+      <c r="F150" t="n">
         <v>10</v>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>哈皮工作室</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr">
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/741690</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr">
+      <c r="K150" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/a4a81ab64bbfda14e90cd732b8cc2d39.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr">
+      <c r="L150" t="inlineStr">
         <is>
           <t>上下左右滑动，相同数字的武器、盾牌、药剂，各自合成更高级同类物品。
 拿起武器，斩妖除魔。注意，别让妖怪抢走你的武器！</t>
         </is>
       </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
-      <c r="T146" t="inlineStr"/>
-      <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
-      <c r="W146" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>永不言弃：镜世界</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>可预约</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>益智</t>
         </is>
       </c>
-      <c r="F147" t="n">
+      <c r="F151" t="n">
         <v>0</v>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>金橘工作室</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr">
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/747286</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr">
+      <c r="K151" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/4869448a55c2a0e38aa86bd91a411a45.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L147" t="inlineStr">
+      <c r="L151" t="inlineStr">
         <is>
           <t>硬核高难手游正版续作《永不言弃：镜世界》，开启一场虐心的音乐节奏之旅！
 创新玩法，节奏为王：
@@ -15946,109 +16387,109 @@
 继承前作魔性洗脑的动感背景音乐！创新推出自制音效功能，你可录制专属音效，让游戏音效充满创意与个性，为跑酷之旅增添别样乐趣。</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
         <is>
           <t>永不言弃：镜世界</t>
         </is>
       </c>
-      <c r="O147" t="inlineStr">
+      <c r="O151" t="inlineStr">
         <is>
           <t>国新出审〔2025〕189号</t>
         </is>
       </c>
-      <c r="P147" t="inlineStr">
+      <c r="P151" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-14572-7</t>
         </is>
       </c>
-      <c r="Q147" t="inlineStr">
+      <c r="Q151" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
-      <c r="R147" t="inlineStr">
+      <c r="R151" t="inlineStr">
         <is>
           <t>炫彩互动网络科技有限公司</t>
         </is>
       </c>
-      <c r="S147" t="inlineStr">
+      <c r="S151" t="inlineStr">
         <is>
           <t>重庆邦邦科技有限公司</t>
         </is>
       </c>
-      <c r="T147" t="inlineStr">
+      <c r="T151" t="inlineStr">
         <is>
           <t>进口网络游戏</t>
         </is>
       </c>
-      <c r="U147" t="inlineStr">
+      <c r="U151" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V147" t="inlineStr">
+      <c r="V151" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W147" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>永不言弃：掉落</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>可预约</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>益智</t>
         </is>
       </c>
-      <c r="F148" t="n">
+      <c r="F152" t="n">
         <v>0</v>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>金橘工作室</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr">
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/747285</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr">
+      <c r="K152" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/4e35e5e1e5bb70c598a010b621aaaf03.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L148" t="inlineStr">
+      <c r="L152" t="inlineStr">
         <is>
           <t>突破常规，开启独特下坠冒险之旅！正版授权《永不言弃：掉落》来了！
 【创新玩法，挑战极限】
@@ -16061,225 +16502,225 @@
 多种角色与装饰品随心选，打造你的专属“小墨球”形象。</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N148" t="inlineStr">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
         <is>
           <t>永不言弃：掉落</t>
         </is>
       </c>
-      <c r="O148" t="inlineStr">
+      <c r="O152" t="inlineStr">
         <is>
           <t>国新出审〔2024〕2227号</t>
         </is>
       </c>
-      <c r="P148" t="inlineStr">
+      <c r="P152" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-14176-7</t>
         </is>
       </c>
-      <c r="Q148" t="inlineStr">
+      <c r="Q152" t="inlineStr">
         <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="R148" t="inlineStr">
+      <c r="R152" t="inlineStr">
         <is>
           <t>炫彩互动网络科技有限公司</t>
         </is>
       </c>
-      <c r="S148" t="inlineStr">
+      <c r="S152" t="inlineStr">
         <is>
           <t>重庆邦邦科技有限公司</t>
         </is>
       </c>
-      <c r="T148" t="inlineStr">
+      <c r="T152" t="inlineStr">
         <is>
           <t>进口网络游戏</t>
         </is>
       </c>
-      <c r="U148" t="inlineStr">
+      <c r="U152" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V148" t="inlineStr">
+      <c r="V152" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W148" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>胜利女神：新的希望</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>国内游戏</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>射击/二次元/美少女</t>
         </is>
       </c>
-      <c r="F149" t="n">
+      <c r="F153" t="n">
         <v>0</v>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>Shenzhen Tencent Tianyou Technology Ltd</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>AppStore</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
         <is>
           <t>https://apps.apple.com/cn/app/%E8%83%9C%E5%88%A9%E5%A5%B3%E7%A5%9E-%E6%96%B0%E7%9A%84%E5%B8%8C%E6%9C%9B/id6467825646?uo=4</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr">
+      <c r="K153" t="inlineStr">
         <is>
           <t>https://is1-ssl.mzstatic.com/image/thumb/Purple221/v4/13/b7/b8/13b7b83e-17ac-c077-f788-a42f2dd22186/AppIcon-1x_U007emarketing-0-7-0-85-220-0.png/512x512bb.jpg</t>
         </is>
       </c>
-      <c r="L149" t="inlineStr">
+      <c r="L153" t="inlineStr">
         <is>
           <t>《胜利女神：新的希望》是一款超动态美少女背身射击RPG游戏。玩家将带领“胜利女神”们，在末世中对抗外来的侵略势力，夺回人类原本的地上世界。
 游戏有着顶尖的动态立绘技术， 栩栩如生的2D角色表演，还有射击卡牌、角色养成、放置挂机等丰富的玩法。</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
         <is>
           <t>胜利女神：新的希望</t>
         </is>
       </c>
-      <c r="O149" t="inlineStr">
+      <c r="O153" t="inlineStr">
         <is>
           <t>国新出审〔2024〕2221号</t>
         </is>
       </c>
-      <c r="P149" t="inlineStr">
+      <c r="P153" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-14170-5</t>
         </is>
       </c>
-      <c r="Q149" t="inlineStr">
+      <c r="Q153" t="inlineStr">
         <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="R149" t="inlineStr">
+      <c r="R153" t="inlineStr">
         <is>
           <t>咪咕互动娱乐有限公司</t>
         </is>
       </c>
-      <c r="S149" t="inlineStr">
+      <c r="S153" t="inlineStr">
         <is>
           <t>咪咕互动娱乐有限公司</t>
         </is>
       </c>
-      <c r="T149" t="inlineStr">
+      <c r="T153" t="inlineStr">
         <is>
           <t>进口网络游戏</t>
         </is>
       </c>
-      <c r="U149" t="inlineStr">
+      <c r="U153" t="inlineStr">
         <is>
           <t>移动、客户端</t>
         </is>
       </c>
-      <c r="V149" t="inlineStr">
+      <c r="V153" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W149" t="inlineStr">
+      <c r="W153" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>龙息：神寂</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>上线</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>国内游戏</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>游戏/策略/角色扮演</t>
         </is>
       </c>
-      <c r="F150" t="n">
+      <c r="F154" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>Shenzhen Tencent Tianyou Technology Ltd</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>好游快爆</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr">
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
         <is>
           <t>https://apps.apple.com/cn/app/%E9%BE%99%E6%81%AF-%E7%A5%9E%E5%AF%82-%E6%AD%A3%E7%89%88%E9%BE%99%E4%B8%8E%E5%9C%B0%E4%B8%8B%E5%9F%8E%E8%81%94%E5%8A%A8/id6480042764?uo=4</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr">
+      <c r="K154" t="inlineStr">
         <is>
           <t>https://is1-ssl.mzstatic.com/image/thumb/Purple211/v4/08/2e/a6/082ea632-22bb-424e-25ab-6ce8a991afbe/AppIcon-0-0-1x_U007emarketing-0-7-0-85-220.png/512x512bb.jpg</t>
         </is>
       </c>
-      <c r="L150" t="inlineStr">
+      <c r="L154" t="inlineStr">
         <is>
           <t>&gt;&gt;荣登2023年苹果WWDC全球开发者大会，在场唯一国产游戏
 &gt;&gt;联动殿堂级西幻IP【龙与地下城】，传奇英雄、BOSS、剧情即将登场
@@ -16297,396 +16738,396 @@
 最后，希望你能享受这场奇幻之旅！</t>
         </is>
       </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
         <is>
           <t>龙息：神寂</t>
         </is>
       </c>
-      <c r="O150" t="inlineStr">
+      <c r="O154" t="inlineStr">
         <is>
           <t>国新出审〔2024〕201号</t>
         </is>
       </c>
-      <c r="P150" t="inlineStr">
+      <c r="P154" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-13072-3</t>
         </is>
       </c>
-      <c r="Q150" t="inlineStr">
+      <c r="Q154" t="inlineStr">
         <is>
           <t>2024-01-25</t>
         </is>
       </c>
-      <c r="R150" t="inlineStr">
+      <c r="R154" t="inlineStr">
         <is>
           <t>浙江出版集团数字传媒有限公司</t>
         </is>
       </c>
-      <c r="S150" t="inlineStr">
+      <c r="S154" t="inlineStr">
         <is>
           <t>上海傲爵数码科技有限公司</t>
         </is>
       </c>
-      <c r="T150" t="inlineStr">
+      <c r="T154" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U150" t="inlineStr">
+      <c r="U154" t="inlineStr">
         <is>
           <t>移动、客户端</t>
         </is>
       </c>
-      <c r="V150" t="inlineStr">
+      <c r="V154" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W150" t="inlineStr">
+      <c r="W154" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>七日世界</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>2025-01-10</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>国内游戏</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>游戏/角色扮演/冒险</t>
         </is>
       </c>
-      <c r="F151" t="n">
+      <c r="F155" t="n">
         <v>7.1</v>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>Hangzhou NetEase Leihuo Technology Co., Ltd.</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>好游快爆</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr">
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
         <is>
           <t>https://www.3839.com/a/138857.htm</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr">
+      <c r="K155" t="inlineStr">
         <is>
           <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20240413/14163022883</t>
         </is>
       </c>
-      <c r="L151" t="inlineStr">
+      <c r="L155" t="inlineStr">
         <is>
           <t>超自然开放世界游戏简介《七日世界》是一款超自然题材的多人开放世界游戏。游戏发生在一个怪诞的后启示录世界中，你需要和好友并肩为了生存资源而战，建造你们的家园领地，并一起战胜恐怖的畸变体，揭露世界沦陷的真相。曾经，你是人类中的一份子。现在，你仍是吗？超自然开放世界 自由享受生存与探索浩劫改变了星球上的一切，人类，动物，植物……所有生命体都被神秘的外来物质——“星尘”所侵入。作为一名“超越者”，你对星尘的抵御能力远甚常人，但这并不意味你是安全的。在16*16KM的超大无缝地图中，无论是作为独狼求生，还是联合其他人一同冒险探索，你都可以自由选择活下去的方式。当世界陷入末日混沌之时，你是我们最后的希望。直面未知恐惧 怪诞异常来袭星尘浩劫滋生出难以计量的畸变体，这些恐怖的怪物占据了几乎整个世界。必须从它们手中求得人类的生存之地！过去畸变体一直将人类视作猎物，但现在，超越者，这世界有了你…该换我们成为猎人了！丰富剧本带来多样体验 探索、建造、刷本、种田、经商无所限制作为赛季制游戏，无论是喜欢挑战强大的畸变体，还是期望与其他超越者正面对抗，周期性持续更新的剧本都能满足你的愿望。选择心仪的剧本，和其他同好玩家一起尽情享受这场末日狂欢吧！绿色公平体验 向数值付费说不游戏不会售卖任何影响数值平衡的商业化内容，超越者们可以公平的通过各种游戏体验内容，发展自己，无压力的选择自己喜好的游玩方式。大世界自由建造 桥梁、房车、堡垒、海上别墅展现创意在荒野的任何一个角落，都可以随心建造！你可以和队友分工合作，打造一座桥梁，跨越河流或者山谷。也可以打造一座极具生存主义风格的堡垒，把所有收集来的好东西都塞到坚固的金属墙后；在确保安全的前提下，还可以建造一所功能齐全、外形华丽的豪华别墅或者末日乐园，一起派对狂欢。厌倦了一成不变的建筑风景？快为房屋加上轮子，来一场说走就走的房车之旅吧~拟人异常物陪你探索大世界 打工、战斗、贴贴，随时相伴！拿着手枪突突突的羊驼，会颠勺烧菜的小青龙，勤勤恳恳挖矿的矿石小人…形态与功能各异的异常物遍布世界各个角落，可被超越者收容捕获。无论是战斗还是领地生产，它们都是不可或缺的重要助力。当然，也需要关注异常物们的需求，提供良好的收容环境并多多互动，不然它们可是会发脾气的。有了异常物的陪伴，末日求生的旅途不再孤单。</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
         <is>
           <t>七日世界</t>
         </is>
       </c>
-      <c r="O151" t="inlineStr">
+      <c r="O155" t="inlineStr">
         <is>
           <t>国新出审〔2023〕836号</t>
         </is>
       </c>
-      <c r="P151" t="inlineStr">
+      <c r="P155" t="inlineStr">
         <is>
           <t>978-7-498-12375-6</t>
         </is>
       </c>
-      <c r="Q151" t="inlineStr">
+      <c r="Q155" t="inlineStr">
         <is>
           <t>2023-05-19</t>
         </is>
       </c>
-      <c r="R151" t="inlineStr">
+      <c r="R155" t="inlineStr">
         <is>
           <t>广州网易计算机系统有限公司</t>
         </is>
       </c>
-      <c r="S151" t="inlineStr">
+      <c r="S155" t="inlineStr">
         <is>
           <t>杭州网易雷火科技有限公司</t>
         </is>
       </c>
-      <c r="T151" t="inlineStr">
+      <c r="T155" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U151" t="inlineStr">
+      <c r="U155" t="inlineStr">
         <is>
           <t>移动、客户端</t>
         </is>
       </c>
-      <c r="V151" t="inlineStr">
+      <c r="V155" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W151" t="inlineStr">
+      <c r="W155" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>荒野起源</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>2024-12-18</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>国内游戏</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>开放世界/SOC/生存</t>
         </is>
       </c>
-      <c r="F152" t="n">
+      <c r="F156" t="n">
         <v>8.1</v>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>腾讯游戏</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>好游快爆</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
         <is>
           <t>https://www.3839.com/a/177337.htm</t>
         </is>
       </c>
-      <c r="K152" t="inlineStr">
+      <c r="K156" t="inlineStr">
         <is>
           <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20241129/15420188978</t>
         </is>
       </c>
-      <c r="L152" t="inlineStr">
+      <c r="L156" t="inlineStr">
         <is>
           <t>机械文明荒野生存游戏，换个世界换个活法简介在遥远的未来，原本的地球和人类文明不复存在。荒野之上，机械玛卡横行，人类从蛮荒时代开始重新发展。你，来自珞珈族部落的“拓荒者”，将在荒野中探索远古遗迹，建造家园，武装自己，培养玛卡，击败各地区BOSS点亮莫笛拉之眼，最终了解世界的真相，拯救即将毁灭的莫笛拉世界。莫笛拉世界由浪漫绚丽的达里曼平原、辽阔的兰瑙沙漠、寂寥的奥尔萨雪山等丰富多样的场景地貌组成。玩家将会探索每个地区，体验不同部落的风貌，并面对不断提升的生存挑战，收集资源制作装备武器，完成BOSS狩猎。</t>
         </is>
       </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
         <is>
           <t>荒野起源</t>
         </is>
       </c>
-      <c r="O152" t="inlineStr">
+      <c r="O156" t="inlineStr">
         <is>
           <t>国新出审〔2024〕399号</t>
         </is>
       </c>
-      <c r="P152" t="inlineStr">
+      <c r="P156" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-13224-6</t>
         </is>
       </c>
-      <c r="Q152" t="inlineStr">
+      <c r="Q156" t="inlineStr">
         <is>
           <t>2024-02-26</t>
         </is>
       </c>
-      <c r="R152" t="inlineStr">
+      <c r="R156" t="inlineStr">
         <is>
           <t>上海电子出版有限公司</t>
         </is>
       </c>
-      <c r="S152" t="inlineStr">
+      <c r="S156" t="inlineStr">
         <is>
           <t>上海游空信息技术有限公司</t>
         </is>
       </c>
-      <c r="T152" t="inlineStr">
+      <c r="T156" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U152" t="inlineStr">
+      <c r="U156" t="inlineStr">
         <is>
           <t>移动、客户端</t>
         </is>
       </c>
-      <c r="V152" t="inlineStr">
+      <c r="V156" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W152" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>暗区突围：无限</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>2024-11-20</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>电脑/主机</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>高画质/射击/动作</t>
         </is>
       </c>
-      <c r="F153" t="n">
+      <c r="F157" t="n">
         <v>8.5</v>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>腾讯</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/732013?os=pc</t>
         </is>
       </c>
-      <c r="K153" t="inlineStr">
+      <c r="K157" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/516ee18b01ac81df77f368c1d30b8b68.jpg/appicon?t=1</t>
         </is>
       </c>
-      <c r="L153" t="inlineStr">
+      <c r="L157" t="inlineStr">
         <is>
           <t>《暗区突围：无限》是魔方工作室自研IP暗区突围的全新端游续作，是一款免费硬核军事模拟撤离式射击游戏。从手游到端游，体验前所未有的画质飞升！《暗区突围：无限》将你带入一个更加细腻、真实的战场；更通过端游的强大性能，带来焕然一新的沉浸式体验。
 为了获得战利品，你必须活着撤离战斗区域，在射击、掠夺和突围中获胜。你可以和敌人正面交锋、藏起来埋伏敌人，或避免交战。在这款身临其境的战争模拟游戏中，高风险等于高回报。
 扣下扳机，躲藏起来，在令人瞠目结舌的逼真视觉效果和音效体验中前进。闯入战斗竞技场获得高价值物品致富……但要做好为生存而战的准备！</t>
         </is>
       </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
         <is>
           <t>暗区突围：无限</t>
         </is>
       </c>
-      <c r="O153" t="inlineStr">
+      <c r="O157" t="inlineStr">
         <is>
           <t>国新出审〔2024〕1446号</t>
         </is>
       </c>
-      <c r="P153" t="inlineStr">
+      <c r="P157" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-13705-0</t>
         </is>
       </c>
-      <c r="Q153" t="inlineStr">
+      <c r="Q157" t="inlineStr">
         <is>
           <t>2024-07-22 00:00:00</t>
         </is>
       </c>
-      <c r="R153" t="inlineStr">
+      <c r="R157" t="inlineStr">
         <is>
           <t>华中科技大学电子音像出版社</t>
         </is>
       </c>
-      <c r="S153" t="inlineStr">
+      <c r="S157" t="inlineStr">
         <is>
           <t>武汉市风泽中孚科技有限公司</t>
         </is>
       </c>
-      <c r="T153" t="inlineStr">
+      <c r="T157" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U153" t="inlineStr">
+      <c r="U157" t="inlineStr">
         <is>
           <t>客户端</t>
         </is>
       </c>
-      <c r="V153" t="inlineStr">
+      <c r="V157" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W153" t="inlineStr">
+      <c r="W157" t="inlineStr">
         <is>
           <t>是</t>
         </is>

--- a/data/all_games_data.xlsx
+++ b/data/all_games_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W157"/>
+  <dimension ref="A1:W158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12316,12 +12316,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>野蛮人大作战2</t>
+          <t>代号 DXX</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -12331,41 +12331,41 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>国内游戏</t>
+          <t>安卓/iOS</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>多人联机/竞技/魔性</t>
+          <t>策略</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>BBQ工作室</t>
+          <t>北京真知新游科技有限公司</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>好游快爆</t>
+          <t>TapTap</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/145523.htm</t>
+          <t>https://www.taptap.cn/app/714666</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20240307/17225456318</t>
+          <t>https://img.tapimg.com/market/images/cd40cf7ece1dcbfe2f9bf008a14efb22.png/appicon?t=1</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>新派轻竞技游戏简介嗨，还记得大胡子巴巴六吗？新派轻竞技游戏《野蛮人大作战2》来啦！逗趣搞怪的野蛮人英雄，魔性奇葩的道具宠物；经典3v3v3乱斗创意新篇章，欢乐竞技全程高能根本停不下来！准备好了吗，化身野蛮人酋长巴巴六，一起在充满欢乐的野蛮世界开启乱斗之旅吧！游戏特色：【3v3v3逗趣大乱炖，笑到打滚停不下手！】三队憨憨在线掰头，魔性互啄欢乐加倍！五分钟一局随时开黑，地壳运动让你满地打滑。随机生成的毒圈，专治各种不服，吃着蘑菇唱着歌，突然就被队友踹进战圈啦！【菇霸の诱惑：要当英雄还是外卖？】全场最靓的巨无霸蘑菇闪亮登场！揍它就能变身金光闪闪大魔王，但小心别胖成球被当成肉包子！偷偷告诉你：组队薅菇羊毛时，记得把队友推到菇霸嘴边当盾牌哦~【技能盲盒大抽奖，每场不一样！】开局随机送超能力大礼包：龙卷风牌吸尘器、霹雳啪啪触电舞、地刺仙人跳陷阱，还有会跑路的急救鸡腿！没有最强的套路，只有最邪的打法！打造专属流派，秀出你的骚操作！【钩锁の千层套路，老六の百万种死法】黄金矿工模拟器启动！勾金菇、抢人头、偷屁股——小心别被钩成海带条，或被蹲尸抢到裤衩都不剩！海上双贼船激情互钩，空中转体三周半完美落海，围观群众纷纷表示"建议申报迷惑行为大赏"！【奇葩装备图鉴，沙雕指数爆表！】左手滋滋冒油的烤肉串，右手会咬人的鲨鱼大宝剑！骑着会喷火的亚龙玩漂移。哦对！还有千万不能捡的魔盒！当战斗BGM突然鬼畜，别怀疑——这是野蛮人的求偶...啊不，胜利之舞！</t>
+          <t>《代号 DXX》是一款有策略性、养成性为核心的竞技手游。以“低门槛、高深度”为设计理念，既适合碎片化娱乐，也能满足硬核策略玩家的竞技需求。当你开启这场热血沸腾的竞技之旅，每一局都是全新的挑战，这里就是你力挫群雄，展现智慧的最佳战场。</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -12375,32 +12375,32 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>野蛮人大作战2</t>
+          <t>战机：代号666</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>国新出审[2021]162号</t>
+          <t>国新出审[2020]2355号</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>ISBN 978-7-498-08700-3</t>
+          <t>ISBN 978-7-498-08289-3</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>2023-01-17</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>杭州电魂网络科技有限公司</t>
+          <t>北京侠客行网络技术有限公司</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>杭州电魂网络科技有限公司</t>
+          <t>北京慕远科技有限公司</t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
@@ -12410,12 +12410,12 @@
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>移动、客户端、游戏机-Switch、PS4、XBOX</t>
+          <t>移动-休闲益智</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="W113" t="inlineStr"/>
@@ -12423,7 +12423,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>冰汽时代：最后的家园</t>
+          <t>野蛮人大作战2</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -12443,15 +12443,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>模拟经营/建造/生存</t>
+          <t>多人联机/竞技/魔性</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>网易游戏</t>
+          <t>BBQ工作室</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -12459,24 +12459,20 @@
           <t>好游快爆</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/124132.htm</t>
+          <t>https://www.3839.com/a/145523.htm</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20250320/14262296490</t>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20240307/17225456318</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>末世城市生存经营手游，幸存者的命运就掌握在你手中简介灾难末世下，你能否带领你的人民拯救地球最后的城市？《冰汽时代：最后的家园》是根据STEAM年度销量前3游戏改编的末世城市生存经营手游。19世纪蒸汽时代，冰霜灾难突袭全球，温度骤降0度以下，人类只剩下最后一座城市依靠能量塔提供热量存活。你作为这座城市的领袖，需要带领人民建设城市抵抗极度严寒。你将会模拟真实的城市社会生存，制定颁布律法、树立信仰、提升满意度，合理管理人民。你还需要在道德与现实之间做出两难抉择，你的每一个决定，都关乎你的城市和人民能否活下来。【游戏特色】-STEAM年度前3游戏改编 蒸汽朋克1884 95%好评2018年度销量TOP3游戏《冰汽时代》正版手游，该作获得BIG最佳游戏等23个奖项。在蒸汽时代和冰霜朋克的世界中，你将会体验到末日生存经营挑战及中世纪科幻浪漫。-末日生存+城市经营 领导人类建设最后之城你的任务是保证城市和人民生存下去。如何解决温饱抵抗-150度严寒，将考验你的生存之道；如何建设城市管理人民，将验证你的经营策略。-人性抉择情感叩问 两难执政决策不同剧情作为城市管理者会遇到很多人性抉择，比如撤离时最后一张船票交给父亲还是老人孩子。游戏里不会提供正确答案，更多是两难抉择带来的思考，以及人性光辉与黑暗沉浸式剧情体验。-实时拟真天气变化 南极冰雪昼夜阴晴交替继承PC主机级画面表现，模拟真实雪景、实时光照表现，昼夜、阴晴、雨雪自然交替，如同身临真实的南极冰雪风光。-社会生存真实模拟 制定律法统筹温饱科技和真实社会一样，管理者需要解决人民的温饱、提供医疗教育提升满意度、制定律法保证社会秩序、开发科学技术提高生产力。你的管理领导能力决定社会发展水平。</t>
+          <t>新派轻竞技游戏简介嗨，还记得大胡子巴巴六吗？新派轻竞技游戏《野蛮人大作战2》来啦！逗趣搞怪的野蛮人英雄，魔性奇葩的道具宠物；经典3v3v3乱斗创意新篇章，欢乐竞技全程高能根本停不下来！准备好了吗，化身野蛮人酋长巴巴六，一起在充满欢乐的野蛮世界开启乱斗之旅吧！游戏特色：【3v3v3逗趣大乱炖，笑到打滚停不下手！】三队憨憨在线掰头，魔性互啄欢乐加倍！五分钟一局随时开黑，地壳运动让你满地打滑。随机生成的毒圈，专治各种不服，吃着蘑菇唱着歌，突然就被队友踹进战圈啦！【菇霸の诱惑：要当英雄还是外卖？】全场最靓的巨无霸蘑菇闪亮登场！揍它就能变身金光闪闪大魔王，但小心别胖成球被当成肉包子！偷偷告诉你：组队薅菇羊毛时，记得把队友推到菇霸嘴边当盾牌哦~【技能盲盒大抽奖，每场不一样！】开局随机送超能力大礼包：龙卷风牌吸尘器、霹雳啪啪触电舞、地刺仙人跳陷阱，还有会跑路的急救鸡腿！没有最强的套路，只有最邪的打法！打造专属流派，秀出你的骚操作！【钩锁の千层套路，老六の百万种死法】黄金矿工模拟器启动！勾金菇、抢人头、偷屁股——小心别被钩成海带条，或被蹲尸抢到裤衩都不剩！海上双贼船激情互钩，空中转体三周半完美落海，围观群众纷纷表示"建议申报迷惑行为大赏"！【奇葩装备图鉴，沙雕指数爆表！】左手滋滋冒油的烤肉串，右手会咬人的鲨鱼大宝剑！骑着会喷火的亚龙玩漂移。哦对！还有千万不能捡的魔盒！当战斗BGM突然鬼畜，别怀疑——这是野蛮人的求偶...啊不，胜利之舞！</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -12486,42 +12482,42 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>冰汽时代：最后的家园</t>
+          <t>野蛮人大作战2</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>国新出审〔2025〕178号</t>
+          <t>国新出审[2021]162号</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>ISBN 978-7-498-14561-1</t>
+          <t>ISBN 978-7-498-08700-3</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2023-01-17</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>广州网易计算机系统有限公司</t>
+          <t>杭州电魂网络科技有限公司</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>杭州网易雷火科技有限公司</t>
+          <t>杭州电魂网络科技有限公司</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>进口网络游戏</t>
+          <t>国产网络游戏</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>移动、客户端、游戏机-Switch、PS4、XBOX</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
@@ -12534,7 +12530,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>荒原曙光</t>
+          <t>冰汽时代：最后的家园</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -12554,36 +12550,40 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>沙盒/建造/动作</t>
+          <t>模拟经营/建造/生存</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>8.699999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>广州灵犀互动娱乐有限公司</t>
+          <t>网易游戏</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>TapTap</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr"/>
+          <t>好游快爆</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>https://www.taptap.cn/app/711932</t>
+          <t>https://www.3839.com/a/124132.htm</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>https://img.16p.com/auto/dc/35/dc353f7603dd068eb907efb0833e37d8.png</t>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20250320/14262296490</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>起初，浮空城在热浪和欢呼声中启航 新伦顿载着仅存的人类远离被污染的大地 蓝天浮岛，每个人对未来都充满希望 可数十年后... 人口膨胀，房屋只能在有限的土地上层层滋长 原本宽敞的街道被填满，变成逼仄、昏暗、潮湿的巷道 污水横流，藏污纳垢 直到那一天，他们说大地的污染已经褪去 重返大地的《伊甸园计划》即将是文明火种延续的曙光 我们重新踏上甲板 肩负重建大地文明的使命 可那里是否又会如我们所愿？......  【冷兵器原始求生】 重返大地，你需要直接面对残酷的大自然。没有高科技的帮助，你必须收集身边的材料，用最原始的手段打造求生工具，尽快摆脱风餐露宿茹毛饮血的窘况。钻木取火，用简易的陷阱捕猎，砍伐木材，给自己搭建一个遮挡风雨的庇护所，在变幻莫测的天气和随时发起袭击的野兽等种种威胁下，要努力活下来。  【刀耕火种，制造一切必要的求生工具】 荒野求生第一步：点燃篝火，解决基本的温饱问题。收集材料，制造趁手的求生工具，晾晒肉干延长储存，搭建炉灶烧制器皿，在住所附近播撒种子，规律收获......而伐木挖矿是一切的基础，但切记安全！当前已发生多起树木倒塌伤人事件！  【世界不仅要好看，真实所见，皆是玩法】 近乎完全黑暗的无光森林，凶兽发光的双眼正在虎视眈眈；风暴常驻的雪山深处，藏有宝藏的冰晶等待被火焰融解；寸步难行的泥潭沼泽，密布有毒的瘴气......放眼宽广的世界，多种地形各有挑战。温度、干湿、野兽威胁甚至海拔、光照都是环境中的致命威胁。  【一场星球级别的文明重建即将开始】 原始世界，每一处都等你来“重塑建造”。物色一处安全怡人的区域，搭建求生的庇护营地，圈养动物，开垦种植。你也并非孤身一人，和同伴一起共建发展，聚集人气，从单营地到小镇，再遍布整个世界。”世界“发展轨迹各不相同，最终呈现完全由你决定。  【世界基建团队招募中】 团结探险家的力量，遇河建桥，遇崖搭梯，筑高台建望远镜，和所有人一起分享”基建“便捷的成果。用文明的建造征服野蛮的自然。</t>
+          <t>末世城市生存经营手游，幸存者的命运就掌握在你手中简介灾难末世下，你能否带领你的人民拯救地球最后的城市？《冰汽时代：最后的家园》是根据STEAM年度销量前3游戏改编的末世城市生存经营手游。19世纪蒸汽时代，冰霜灾难突袭全球，温度骤降0度以下，人类只剩下最后一座城市依靠能量塔提供热量存活。你作为这座城市的领袖，需要带领人民建设城市抵抗极度严寒。你将会模拟真实的城市社会生存，制定颁布律法、树立信仰、提升满意度，合理管理人民。你还需要在道德与现实之间做出两难抉择，你的每一个决定，都关乎你的城市和人民能否活下来。【游戏特色】-STEAM年度前3游戏改编 蒸汽朋克1884 95%好评2018年度销量TOP3游戏《冰汽时代》正版手游，该作获得BIG最佳游戏等23个奖项。在蒸汽时代和冰霜朋克的世界中，你将会体验到末日生存经营挑战及中世纪科幻浪漫。-末日生存+城市经营 领导人类建设最后之城你的任务是保证城市和人民生存下去。如何解决温饱抵抗-150度严寒，将考验你的生存之道；如何建设城市管理人民，将验证你的经营策略。-人性抉择情感叩问 两难执政决策不同剧情作为城市管理者会遇到很多人性抉择，比如撤离时最后一张船票交给父亲还是老人孩子。游戏里不会提供正确答案，更多是两难抉择带来的思考，以及人性光辉与黑暗沉浸式剧情体验。-实时拟真天气变化 南极冰雪昼夜阴晴交替继承PC主机级画面表现，模拟真实雪景、实时光照表现，昼夜、阴晴、雨雪自然交替，如同身临真实的南极冰雪风光。-社会生存真实模拟 制定律法统筹温饱科技和真实社会一样，管理者需要解决人民的温饱、提供医疗教育提升满意度、制定律法保证社会秩序、开发科学技术提高生产力。你的管理领导能力决定社会发展水平。</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -12593,42 +12593,42 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>荒原曙光</t>
+          <t>冰汽时代：最后的家园</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>国新出审〔2024〕1768号</t>
+          <t>国新出审〔2025〕178号</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>ISBN 978-7-498-13857-6</t>
+          <t>ISBN 978-7-498-14561-1</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>广东音像出版社有限公司</t>
+          <t>广州网易计算机系统有限公司</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>广州灵犀互动娱乐有限公司</t>
+          <t>杭州网易雷火科技有限公司</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>国产网络游戏</t>
+          <t>进口网络游戏</t>
         </is>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>移动、客户端</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
@@ -12641,7 +12641,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>梦的第七章</t>
+          <t>荒原曙光</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -12651,25 +12651,25 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>预下载</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>安卓/iOS</t>
+          <t>国内游戏</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>美少女/剧情/养成</t>
+          <t>沙盒/建造/动作</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>天天趣游</t>
+          <t>广州灵犀互动娱乐有限公司</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -12680,15 +12680,122 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
+          <t>https://www.taptap.cn/app/711932</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/auto/dc/35/dc353f7603dd068eb907efb0833e37d8.png</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>起初，浮空城在热浪和欢呼声中启航 新伦顿载着仅存的人类远离被污染的大地 蓝天浮岛，每个人对未来都充满希望 可数十年后... 人口膨胀，房屋只能在有限的土地上层层滋长 原本宽敞的街道被填满，变成逼仄、昏暗、潮湿的巷道 污水横流，藏污纳垢 直到那一天，他们说大地的污染已经褪去 重返大地的《伊甸园计划》即将是文明火种延续的曙光 我们重新踏上甲板 肩负重建大地文明的使命 可那里是否又会如我们所愿？......  【冷兵器原始求生】 重返大地，你需要直接面对残酷的大自然。没有高科技的帮助，你必须收集身边的材料，用最原始的手段打造求生工具，尽快摆脱风餐露宿茹毛饮血的窘况。钻木取火，用简易的陷阱捕猎，砍伐木材，给自己搭建一个遮挡风雨的庇护所，在变幻莫测的天气和随时发起袭击的野兽等种种威胁下，要努力活下来。  【刀耕火种，制造一切必要的求生工具】 荒野求生第一步：点燃篝火，解决基本的温饱问题。收集材料，制造趁手的求生工具，晾晒肉干延长储存，搭建炉灶烧制器皿，在住所附近播撒种子，规律收获......而伐木挖矿是一切的基础，但切记安全！当前已发生多起树木倒塌伤人事件！  【世界不仅要好看，真实所见，皆是玩法】 近乎完全黑暗的无光森林，凶兽发光的双眼正在虎视眈眈；风暴常驻的雪山深处，藏有宝藏的冰晶等待被火焰融解；寸步难行的泥潭沼泽，密布有毒的瘴气......放眼宽广的世界，多种地形各有挑战。温度、干湿、野兽威胁甚至海拔、光照都是环境中的致命威胁。  【一场星球级别的文明重建即将开始】 原始世界，每一处都等你来“重塑建造”。物色一处安全怡人的区域，搭建求生的庇护营地，圈养动物，开垦种植。你也并非孤身一人，和同伴一起共建发展，聚集人气，从单营地到小镇，再遍布整个世界。”世界“发展轨迹各不相同，最终呈现完全由你决定。  【世界基建团队招募中】 团结探险家的力量，遇河建桥，遇崖搭梯，筑高台建望远镜，和所有人一起分享”基建“便捷的成果。用文明的建造征服野蛮的自然。</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>荒原曙光</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>国新出审〔2024〕1768号</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-13857-6</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>广东音像出版社有限公司</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>广州灵犀互动娱乐有限公司</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>移动、客户端</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>梦的第七章</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>预下载</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>安卓/iOS</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>美少女/剧情/养成</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>天天趣游</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
           <t>https://www.taptap.cn/app/722550</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/60c3f95089c9c3cd14948883af311c36.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="L117" t="inlineStr">
         <is>
           <t>《梦的第七章》是一款半即时回合制二次元卡牌手游，百余位个性鲜明的「链接者」即将与你展开邂逅。玩家将扮演维纳斯陷阱的队长，集结各种链接了历史名人的伙伴，共同对抗梦魇，守护梦境世界。
 看似和平安宁的现代世界，暗藏着自人类文明诞生之初便存在的黑暗力量。
@@ -12705,146 +12812,39 @@
 各位队长们，一起握紧武器，谱写梦的第七章。</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
         <is>
           <t>梦的第七章</t>
         </is>
       </c>
-      <c r="O116" t="inlineStr">
+      <c r="O117" t="inlineStr">
         <is>
           <t>国新出审〔2023〕2000号</t>
         </is>
       </c>
-      <c r="P116" t="inlineStr">
+      <c r="P117" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-12782-2</t>
         </is>
       </c>
-      <c r="Q116" t="inlineStr">
+      <c r="Q117" t="inlineStr">
         <is>
           <t>2023-11-30</t>
         </is>
       </c>
-      <c r="R116" t="inlineStr">
+      <c r="R117" t="inlineStr">
         <is>
           <t>上海商国网络科技发展有限公司</t>
         </is>
       </c>
-      <c r="S116" t="inlineStr">
+      <c r="S117" t="inlineStr">
         <is>
           <t>上海昙时网络科技有限公司</t>
-        </is>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U116" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="V116" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>八荒旅途</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>国内游戏</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>策略/放置/卡牌</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>一二四工作室</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>好游快爆</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>https://www.3839.com/a/175129.htm</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20250408/09112829532</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>山海神话x三消RPG手游简介《八荒旅途》是一款讲述华夏山海神话的三消RPG【即时战斗×三消】创新战斗体验【山海异兽×神话】遨游八荒世界❀在这里，你将体验到【即时战斗×三消】的超有趣游戏玩法！在某个机缘巧合下，工作室的大家互相得知原来所有人都有玩CQ，还都是忠实粉（踩着梯子玩），于是一拍即合——决定根据自己的理解和记忆，来做出一款属于我们自己的CQ，也当做是我们对这个“老朋友”的一种致敬和留恋。当然啦，《八荒旅途》中的战斗玩法也有许多独属于自己的创新，希望我们的“国风CQ”能给大家带来新鲜有趣的游戏体验！❀在这里你将亲历东方古籍中记录的【山海神话世界】。中华上下五千年，留下了太多宝贵的文化财富：《山海经》、《淮南子》、《拾遗记》、《梦溪笔谈》、《白泽图》、《搜神记》......这是属于我们中国特有的浪漫幻想，我们也会不遗余力的以这些神话传说为蓝本，让英雄与BOSS都有迹可循，结合二创的故事代入到游戏中，大家在体验游戏的过程中可以同时了解神话英雄、山海异兽的出处来历，这简直，泰裤辣~在美术和特效上，制作同学精心创作的略带装饰性风格插画，和炫酷华丽的大招动画，结合了神话传说与自身想象，为你释放出记忆中那震撼天地的画面！❀游戏的策略性体现在【闯关战斗时的排兵布阵】上。游戏里的英雄都各有定位和用法，在卡关时，或许换一换阵容、上阵不同的英雄、装配不同的古宝、甚至是手动操作消块，需要有一些手法或组合就能更轻松通关哦~哦豁，一没忍住又说了这么多，诶诶~~先别走先别走~~最后还有个请求，如果大家对于《八荒旅途》的体验有啥意见建议可以直接加入官方Q群！我们非常希望能听到玩家们真实的心声，坚信只有听到最真切的意见才能与大家一同做出更好的游戏！衷心希望能与你，在广阔无垠、异象万千的八荒世界相遇~</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>八荒旅途</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>国新出审〔2024〕157号</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-13028-0</t>
-        </is>
-      </c>
-      <c r="Q117" t="inlineStr">
-        <is>
-          <t>2024-01-25</t>
-        </is>
-      </c>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>杭州渡口网络科技有限公司</t>
-        </is>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>厦门任势网络科技有限公司</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
@@ -12867,7 +12867,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>功夫英雄</t>
+          <t>八荒旅途</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -12887,15 +12887,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>卡牌/闯关/放置</t>
+          <t>策略/放置/卡牌</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>三狸网络</t>
+          <t>一二四工作室</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -12906,17 +12906,17 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/179459.htm</t>
+          <t>https://www.3839.com/a/175129.htm</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20250121/13345746296</t>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20250408/09112829532</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>《功夫英雄》是一款水墨风格的卡牌游戏简介《功夫英雄》是一款水墨风格的卡牌游戏，突破了传统的框架，游戏中拥有丰富的支线章节，玩家的每一个决策都会对游戏的故事发展产生深远影响，真正实现了高度互动的剧情体验。【百变搭配 策略无限】里面的英雄分为妖、人、兽、仙、魔每个种族都有各自的特殊属性和特殊技能，合理的搭配不同的英雄，在应对敌方不同阵容的时候，能够发挥出更多的优势。【轻松挂机 养肝护肝】为了减轻玩家的肝度，玩家每日只需上线点击一下，即可收获游戏中所需的大部分资源收益。不仅如此，游戏还有多档的倍速自动战斗，彻底解放玩家的双手。真正做到随玩随停，自由地体验游戏乐趣。【多样组合 轻松操作】多种英雄技能任意选择！群伤、爆伤、闪避等等，为每一位玩家提供更多操作空间。看准时机，微操大招，战斗即可反败为胜。同时融入挂机玩法，放心离线，轻松收益。【丰富玩法 多种体验】在我们规划的内容中，根据剧情的需要加入了许多游戏内容，有可以休闲的合成游戏，也有紧张刺激的PVP、PVE模式，还有超多的冒险玩法可以选择。</t>
+          <t>山海神话x三消RPG手游简介《八荒旅途》是一款讲述华夏山海神话的三消RPG【即时战斗×三消】创新战斗体验【山海异兽×神话】遨游八荒世界❀在这里，你将体验到【即时战斗×三消】的超有趣游戏玩法！在某个机缘巧合下，工作室的大家互相得知原来所有人都有玩CQ，还都是忠实粉（踩着梯子玩），于是一拍即合——决定根据自己的理解和记忆，来做出一款属于我们自己的CQ，也当做是我们对这个“老朋友”的一种致敬和留恋。当然啦，《八荒旅途》中的战斗玩法也有许多独属于自己的创新，希望我们的“国风CQ”能给大家带来新鲜有趣的游戏体验！❀在这里你将亲历东方古籍中记录的【山海神话世界】。中华上下五千年，留下了太多宝贵的文化财富：《山海经》、《淮南子》、《拾遗记》、《梦溪笔谈》、《白泽图》、《搜神记》......这是属于我们中国特有的浪漫幻想，我们也会不遗余力的以这些神话传说为蓝本，让英雄与BOSS都有迹可循，结合二创的故事代入到游戏中，大家在体验游戏的过程中可以同时了解神话英雄、山海异兽的出处来历，这简直，泰裤辣~在美术和特效上，制作同学精心创作的略带装饰性风格插画，和炫酷华丽的大招动画，结合了神话传说与自身想象，为你释放出记忆中那震撼天地的画面！❀游戏的策略性体现在【闯关战斗时的排兵布阵】上。游戏里的英雄都各有定位和用法，在卡关时，或许换一换阵容、上阵不同的英雄、装配不同的古宝、甚至是手动操作消块，需要有一些手法或组合就能更轻松通关哦~哦豁，一没忍住又说了这么多，诶诶~~先别走先别走~~最后还有个请求，如果大家对于《八荒旅途》的体验有啥意见建议可以直接加入官方Q群！我们非常希望能听到玩家们真实的心声，坚信只有听到最真切的意见才能与大家一同做出更好的游戏！衷心希望能与你，在广阔无垠、异象万千的八荒世界相遇~</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -12926,28 +12926,32 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>功夫英雄</t>
+          <t>八荒旅途</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>科技与数字[2011]355号</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr"/>
+          <t>国新出审〔2024〕157号</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-13028-0</t>
+        </is>
+      </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>2011-09-05</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>上海大承网络技术有限公司</t>
+          <t>杭州渡口网络科技有限公司</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>上海大承网络技术有限公司</t>
+          <t>厦门任势网络科技有限公司</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
@@ -12957,7 +12961,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>原</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
@@ -12970,7 +12974,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>镭明闪击</t>
+          <t>功夫英雄</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -12990,15 +12994,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>塔防/即时策略/科幻</t>
+          <t>卡牌/闯关/放置</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>朝夕光年</t>
+          <t>三狸网络</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -13009,17 +13013,17 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/162341.htm</t>
+          <t>https://www.3839.com/a/179459.htm</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20250403/16313469560</t>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20250121/13345746296</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>3D写实即时原创塔攻策略游戏简介《镭明闪击》是一款3D原创即时战术游戏。游戏采用PBR次时代技术，精细刻画3D写实美型建模，进行高品质环境渲染，角色呼吸尽在咫尺间。从枪战射击的武器、战术特征出发，游戏设计了全新的原创即时战术策略核心玩法，打造策略致胜的快节奏战斗体验。2053年，天外异客降临，人类劫难伊始。身为抵抗军先锋，你夺取外星技术的火种，带领军队艰难地击退入侵者，却在胜利日不知所踪。直至三十年后的今天，再度苏醒。如今，世界格局重组，ARES军工、战线公司、旧地联合三足鼎立，和平之城「新诺亚」暗流涌动。而来自外星的威胁并未消除，蛰伏者仍在迷雾中窥探……异军突起，颠覆格局，危机乱世需要你的拯救！绝地反抗，战为自由，用灵动的策略冲破枷锁！故地重游，找寻记忆，沉浸体验一场科幻冒险！全员就位，再次出击，你就是延续希望的火种！</t>
+          <t>《功夫英雄》是一款水墨风格的卡牌游戏简介《功夫英雄》是一款水墨风格的卡牌游戏，突破了传统的框架，游戏中拥有丰富的支线章节，玩家的每一个决策都会对游戏的故事发展产生深远影响，真正实现了高度互动的剧情体验。【百变搭配 策略无限】里面的英雄分为妖、人、兽、仙、魔每个种族都有各自的特殊属性和特殊技能，合理的搭配不同的英雄，在应对敌方不同阵容的时候，能够发挥出更多的优势。【轻松挂机 养肝护肝】为了减轻玩家的肝度，玩家每日只需上线点击一下，即可收获游戏中所需的大部分资源收益。不仅如此，游戏还有多档的倍速自动战斗，彻底解放玩家的双手。真正做到随玩随停，自由地体验游戏乐趣。【多样组合 轻松操作】多种英雄技能任意选择！群伤、爆伤、闪避等等，为每一位玩家提供更多操作空间。看准时机，微操大招，战斗即可反败为胜。同时融入挂机玩法，放心离线，轻松收益。【丰富玩法 多种体验】在我们规划的内容中，根据剧情的需要加入了许多游戏内容，有可以休闲的合成游戏，也有紧张刺激的PVP、PVE模式，还有超多的冒险玩法可以选择。</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -13029,32 +13033,28 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>镭明闪击</t>
+          <t>功夫英雄</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>国新出审〔2024〕1485号</t>
-        </is>
-      </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-13744-9</t>
-        </is>
-      </c>
+          <t>科技与数字[2011]355号</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2011-09-05</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>安徽新华电子音像出版社</t>
+          <t>上海大承网络技术有限公司</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>杭州心光流美网络科技有限公司</t>
+          <t>上海大承网络技术有限公司</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>移动、客户端</t>
+          <t>原</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
@@ -13077,7 +13077,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>三千幻世</t>
+          <t>镭明闪击</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -13087,7 +13087,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>上线</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -13097,15 +13097,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>国漫/像素/角色扮演</t>
+          <t>塔防/即时策略/科幻</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>中手游</t>
+          <t>朝夕光年</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -13116,17 +13116,17 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/174506.htm</t>
+          <t>https://www.3839.com/a/162341.htm</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20250304/14464975063</t>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20250403/16313469560</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>重逢经典国漫英雄，探寻神秘三千幻世简介腾讯动漫正版授权，跨越国漫“黄金十年”，汇聚十余部顶尖IP，打造独一无二的像素化国漫合集。这里有你倾慕的国漫英雄，有你熟悉的经典剧情，有你痴迷的绝学奥义，有你向往的幻世繁花……你将化身“复序者“自由前往不同的国漫小世界，改变拯救正在发生的一切，你的“一举一动”都在影响着“三千幻世”的运转。[开启无限试炼，探寻幻世三千]跨越国漫“黄金十年”，汇集十余部顶尖IP，化身“复序者”的你将一次又一次前往像素国漫世界，拨乱反正，重塑秩序……每一次试炼都将是一场未知的冒险！你将探寻埋藏于国漫小世界里的秘密，在对立与携手之间开启一段又一段邂逅。以信仰做出选择，用战斗书写答案，迈向三千幻世的终局之战！[告别肝氪噩梦，回归快乐本质]轻松休闲的“搞笑日常”和“降肝减氪”是我们的初衷，丰富的休闲向的“轻玩法”同样产出核心奖励。你可以按照自己喜欢的方式探索三千幻世。内置挂机功能，即使下线也能持续为你收集养成资源。[国漫旅程新章，剧情由你来选]你的到来，使扰动中世界线再次受到影响，这一次的故事将由你推动。既有忠于原著的剧情，又有意难平的新机缘，隐藏在像素幻世中的千丝万缕，都可以通过你的选择变成影响世界线走向的契机。[沉浸式策略RPG，海量休闲玩法]游戏内容量大管饱、奇趣精妙。除了轻松诙谐与充满惊喜的试炼与冒险，还有层次丰满的对战竞技体系，你可以自由配置，灵活变阵，以小博大，以弱胜强。除此之外，更有经典红白机玩法，供你寻找不断更迭的乐趣。期待与你在像素化的国漫世界中重逢，携手共赴下一个“黄金十年”。这一次的邂逅，不止宿命相逢。</t>
+          <t>3D写实即时原创塔攻策略游戏简介《镭明闪击》是一款3D原创即时战术游戏。游戏采用PBR次时代技术，精细刻画3D写实美型建模，进行高品质环境渲染，角色呼吸尽在咫尺间。从枪战射击的武器、战术特征出发，游戏设计了全新的原创即时战术策略核心玩法，打造策略致胜的快节奏战斗体验。2053年，天外异客降临，人类劫难伊始。身为抵抗军先锋，你夺取外星技术的火种，带领军队艰难地击退入侵者，却在胜利日不知所踪。直至三十年后的今天，再度苏醒。如今，世界格局重组，ARES军工、战线公司、旧地联合三足鼎立，和平之城「新诺亚」暗流涌动。而来自外星的威胁并未消除，蛰伏者仍在迷雾中窥探……异军突起，颠覆格局，危机乱世需要你的拯救！绝地反抗，战为自由，用灵动的策略冲破枷锁！故地重游，找寻记忆，沉浸体验一场科幻冒险！全员就位，再次出击，你就是延续希望的火种！</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -13136,32 +13136,32 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>三千幻世</t>
+          <t>镭明闪击</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>国新出审〔2025〕127号</t>
+          <t>国新出审〔2024〕1485号</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>ISBN 978-7-498-14510-9</t>
+          <t>ISBN 978-7-498-13744-9</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>成都盈众九州网络科技有限公司</t>
+          <t>安徽新华电子音像出版社</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>深圳市中手游网络科技有限公司</t>
+          <t>杭州心光流美网络科技有限公司</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
@@ -13171,7 +13171,7 @@
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>移动、客户端</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
@@ -13184,7 +13184,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>盗墓笔记：启程</t>
+          <t>三千幻世</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -13194,7 +13194,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>测试</t>
+          <t>上线</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -13204,15 +13204,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>解谜/角色扮演/悬疑</t>
+          <t>国漫/像素/角色扮演</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>上饶盛罗</t>
+          <t>中手游</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -13223,17 +13223,17 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/172827.htm</t>
+          <t>https://www.3839.com/a/174506.htm</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20240924/19030540845</t>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20250304/14464975063</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>南派三叔正版授权真寻宝盗墓探险游戏简介破雾测试定档4月10日！招募时间3月7日至4月3日，填写招募问卷，抢限量测试资格。《盗墓笔记：启程》是由南派三叔正版授权的真寻宝盗墓探险游戏，“铁三角”齐聚，探索黑暗的地下世界，解开重重谜题，寻找破局之路。在黑暗庞大的地下世界中，机关陷阱随处可见，胆识与经验是生存之道；寻龙探宝，开棺摸金，线索正藏在笔记的字里行间；血尸出没，异兽横行，伙伴间的信任方能开辟前行的道路！&lt; 探地底世界 解世代谜团 &gt;一份意外发现的家族雇佣协议与神秘手札，一次新月饭店的奇特遭遇，围绕家族的谜团接踵而来，“你”从此变成入局者，故事也将从这里启程。前往鲁王宫、西王母宫等地开启一段段惊心动魄的冒险，直面青眼狐尸、尸蟞王等可怖怪物的突袭与挑战。更多烧脑有趣的解密、紧张刺激的机关、稀奇古怪的收集元素，等待你的探索与挑战。探险途中也将掉落各类古玩，有些将成为你接下来战局的制胜关键，有些将成为你后续每场战斗的得力法宝。所有古玩都将收录在图鉴中，随时随地打开图鉴即可欣赏更多细节。&lt; 铁三角登场 齐心寻出路 &gt;招募各路人马夹喇嘛，吴邪、王胖子、张起灵等熟悉的人物悉数登场，组建你心目中的最佳启程团队。不同人物拥有独特的天赋与技能特点，因此需要根据不同古墓特性，挑选不同人物组成最合适的阵容下斗。即时策略的战斗方式，更需要你谨慎思考战局中的每一个举动。根据战况的发展，及时使用人物技能与道具搭配，才能出奇制胜，化解危机。在探险之余的日常中，可以利用手机系统来联络各个角色，通过聊天/帮忙/互赠礼物等，增加人物好感度，触发神秘任务，了解更多不为人知的故事。&lt; 交易任自由 千金点天灯 &gt;从探险中掉落的各类装备、材料、古玩当然不能白白进仓库吃灰，交给寄售行吧！在寄售行中，你可以与其他玩家进行日常交易，享受讨价还价的乐趣！如果想要更高级的“尖货”，新月饭店的大门也为你敞开，这里有更高级的古玩拍卖活动，点天灯，一掷千金，只为你心目中的最佳拍品。冒险即将启程，一起探访终极之路，携手再破天机！</t>
+          <t>重逢经典国漫英雄，探寻神秘三千幻世简介腾讯动漫正版授权，跨越国漫“黄金十年”，汇聚十余部顶尖IP，打造独一无二的像素化国漫合集。这里有你倾慕的国漫英雄，有你熟悉的经典剧情，有你痴迷的绝学奥义，有你向往的幻世繁花……你将化身“复序者“自由前往不同的国漫小世界，改变拯救正在发生的一切，你的“一举一动”都在影响着“三千幻世”的运转。[开启无限试炼，探寻幻世三千]跨越国漫“黄金十年”，汇集十余部顶尖IP，化身“复序者”的你将一次又一次前往像素国漫世界，拨乱反正，重塑秩序……每一次试炼都将是一场未知的冒险！你将探寻埋藏于国漫小世界里的秘密，在对立与携手之间开启一段又一段邂逅。以信仰做出选择，用战斗书写答案，迈向三千幻世的终局之战！[告别肝氪噩梦，回归快乐本质]轻松休闲的“搞笑日常”和“降肝减氪”是我们的初衷，丰富的休闲向的“轻玩法”同样产出核心奖励。你可以按照自己喜欢的方式探索三千幻世。内置挂机功能，即使下线也能持续为你收集养成资源。[国漫旅程新章，剧情由你来选]你的到来，使扰动中世界线再次受到影响，这一次的故事将由你推动。既有忠于原著的剧情，又有意难平的新机缘，隐藏在像素幻世中的千丝万缕，都可以通过你的选择变成影响世界线走向的契机。[沉浸式策略RPG，海量休闲玩法]游戏内容量大管饱、奇趣精妙。除了轻松诙谐与充满惊喜的试炼与冒险，还有层次丰满的对战竞技体系，你可以自由配置，灵活变阵，以小博大，以弱胜强。除此之外，更有经典红白机玩法，供你寻找不断更迭的乐趣。期待与你在像素化的国漫世界中重逢，携手共赴下一个“黄金十年”。这一次的邂逅，不止宿命相逢。</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -13243,32 +13243,32 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>盗墓笔记：启程</t>
+          <t>三千幻世</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>国新出审〔2024〕811号</t>
+          <t>国新出审〔2025〕127号</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>ISBN 978-7-498-13409-7</t>
+          <t>ISBN 978-7-498-14510-9</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>上海恺英网络科技有限公司</t>
+          <t>成都盈众九州网络科技有限公司</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>上海悦腾网络科技有限公司</t>
+          <t>深圳市中手游网络科技有限公司</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
@@ -13291,7 +13291,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>代号：奇与骑士</t>
+          <t>盗墓笔记：启程</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -13311,15 +13311,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>消除/休闲/益智</t>
+          <t>解谜/角色扮演/悬疑</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>易远航游戏</t>
+          <t>上饶盛罗</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -13330,17 +13330,17 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/180110.htm</t>
+          <t>https://www.3839.com/a/172827.htm</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20250219/10052745922</t>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20240924/19030540845</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>创新三消玩法，妙趣横生！简介游戏特色：◎创新三消玩法，带给你不一样的三消体验◎卡通风格，带给你轻松愉悦的游戏环境◎多元化卡牌组合，更多奇思妙想等你开启◎多样玩法组合，关卡多多，乐趣多多◎轻度体验，随时随地轻松玩一局◎轻度社交内容: PVP or PVE，it’s up to you.更多有趣玩法，等你探索！</t>
+          <t>南派三叔正版授权真寻宝盗墓探险游戏简介破雾测试定档4月10日！招募时间3月7日至4月3日，填写招募问卷，抢限量测试资格。《盗墓笔记：启程》是由南派三叔正版授权的真寻宝盗墓探险游戏，“铁三角”齐聚，探索黑暗的地下世界，解开重重谜题，寻找破局之路。在黑暗庞大的地下世界中，机关陷阱随处可见，胆识与经验是生存之道；寻龙探宝，开棺摸金，线索正藏在笔记的字里行间；血尸出没，异兽横行，伙伴间的信任方能开辟前行的道路！&lt; 探地底世界 解世代谜团 &gt;一份意外发现的家族雇佣协议与神秘手札，一次新月饭店的奇特遭遇，围绕家族的谜团接踵而来，“你”从此变成入局者，故事也将从这里启程。前往鲁王宫、西王母宫等地开启一段段惊心动魄的冒险，直面青眼狐尸、尸蟞王等可怖怪物的突袭与挑战。更多烧脑有趣的解密、紧张刺激的机关、稀奇古怪的收集元素，等待你的探索与挑战。探险途中也将掉落各类古玩，有些将成为你接下来战局的制胜关键，有些将成为你后续每场战斗的得力法宝。所有古玩都将收录在图鉴中，随时随地打开图鉴即可欣赏更多细节。&lt; 铁三角登场 齐心寻出路 &gt;招募各路人马夹喇嘛，吴邪、王胖子、张起灵等熟悉的人物悉数登场，组建你心目中的最佳启程团队。不同人物拥有独特的天赋与技能特点，因此需要根据不同古墓特性，挑选不同人物组成最合适的阵容下斗。即时策略的战斗方式，更需要你谨慎思考战局中的每一个举动。根据战况的发展，及时使用人物技能与道具搭配，才能出奇制胜，化解危机。在探险之余的日常中，可以利用手机系统来联络各个角色，通过聊天/帮忙/互赠礼物等，增加人物好感度，触发神秘任务，了解更多不为人知的故事。&lt; 交易任自由 千金点天灯 &gt;从探险中掉落的各类装备、材料、古玩当然不能白白进仓库吃灰，交给寄售行吧！在寄售行中，你可以与其他玩家进行日常交易，享受讨价还价的乐趣！如果想要更高级的“尖货”，新月饭店的大门也为你敞开，这里有更高级的古玩拍卖活动，点天灯，一掷千金，只为你心目中的最佳拍品。冒险即将启程，一起探访终极之路，携手再破天机！</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -13348,21 +13348,57 @@
           <t>是</t>
         </is>
       </c>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>盗墓笔记：启程</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>国新出审〔2024〕811号</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-13409-7</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>上海恺英网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>上海悦腾网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="W122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>奇妙列车</t>
+          <t>代号：奇与骑士</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -13372,17 +13408,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>可预约</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>安卓/iOS</t>
+          <t>国内游戏</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>模拟</t>
+          <t>消除/休闲/益智</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -13390,26 +13426,97 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>两英里科技</t>
+          <t>易远航游戏</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>TapTap</t>
+          <t>好游快爆</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
+          <t>https://www.3839.com/a/180110.htm</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20250219/10052745922</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>创新三消玩法，妙趣横生！简介游戏特色：◎创新三消玩法，带给你不一样的三消体验◎卡通风格，带给你轻松愉悦的游戏环境◎多元化卡牌组合，更多奇思妙想等你开启◎多样玩法组合，关卡多多，乐趣多多◎轻度体验，随时随地轻松玩一局◎轻度社交内容: PVP or PVE，it’s up to you.更多有趣玩法，等你探索！</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>奇妙列车</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>可预约</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>安卓/iOS</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>模拟</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>两英里科技</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
           <t>https://www.taptap.cn/app/233415</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/b74930d2edca76ad47c03f8aecd4f052.jpg/appicon?t=1</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr">
+      <c r="L124" t="inlineStr">
         <is>
           <t>这是一款带你漫游宇宙的游戏。
 我曾想，旅行的意义是什么呢？
@@ -13431,109 +13538,109 @@
 我想，这才是旅行的意义。</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
         <is>
           <t>奇妙列车</t>
         </is>
       </c>
-      <c r="O123" t="inlineStr">
+      <c r="O124" t="inlineStr">
         <is>
           <t>国新出审〔2024〕852号</t>
         </is>
       </c>
-      <c r="P123" t="inlineStr">
+      <c r="P124" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-13450-9</t>
         </is>
       </c>
-      <c r="Q123" t="inlineStr">
+      <c r="Q124" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="R123" t="inlineStr">
+      <c r="R124" t="inlineStr">
         <is>
           <t>方圆电子音像出版社有限责任公司</t>
         </is>
       </c>
-      <c r="S123" t="inlineStr">
+      <c r="S124" t="inlineStr">
         <is>
           <t>两英里科技成都有限公司</t>
         </is>
       </c>
-      <c r="T123" t="inlineStr">
+      <c r="T124" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U123" t="inlineStr">
+      <c r="U124" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V123" t="inlineStr">
+      <c r="V124" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W123" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>欢乐桌球</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>2025-04-10</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>可预约</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>体育</t>
         </is>
       </c>
-      <c r="F124" t="n">
+      <c r="F125" t="n">
         <v>0</v>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>成都嘉谊互娱科技有限公司</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr">
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/744927</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/959ad905ddf550d4617ff95d439e1411.jpg/appicon?t=1</t>
         </is>
       </c>
-      <c r="L124" t="inlineStr">
+      <c r="L125" t="inlineStr">
         <is>
           <t>欢乐桌球是一款超好玩的休闲竞技台球游戏，不仅百分百还原了经典8球玩法，更有直播、俱乐部联赛、
 实时聊天等强大的社交功能。磨炼你的技巧，尽情展示你的魅力，让你在游戏中体验不同于其他8球游戏
@@ -13543,133 +13650,62 @@
 完美球桌，精美球杆—逼真的台球物理模型，不同材质的3D球桌以及个性化球杆，给你身临其境的击球体验。</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
         <is>
           <t>欢乐桌球</t>
         </is>
       </c>
-      <c r="O124" t="inlineStr">
+      <c r="O125" t="inlineStr">
         <is>
           <t>国新出审[2020]67号</t>
         </is>
       </c>
-      <c r="P124" t="inlineStr">
+      <c r="P125" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-07211-5</t>
         </is>
       </c>
-      <c r="Q124" t="inlineStr">
+      <c r="Q125" t="inlineStr">
         <is>
           <t>2020-01-10</t>
         </is>
       </c>
-      <c r="R124" t="inlineStr">
+      <c r="R125" t="inlineStr">
         <is>
           <t>四川数字出版传媒有限公司</t>
         </is>
       </c>
-      <c r="S124" t="inlineStr">
+      <c r="S125" t="inlineStr">
         <is>
           <t>成都嘉谊互娱科技有限公司</t>
         </is>
       </c>
-      <c r="T124" t="inlineStr">
+      <c r="T125" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U124" t="inlineStr">
+      <c r="U125" t="inlineStr">
         <is>
           <t>移动—休闲益智</t>
         </is>
       </c>
-      <c r="V124" t="inlineStr">
+      <c r="V125" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>萌鸭</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>可预约</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>安卓/iOS</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>角色扮演</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>时空奇境工作室</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>TapTap</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>https://www.taptap.cn/app/747832</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>https://img.tapimg.com/market/images/0b4c5a55a853c6d131a365e3f626ebe2.png/appicon?t=1</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>“准备好迎接一场轻松愉快的射击冒险了吗？在《萌鸭》这款游戏中，你的目标是找到并射击100只可爱的玩具鸭！游戏玩法简单易上手，画风可爱，适合任何年龄段的玩家。无论是想要放松心情，还是挑战自己的射击技巧，这款游戏都能带给你无尽的乐趣。快来加入这场羽毛飞舞的射击盛宴，看看你能否成为最强的‘鸭子猎人’！” 游戏还有彩蛋哦!</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
       <c r="W125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>女神异闻录：夜幕魅影</t>
+          <t>萌鸭</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -13679,25 +13715,25 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>更新</t>
+          <t>可预约</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>安卓/iOS/PC端</t>
+          <t>安卓/iOS</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>角色扮演/二次元/策略</t>
+          <t>角色扮演</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>完美世界游戏</t>
+          <t>时空奇境工作室</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -13708,18 +13744,17 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>https://www.taptap.cn/app/305435</t>
+          <t>https://www.taptap.cn/app/747832</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>https://img.tapimg.com/market/images/e9e892778ef67768fd9cd75e0a520a57.png/appicon?t=1</t>
+          <t>https://img.tapimg.com/market/images/0b4c5a55a853c6d131a365e3f626ebe2.png/appicon?t=1</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>周年庆版本「假面役者的忧郁」4月10日开启！全新成员「池波星辉」加入怪盗团，五星解明限定偶像「长尾爱歌」登场！这是即将公开的新曲，请听！
-《女神异闻录：夜幕魅影》（简称：P5X）是获得了SEGA正版IP授权，由ATLUS全面监修深度参与，完美世界游戏打造的异世界都市冒险JRPG。白天感受潮酷都市生活与青春恋爱日常，放学后化身华丽怪盗潜入宫殿夺宝，体验双面人生！</t>
+          <t>“准备好迎接一场轻松愉快的射击冒险了吗？在《萌鸭》这款游戏中，你的目标是找到并射击100只可爱的玩具鸭！游戏玩法简单易上手，画风可爱，适合任何年龄段的玩家。无论是想要放松心情，还是挑战自己的射击技巧，这款游戏都能带给你无尽的乐趣。快来加入这场羽毛飞舞的射击盛宴，看看你能否成为最强的‘鸭子猎人’！” 游戏还有彩蛋哦!</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -13727,57 +13762,21 @@
           <t>是</t>
         </is>
       </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>女神异闻录：夜幕魅影</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>国新出审[2023]1415号</t>
-        </is>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-12586-6</t>
-        </is>
-      </c>
-      <c r="Q126" t="inlineStr">
-        <is>
-          <t>2024-01-25</t>
-        </is>
-      </c>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>合肥完美世界网络技术有限公司</t>
-        </is>
-      </c>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>合肥完美世界网络技术有限公司</t>
-        </is>
-      </c>
-      <c r="T126" t="inlineStr">
-        <is>
-          <t>进口网络游戏</t>
-        </is>
-      </c>
-      <c r="U126" t="inlineStr">
-        <is>
-          <t>移动、客户端</t>
-        </is>
-      </c>
-      <c r="V126" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
       <c r="W126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>代号：足球重启</t>
+          <t>女神异闻录：夜幕魅影</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -13787,46 +13786,47 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>测试</t>
+          <t>更新</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>国内游戏</t>
+          <t>安卓/iOS/PC端</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>竞技/体育/策略</t>
+          <t>角色扮演/二次元/策略</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>北京拱顶石科技有限公司</t>
+          <t>完美世界游戏</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>好游快爆</t>
+          <t>TapTap</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/170657.htm</t>
+          <t>https://www.taptap.cn/app/305435</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20240618/20245998001</t>
+          <t>https://img.tapimg.com/market/images/e9e892778ef67768fd9cd75e0a520a57.png/appicon?t=1</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>开启你的足球经理之旅简介《足球重启》不仅是一款足球经理游戏，它是一次智慧与策略的较量，是对足球热爱与梦想的追求。在这里，您将体验到从零开始，逐步成长为足球世界的传奇的无尽魅力。立即加入，开启您的足球经理之旅吧！</t>
+          <t>周年庆版本「假面役者的忧郁」4月10日开启！全新成员「池波星辉」加入怪盗团，五星解明限定偶像「长尾爱歌」登场！这是即将公开的新曲，请听！
+《女神异闻录：夜幕魅影》（简称：P5X）是获得了SEGA正版IP授权，由ATLUS全面监修深度参与，完美世界游戏打造的异世界都市冒险JRPG。白天感受潮酷都市生活与青春恋爱日常，放学后化身华丽怪盗潜入宫殿夺宝，体验双面人生！</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -13834,21 +13834,57 @@
           <t>是</t>
         </is>
       </c>
-      <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>女神异闻录：夜幕魅影</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>国新出审[2023]1415号</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-12586-6</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>合肥完美世界网络技术有限公司</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>合肥完美世界网络技术有限公司</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>进口网络游戏</t>
+        </is>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>移动、客户端</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="W127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>不良人：破局</t>
+          <t>代号：足球重启</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -13858,7 +13894,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>删档内测</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -13868,15 +13904,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>养成/策略/卡牌</t>
+          <t>竞技/体育/策略</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>幻游网络</t>
+          <t>北京拱顶石科技有限公司</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -13887,17 +13923,17 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/179281.htm</t>
+          <t>https://www.3839.com/a/170657.htm</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20250116/16501491507</t>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20240618/20245998001</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>第七季正版授权，不良人高颜值卡牌还原之作简介不良人高颜值卡牌还原之作《不良人：破局》，重构国漫经典，邀你集结破局！【国漫巅峰！梦回追番那些年】不良人角色齐聚，重现番剧经典场景。为大唐鞠躬尽瘁的三百年，城门前的一骑当千……不良人IP全角色齐聚，侠客阵营重组，不仅是带你回顾那些有血有泪的经典回忆，更是江湖冒险的新开始！【颜值为王！重构新国风美学】高品质番剧级美术重绘不良人角色，带来绝美视觉体验。当国风美学遇上不良人武侠，一起感受别开生面的新国风之旅。姬如雪、女帝、降臣……那些耳熟能详的美人侠客，化身红颜福利官，伴你轻松拿捏小小江湖！【轻松躺赢！天下奇遇大有可玩】不间断冒险探索，寻找角色剧情彩蛋。沉浸式化身星雪探险，重温不良人故事线。高人气侠客活跃就送，白嫖全图鉴不是梦！大世界资源不断、福利满满，奇珍异宝闭眼入，身心放松躺着赢！【天下为棋！以策取胜永不过时】摆脱原有阵营束缚，花样搭配出你的全明星阵容。比拼策略、自由配组，资源不再限制玩法，利用流派加成驱虎吞狼，制心一处无事不办。天道霸道，不过一念；以弱胜强，遇强更强！《不良人：破局》不止还原，更是突破。不良人阵营已集结，只待执棋之人以身入局，以力破局！</t>
+          <t>开启你的足球经理之旅简介《足球重启》不仅是一款足球经理游戏，它是一次智慧与策略的较量，是对足球热爱与梦想的追求。在这里，您将体验到从零开始，逐步成长为足球世界的传奇的无尽魅力。立即加入，开启您的足球经理之旅吧！</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -13905,57 +13941,21 @@
           <t>是</t>
         </is>
       </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>不良人：破局</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>国新出审〔2025〕264号</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-14577-2</t>
-        </is>
-      </c>
-      <c r="Q128" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="R128" t="inlineStr">
-        <is>
-          <t>四川数字出版传媒有限公司</t>
-        </is>
-      </c>
-      <c r="S128" t="inlineStr">
-        <is>
-          <t>成都艾奇普科技有限公司</t>
-        </is>
-      </c>
-      <c r="T128" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U128" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="V128" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
       <c r="W128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>暗夜圣徒</t>
+          <t>不良人：破局</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>测试</t>
+          <t>删档内测</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -13975,15 +13975,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>卡牌/策略/放置</t>
+          <t>养成/策略/卡牌</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>亮剑工作室</t>
+          <t>幻游网络</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -13994,17 +13994,17 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/181566.htm</t>
+          <t>https://www.3839.com/a/179281.htm</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20250404/14494765917</t>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbdev/opensj/20250116/16501491507</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>一个兼具经典与创新的奇幻西游世界简介《暗夜圣徒》是一款以中国古典名著为背景的国风放置策略手游，融合了角色扮演、卡牌养成、回合制战斗等多种玩法，为玩家呈现了一个兼具经典与创新的奇幻西游世界。【放置策略与轻松养成】游戏主打“挂机收益+策略搭配”模式，玩家无需长时间操作即可通过自动战斗推进剧情，资源获取便捷。【国风美术与沉浸式体验】游戏采用国风美术风格，结合东方幻想元素，场景设计涵盖险峻山峰、神秘神殿等，如“西天幻境”地图通过迷幻色彩和独特怪物设计</t>
+          <t>第七季正版授权，不良人高颜值卡牌还原之作简介不良人高颜值卡牌还原之作《不良人：破局》，重构国漫经典，邀你集结破局！【国漫巅峰！梦回追番那些年】不良人角色齐聚，重现番剧经典场景。为大唐鞠躬尽瘁的三百年，城门前的一骑当千……不良人IP全角色齐聚，侠客阵营重组，不仅是带你回顾那些有血有泪的经典回忆，更是江湖冒险的新开始！【颜值为王！重构新国风美学】高品质番剧级美术重绘不良人角色，带来绝美视觉体验。当国风美学遇上不良人武侠，一起感受别开生面的新国风之旅。姬如雪、女帝、降臣……那些耳熟能详的美人侠客，化身红颜福利官，伴你轻松拿捏小小江湖！【轻松躺赢！天下奇遇大有可玩】不间断冒险探索，寻找角色剧情彩蛋。沉浸式化身星雪探险，重温不良人故事线。高人气侠客活跃就送，白嫖全图鉴不是梦！大世界资源不断、福利满满，奇珍异宝闭眼入，身心放松躺着赢！【天下为棋！以策取胜永不过时】摆脱原有阵营束缚，花样搭配出你的全明星阵容。比拼策略、自由配组，资源不再限制玩法，利用流派加成驱虎吞狼，制心一处无事不办。天道霸道，不过一念；以弱胜强，遇强更强！《不良人：破局》不止还原，更是突破。不良人阵营已集结，只待执棋之人以身入局，以力破局！</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -14014,28 +14014,32 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>暗夜圣徒游戏软件V1.0</t>
+          <t>不良人：破局</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>新广出审[2017]1530号</t>
-        </is>
-      </c>
-      <c r="P129" t="inlineStr"/>
+          <t>国新出审〔2025〕264号</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-14577-2</t>
+        </is>
+      </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>2017-02-14</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>北京中电电子出版社</t>
+          <t>四川数字出版传媒有限公司</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>北京飞动乐驰信息技术有限公司</t>
+          <t>成都艾奇普科技有限公司</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
@@ -14045,7 +14049,7 @@
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>移动-休闲益智</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
@@ -14058,7 +14062,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>开个水果店</t>
+          <t>暗夜圣徒</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -14068,7 +14072,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>上线</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -14078,34 +14082,137 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>游戏/策略</t>
+          <t>卡牌/策略/放置</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>鹏 才</t>
+          <t>亮剑工作室</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>AppStore</t>
+          <t>好游快爆</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
+          <t>https://www.3839.com/a/181566.htm</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20250404/14494765917</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>一个兼具经典与创新的奇幻西游世界简介《暗夜圣徒》是一款以中国古典名著为背景的国风放置策略手游，融合了角色扮演、卡牌养成、回合制战斗等多种玩法，为玩家呈现了一个兼具经典与创新的奇幻西游世界。【放置策略与轻松养成】游戏主打“挂机收益+策略搭配”模式，玩家无需长时间操作即可通过自动战斗推进剧情，资源获取便捷。【国风美术与沉浸式体验】游戏采用国风美术风格，结合东方幻想元素，场景设计涵盖险峻山峰、神秘神殿等，如“西天幻境”地图通过迷幻色彩和独特怪物设计</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>暗夜圣徒游戏软件V1.0</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>新广出审[2017]1530号</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>2017-02-14</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>北京中电电子出版社</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>北京飞动乐驰信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>移动-休闲益智</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>开个水果店</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>上线</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>国内游戏</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>游戏/策略</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>鹏 才</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>AppStore</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
           <t>https://apps.apple.com/cn/app/%E5%BC%80%E4%B8%AA%E6%B0%B4%E6%9E%9C%E5%BA%97/id6744321884?uo=4</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="K131" t="inlineStr">
         <is>
           <t>https://is1-ssl.mzstatic.com/image/thumb/Purple211/v4/a8/52/05/a852050b-17d4-6695-239a-56552a2296e4/AppIcon-1x_U007ephone-0-1-0-85-220-0.png/512x512bb.jpg</t>
         </is>
       </c>
-      <c r="L130" t="inlineStr">
+      <c r="L131" t="inlineStr">
         <is>
           <t>欢迎来到《开个水果店》！这是一款轻松有趣的水果收集游戏，但小心——水果堆里藏着各种陷阱！你需要 慧眼识破陷阱，收集新鲜水果，经营你的水果小店！
 游戏玩法：
@@ -14125,73 +14232,73 @@
  快来挑战你的眼力和策略，成为最厉害的水果店老板吧！</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>三千幻世</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>预下载</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>像素/国漫/放置</t>
         </is>
       </c>
-      <c r="F131" t="n">
+      <c r="F132" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>像素造物工作室</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr">
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/717063</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/88fbcffbf18e67464a4e759015843c97.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L131" t="inlineStr">
+      <c r="L132" t="inlineStr">
         <is>
           <t>狐妖小红娘、大王饶命、王牌御史、传武、尸兄、我是大神仙、妹子与科学、我的天劫女友、从前有座灵剑山、神俑降临、铁姬钢兵、开局一座山等一众腾讯动漫正版授权，首次集结13部顶流国漫IP，打造像素化国漫合集。
 从涂山苏苏与白月初的转世羁绊，从夜行御史降妖除魔的日常，到修仙界“扮猪吃老虎”的逆袭……所有名场面均以像素风高清重制，辅以精致的动态画面演出。从苦情巨树下的涂山城到未来科幻都市，从西西域沙漠到金刚猿森林，覆盖从经典到新锐的全维度内容，构建多世界联动的奇幻宇宙。
@@ -14208,109 +14315,109 @@
 这一次的邂逅，不止宿命相逢。</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
         <is>
           <t>三千幻世</t>
         </is>
       </c>
-      <c r="O131" t="inlineStr">
+      <c r="O132" t="inlineStr">
         <is>
           <t>国新出审〔2025〕127号</t>
         </is>
       </c>
-      <c r="P131" t="inlineStr">
+      <c r="P132" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-14510-9</t>
         </is>
       </c>
-      <c r="Q131" t="inlineStr">
+      <c r="Q132" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
-      <c r="R131" t="inlineStr">
+      <c r="R132" t="inlineStr">
         <is>
           <t>成都盈众九州网络科技有限公司</t>
         </is>
       </c>
-      <c r="S131" t="inlineStr">
+      <c r="S132" t="inlineStr">
         <is>
           <t>深圳市中手游网络科技有限公司</t>
         </is>
       </c>
-      <c r="T131" t="inlineStr">
+      <c r="T132" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U131" t="inlineStr">
+      <c r="U132" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V131" t="inlineStr">
+      <c r="V132" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W131" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>崩坏：星穹铁道</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>更新</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>角色扮演/冒险/策略</t>
         </is>
       </c>
-      <c r="F132" t="n">
+      <c r="F133" t="n">
         <v>7.4</v>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>miHoYo</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr">
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/224267</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/c6efcb07552a6ba1972a7b9fb22c1d76.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr">
+      <c r="L133" t="inlineStr">
         <is>
           <t>这片银河中有名为「星神」的存在，祂们造就现实，抹消星辰，在无数「世界」中留下祂们的痕迹。你——一名特殊的旅客，将与继承「开拓」意志的同伴一起，乘坐星穹列车穿越银河，沿着某位「星神」曾经所行之途前进。你将由此探索新的文明，结识新的伙伴，在无数光怪陆离的「世界」与「世界」之间展开新的冒险。所有你想知道的，都将在群星中找到答案。
 那么，准备好开始这段「开拓」之旅了吗？
@@ -14325,109 +14432,109 @@
 星海之中，除「你」之外，还有无数身怀绝技的「他们」。你将拥有极寒之地的患难友情，仙舟危机中的并肩作战，金色美梦里的不期而遇……在冒险中邂逅英雄，结识伙伴，共赴奇旅。除了携手经历一段段冒险旅程，你还能通过多种方式与伙伴们增进友谊、分享奇遇，了解旅伴们更多不为人知的经历和故事......</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
         <is>
           <t>崩坏：星穹铁道</t>
         </is>
       </c>
-      <c r="O132" t="inlineStr">
+      <c r="O133" t="inlineStr">
         <is>
           <t>国新出审[2023]16号</t>
         </is>
       </c>
-      <c r="P132" t="inlineStr">
+      <c r="P133" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-10006-1</t>
         </is>
       </c>
-      <c r="Q132" t="inlineStr">
+      <c r="Q133" t="inlineStr">
         <is>
           <t>2023-01-17</t>
         </is>
       </c>
-      <c r="R132" t="inlineStr">
+      <c r="R133" t="inlineStr">
         <is>
           <t>上海声像电子出版社</t>
         </is>
       </c>
-      <c r="S132" t="inlineStr">
+      <c r="S133" t="inlineStr">
         <is>
           <t>上海米哈游影铁科技有限公司</t>
         </is>
       </c>
-      <c r="T132" t="inlineStr">
+      <c r="T133" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U132" t="inlineStr">
+      <c r="U133" t="inlineStr">
         <is>
           <t>移动、客户端</t>
         </is>
       </c>
-      <c r="V132" t="inlineStr">
+      <c r="V133" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W132" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>一号军团</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>国风/历史/策略</t>
         </is>
       </c>
-      <c r="F133" t="n">
+      <c r="F134" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>星河奇遇</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr">
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/716232</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/abb42eb4f29f82b7c4a670f00e216cc1.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr">
+      <c r="L134" t="inlineStr">
         <is>
           <t>游戏原名《傲战千秋》，因为种种原因，不得不改名，希望各位玩家理解，鞠躬！
 玩家们大家好，我们是一个初创团队。《一号军团》是我们研发的第一款产品，我们开发初衷是希望做一款历史策略SLG类产品。
@@ -14437,105 +14544,105 @@
 轻度SLG：主打的是偏轻度SLG，但是内容数量不会少、质量要求不会低。减去了很多重复性操作，包括铺路打地打城、建筑时间、单武将抽卡价值大幅降低，也去掉了战法传承消耗的材料，有卡就能拆。</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
         <is>
           <t>一号军团</t>
         </is>
       </c>
-      <c r="O133" t="inlineStr">
+      <c r="O134" t="inlineStr">
         <is>
           <t>新广出审[2017]10037号</t>
         </is>
       </c>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr">
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr">
         <is>
           <t>2017-12-04</t>
         </is>
       </c>
-      <c r="R133" t="inlineStr">
+      <c r="R134" t="inlineStr">
         <is>
           <t>成都盈众九州网络科技有限公司</t>
         </is>
       </c>
-      <c r="S133" t="inlineStr">
+      <c r="S134" t="inlineStr">
         <is>
           <t>海南河马网络科技有限公司</t>
         </is>
       </c>
-      <c r="T133" t="inlineStr">
+      <c r="T134" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U133" t="inlineStr">
+      <c r="U134" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V133" t="inlineStr">
+      <c r="V134" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W133" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>吞噬星空：黎明</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>角色扮演</t>
         </is>
       </c>
-      <c r="F134" t="n">
+      <c r="F135" t="n">
         <v>6.5</v>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>力杰互娱</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr">
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/748975</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr">
+      <c r="K135" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/293ef513b574e20a0d21865a0ca33a5d.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L134" t="inlineStr">
+      <c r="L135" t="inlineStr">
         <is>
           <t>在危机四伏的未来世界，致命病毒肆虐，让地球沦为末日废土。飞禽走兽在病毒催化下发生恐怖变异，拥有了远超人类的力量与智慧，它们频繁进攻人类居住地，热武器在这些怪兽面前逐渐失去效力。在这生死存亡之际，你将化身武者，与强大的伙伴们组队冒险。
 游戏构建了末日废土与科幻修真相互交织的独特世界。借助顶尖3D技术，机械装甲、变异巨兽、浩瀚星空跃然眼前，搭配震撼音效与动态光影，营造出沉浸式的末日冒险体验。
@@ -14544,109 +14651,109 @@
 为助力玩家开启冒险，游戏福利满满。上线就送神级医师及专武，在线即送VIP，签到还能领取上千抽，助力玩家快速组建强力阵容 。</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
         <is>
           <t>吞噬星空：黎明</t>
         </is>
       </c>
-      <c r="O134" t="inlineStr">
+      <c r="O135" t="inlineStr">
         <is>
           <t>国新出审[2022]1605号</t>
         </is>
       </c>
-      <c r="P134" t="inlineStr">
+      <c r="P135" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-09840-5</t>
         </is>
       </c>
-      <c r="Q134" t="inlineStr">
+      <c r="Q135" t="inlineStr">
         <is>
           <t>2022-11-16</t>
         </is>
       </c>
-      <c r="R134" t="inlineStr">
+      <c r="R135" t="inlineStr">
         <is>
           <t>北京联合出版有限责任公司</t>
         </is>
       </c>
-      <c r="S134" t="inlineStr">
+      <c r="S135" t="inlineStr">
         <is>
           <t>北京欣荣繁兴科技有限公司</t>
         </is>
       </c>
-      <c r="T134" t="inlineStr">
+      <c r="T135" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U134" t="inlineStr">
+      <c r="U135" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V134" t="inlineStr">
+      <c r="V135" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W134" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>火影忍者：木叶高手</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>放置/竖屏/卡牌</t>
         </is>
       </c>
-      <c r="F135" t="n">
+      <c r="F136" t="n">
         <v>7.8</v>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>中手游</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr">
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/715546</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/79b81b568926d920f0c62ee6e3f07f87.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L135" t="inlineStr">
+      <c r="L136" t="inlineStr">
         <is>
           <t>《火影忍者：木叶高手》作为一款正版火影放置卡牌手游，将与你重温充满查克拉与忍术的火影世界，跟随原班声优再度邂逅鸣人、佐助、小樱、卡卡西等经典角色，沉浸式感受竖屏新视角带来的策略乐趣。忍者全集结，无损换将，让你轻松组建最强阵容，更有免费千抽助你躺平收益，在放置中感受成长乐趣。与火影同行，轻松开拓属于你的忍道吧！
 竖屏新视界 重塑正版火影经典
@@ -14659,109 +14766,109 @@
 火影放置陪伴，即享躺平收益。忍者小队自动冒险，工作休息两不误。畅享免费千抽，轻松构建豪华阵容。长线收益不间断，每次回归见证成长。与火影同行，在放置中感受成长的喜悦，享受真正的游戏乐趣！</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
         <is>
           <t>火影忍者：木叶高手</t>
         </is>
       </c>
-      <c r="O135" t="inlineStr">
+      <c r="O136" t="inlineStr">
         <is>
           <t>国新出审〔2023〕2189号</t>
         </is>
       </c>
-      <c r="P135" t="inlineStr">
+      <c r="P136" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-12889-8</t>
         </is>
       </c>
-      <c r="Q135" t="inlineStr">
+      <c r="Q136" t="inlineStr">
         <is>
           <t>2023-12-21</t>
         </is>
       </c>
-      <c r="R135" t="inlineStr">
+      <c r="R136" t="inlineStr">
         <is>
           <t>上海商国网络科技发展有限公司</t>
         </is>
       </c>
-      <c r="S135" t="inlineStr">
+      <c r="S136" t="inlineStr">
         <is>
           <t>上海蜂虞网络科技有限公司</t>
         </is>
       </c>
-      <c r="T135" t="inlineStr">
+      <c r="T136" t="inlineStr">
         <is>
           <t>进口网络游戏</t>
         </is>
       </c>
-      <c r="U135" t="inlineStr">
+      <c r="U136" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V135" t="inlineStr">
+      <c r="V136" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W135" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>华夏千秋</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>模拟经营/国风/回合制</t>
         </is>
       </c>
-      <c r="F136" t="n">
+      <c r="F137" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>华夏千秋工作室</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr">
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/604309</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr">
+      <c r="K137" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/2cb89d2fb7fa51c49988539359118c48.jpg/appicon?t=1</t>
         </is>
       </c>
-      <c r="L136" t="inlineStr">
+      <c r="L137" t="inlineStr">
         <is>
           <t>天降机缘，奇物现世，带着亲友的期许上路，你是否能抓住这旷世奇缘？
 行走江湖，比武猜招，种田耕地，往来交互，你会走上那一条人生之路？
@@ -14774,109 +14881,109 @@
 是自带青梅竹马，又或天降奇缘？是日久生情，又或一见倾心？是守身如玉，一生一次心意动，还是广交结友，情意脉脉遍四海？命格不一，由天定，更在人为！你的一生，将由自己亲手决定。</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
         <is>
           <t>华夏千秋</t>
         </is>
       </c>
-      <c r="O136" t="inlineStr">
+      <c r="O137" t="inlineStr">
         <is>
           <t>国新出审〔2023〕2042号</t>
         </is>
       </c>
-      <c r="P136" t="inlineStr">
+      <c r="P137" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-12824-9</t>
         </is>
       </c>
-      <c r="Q136" t="inlineStr">
+      <c r="Q137" t="inlineStr">
         <is>
           <t>2023-11-30</t>
         </is>
       </c>
-      <c r="R136" t="inlineStr">
+      <c r="R137" t="inlineStr">
         <is>
           <t>安徽新华电子音像出版社</t>
         </is>
       </c>
-      <c r="S136" t="inlineStr">
+      <c r="S137" t="inlineStr">
         <is>
           <t>广州火羽信息科技有限公司</t>
         </is>
       </c>
-      <c r="T136" t="inlineStr">
+      <c r="T137" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U136" t="inlineStr">
+      <c r="U137" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V136" t="inlineStr">
+      <c r="V137" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W136" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>星际飞行</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>模拟经营/策略/射击</t>
         </is>
       </c>
-      <c r="F137" t="n">
+      <c r="F138" t="n">
         <v>9.6</v>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>13th DogeFleet</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr">
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/715942</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="K138" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/6d976834f3882798374ac9750d0f3df7.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr">
+      <c r="L138" t="inlineStr">
         <is>
           <t>游戏简介：
 总有一天，我们会离开赖以生存的蓝色星球，开始星际航行的时代。在漫长的太空历史中，危机四伏，不同势力如流星般闪耀后消散在无垠的宇宙中。宇宙历220年，翠星联合军与黄金树帝国在法尔斯星域爆发了震撼整个星域的大会战后一切归于沉寂，战火不断的宇宙迎来了短暂的和平，在各种暗流涌动之下，诸位年轻的舰长也即将怀揣梦想启航。
@@ -14900,156 +15007,49 @@
 当您厌倦了上述所说的一切，只想在无垠的宇宙中，平静度日，希望您有空到星际酒馆多看看，这里有来自不同的星球和种族的奇人轶事，以及酒馆女郎。搞好和她们的关系，躺平游戏，每天做一条最快乐的咸鱼。</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
         <is>
           <t>星际飞行</t>
         </is>
       </c>
-      <c r="O137" t="inlineStr">
+      <c r="O138" t="inlineStr">
         <is>
           <t>国新出审[2020]2345号</t>
         </is>
       </c>
-      <c r="P137" t="inlineStr">
+      <c r="P138" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-08304-3</t>
         </is>
       </c>
-      <c r="Q137" t="inlineStr">
+      <c r="Q138" t="inlineStr">
         <is>
           <t>2020-10-16</t>
         </is>
       </c>
-      <c r="R137" t="inlineStr">
+      <c r="R138" t="inlineStr">
         <is>
           <t>浙江出版集团数字传媒有限公司</t>
         </is>
       </c>
-      <c r="S137" t="inlineStr">
+      <c r="S138" t="inlineStr">
         <is>
           <t>杭州西米科技有限公司</t>
         </is>
       </c>
-      <c r="T137" t="inlineStr">
+      <c r="T138" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U137" t="inlineStr">
+      <c r="U138" t="inlineStr">
         <is>
           <t>移动-休闲益智</t>
-        </is>
-      </c>
-      <c r="V137" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>时隙之旅</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>安卓/iOS</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>卡牌/策略/放置</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>星曜工作室</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>TapTap</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>https://www.taptap.cn/app/739840</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>https://img.tapimg.com/market/images/14b9aef1b640c1b868188a372f4b2476.jpg/appicon?t=1</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>各位引航者，欢迎来到《时隙之旅》这个丰富多彩的奇幻未来世界。引航者们将与不同形态的幻灵们相遇，并结下深厚的羁绊，共同探索冒险和发现这个世界的真相。在遭遇不同爽快战斗的同时，需要了解并掌握幻灵们多样的战斗方式搭配策略，来应对后期更强大势力挑战。引航者们将最终打破和颠覆这个世界运行法则，重新塑造属于你的未来之城。</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>时隙之旅</t>
-        </is>
-      </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>国新出审〔2024〕866号</t>
-        </is>
-      </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-13464-6</t>
-        </is>
-      </c>
-      <c r="Q138" t="inlineStr">
-        <is>
-          <t>2024-04-22</t>
-        </is>
-      </c>
-      <c r="R138" t="inlineStr">
-        <is>
-          <t>杭州润趣科技有限公司</t>
-        </is>
-      </c>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>杭州游聚信息技术有限公司</t>
-        </is>
-      </c>
-      <c r="T138" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U138" t="inlineStr">
-        <is>
-          <t>移动</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
@@ -15062,7 +15062,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>天上白玉京</t>
+          <t>时隙之旅</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -15077,41 +15077,41 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>国内游戏</t>
+          <t>安卓/iOS</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>中国风/卡牌/二次元</t>
+          <t>卡牌/策略/放置</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>此方游戏</t>
+          <t>星曜工作室</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>好游快爆</t>
+          <t>TapTap</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/147381.htm</t>
+          <t>https://www.taptap.cn/app/739840</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx/gicon/147381/20240309-00.png</t>
+          <t>https://img.tapimg.com/market/images/14b9aef1b640c1b868188a372f4b2476.jpg/appicon?t=1</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>肩负使命  踏界而来简介神秘的造物，失落的文明，突兀的闯入人族与妖族共存的「玄元界」，灵器和修行，融合与毁灭，它们之间究竟能碰撞出怎样的火花？“「本源」「黑雾」「黯奴」”玄元界的秘密似乎还不止于此。此前已有引导者抵达并进行信息调查，此界符合守界人降临条件，经万界商盟同意，决定派遣守界人前往。计划代号——「天上白玉京」以上，作为「守界人」，万界商盟派遣你前往，揭开玄元界的帷幕。</t>
+          <t>各位引航者，欢迎来到《时隙之旅》这个丰富多彩的奇幻未来世界。引航者们将与不同形态的幻灵们相遇，并结下深厚的羁绊，共同探索冒险和发现这个世界的真相。在遭遇不同爽快战斗的同时，需要了解并掌握幻灵们多样的战斗方式搭配策略，来应对后期更强大势力挑战。引航者们将最终打破和颠覆这个世界运行法则，重新塑造属于你的未来之城。</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -15121,32 +15121,32 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>天上白玉京</t>
+          <t>时隙之旅</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>国新出审[2021]434号</t>
+          <t>国新出审〔2024〕866号</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>ISBN 978-7-498-08854-3</t>
+          <t>ISBN 978-7-498-13464-6</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>2021-03-04</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>辽宁电子出版社有限责任公司</t>
+          <t>杭州润趣科技有限公司</t>
         </is>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>沈阳星空互娱网络科技有限公司</t>
+          <t>杭州游聚信息技术有限公司</t>
         </is>
       </c>
       <c r="T139" t="inlineStr">
@@ -15169,56 +15169,56 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>黑色信标</t>
+          <t>天上白玉京</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>新游爆料</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>安卓/iOS</t>
+          <t>国内游戏</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>养成/二次元/动作</t>
+          <t>中国风/卡牌/二次元</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>世纪天成</t>
+          <t>此方游戏</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>TapTap</t>
+          <t>好游快爆</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>https://www.taptap.cn/app/242574</t>
+          <t>https://www.3839.com/a/147381.htm</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>https://img.tapimg.com/market/images/a26c919fcd6ad5314a09d97e1d9fa0d9.png/appicon?t=1</t>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx/gicon/147381/20240309-00.png</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>《黑色信标》是一款双视角x无限技能连携ARPG手游。在游戏中，你将扮演预言中的“预见者”的一员，与「楔文会」的成员们一同对抗来自其他世界的异象，在收容信标、处理异象的过程中接触各种各样的伙伴或敌人，逐步揭开世界交错的真相。</t>
+          <t>肩负使命  踏界而来简介神秘的造物，失落的文明，突兀的闯入人族与妖族共存的「玄元界」，灵器和修行，融合与毁灭，它们之间究竟能碰撞出怎样的火花？“「本源」「黑雾」「黯奴」”玄元界的秘密似乎还不止于此。此前已有引导者抵达并进行信息调查，此界符合守界人降临条件，经万界商盟同意，决定派遣守界人前往。计划代号——「天上白玉京」以上，作为「守界人」，万界商盟派遣你前往，揭开玄元界的帷幕。</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -15228,32 +15228,32 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>黑色信标</t>
+          <t>天上白玉京</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>国新出审〔2025〕72号</t>
+          <t>国新出审[2021]434号</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>ISBN 978-7-498-14455-3</t>
+          <t>ISBN 978-7-498-08854-3</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2021-03-04</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>北京目标在线科技有限公司</t>
+          <t>辽宁电子出版社有限责任公司</t>
         </is>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>北京幸福满格科技有限公司</t>
+          <t>沈阳星空互娱网络科技有限公司</t>
         </is>
       </c>
       <c r="T140" t="inlineStr">
@@ -15276,58 +15276,165 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t>黑色信标</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>新游爆料</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>安卓/iOS</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>养成/二次元/动作</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>世纪天成</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>https://www.taptap.cn/app/242574</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>https://img.tapimg.com/market/images/a26c919fcd6ad5314a09d97e1d9fa0d9.png/appicon?t=1</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>《黑色信标》是一款双视角x无限技能连携ARPG手游。在游戏中，你将扮演预言中的“预见者”的一员，与「楔文会」的成员们一同对抗来自其他世界的异象，在收容信标、处理异象的过程中接触各种各样的伙伴或敌人，逐步揭开世界交错的真相。</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>黑色信标</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>国新出审〔2025〕72号</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-14455-3</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>北京目标在线科技有限公司</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>北京幸福满格科技有限公司</t>
+        </is>
+      </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
           <t>星痕共鸣</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>2025-04-08</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>测试招募</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>安卓/iOS/PC端</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>角色扮演</t>
         </is>
       </c>
-      <c r="F141" t="n">
+      <c r="F142" t="n">
         <v>8.6</v>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>腾讯</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/731774</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="K142" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/26f830fa88190c764f6bc1d9baee64ad.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L141" t="inlineStr">
+      <c r="L142" t="inlineStr">
         <is>
           <t>欢迎来到雷格纳斯，冒险者。
 《星痕共鸣》是一款是基于万代南梦宫“PROJECT SKY BLUE”IP世界观下，由上海宝可拉所开发的MMORPG。
@@ -15350,155 +15457,44 @@
 ▶ 角色二分色法：角色的渲染方式采用日式动漫中的二分色阶风格，拒绝额外的明暗关系过渡、和写实游戏中的各种材质，高度还原你想要的动漫角色。</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
         <is>
           <t>星痕共鸣</t>
         </is>
       </c>
-      <c r="O141" t="inlineStr">
+      <c r="O142" t="inlineStr">
         <is>
           <t>国新出审〔2025〕187号</t>
         </is>
       </c>
-      <c r="P141" t="inlineStr">
+      <c r="P142" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-14570-3</t>
         </is>
       </c>
-      <c r="Q141" t="inlineStr">
+      <c r="Q142" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
-      <c r="R141" t="inlineStr">
+      <c r="R142" t="inlineStr">
         <is>
           <t>上海声像电子出版社</t>
         </is>
       </c>
-      <c r="S141" t="inlineStr">
+      <c r="S142" t="inlineStr">
         <is>
           <t>上海艮洲网络科技有限公司</t>
         </is>
       </c>
-      <c r="T141" t="inlineStr">
+      <c r="T142" t="inlineStr">
         <is>
           <t>进口网络游戏</t>
-        </is>
-      </c>
-      <c r="U141" t="inlineStr">
-        <is>
-          <t>移动、客户端</t>
-        </is>
-      </c>
-      <c r="V141" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>失控进化</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>测试招募</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>安卓/iOS</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>生存/沙盒/开放世界</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>腾讯</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>TapTap</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>https://www.taptap.cn/app/733908</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>https://img.tapimg.com/market/images/e88a8de0aa736c628543ac80b2e07bd2.png/appicon?t=1</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>《失控进化》是一款Rust正版玩法授权的硬核生存对抗游戏。玩家将置身于危机四伏的荒岛之上，徒手开启资源采集、武器锻造、庇护所搭建与狩猎，应对气候、饥饿、动物与其他玩家带来的生存挑战。</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>失控进化</t>
-        </is>
-      </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>国新出审〔2023〕1801号</t>
-        </is>
-      </c>
-      <c r="P142" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-12760-0</t>
-        </is>
-      </c>
-      <c r="Q142" t="inlineStr">
-        <is>
-          <t>2023-10-25</t>
-        </is>
-      </c>
-      <c r="R142" t="inlineStr">
-        <is>
-          <t>浙江无端科技股份有限公司</t>
-        </is>
-      </c>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>浙江无端科技股份有限公司</t>
-        </is>
-      </c>
-      <c r="T142" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
         </is>
       </c>
       <c r="U142" t="inlineStr">
@@ -15516,54 +15512,165 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
+          <t>失控进化</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>测试招募</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>安卓/iOS</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>生存/沙盒/开放世界</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>腾讯</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>https://www.taptap.cn/app/733908</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>https://img.tapimg.com/market/images/e88a8de0aa736c628543ac80b2e07bd2.png/appicon?t=1</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>《失控进化》是一款Rust正版玩法授权的硬核生存对抗游戏。玩家将置身于危机四伏的荒岛之上，徒手开启资源采集、武器锻造、庇护所搭建与狩猎，应对气候、饥饿、动物与其他玩家带来的生存挑战。</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>失控进化</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>国新出审〔2023〕1801号</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-12760-0</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>2023-10-25</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>浙江无端科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>浙江无端科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>移动、客户端</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
           <t>最封神</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>2025-04-08</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>上线</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>养成/放置</t>
         </is>
       </c>
-      <c r="F143" t="n">
+      <c r="F144" t="n">
         <v>7.8</v>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>超凡入圣工作室</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr">
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/733841</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="K144" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/78f4731a1b1cc3dc32241014414ff050.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr">
+      <c r="L144" t="inlineStr">
         <is>
           <t>在猎妖村里，您将化身为一名猎妖师，通过收集符咒召唤赵云、廉颇、关羽、吕布等三国名将，化身为魂将为您而战。独特的美术风格和强烈的策略性，让您眼前一亮一亮又一亮。阵容羁绊搭配，稀有魂将培养，您将拥有一只无人能敌的队伍，为您魂定江山，叱咤风云。此外，游戏还拥有锁妖塔、魂域对决、祸乱四起、幽府秘境等丰富多样的特色玩法，简直好玩又有趣。
 【游戏特色】
@@ -15579,129 +15686,58 @@
 无需硬干，小鬼异火还会自动为你攻击，解放双手，轻松挂机，超多福利随机送</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
         <is>
           <t>最封神</t>
         </is>
       </c>
-      <c r="O143" t="inlineStr">
+      <c r="O144" t="inlineStr">
         <is>
           <t>新出审字[2013]561号</t>
         </is>
       </c>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr">
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr">
         <is>
           <t>2013-05-14</t>
         </is>
       </c>
-      <c r="R143" t="inlineStr">
+      <c r="R144" t="inlineStr">
         <is>
           <t>三辰影库音像出版社</t>
         </is>
       </c>
-      <c r="S143" t="inlineStr">
+      <c r="S144" t="inlineStr">
         <is>
           <t>广州风之神软件科技有限公司</t>
         </is>
       </c>
-      <c r="T143" t="inlineStr">
+      <c r="T144" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U143" t="inlineStr">
+      <c r="U144" t="inlineStr">
         <is>
           <t>原</t>
         </is>
       </c>
-      <c r="V143" t="inlineStr">
+      <c r="V144" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>山鬼志：寒衣</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>可预约</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>安卓/iOS/Steam</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>策略/模拟/角色扮演</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>0</v>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>坤舆科技</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>TapTap</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>https://www.taptap.cn/app/748985</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>https://img.tapimg.com/market/images/3f69aad8a65c27e95cf8e41d419fe059.png/appicon?t=1</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>天河历2010年十月初一，寒衣节，一位老人的离奇失踪，牵扯出天河镇两个村子里隐匿多年的秘密，随着越来越多的线索被发现，真相似乎就在眼前……《山鬼志：寒衣》是一款中国民俗题材的恐怖剧情解谜游戏。天河镇有一条不成文的规定：寒衣节这天，任何村民都不许靠近后山，若是因此惹上了什么山神野鬼，清风观的道长们是不会管的。可爷爷的失踪，让陈一来到了山下。山上真的有鬼吗？或许，还有比鬼可怕的东西。</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
       <c r="W144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>一念山海</t>
+          <t>山鬼志：寒衣</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -15711,25 +15747,25 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>上线</t>
+          <t>可预约</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>国内游戏</t>
+          <t>安卓/iOS/Steam</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>国风/放置/角色扮演</t>
+          <t>策略/模拟/角色扮演</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>深深工作室</t>
+          <t>坤舆科技</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -15740,17 +15776,17 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>https://www.taptap.cn/app/730120</t>
+          <t>https://www.taptap.cn/app/748985</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>https://img.16p.com/auto/7e/d4/7ed4bf07a68b81fd2aa6018deb4a58ca.png</t>
+          <t>https://img.tapimg.com/market/images/3f69aad8a65c27e95cf8e41d419fe059.png/appicon?t=1</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>“山海结伴行，一念皆成仙” ★观前提示：这是一款并非所有人都能接受的纯数值爽游，如果你对此类游戏不感兴趣，那么接下来的简介会浪费你宝贵时间观看。  各位尊者好！《一念山海》是一款国风3D山海经题材的放置手游，在游戏中，你只需要点点点，便可以轻松体验纯正的东方幻想世界。 跟随主角，一人一飞剑遨游地图，修炼仙技除魔，偶遇奇珍异兽，打造上古神兵。从一介凡人逐渐蜕变成至高仙尊的奇幻之旅。  自动挂机？——有，很多。 告别繁杂操作，我们将整个修仙最精华的部分提取出来，自动化释放技能、简单操作、放置体验，无时无刻都能获得成长。  外观造型？——有，很多。 量大丰富管饱，稀世装备亲手打造。解锁千变万化的搭配方案，保证你是修仙路上最靓的仔！  收集山海经异兽？——有，很多。 下至凡界小妖，上至通天仙童皆为你所用。还有更多经典的山海异兽在游戏里等你收集。  福利内容？——有，很多 还在为养成发愁？资源狂送，正常游玩就能获得海量奖励，豹子头零充也能玩的很爽！保你修仙之旅一路顺畅。  氪金套路？——有，很多 童叟无欺囊括几乎市面上所有氪金手段，极其残忍。但我们承诺，争取让我们的衣食父母们花一分钱感受到五块钱的品质和爽感。</t>
+          <t>天河历2010年十月初一，寒衣节，一位老人的离奇失踪，牵扯出天河镇两个村子里隐匿多年的秘密，随着越来越多的线索被发现，真相似乎就在眼前……《山鬼志：寒衣》是一款中国民俗题材的恐怖剧情解谜游戏。天河镇有一条不成文的规定：寒衣节这天，任何村民都不许靠近后山，若是因此惹上了什么山神野鬼，清风观的道长们是不会管的。可爷爷的失踪，让陈一来到了山下。山上真的有鬼吗？或许，还有比鬼可怕的东西。</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -15758,85 +15794,49 @@
           <t>是</t>
         </is>
       </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>一念山海</t>
-        </is>
-      </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>国新出审〔2024〕2003号</t>
-        </is>
-      </c>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-14032-6</t>
-        </is>
-      </c>
-      <c r="Q145" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-      <c r="R145" t="inlineStr">
-        <is>
-          <t>吉林音像出版社有限责任公司</t>
-        </is>
-      </c>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>海南九悦互娱信息科技有限公司</t>
-        </is>
-      </c>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U145" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="V145" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>三国望神州</t>
+          <t>一念山海</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>测试</t>
+          <t>上线</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>安卓/iOS/PC端</t>
+          <t>国内游戏</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>角色扮演/国风/剧情</t>
+          <t>国风/放置/角色扮演</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>9.300000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>杭州弹指宇宙网络有限公司</t>
+          <t>深深工作室</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -15847,15 +15847,122 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
+          <t>https://www.taptap.cn/app/730120</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/auto/7e/d4/7ed4bf07a68b81fd2aa6018deb4a58ca.png</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>“山海结伴行，一念皆成仙” ★观前提示：这是一款并非所有人都能接受的纯数值爽游，如果你对此类游戏不感兴趣，那么接下来的简介会浪费你宝贵时间观看。  各位尊者好！《一念山海》是一款国风3D山海经题材的放置手游，在游戏中，你只需要点点点，便可以轻松体验纯正的东方幻想世界。 跟随主角，一人一飞剑遨游地图，修炼仙技除魔，偶遇奇珍异兽，打造上古神兵。从一介凡人逐渐蜕变成至高仙尊的奇幻之旅。  自动挂机？——有，很多。 告别繁杂操作，我们将整个修仙最精华的部分提取出来，自动化释放技能、简单操作、放置体验，无时无刻都能获得成长。  外观造型？——有，很多。 量大丰富管饱，稀世装备亲手打造。解锁千变万化的搭配方案，保证你是修仙路上最靓的仔！  收集山海经异兽？——有，很多。 下至凡界小妖，上至通天仙童皆为你所用。还有更多经典的山海异兽在游戏里等你收集。  福利内容？——有，很多 还在为养成发愁？资源狂送，正常游玩就能获得海量奖励，豹子头零充也能玩的很爽！保你修仙之旅一路顺畅。  氪金套路？——有，很多 童叟无欺囊括几乎市面上所有氪金手段，极其残忍。但我们承诺，争取让我们的衣食父母们花一分钱感受到五块钱的品质和爽感。</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>一念山海</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>国新出审〔2024〕2003号</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-14032-6</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>吉林音像出版社有限责任公司</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>海南九悦互娱信息科技有限公司</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>三国望神州</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>安卓/iOS/PC端</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>角色扮演/国风/剧情</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>杭州弹指宇宙网络有限公司</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
           <t>https://www.taptap.cn/app/622867</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr">
+      <c r="K147" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/bfa406cd8acbe1f46bc31b0478d37ea9.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr">
+      <c r="L147" t="inlineStr">
         <is>
           <t>■三国战棋，当望神州
 《三国望神州》（前《代号南乡子》）以中国传统水墨工笔美术，描摹出令人耳目一新的三国乱世。各位明公将在这乱世绘卷中扮演那个时代割据一方的英雄，用经典战棋玩法调兵遣将，思当年豪杰之虑，谋当年明公之策，再现当年传奇之路。
@@ -15872,109 +15979,109 @@
 狼烟已起，墨砚已备，恭候明公执子入局，共绘三国！</t>
         </is>
       </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
         <is>
           <t>三国望神州</t>
         </is>
       </c>
-      <c r="O146" t="inlineStr">
+      <c r="O147" t="inlineStr">
         <is>
           <t>国新出审〔2024〕2175号</t>
         </is>
       </c>
-      <c r="P146" t="inlineStr">
+      <c r="P147" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-14124-8</t>
         </is>
       </c>
-      <c r="Q146" t="inlineStr">
+      <c r="Q147" t="inlineStr">
         <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="R146" t="inlineStr">
+      <c r="R147" t="inlineStr">
         <is>
           <t>上海科学技术文献出版社有限公司</t>
         </is>
       </c>
-      <c r="S146" t="inlineStr">
+      <c r="S147" t="inlineStr">
         <is>
           <t>星臻科技（上海）有限公司</t>
         </is>
       </c>
-      <c r="T146" t="inlineStr">
+      <c r="T147" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U146" t="inlineStr">
+      <c r="U147" t="inlineStr">
         <is>
           <t>移动、客户端</t>
         </is>
       </c>
-      <c r="V146" t="inlineStr">
+      <c r="V147" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W146" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>山海仙路</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>放置/修仙/剧情</t>
         </is>
       </c>
-      <c r="F147" t="n">
+      <c r="F148" t="n">
         <v>9.6</v>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>上海晓枫网络科技有限公司</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr">
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/717430</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr">
+      <c r="K148" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/6e27cdfb92881e6ed30d29da0110a11b.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L147" t="inlineStr">
+      <c r="L148" t="inlineStr">
         <is>
           <t>你从一缕残魂转世投胎，开启凡人修仙之路
 世界画面采用写意的古风水墨风格，简约而不简单~
@@ -15985,109 +16092,109 @@
 什么？你觉得不可能？修仙本就是逆天改命，让不可能成为可能！</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
         <is>
           <t>山海仙路</t>
         </is>
       </c>
-      <c r="O147" t="inlineStr">
+      <c r="O148" t="inlineStr">
         <is>
           <t>国新出审〔2023〕1176号</t>
         </is>
       </c>
-      <c r="P147" t="inlineStr">
+      <c r="P148" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-12514-9</t>
         </is>
       </c>
-      <c r="Q147" t="inlineStr">
+      <c r="Q148" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="R147" t="inlineStr">
+      <c r="R148" t="inlineStr">
         <is>
           <t>上海科学技术文献出版社有限公司</t>
         </is>
       </c>
-      <c r="S147" t="inlineStr">
+      <c r="S148" t="inlineStr">
         <is>
           <t>上海晓枫网络科技有限公司</t>
         </is>
       </c>
-      <c r="T147" t="inlineStr">
+      <c r="T148" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U147" t="inlineStr">
+      <c r="U148" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V147" t="inlineStr">
+      <c r="V148" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W147" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>明日方舟</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>更新</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>塔防/二次元/养成</t>
         </is>
       </c>
-      <c r="F148" t="n">
+      <c r="F149" t="n">
         <v>8.1</v>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>鹰角网络</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr">
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/70253</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr">
+      <c r="K149" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/2ea1a63c45fe294d36e29e348d441ea3.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L148" t="inlineStr">
+      <c r="L149" t="inlineStr">
         <is>
           <t>起因不明并四处肆虐的天灾，席卷过的土地上出现了大量的神秘矿物——被人们称为“源石”。虽然源石的发现历史已久，但是依赖于技术的进步，其蕴含的能量使得文明顺利迈入现代，但与此同时，源石本身也催生出“感染者”的存在。
 身俱力量与不幸的存在，如今他们中的一部分，妄图与源石整合为一，为大地带来新的秩序。这场战火阴谋是我们对抗天灾遇到的新的阻碍。
@@ -16097,157 +16204,54 @@
 官方微信公众号：HG-AKS</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N148" t="inlineStr">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
         <is>
           <t>明日方舟：终末地</t>
         </is>
       </c>
-      <c r="O148" t="inlineStr">
+      <c r="O149" t="inlineStr">
         <is>
           <t>国新出审〔2024〕1795号</t>
         </is>
       </c>
-      <c r="P148" t="inlineStr">
+      <c r="P149" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-13884-2</t>
         </is>
       </c>
-      <c r="Q148" t="inlineStr">
+      <c r="Q149" t="inlineStr">
         <is>
           <t>2024-08-30</t>
         </is>
       </c>
-      <c r="R148" t="inlineStr">
+      <c r="R149" t="inlineStr">
         <is>
           <t>上海交通大学电子音像出版社有限公司</t>
         </is>
       </c>
-      <c r="S148" t="inlineStr">
+      <c r="S149" t="inlineStr">
         <is>
           <t>上海鹰角塔罗斯网络科技有限公司</t>
         </is>
       </c>
-      <c r="T148" t="inlineStr">
+      <c r="T149" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U148" t="inlineStr">
+      <c r="U149" t="inlineStr">
         <is>
           <t>移动、客户端、游戏机（PS5）游戏</t>
         </is>
       </c>
-      <c r="V148" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="W148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>破日开天</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>上线</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>安卓/iOS</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>宠物/放置/养成</t>
-        </is>
-      </c>
-      <c r="F149" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>百层</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>TapTap</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>https://www.taptap.cn/app/748032</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>https://img.tapimg.com/market/images/819f01033065759995931970f83369e5.jpg/appicon?t=1</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>放置挂机、速刷资源、职业搭配、速通百关！30+种职业、100+种技能，50+各具特色的神器，技能自由搭配，宠物自动合成！</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>破日开天</t>
-        </is>
-      </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>新广出审[2017]8986号</t>
-        </is>
-      </c>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr">
-        <is>
-          <t>2017-10-23</t>
-        </is>
-      </c>
-      <c r="R149" t="inlineStr">
-        <is>
-          <t>上海雪鲤鱼计算机科技有限公司</t>
-        </is>
-      </c>
-      <c r="S149" t="inlineStr">
-        <is>
-          <t>深圳市鲸旗天下网络科技有限公司</t>
-        </is>
-      </c>
-      <c r="T149" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U149" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="W149" t="inlineStr"/>
@@ -16255,7 +16259,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>悟空传说2048</t>
+          <t>破日开天</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -16265,7 +16269,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>测试</t>
+          <t>上线</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -16275,15 +16279,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>休闲/策略/单机</t>
+          <t>宠物/放置/养成</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>哈皮工作室</t>
+          <t>百层</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -16294,18 +16298,17 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>https://www.taptap.cn/app/741690</t>
+          <t>https://www.taptap.cn/app/748032</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>https://img.tapimg.com/market/images/a4a81ab64bbfda14e90cd732b8cc2d39.png/appicon?t=1</t>
+          <t>https://img.tapimg.com/market/images/819f01033065759995931970f83369e5.jpg/appicon?t=1</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>上下左右滑动，相同数字的武器、盾牌、药剂，各自合成更高级同类物品。
-拿起武器，斩妖除魔。注意，别让妖怪抢走你的武器！</t>
+          <t>放置挂机、速刷资源、职业搭配、速通百关！30+种职业、100+种技能，50+各具特色的神器，技能自由搭配，宠物自动合成！</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -16313,21 +16316,53 @@
           <t>是</t>
         </is>
       </c>
-      <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>破日开天</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>新广出审[2017]8986号</t>
+        </is>
+      </c>
       <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr"/>
-      <c r="T150" t="inlineStr"/>
-      <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>2017-10-23</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>上海雪鲤鱼计算机科技有限公司</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>深圳市鲸旗天下网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="W150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>永不言弃：镜世界</t>
+          <t>悟空传说2048</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -16337,7 +16372,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>可预约</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -16347,15 +16382,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>益智</t>
+          <t>休闲/策略/单机</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>金橘工作室</t>
+          <t>哈皮工作室</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -16366,15 +16401,87 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
+          <t>https://www.taptap.cn/app/741690</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>https://img.tapimg.com/market/images/a4a81ab64bbfda14e90cd732b8cc2d39.png/appicon?t=1</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>上下左右滑动，相同数字的武器、盾牌、药剂，各自合成更高级同类物品。
+拿起武器，斩妖除魔。注意，别让妖怪抢走你的武器！</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>永不言弃：镜世界</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>可预约</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>安卓/iOS</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>益智</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>金橘工作室</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>TapTap</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
           <t>https://www.taptap.cn/app/747286</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr">
+      <c r="K152" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/4869448a55c2a0e38aa86bd91a411a45.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L151" t="inlineStr">
+      <c r="L152" t="inlineStr">
         <is>
           <t>硬核高难手游正版续作《永不言弃：镜世界》，开启一场虐心的音乐节奏之旅！
 创新玩法，节奏为王：
@@ -16387,109 +16494,109 @@
 继承前作魔性洗脑的动感背景音乐！创新推出自制音效功能，你可录制专属音效，让游戏音效充满创意与个性，为跑酷之旅增添别样乐趣。</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
         <is>
           <t>永不言弃：镜世界</t>
         </is>
       </c>
-      <c r="O151" t="inlineStr">
+      <c r="O152" t="inlineStr">
         <is>
           <t>国新出审〔2025〕189号</t>
         </is>
       </c>
-      <c r="P151" t="inlineStr">
+      <c r="P152" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-14572-7</t>
         </is>
       </c>
-      <c r="Q151" t="inlineStr">
+      <c r="Q152" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
-      <c r="R151" t="inlineStr">
+      <c r="R152" t="inlineStr">
         <is>
           <t>炫彩互动网络科技有限公司</t>
         </is>
       </c>
-      <c r="S151" t="inlineStr">
+      <c r="S152" t="inlineStr">
         <is>
           <t>重庆邦邦科技有限公司</t>
         </is>
       </c>
-      <c r="T151" t="inlineStr">
+      <c r="T152" t="inlineStr">
         <is>
           <t>进口网络游戏</t>
         </is>
       </c>
-      <c r="U151" t="inlineStr">
+      <c r="U152" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V151" t="inlineStr">
+      <c r="V152" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W151" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>永不言弃：掉落</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>可预约</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>安卓/iOS</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>益智</t>
         </is>
       </c>
-      <c r="F152" t="n">
+      <c r="F153" t="n">
         <v>0</v>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>金橘工作室</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr">
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/747285</t>
         </is>
       </c>
-      <c r="K152" t="inlineStr">
+      <c r="K153" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/4e35e5e1e5bb70c598a010b621aaaf03.png/appicon?t=1</t>
         </is>
       </c>
-      <c r="L152" t="inlineStr">
+      <c r="L153" t="inlineStr">
         <is>
           <t>突破常规，开启独特下坠冒险之旅！正版授权《永不言弃：掉落》来了！
 【创新玩法，挑战极限】
@@ -16502,225 +16609,225 @@
 多种角色与装饰品随心选，打造你的专属“小墨球”形象。</t>
         </is>
       </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
         <is>
           <t>永不言弃：掉落</t>
         </is>
       </c>
-      <c r="O152" t="inlineStr">
+      <c r="O153" t="inlineStr">
         <is>
           <t>国新出审〔2024〕2227号</t>
         </is>
       </c>
-      <c r="P152" t="inlineStr">
+      <c r="P153" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-14176-7</t>
         </is>
       </c>
-      <c r="Q152" t="inlineStr">
+      <c r="Q153" t="inlineStr">
         <is>
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="R152" t="inlineStr">
+      <c r="R153" t="inlineStr">
         <is>
           <t>炫彩互动网络科技有限公司</t>
         </is>
       </c>
-      <c r="S152" t="inlineStr">
+      <c r="S153" t="inlineStr">
         <is>
           <t>重庆邦邦科技有限公司</t>
         </is>
       </c>
-      <c r="T152" t="inlineStr">
+      <c r="T153" t="inlineStr">
         <is>
           <t>进口网络游戏</t>
         </is>
       </c>
-      <c r="U152" t="inlineStr">
+      <c r="U153" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="V152" t="inlineStr">
+      <c r="V153" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>胜利女神：新的希望</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>国内游戏</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>射击/二次元/美少女</t>
-        </is>
-      </c>
-      <c r="F153" t="n">
-        <v>0</v>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>Shenzhen Tencent Tianyou Technology Ltd</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>AppStore</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>https://apps.apple.com/cn/app/%E8%83%9C%E5%88%A9%E5%A5%B3%E7%A5%9E-%E6%96%B0%E7%9A%84%E5%B8%8C%E6%9C%9B/id6467825646?uo=4</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>https://is1-ssl.mzstatic.com/image/thumb/Purple221/v4/13/b7/b8/13b7b83e-17ac-c077-f788-a42f2dd22186/AppIcon-1x_U007emarketing-0-7-0-85-220-0.png/512x512bb.jpg</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>《胜利女神：新的希望》是一款超动态美少女背身射击RPG游戏。玩家将带领“胜利女神”们，在末世中对抗外来的侵略势力，夺回人类原本的地上世界。
-游戏有着顶尖的动态立绘技术， 栩栩如生的2D角色表演，还有射击卡牌、角色养成、放置挂机等丰富的玩法。</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>胜利女神：新的希望</t>
-        </is>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>国新出审〔2024〕2221号</t>
-        </is>
-      </c>
-      <c r="P153" t="inlineStr">
-        <is>
-          <t>ISBN 978-7-498-14170-5</t>
-        </is>
-      </c>
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>2024-10-25</t>
-        </is>
-      </c>
-      <c r="R153" t="inlineStr">
-        <is>
-          <t>咪咕互动娱乐有限公司</t>
-        </is>
-      </c>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>咪咕互动娱乐有限公司</t>
-        </is>
-      </c>
-      <c r="T153" t="inlineStr">
-        <is>
-          <t>进口网络游戏</t>
-        </is>
-      </c>
-      <c r="U153" t="inlineStr">
-        <is>
-          <t>移动、客户端</t>
-        </is>
-      </c>
-      <c r="V153" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W153" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+      <c r="W153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>胜利女神：新的希望</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>国内游戏</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>射击/二次元/美少女</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Shenzhen Tencent Tianyou Technology Ltd</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>AppStore</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>https://apps.apple.com/cn/app/%E8%83%9C%E5%88%A9%E5%A5%B3%E7%A5%9E-%E6%96%B0%E7%9A%84%E5%B8%8C%E6%9C%9B/id6467825646?uo=4</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>https://is1-ssl.mzstatic.com/image/thumb/Purple221/v4/13/b7/b8/13b7b83e-17ac-c077-f788-a42f2dd22186/AppIcon-1x_U007emarketing-0-7-0-85-220-0.png/512x512bb.jpg</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>《胜利女神：新的希望》是一款超动态美少女背身射击RPG游戏。玩家将带领“胜利女神”们，在末世中对抗外来的侵略势力，夺回人类原本的地上世界。
+游戏有着顶尖的动态立绘技术， 栩栩如生的2D角色表演，还有射击卡牌、角色养成、放置挂机等丰富的玩法。</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>胜利女神：新的希望</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>国新出审〔2024〕2221号</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-14170-5</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>咪咕互动娱乐有限公司</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>咪咕互动娱乐有限公司</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>进口网络游戏</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>移动、客户端</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W154" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
           <t>龙息：神寂</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>上线</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>国内游戏</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>游戏/策略/角色扮演</t>
         </is>
       </c>
-      <c r="F154" t="n">
+      <c r="F155" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G154" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>Shenzhen Tencent Tianyou Technology Ltd</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>好游快爆</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr">
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
         <is>
           <t>https://apps.apple.com/cn/app/%E9%BE%99%E6%81%AF-%E7%A5%9E%E5%AF%82-%E6%AD%A3%E7%89%88%E9%BE%99%E4%B8%8E%E5%9C%B0%E4%B8%8B%E5%9F%8E%E8%81%94%E5%8A%A8/id6480042764?uo=4</t>
         </is>
       </c>
-      <c r="K154" t="inlineStr">
+      <c r="K155" t="inlineStr">
         <is>
           <t>https://is1-ssl.mzstatic.com/image/thumb/Purple211/v4/08/2e/a6/082ea632-22bb-424e-25ab-6ce8a991afbe/AppIcon-0-0-1x_U007emarketing-0-7-0-85-220.png/512x512bb.jpg</t>
         </is>
       </c>
-      <c r="L154" t="inlineStr">
+      <c r="L155" t="inlineStr">
         <is>
           <t>&gt;&gt;荣登2023年苹果WWDC全球开发者大会，在场唯一国产游戏
 &gt;&gt;联动殿堂级西幻IP【龙与地下城】，传奇英雄、BOSS、剧情即将登场
@@ -16738,150 +16845,39 @@
 最后，希望你能享受这场奇幻之旅！</t>
         </is>
       </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N154" t="inlineStr">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
         <is>
           <t>龙息：神寂</t>
         </is>
       </c>
-      <c r="O154" t="inlineStr">
+      <c r="O155" t="inlineStr">
         <is>
           <t>国新出审〔2024〕201号</t>
         </is>
       </c>
-      <c r="P154" t="inlineStr">
+      <c r="P155" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-13072-3</t>
         </is>
       </c>
-      <c r="Q154" t="inlineStr">
+      <c r="Q155" t="inlineStr">
         <is>
           <t>2024-01-25</t>
         </is>
       </c>
-      <c r="R154" t="inlineStr">
+      <c r="R155" t="inlineStr">
         <is>
           <t>浙江出版集团数字传媒有限公司</t>
         </is>
       </c>
-      <c r="S154" t="inlineStr">
+      <c r="S155" t="inlineStr">
         <is>
           <t>上海傲爵数码科技有限公司</t>
-        </is>
-      </c>
-      <c r="T154" t="inlineStr">
-        <is>
-          <t>国产网络游戏</t>
-        </is>
-      </c>
-      <c r="U154" t="inlineStr">
-        <is>
-          <t>移动、客户端</t>
-        </is>
-      </c>
-      <c r="V154" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="W154" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>七日世界</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2025-01-10</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>国内游戏</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>游戏/角色扮演/冒险</t>
-        </is>
-      </c>
-      <c r="F155" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>Hangzhou NetEase Leihuo Technology Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>好游快爆</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>https://www.3839.com/a/138857.htm</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20240413/14163022883</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>超自然开放世界游戏简介《七日世界》是一款超自然题材的多人开放世界游戏。游戏发生在一个怪诞的后启示录世界中，你需要和好友并肩为了生存资源而战，建造你们的家园领地，并一起战胜恐怖的畸变体，揭露世界沦陷的真相。曾经，你是人类中的一份子。现在，你仍是吗？超自然开放世界 自由享受生存与探索浩劫改变了星球上的一切，人类，动物，植物……所有生命体都被神秘的外来物质——“星尘”所侵入。作为一名“超越者”，你对星尘的抵御能力远甚常人，但这并不意味你是安全的。在16*16KM的超大无缝地图中，无论是作为独狼求生，还是联合其他人一同冒险探索，你都可以自由选择活下去的方式。当世界陷入末日混沌之时，你是我们最后的希望。直面未知恐惧 怪诞异常来袭星尘浩劫滋生出难以计量的畸变体，这些恐怖的怪物占据了几乎整个世界。必须从它们手中求得人类的生存之地！过去畸变体一直将人类视作猎物，但现在，超越者，这世界有了你…该换我们成为猎人了！丰富剧本带来多样体验 探索、建造、刷本、种田、经商无所限制作为赛季制游戏，无论是喜欢挑战强大的畸变体，还是期望与其他超越者正面对抗，周期性持续更新的剧本都能满足你的愿望。选择心仪的剧本，和其他同好玩家一起尽情享受这场末日狂欢吧！绿色公平体验 向数值付费说不游戏不会售卖任何影响数值平衡的商业化内容，超越者们可以公平的通过各种游戏体验内容，发展自己，无压力的选择自己喜好的游玩方式。大世界自由建造 桥梁、房车、堡垒、海上别墅展现创意在荒野的任何一个角落，都可以随心建造！你可以和队友分工合作，打造一座桥梁，跨越河流或者山谷。也可以打造一座极具生存主义风格的堡垒，把所有收集来的好东西都塞到坚固的金属墙后；在确保安全的前提下，还可以建造一所功能齐全、外形华丽的豪华别墅或者末日乐园，一起派对狂欢。厌倦了一成不变的建筑风景？快为房屋加上轮子，来一场说走就走的房车之旅吧~拟人异常物陪你探索大世界 打工、战斗、贴贴，随时相伴！拿着手枪突突突的羊驼，会颠勺烧菜的小青龙，勤勤恳恳挖矿的矿石小人…形态与功能各异的异常物遍布世界各个角落，可被超越者收容捕获。无论是战斗还是领地生产，它们都是不可或缺的重要助力。当然，也需要关注异常物们的需求，提供良好的收容环境并多多互动，不然它们可是会发脾气的。有了异常物的陪伴，末日求生的旅途不再孤单。</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>七日世界</t>
-        </is>
-      </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>国新出审〔2023〕836号</t>
-        </is>
-      </c>
-      <c r="P155" t="inlineStr">
-        <is>
-          <t>978-7-498-12375-6</t>
-        </is>
-      </c>
-      <c r="Q155" t="inlineStr">
-        <is>
-          <t>2023-05-19</t>
-        </is>
-      </c>
-      <c r="R155" t="inlineStr">
-        <is>
-          <t>广州网易计算机系统有限公司</t>
-        </is>
-      </c>
-      <c r="S155" t="inlineStr">
-        <is>
-          <t>杭州网易雷火科技有限公司</t>
         </is>
       </c>
       <c r="T155" t="inlineStr">
@@ -16908,12 +16904,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>荒野起源</t>
+          <t>七日世界</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -16928,15 +16924,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>开放世界/SOC/生存</t>
+          <t>游戏/角色扮演/冒险</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>腾讯游戏</t>
+          <t>Hangzhou NetEase Leihuo Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -16944,24 +16940,20 @@
           <t>好游快爆</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>https://www.3839.com/a/177337.htm</t>
+          <t>https://www.3839.com/a/138857.htm</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20241129/15420188978</t>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20240413/14163022883</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>机械文明荒野生存游戏，换个世界换个活法简介在遥远的未来，原本的地球和人类文明不复存在。荒野之上，机械玛卡横行，人类从蛮荒时代开始重新发展。你，来自珞珈族部落的“拓荒者”，将在荒野中探索远古遗迹，建造家园，武装自己，培养玛卡，击败各地区BOSS点亮莫笛拉之眼，最终了解世界的真相，拯救即将毁灭的莫笛拉世界。莫笛拉世界由浪漫绚丽的达里曼平原、辽阔的兰瑙沙漠、寂寥的奥尔萨雪山等丰富多样的场景地貌组成。玩家将会探索每个地区，体验不同部落的风貌，并面对不断提升的生存挑战，收集资源制作装备武器，完成BOSS狩猎。</t>
+          <t>超自然开放世界游戏简介《七日世界》是一款超自然题材的多人开放世界游戏。游戏发生在一个怪诞的后启示录世界中，你需要和好友并肩为了生存资源而战，建造你们的家园领地，并一起战胜恐怖的畸变体，揭露世界沦陷的真相。曾经，你是人类中的一份子。现在，你仍是吗？超自然开放世界 自由享受生存与探索浩劫改变了星球上的一切，人类，动物，植物……所有生命体都被神秘的外来物质——“星尘”所侵入。作为一名“超越者”，你对星尘的抵御能力远甚常人，但这并不意味你是安全的。在16*16KM的超大无缝地图中，无论是作为独狼求生，还是联合其他人一同冒险探索，你都可以自由选择活下去的方式。当世界陷入末日混沌之时，你是我们最后的希望。直面未知恐惧 怪诞异常来袭星尘浩劫滋生出难以计量的畸变体，这些恐怖的怪物占据了几乎整个世界。必须从它们手中求得人类的生存之地！过去畸变体一直将人类视作猎物，但现在，超越者，这世界有了你…该换我们成为猎人了！丰富剧本带来多样体验 探索、建造、刷本、种田、经商无所限制作为赛季制游戏，无论是喜欢挑战强大的畸变体，还是期望与其他超越者正面对抗，周期性持续更新的剧本都能满足你的愿望。选择心仪的剧本，和其他同好玩家一起尽情享受这场末日狂欢吧！绿色公平体验 向数值付费说不游戏不会售卖任何影响数值平衡的商业化内容，超越者们可以公平的通过各种游戏体验内容，发展自己，无压力的选择自己喜好的游玩方式。大世界自由建造 桥梁、房车、堡垒、海上别墅展现创意在荒野的任何一个角落，都可以随心建造！你可以和队友分工合作，打造一座桥梁，跨越河流或者山谷。也可以打造一座极具生存主义风格的堡垒，把所有收集来的好东西都塞到坚固的金属墙后；在确保安全的前提下，还可以建造一所功能齐全、外形华丽的豪华别墅或者末日乐园，一起派对狂欢。厌倦了一成不变的建筑风景？快为房屋加上轮子，来一场说走就走的房车之旅吧~拟人异常物陪你探索大世界 打工、战斗、贴贴，随时相伴！拿着手枪突突突的羊驼，会颠勺烧菜的小青龙，勤勤恳恳挖矿的矿石小人…形态与功能各异的异常物遍布世界各个角落，可被超越者收容捕获。无论是战斗还是领地生产，它们都是不可或缺的重要助力。当然，也需要关注异常物们的需求，提供良好的收容环境并多多互动，不然它们可是会发脾气的。有了异常物的陪伴，末日求生的旅途不再孤单。</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -16971,32 +16963,32 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>荒野起源</t>
+          <t>七日世界</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>国新出审〔2024〕399号</t>
+          <t>国新出审〔2023〕836号</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>ISBN 978-7-498-13224-6</t>
+          <t>978-7-498-12375-6</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>上海电子出版有限公司</t>
+          <t>广州网易计算机系统有限公司</t>
         </is>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>上海游空信息技术有限公司</t>
+          <t>杭州网易雷火科技有限公司</t>
         </is>
       </c>
       <c r="T156" t="inlineStr">
@@ -17014,120 +17006,235 @@
           <t>否</t>
         </is>
       </c>
-      <c r="W156" t="inlineStr"/>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
+          <t>荒野起源</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>国内游戏</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>开放世界/SOC/生存</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>腾讯游戏</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>好游快爆</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>https://www.3839.com/a/177337.htm</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>https://img.16p.com/img_proxy/?url=https://img.71acg.net/kbyx~sykb/20241129/15420188978</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>机械文明荒野生存游戏，换个世界换个活法简介在遥远的未来，原本的地球和人类文明不复存在。荒野之上，机械玛卡横行，人类从蛮荒时代开始重新发展。你，来自珞珈族部落的“拓荒者”，将在荒野中探索远古遗迹，建造家园，武装自己，培养玛卡，击败各地区BOSS点亮莫笛拉之眼，最终了解世界的真相，拯救即将毁灭的莫笛拉世界。莫笛拉世界由浪漫绚丽的达里曼平原、辽阔的兰瑙沙漠、寂寥的奥尔萨雪山等丰富多样的场景地貌组成。玩家将会探索每个地区，体验不同部落的风貌，并面对不断提升的生存挑战，收集资源制作装备武器，完成BOSS狩猎。</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>荒野起源</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>国新出审〔2024〕399号</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>ISBN 978-7-498-13224-6</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>上海电子出版有限公司</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>上海游空信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>国产网络游戏</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>移动、客户端</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="W157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
           <t>暗区突围：无限</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>2024-11-20</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>电脑/主机</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>高画质/射击/动作</t>
         </is>
       </c>
-      <c r="F157" t="n">
+      <c r="F158" t="n">
         <v>8.5</v>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>腾讯</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t>TapTap</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
         <is>
           <t>https://www.taptap.cn/app/732013?os=pc</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr">
+      <c r="K158" t="inlineStr">
         <is>
           <t>https://img.tapimg.com/market/images/516ee18b01ac81df77f368c1d30b8b68.jpg/appicon?t=1</t>
         </is>
       </c>
-      <c r="L157" t="inlineStr">
+      <c r="L158" t="inlineStr">
         <is>
           <t>《暗区突围：无限》是魔方工作室自研IP暗区突围的全新端游续作，是一款免费硬核军事模拟撤离式射击游戏。从手游到端游，体验前所未有的画质飞升！《暗区突围：无限》将你带入一个更加细腻、真实的战场；更通过端游的强大性能，带来焕然一新的沉浸式体验。
 为了获得战利品，你必须活着撤离战斗区域，在射击、掠夺和突围中获胜。你可以和敌人正面交锋、藏起来埋伏敌人，或避免交战。在这款身临其境的战争模拟游戏中，高风险等于高回报。
 扣下扳机，躲藏起来，在令人瞠目结舌的逼真视觉效果和音效体验中前进。闯入战斗竞技场获得高价值物品致富……但要做好为生存而战的准备！</t>
         </is>
       </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N157" t="inlineStr">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
         <is>
           <t>暗区突围：无限</t>
         </is>
       </c>
-      <c r="O157" t="inlineStr">
+      <c r="O158" t="inlineStr">
         <is>
           <t>国新出审〔2024〕1446号</t>
         </is>
       </c>
-      <c r="P157" t="inlineStr">
+      <c r="P158" t="inlineStr">
         <is>
           <t>ISBN 978-7-498-13705-0</t>
         </is>
       </c>
-      <c r="Q157" t="inlineStr">
+      <c r="Q158" t="inlineStr">
         <is>
           <t>2024-07-22 00:00:00</t>
         </is>
       </c>
-      <c r="R157" t="inlineStr">
+      <c r="R158" t="inlineStr">
         <is>
           <t>华中科技大学电子音像出版社</t>
         </is>
       </c>
-      <c r="S157" t="inlineStr">
+      <c r="S158" t="inlineStr">
         <is>
           <t>武汉市风泽中孚科技有限公司</t>
         </is>
       </c>
-      <c r="T157" t="inlineStr">
+      <c r="T158" t="inlineStr">
         <is>
           <t>国产网络游戏</t>
         </is>
       </c>
-      <c r="U157" t="inlineStr">
+      <c r="U158" t="inlineStr">
         <is>
           <t>客户端</t>
         </is>
       </c>
-      <c r="V157" t="inlineStr">
+      <c r="V158" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="W157" t="inlineStr">
+      <c r="W158" t="inlineStr">
         <is>
           <t>是</t>
         </is>

--- a/data/all_games_data.xlsx
+++ b/data/all_games_data.xlsx
@@ -14515,7 +14515,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>新闻消息</t>
+          <t>腾讯</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">

--- a/data/all_games_data.xlsx
+++ b/data/all_games_data.xlsx
@@ -5936,7 +5936,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAAAAAP///yH5BAEAAAAALAAAAAABAAEAAAIBRAA7</t>
+          <t>https://is1-ssl.mzstatic.com/image/thumb/Purple211/v4/67/99/d7/6799d7af-61ef-fe66-f113-1a9eb3f4fd9f/AppIcon-1x_U007ephone-0-11-0-85-220-0.png/246x0w.webp</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -8258,7 +8258,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAAAAAP///yH5BAEAAAAALAAAAAABAAEAAAIBRAA7</t>
+          <t>https://is1-ssl.mzstatic.com/image/thumb/Purple221/v4/f7/6c/ca/f76ccafb-15f5-7236-a82c-4163954ae242/AppIcon-0-0-1x_U007emarketing-0-8-0-85-220.png/246x0w.webp</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -8904,7 +8904,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>https://img.16p.com/Uploads/iconurl/2025/03/15/2036f5ba.jpg</t>
+          <t>https://img.tapimg.com/market/images/72d7861e3fc04fe15b2a8982fa6cc9cf.png/appicon?t=1</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>https://img.16p.com/auto/75/e0/75e0003a378a2cecae22732471b993eb.png</t>
+          <t>https://img.tapimg.com/market/images/9a77444fc99251c03d79e14d2114b0bd.jpg/appicon?t=1</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>https://img.16p.com/auto/dc/35/dc353f7603dd068eb907efb0833e37d8.png</t>
+          <t>https://img.tapimg.com/market/images/ec29dc1d6fc3bf286203a7bcfee8a6a3.png/appicon?t=1</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -16173,7 +16173,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>https://img.16p.com/auto/7e/d4/7ed4bf07a68b81fd2aa6018deb4a58ca.png</t>
+          <t>https://img.tapimg.com/market/images/35529f3d9114883e46f6eacc393c42db.png/appicon?t=1</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">

--- a/data/all_games_data.xlsx
+++ b/data/all_games_data.xlsx
@@ -6472,7 +6472,11 @@
           <t>是</t>
         </is>
       </c>
-      <c r="W57" t="inlineStr"/>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">

--- a/data/all_games_data.xlsx
+++ b/data/all_games_data.xlsx
@@ -14287,7 +14287,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>删档内测</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
